--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Documents/Github_R/Regrassion_GDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA78194-33CA-D34F-83A3-BB0FE249E9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6808EAA7-8929-8741-AC13-88DC28FF2985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15760" xr2:uid="{3580B857-6E9C-4522-A1C6-485FA67992EC}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:L366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -552,13 +552,13 @@
     <col min="2" max="2" width="13.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="8" customWidth="1"/>
     <col min="8" max="8" width="20" style="8" customWidth="1"/>
     <col min="9" max="9" width="16.1640625" style="8" customWidth="1"/>
     <col min="10" max="10" width="16.5" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="8"/>
+    <col min="11" max="11" width="13.5" style="8" customWidth="1"/>
     <col min="12" max="12" width="8.83203125" style="8" customWidth="1"/>
     <col min="13" max="16384" width="8.83203125" style="8"/>
   </cols>
@@ -577,13 +577,13 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -610,14 +610,14 @@
       <c r="D2" s="8">
         <v>2356338.2999999998</v>
       </c>
-      <c r="E2" s="3">
-        <v>83.013333333333335</v>
+      <c r="E2" s="10">
+        <v>83.106999999999999</v>
       </c>
       <c r="F2" s="9">
         <v>47.641474747473332</v>
       </c>
-      <c r="G2" s="10">
-        <v>83.106999999999999</v>
+      <c r="G2" s="3">
+        <v>83.013333333333335</v>
       </c>
       <c r="H2" s="3">
         <v>59.1</v>
@@ -628,7 +628,7 @@
       <c r="J2" s="11">
         <v>-0.73775997003258043</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -644,14 +644,14 @@
       <c r="D3" s="8">
         <v>2380453.2999999998</v>
       </c>
-      <c r="E3" s="3">
-        <v>84.736666666666665</v>
+      <c r="E3" s="10">
+        <v>83.007999999999996</v>
       </c>
       <c r="F3" s="9">
         <v>51.609956709956663</v>
       </c>
-      <c r="G3" s="10">
-        <v>83.007999999999996</v>
+      <c r="G3" s="3">
+        <v>84.736666666666665</v>
       </c>
       <c r="H3" s="3">
         <v>59.8</v>
@@ -662,7 +662,7 @@
       <c r="J3" s="11">
         <v>-0.19198564170647303</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -678,14 +678,14 @@
       <c r="D4" s="8">
         <v>2413478</v>
       </c>
-      <c r="E4" s="3">
-        <v>83.95</v>
+      <c r="E4" s="10">
+        <v>83.248000000000005</v>
       </c>
       <c r="F4" s="9">
         <v>61.550288600290003</v>
       </c>
-      <c r="G4" s="10">
-        <v>83.248000000000005</v>
+      <c r="G4" s="3">
+        <v>83.95</v>
       </c>
       <c r="H4" s="3">
         <v>59.8</v>
@@ -696,7 +696,7 @@
       <c r="J4" s="11">
         <v>1.192834114240922</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -712,14 +712,14 @@
       <c r="D5" s="8">
         <v>2446409.2999999998</v>
       </c>
-      <c r="E5" s="3">
-        <v>85.696666666666658</v>
+      <c r="E5" s="10">
+        <v>83.703000000000003</v>
       </c>
       <c r="F5" s="9">
         <v>56.934801587300001</v>
       </c>
-      <c r="G5" s="10">
-        <v>83.703000000000003</v>
+      <c r="G5" s="3">
+        <v>85.696666666666658</v>
       </c>
       <c r="H5" s="3">
         <v>59.8</v>
@@ -730,7 +730,7 @@
       <c r="J5" s="11">
         <v>-0.91325168755096142</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -746,14 +746,14 @@
       <c r="D6" s="8">
         <v>2481974.7000000002</v>
       </c>
-      <c r="E6" s="3">
-        <v>85.63333333333334</v>
+      <c r="E6" s="10">
+        <v>85.477000000000004</v>
       </c>
       <c r="F6" s="9">
         <v>61.916776397516664</v>
       </c>
-      <c r="G6" s="10">
-        <v>85.477000000000004</v>
+      <c r="G6" s="3">
+        <v>85.63333333333334</v>
       </c>
       <c r="H6" s="3">
         <v>60</v>
@@ -764,7 +764,7 @@
       <c r="J6" s="11">
         <v>1.5590381083053757</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -780,14 +780,14 @@
       <c r="D7" s="8">
         <v>2525498.4</v>
       </c>
-      <c r="E7" s="3">
-        <v>87.64</v>
+      <c r="E7" s="10">
+        <v>87.918000000000006</v>
       </c>
       <c r="F7" s="9">
         <v>69.829035087720001</v>
       </c>
-      <c r="G7" s="10">
-        <v>87.918000000000006</v>
+      <c r="G7" s="3">
+        <v>87.64</v>
       </c>
       <c r="H7" s="3">
         <v>60.6</v>
@@ -798,7 +798,7 @@
       <c r="J7" s="11">
         <v>-0.5887718042761283</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -814,14 +814,14 @@
       <c r="D8" s="8">
         <v>2556118.1</v>
       </c>
-      <c r="E8" s="3">
-        <v>86.88666666666667</v>
+      <c r="E8" s="10">
+        <v>89.328000000000003</v>
       </c>
       <c r="F8" s="9">
         <v>70.093740510693337</v>
       </c>
-      <c r="G8" s="10">
-        <v>89.328000000000003</v>
+      <c r="G8" s="3">
+        <v>86.88666666666667</v>
       </c>
       <c r="H8" s="3">
         <v>61.1</v>
@@ -832,7 +832,7 @@
       <c r="J8" s="11">
         <v>-0.78878743245589156</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -848,14 +848,14 @@
       <c r="D9" s="8">
         <v>2603872.1</v>
       </c>
-      <c r="E9" s="3">
-        <v>88.416666666666671</v>
+      <c r="E9" s="10">
+        <v>88.421999999999997</v>
       </c>
       <c r="F9" s="9">
         <v>59.725972886763337</v>
       </c>
-      <c r="G9" s="10">
-        <v>88.421999999999997</v>
+      <c r="G9" s="3">
+        <v>88.416666666666671</v>
       </c>
       <c r="H9" s="3">
         <v>60.5</v>
@@ -866,7 +866,7 @@
       <c r="J9" s="11">
         <v>0.68505926437646025</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -882,14 +882,14 @@
       <c r="D10" s="8">
         <v>2649569.4</v>
       </c>
-      <c r="E10" s="3">
-        <v>88.153333333333322</v>
+      <c r="E10" s="10">
+        <v>92.24</v>
       </c>
       <c r="F10" s="9">
         <v>58.066575757576665</v>
       </c>
-      <c r="G10" s="10">
-        <v>92.24</v>
+      <c r="G10" s="3">
+        <v>88.153333333333322</v>
       </c>
       <c r="H10" s="3">
         <v>60.2</v>
@@ -900,7 +900,7 @@
       <c r="J10" s="11">
         <v>-1.9501731862862451E-4</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -916,14 +916,14 @@
       <c r="D11" s="8">
         <v>2682738.1</v>
       </c>
-      <c r="E11" s="3">
-        <v>89.923333333333332</v>
+      <c r="E11" s="10">
+        <v>92.816000000000003</v>
       </c>
       <c r="F11" s="9">
         <v>68.730232828446674</v>
       </c>
-      <c r="G11" s="10">
-        <v>92.816000000000003</v>
+      <c r="G11" s="3">
+        <v>89.923333333333332</v>
       </c>
       <c r="H11" s="3">
         <v>61</v>
@@ -934,7 +934,7 @@
       <c r="J11" s="11">
         <v>0.71383169521439682</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -950,14 +950,14 @@
       <c r="D12" s="8">
         <v>2710938.8</v>
       </c>
-      <c r="E12" s="3">
-        <v>89.326666666666668</v>
+      <c r="E12" s="10">
+        <v>95.6</v>
       </c>
       <c r="F12" s="9">
         <v>75.042537549406674</v>
       </c>
-      <c r="G12" s="10">
-        <v>95.6</v>
+      <c r="G12" s="3">
+        <v>89.326666666666668</v>
       </c>
       <c r="H12" s="3">
         <v>61.3</v>
@@ -968,7 +968,7 @@
       <c r="J12" s="11">
         <v>-0.30034869756010396</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -984,14 +984,14 @@
       <c r="D13" s="8">
         <v>2751016.7</v>
       </c>
-      <c r="E13" s="3">
-        <v>91.59333333333332</v>
+      <c r="E13" s="10">
+        <v>102.46299999999999</v>
       </c>
       <c r="F13" s="9">
         <v>88.945335968379993</v>
       </c>
-      <c r="G13" s="10">
-        <v>102.46299999999999</v>
+      <c r="G13" s="3">
+        <v>91.59333333333332</v>
       </c>
       <c r="H13" s="3">
         <v>61</v>
@@ -1002,7 +1002,7 @@
       <c r="J13" s="11">
         <v>-7.30294149308479E-2</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1018,14 +1018,14 @@
       <c r="D14" s="8">
         <v>2785158.7</v>
       </c>
-      <c r="E14" s="3">
-        <v>91.926666666666662</v>
+      <c r="E14" s="10">
+        <v>102.688</v>
       </c>
       <c r="F14" s="9">
         <v>96.671540404040002</v>
       </c>
-      <c r="G14" s="10">
-        <v>102.688</v>
+      <c r="G14" s="3">
+        <v>91.926666666666662</v>
       </c>
       <c r="H14" s="3">
         <v>60.8</v>
@@ -1036,7 +1036,7 @@
       <c r="J14" s="11">
         <v>-1.4042505984193532</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1052,14 +1052,14 @@
       <c r="D15" s="8">
         <v>2801520</v>
       </c>
-      <c r="E15" s="3">
-        <v>94.21</v>
+      <c r="E15" s="10">
+        <v>103.261</v>
       </c>
       <c r="F15" s="9">
         <v>122.39082972582999</v>
       </c>
-      <c r="G15" s="10">
-        <v>103.261</v>
+      <c r="G15" s="3">
+        <v>94.21</v>
       </c>
       <c r="H15" s="3">
         <v>61.8</v>
@@ -1070,7 +1070,7 @@
       <c r="J15" s="11">
         <v>1.7213579177417264</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1086,14 +1086,14 @@
       <c r="D16" s="8">
         <v>2803978.5</v>
       </c>
-      <c r="E16" s="3">
-        <v>93.64</v>
+      <c r="E16" s="10">
+        <v>100.626</v>
       </c>
       <c r="F16" s="9">
         <v>115.59539400213333</v>
       </c>
-      <c r="G16" s="10">
-        <v>100.626</v>
+      <c r="G16" s="3">
+        <v>93.64</v>
       </c>
       <c r="H16" s="3">
         <v>61.8</v>
@@ -1104,7 +1104,7 @@
       <c r="J16" s="11">
         <v>-1.5767515739417697</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1120,14 +1120,14 @@
       <c r="D17" s="8">
         <v>2742042.2</v>
       </c>
-      <c r="E17" s="3">
-        <v>94.40666666666668</v>
+      <c r="E17" s="10">
+        <v>93.873000000000005</v>
       </c>
       <c r="F17" s="9">
         <v>55.888172595519997</v>
       </c>
-      <c r="G17" s="10">
-        <v>93.873000000000005</v>
+      <c r="G17" s="3">
+        <v>94.40666666666668</v>
       </c>
       <c r="H17" s="3">
         <v>61.3</v>
@@ -1138,7 +1138,7 @@
       <c r="J17" s="11">
         <v>-1.7583398755939481</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1154,14 +1154,14 @@
       <c r="D18" s="8">
         <v>2641341.2999999998</v>
       </c>
-      <c r="E18" s="3">
-        <v>93.56</v>
+      <c r="E18" s="10">
+        <v>86.546000000000006</v>
       </c>
       <c r="F18" s="9">
         <v>44.980530303030001</v>
       </c>
-      <c r="G18" s="10">
-        <v>86.546000000000006</v>
+      <c r="G18" s="3">
+        <v>93.56</v>
       </c>
       <c r="H18" s="3">
         <v>60.6</v>
@@ -1172,7 +1172,7 @@
       <c r="J18" s="11">
         <v>-1.0256399232721072</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1188,14 +1188,14 @@
       <c r="D19" s="8">
         <v>2646829.7999999998</v>
       </c>
-      <c r="E19" s="3">
-        <v>95.006666666666675</v>
+      <c r="E19" s="10">
+        <v>82.778000000000006</v>
       </c>
       <c r="F19" s="9">
         <v>59.13433621933666</v>
       </c>
-      <c r="G19" s="10">
-        <v>82.778000000000006</v>
+      <c r="G19" s="3">
+        <v>95.006666666666675</v>
       </c>
       <c r="H19" s="3">
         <v>61.2</v>
@@ -1206,7 +1206,7 @@
       <c r="J19" s="11">
         <v>-0.51116077137761884</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1222,14 +1222,14 @@
       <c r="D20" s="8">
         <v>2669703.2000000002</v>
       </c>
-      <c r="E20" s="3">
-        <v>94.396666666666661</v>
+      <c r="E20" s="10">
+        <v>82.094999999999999</v>
       </c>
       <c r="F20" s="9">
         <v>68.367193362193333</v>
       </c>
-      <c r="G20" s="10">
-        <v>82.094999999999999</v>
+      <c r="G20" s="3">
+        <v>94.396666666666661</v>
       </c>
       <c r="H20" s="3">
         <v>61.3</v>
@@ -1240,7 +1240,7 @@
       <c r="J20" s="11">
         <v>8.6249471352584983E-2</v>
       </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1256,14 +1256,14 @@
       <c r="D21" s="8">
         <v>2692020.8</v>
       </c>
-      <c r="E21" s="3">
-        <v>96.26</v>
+      <c r="E21" s="10">
+        <v>79.882000000000005</v>
       </c>
       <c r="F21" s="9">
         <v>74.966767676770004</v>
       </c>
-      <c r="G21" s="10">
-        <v>79.882000000000005</v>
+      <c r="G21" s="3">
+        <v>96.26</v>
       </c>
       <c r="H21" s="3">
         <v>60.3</v>
@@ -1274,7 +1274,7 @@
       <c r="J21" s="11">
         <v>-0.79358764095720524</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1290,14 +1290,14 @@
       <c r="D22" s="8">
         <v>2712271.4</v>
       </c>
-      <c r="E22" s="3">
-        <v>96.40666666666668</v>
+      <c r="E22" s="10">
+        <v>84.873000000000005</v>
       </c>
       <c r="F22" s="9">
         <v>76.653260869566665</v>
       </c>
-      <c r="G22" s="10">
-        <v>84.873000000000005</v>
+      <c r="G22" s="3">
+        <v>96.40666666666668</v>
       </c>
       <c r="H22" s="3">
         <v>59.6</v>
@@ -1308,7 +1308,7 @@
       <c r="J22" s="11">
         <v>-0.59686859583268548</v>
       </c>
-      <c r="K22" s="5"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1324,14 +1324,14 @@
       <c r="D23" s="8">
         <v>2747893.6</v>
       </c>
-      <c r="E23" s="3">
-        <v>99.836666666666659</v>
+      <c r="E23" s="10">
+        <v>86.335999999999999</v>
       </c>
       <c r="F23" s="9">
         <v>78.689235209233331</v>
       </c>
-      <c r="G23" s="10">
-        <v>86.335999999999999</v>
+      <c r="G23" s="3">
+        <v>99.836666666666659</v>
       </c>
       <c r="H23" s="3">
         <v>59.7</v>
@@ -1342,7 +1342,7 @@
       <c r="J23" s="11">
         <v>-0.55406273382459503</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1358,14 +1358,14 @@
       <c r="D24" s="8">
         <v>2775611.3</v>
       </c>
-      <c r="E24" s="3">
-        <v>99.686666666666667</v>
+      <c r="E24" s="10">
+        <v>84.918000000000006</v>
       </c>
       <c r="F24" s="9">
         <v>76.405151515149996</v>
       </c>
-      <c r="G24" s="10">
-        <v>84.918000000000006</v>
+      <c r="G24" s="3">
+        <v>99.686666666666667</v>
       </c>
       <c r="H24" s="3">
         <v>59.3</v>
@@ -1376,7 +1376,7 @@
       <c r="J24" s="11">
         <v>-1.9931790907010718</v>
       </c>
-      <c r="K24" s="5"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1392,14 +1392,14 @@
       <c r="D25" s="8">
         <v>2801450.8</v>
       </c>
-      <c r="E25" s="3">
-        <v>101.13333333333333</v>
+      <c r="E25" s="10">
+        <v>90.337999999999994</v>
       </c>
       <c r="F25" s="9">
         <v>86.794872325743327</v>
       </c>
-      <c r="G25" s="10">
-        <v>90.337999999999994</v>
+      <c r="G25" s="3">
+        <v>101.13333333333333</v>
       </c>
       <c r="H25" s="3">
         <v>57.8</v>
@@ -1410,7 +1410,7 @@
       <c r="J25" s="11">
         <v>1.9196749896078236</v>
       </c>
-      <c r="K25" s="5"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1426,14 +1426,14 @@
       <c r="D26" s="8">
         <v>2845988.5</v>
       </c>
-      <c r="E26" s="3">
-        <v>100.7</v>
+      <c r="E26" s="10">
+        <v>86.296000000000006</v>
       </c>
       <c r="F26" s="9">
         <v>104.89703002070667</v>
       </c>
-      <c r="G26" s="10">
-        <v>86.296000000000006</v>
+      <c r="G26" s="3">
+        <v>100.7</v>
       </c>
       <c r="H26" s="3">
         <v>56.4</v>
@@ -1444,7 +1444,7 @@
       <c r="J26" s="11">
         <v>-1.0393872832222939</v>
       </c>
-      <c r="K26" s="5"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1460,14 +1460,14 @@
       <c r="D27" s="8">
         <v>2852764.2</v>
       </c>
-      <c r="E27" s="3">
-        <v>103.13333333333333</v>
+      <c r="E27" s="10">
+        <v>87.831000000000003</v>
       </c>
       <c r="F27" s="9">
         <v>117.09530303030333</v>
       </c>
-      <c r="G27" s="10">
-        <v>87.831000000000003</v>
+      <c r="G27" s="3">
+        <v>103.13333333333333</v>
       </c>
       <c r="H27" s="3">
         <v>56</v>
@@ -1478,7 +1478,7 @@
       <c r="J27" s="11">
         <v>-2.1873605828584051</v>
       </c>
-      <c r="K27" s="5"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1494,14 +1494,14 @@
       <c r="D28" s="8">
         <v>2856616.2</v>
       </c>
-      <c r="E28" s="3">
-        <v>101.82333333333334</v>
+      <c r="E28" s="10">
+        <v>89.034000000000006</v>
       </c>
       <c r="F28" s="9">
         <v>112.47346508563999</v>
       </c>
-      <c r="G28" s="10">
-        <v>89.034000000000006</v>
+      <c r="G28" s="3">
+        <v>101.82333333333334</v>
       </c>
       <c r="H28" s="3">
         <v>55</v>
@@ -1512,7 +1512,7 @@
       <c r="J28" s="11">
         <v>2.5747365793093602</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1528,14 +1528,14 @@
       <c r="D29" s="8">
         <v>2847827.2</v>
       </c>
-      <c r="E29" s="3">
-        <v>103.78666666666668</v>
+      <c r="E29" s="10">
+        <v>85.216999999999999</v>
       </c>
       <c r="F29" s="9">
         <v>109.29390331890333</v>
       </c>
-      <c r="G29" s="10">
-        <v>85.216999999999999</v>
+      <c r="G29" s="3">
+        <v>103.78666666666668</v>
       </c>
       <c r="H29" s="3">
         <v>53</v>
@@ -1546,7 +1546,7 @@
       <c r="J29" s="11">
         <v>-3.3202200547679723</v>
       </c>
-      <c r="K29" s="5"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1562,14 +1562,14 @@
       <c r="D30" s="8">
         <v>2860406.7</v>
       </c>
-      <c r="E30" s="3">
-        <v>102.40333333333332</v>
+      <c r="E30" s="10">
+        <v>89.397000000000006</v>
       </c>
       <c r="F30" s="9">
         <v>118.59573593073667</v>
       </c>
-      <c r="G30" s="10">
-        <v>89.397000000000006</v>
+      <c r="G30" s="3">
+        <v>102.40333333333332</v>
       </c>
       <c r="H30" s="3">
         <v>51.8</v>
@@ -1580,7 +1580,7 @@
       <c r="J30" s="11">
         <v>0.62476610594101489</v>
       </c>
-      <c r="K30" s="5"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1596,14 +1596,14 @@
       <c r="D31" s="8">
         <v>2859998.6</v>
       </c>
-      <c r="E31" s="3">
-        <v>104.30666666666667</v>
+      <c r="E31" s="10">
+        <v>87.048000000000002</v>
       </c>
       <c r="F31" s="9">
         <v>108.85809558316333</v>
       </c>
-      <c r="G31" s="10">
-        <v>87.048000000000002</v>
+      <c r="G31" s="3">
+        <v>104.30666666666667</v>
       </c>
       <c r="H31" s="3">
         <v>51.2</v>
@@ -1614,7 +1614,7 @@
       <c r="J31" s="11">
         <v>0.41650335041408948</v>
       </c>
-      <c r="K31" s="5"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1630,14 +1630,14 @@
       <c r="D32" s="8">
         <v>2877730.6</v>
       </c>
-      <c r="E32" s="3">
-        <v>102.61000000000001</v>
+      <c r="E32" s="10">
+        <v>86.858999999999995</v>
       </c>
       <c r="F32" s="9">
         <v>109.95446969697001</v>
       </c>
-      <c r="G32" s="10">
-        <v>86.858999999999995</v>
+      <c r="G32" s="3">
+        <v>102.61000000000001</v>
       </c>
       <c r="H32" s="3">
         <v>50.5</v>
@@ -1648,7 +1648,7 @@
       <c r="J32" s="11">
         <v>0.24976440085827833</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1664,14 +1664,14 @@
       <c r="D33" s="8">
         <v>2870431.6</v>
       </c>
-      <c r="E33" s="3">
-        <v>104.36</v>
+      <c r="E33" s="10">
+        <v>92.179000000000002</v>
       </c>
       <c r="F33" s="9">
         <v>110.45393214756332</v>
       </c>
-      <c r="G33" s="10">
-        <v>92.179000000000002</v>
+      <c r="G33" s="3">
+        <v>104.36</v>
       </c>
       <c r="H33" s="3">
         <v>49.7</v>
@@ -1682,7 +1682,7 @@
       <c r="J33" s="11">
         <v>-0.98969811056696155</v>
       </c>
-      <c r="K33" s="5"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1698,14 +1698,14 @@
       <c r="D34" s="8">
         <v>2874772.3</v>
       </c>
-      <c r="E34" s="3">
-        <v>102.38333333333333</v>
+      <c r="E34" s="10">
+        <v>87.918999999999997</v>
       </c>
       <c r="F34" s="9">
         <v>112.91104545454665</v>
       </c>
-      <c r="G34" s="10">
-        <v>87.918999999999997</v>
+      <c r="G34" s="3">
+        <v>102.38333333333333</v>
       </c>
       <c r="H34" s="3">
         <v>48.6</v>
@@ -1716,7 +1716,7 @@
       <c r="J34" s="11">
         <v>0.24668328248765481</v>
       </c>
-      <c r="K34" s="5"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1732,14 +1732,14 @@
       <c r="D35" s="8">
         <v>2897891.5</v>
       </c>
-      <c r="E35" s="3">
-        <v>103.91333333333334</v>
+      <c r="E35" s="10">
+        <v>91.265000000000001</v>
       </c>
       <c r="F35" s="9">
         <v>103.0041370224</v>
       </c>
-      <c r="G35" s="10">
-        <v>91.265000000000001</v>
+      <c r="G35" s="3">
+        <v>103.91333333333334</v>
       </c>
       <c r="H35" s="3">
         <v>49.1</v>
@@ -1750,7 +1750,7 @@
       <c r="J35" s="11">
         <v>1.2587967883962254</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1766,14 +1766,14 @@
       <c r="D36" s="8">
         <v>2909070.5</v>
       </c>
-      <c r="E36" s="3">
-        <v>101.77333333333333</v>
+      <c r="E36" s="10">
+        <v>92.62</v>
       </c>
       <c r="F36" s="9">
         <v>110.10068699416667</v>
       </c>
-      <c r="G36" s="10">
-        <v>92.62</v>
+      <c r="G36" s="3">
+        <v>101.77333333333333</v>
       </c>
       <c r="H36" s="3">
         <v>49.1</v>
@@ -1784,7 +1784,7 @@
       <c r="J36" s="11">
         <v>-1.2104658509298976</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1800,14 +1800,14 @@
       <c r="D37" s="8">
         <v>2920612.4</v>
       </c>
-      <c r="E37" s="3">
-        <v>102.07666666666667</v>
+      <c r="E37" s="10">
+        <v>89.918000000000006</v>
       </c>
       <c r="F37" s="9">
         <v>109.40962870945334</v>
       </c>
-      <c r="G37" s="10">
-        <v>89.918000000000006</v>
+      <c r="G37" s="3">
+        <v>102.07666666666667</v>
       </c>
       <c r="H37" s="3">
         <v>48.4</v>
@@ -1818,7 +1818,7 @@
       <c r="J37" s="11">
         <v>-0.50056797532180175</v>
       </c>
-      <c r="K37" s="5"/>
+      <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1834,14 +1834,14 @@
       <c r="D38" s="8">
         <v>2944262.1</v>
       </c>
-      <c r="E38" s="3">
-        <v>101.09999999999998</v>
+      <c r="E38" s="10">
+        <v>95.441000000000003</v>
       </c>
       <c r="F38" s="9">
         <v>107.87666666666667</v>
       </c>
-      <c r="G38" s="10">
-        <v>95.441000000000003</v>
+      <c r="G38" s="3">
+        <v>101.09999999999998</v>
       </c>
       <c r="H38" s="3">
         <v>48.5</v>
@@ -1852,7 +1852,7 @@
       <c r="J38" s="11">
         <v>-0.67816118993914376</v>
       </c>
-      <c r="K38" s="5"/>
+      <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1868,14 +1868,14 @@
       <c r="D39" s="8">
         <v>2958342.3</v>
       </c>
-      <c r="E39" s="3">
-        <v>102.11666666666666</v>
+      <c r="E39" s="10">
+        <v>95.846000000000004</v>
       </c>
       <c r="F39" s="9">
         <v>109.78000000000002</v>
       </c>
-      <c r="G39" s="10">
-        <v>95.846000000000004</v>
+      <c r="G39" s="3">
+        <v>102.11666666666666</v>
       </c>
       <c r="H39" s="3">
         <v>49.4</v>
@@ -1886,7 +1886,7 @@
       <c r="J39" s="11">
         <v>0.9621542429257971</v>
       </c>
-      <c r="K39" s="5"/>
+      <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1902,14 +1902,14 @@
       <c r="D40" s="8">
         <v>2978310.5</v>
       </c>
-      <c r="E40" s="3">
-        <v>101.03000000000002</v>
+      <c r="E40" s="10">
+        <v>99.094999999999999</v>
       </c>
       <c r="F40" s="9">
         <v>102.08</v>
       </c>
-      <c r="G40" s="10">
-        <v>99.094999999999999</v>
+      <c r="G40" s="3">
+        <v>101.03000000000002</v>
       </c>
       <c r="H40" s="3">
         <v>50.2</v>
@@ -1920,7 +1920,7 @@
       <c r="J40" s="11">
         <v>-0.96772549278445263</v>
       </c>
-      <c r="K40" s="5"/>
+      <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1936,14 +1936,14 @@
       <c r="D41" s="8">
         <v>2996687.2</v>
       </c>
-      <c r="E41" s="3">
-        <v>100.18333333333334</v>
+      <c r="E41" s="10">
+        <v>101.28700000000001</v>
       </c>
       <c r="F41" s="9">
         <v>76.013333333333321</v>
       </c>
-      <c r="G41" s="10">
-        <v>101.28700000000001</v>
+      <c r="G41" s="3">
+        <v>100.18333333333334</v>
       </c>
       <c r="H41" s="3">
         <v>49.6</v>
@@ -1954,7 +1954,7 @@
       <c r="J41" s="11">
         <v>-0.10296935563392833</v>
       </c>
-      <c r="K41" s="5"/>
+      <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1970,14 +1970,14 @@
       <c r="D42" s="8">
         <v>3036344.9</v>
       </c>
-      <c r="E42" s="3">
-        <v>98.899999999999991</v>
+      <c r="E42" s="10">
+        <v>102.715</v>
       </c>
       <c r="F42" s="9">
         <v>53.93</v>
       </c>
-      <c r="G42" s="10">
-        <v>102.715</v>
+      <c r="G42" s="3">
+        <v>98.899999999999991</v>
       </c>
       <c r="H42" s="3">
         <v>49.2</v>
@@ -1988,7 +1988,7 @@
       <c r="J42" s="11">
         <v>1.5751187447695123</v>
       </c>
-      <c r="K42" s="5"/>
+      <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2004,14 +2004,14 @@
       <c r="D43" s="8">
         <v>3068451.1</v>
       </c>
-      <c r="E43" s="3">
-        <v>100.64333333333333</v>
+      <c r="E43" s="10">
+        <v>104.089</v>
       </c>
       <c r="F43" s="9">
         <v>62.096666666666671</v>
       </c>
-      <c r="G43" s="10">
-        <v>104.089</v>
+      <c r="G43" s="3">
+        <v>100.64333333333333</v>
       </c>
       <c r="H43" s="3">
         <v>51</v>
@@ -2022,7 +2022,7 @@
       <c r="J43" s="11">
         <v>-2.3724202990103191</v>
       </c>
-      <c r="K43" s="5"/>
+      <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2038,14 +2038,14 @@
       <c r="D44" s="8">
         <v>3089545.1</v>
       </c>
-      <c r="E44" s="3">
-        <v>100.21666666666665</v>
+      <c r="E44" s="10">
+        <v>102.009</v>
       </c>
       <c r="F44" s="9">
         <v>50.033333333333331</v>
       </c>
-      <c r="G44" s="10">
-        <v>102.009</v>
+      <c r="G44" s="3">
+        <v>100.21666666666665</v>
       </c>
       <c r="H44" s="3">
         <v>51.7</v>
@@ -2056,7 +2056,7 @@
       <c r="J44" s="11">
         <v>2.0914598473117594</v>
       </c>
-      <c r="K44" s="5"/>
+      <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2072,14 +2072,14 @@
       <c r="D45" s="8">
         <v>3112248.7</v>
       </c>
-      <c r="E45" s="3">
-        <v>100.24666666666667</v>
+      <c r="E45" s="10">
+        <v>103.35599999999999</v>
       </c>
       <c r="F45" s="9">
         <v>43.419999999999995</v>
       </c>
-      <c r="G45" s="10">
-        <v>103.35599999999999</v>
+      <c r="G45" s="3">
+        <v>100.24666666666667</v>
       </c>
       <c r="H45" s="3">
         <v>51.3</v>
@@ -2090,7 +2090,7 @@
       <c r="J45" s="11">
         <v>1.6850308185153224</v>
       </c>
-      <c r="K45" s="5"/>
+      <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2106,14 +2106,14 @@
       <c r="D46" s="8">
         <v>3128145</v>
       </c>
-      <c r="E46" s="3">
-        <v>98.660000000000011</v>
+      <c r="E46" s="10">
+        <v>100.992</v>
       </c>
       <c r="F46" s="9">
         <v>34.356666666666662</v>
       </c>
-      <c r="G46" s="10">
-        <v>100.992</v>
+      <c r="G46" s="3">
+        <v>98.660000000000011</v>
       </c>
       <c r="H46" s="3">
         <v>50.9</v>
@@ -2124,7 +2124,7 @@
       <c r="J46" s="11">
         <v>-1.9271816030589932</v>
       </c>
-      <c r="K46" s="5"/>
+      <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2140,14 +2140,14 @@
       <c r="D47" s="8">
         <v>3143587</v>
       </c>
-      <c r="E47" s="3">
-        <v>100.50999999999999</v>
+      <c r="E47" s="10">
+        <v>100.64100000000001</v>
       </c>
       <c r="F47" s="9">
         <v>45.953333333333326</v>
       </c>
-      <c r="G47" s="10">
-        <v>100.64100000000001</v>
+      <c r="G47" s="3">
+        <v>100.50999999999999</v>
       </c>
       <c r="H47" s="3">
         <v>52.4</v>
@@ -2158,7 +2158,7 @@
       <c r="J47" s="11">
         <v>0.57964013981868967</v>
       </c>
-      <c r="K47" s="5"/>
+      <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2174,14 +2174,14 @@
       <c r="D48" s="8">
         <v>3166325.6</v>
       </c>
-      <c r="E48" s="3">
-        <v>100.40666666666668</v>
+      <c r="E48" s="10">
+        <v>103.97</v>
       </c>
       <c r="F48" s="9">
         <v>45.800000000000004</v>
       </c>
-      <c r="G48" s="10">
-        <v>103.97</v>
+      <c r="G48" s="3">
+        <v>100.40666666666668</v>
       </c>
       <c r="H48" s="3">
         <v>53</v>
@@ -2192,7 +2192,7 @@
       <c r="J48" s="11">
         <v>0.1760543507322424</v>
       </c>
-      <c r="K48" s="5"/>
+      <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2208,14 +2208,14 @@
       <c r="D49" s="8">
         <v>3193172.7</v>
       </c>
-      <c r="E49" s="3">
-        <v>100.48333333333333</v>
+      <c r="E49" s="10">
+        <v>104.937</v>
       </c>
       <c r="F49" s="9">
         <v>50.079999999999991</v>
       </c>
-      <c r="G49" s="10">
-        <v>104.937</v>
+      <c r="G49" s="3">
+        <v>100.48333333333333</v>
       </c>
       <c r="H49" s="3">
         <v>51.8</v>
@@ -2226,7 +2226,7 @@
       <c r="J49" s="11">
         <v>1.5373846031140133</v>
       </c>
-      <c r="K49" s="5"/>
+      <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
     <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2242,14 +2242,14 @@
       <c r="D50" s="8">
         <v>3239565.5</v>
       </c>
-      <c r="E50" s="3">
-        <v>100.18</v>
+      <c r="E50" s="10">
+        <v>107.983</v>
       </c>
       <c r="F50" s="9">
         <v>54.116666666666667</v>
       </c>
-      <c r="G50" s="10">
-        <v>107.983</v>
+      <c r="G50" s="3">
+        <v>100.18</v>
       </c>
       <c r="H50" s="3">
         <v>52</v>
@@ -2260,7 +2260,7 @@
       <c r="J50" s="11">
         <v>0.30629366398365238</v>
       </c>
-      <c r="K50" s="5"/>
+      <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
     <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2276,14 +2276,14 @@
       <c r="D51" s="8">
         <v>3277629</v>
       </c>
-      <c r="E51" s="3">
-        <v>101.86</v>
+      <c r="E51" s="10">
+        <v>110.803</v>
       </c>
       <c r="F51" s="9">
         <v>50.24666666666667</v>
       </c>
-      <c r="G51" s="10">
-        <v>110.803</v>
+      <c r="G51" s="3">
+        <v>101.86</v>
       </c>
       <c r="H51" s="3">
         <v>54</v>
@@ -2294,7 +2294,7 @@
       <c r="J51" s="11">
         <v>-0.42316367996083309</v>
       </c>
-      <c r="K51" s="5"/>
+      <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2310,14 +2310,14 @@
       <c r="D52" s="8">
         <v>3312174.1</v>
       </c>
-      <c r="E52" s="3">
-        <v>101.25999999999999</v>
+      <c r="E52" s="10">
+        <v>112.95099999999999</v>
       </c>
       <c r="F52" s="9">
         <v>51.74</v>
       </c>
-      <c r="G52" s="10">
-        <v>112.95099999999999</v>
+      <c r="G52" s="3">
+        <v>101.25999999999999</v>
       </c>
       <c r="H52" s="3">
         <v>54.6</v>
@@ -2328,7 +2328,7 @@
       <c r="J52" s="11">
         <v>-0.50885672719622521</v>
       </c>
-      <c r="K52" s="5"/>
+      <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2344,14 +2344,14 @@
       <c r="D53" s="8">
         <v>3350217.3</v>
       </c>
-      <c r="E53" s="3">
-        <v>101.31333333333333</v>
+      <c r="E53" s="10">
+        <v>113.31</v>
       </c>
       <c r="F53" s="9">
         <v>61.466666666666661</v>
       </c>
-      <c r="G53" s="10">
-        <v>113.31</v>
+      <c r="G53" s="3">
+        <v>101.31333333333333</v>
       </c>
       <c r="H53" s="3">
         <v>53.4</v>
@@ -2362,7 +2362,7 @@
       <c r="J53" s="11">
         <v>1.0639205677284982</v>
       </c>
-      <c r="K53" s="5"/>
+      <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2378,14 +2378,14 @@
       <c r="D54" s="8">
         <v>3371166.9</v>
       </c>
-      <c r="E54" s="3">
-        <v>100.45</v>
+      <c r="E54" s="10">
+        <v>118.01900000000001</v>
       </c>
       <c r="F54" s="9">
         <v>66.953333333333333</v>
       </c>
-      <c r="G54" s="10">
-        <v>118.01900000000001</v>
+      <c r="G54" s="3">
+        <v>100.45</v>
       </c>
       <c r="H54" s="3">
         <v>53.3</v>
@@ -2396,7 +2396,7 @@
       <c r="J54" s="11">
         <v>0.30674607977813068</v>
       </c>
-      <c r="K54" s="5"/>
+      <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
     <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2412,14 +2412,14 @@
       <c r="D55" s="8">
         <v>3393630.3</v>
       </c>
-      <c r="E55" s="3">
-        <v>102.61666666666667</v>
+      <c r="E55" s="10">
+        <v>120.474</v>
       </c>
       <c r="F55" s="9">
         <v>74.489999999999995</v>
       </c>
-      <c r="G55" s="10">
-        <v>120.474</v>
+      <c r="G55" s="3">
+        <v>102.61666666666667</v>
       </c>
       <c r="H55" s="3">
         <v>55.3</v>
@@ -2430,7 +2430,7 @@
       <c r="J55" s="11">
         <v>-0.27954881580700253</v>
       </c>
-      <c r="K55" s="5"/>
+      <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2446,14 +2446,14 @@
       <c r="D56" s="8">
         <v>3416540.8</v>
       </c>
-      <c r="E56" s="3">
-        <v>102.20333333333333</v>
+      <c r="E56" s="10">
+        <v>120.706</v>
       </c>
       <c r="F56" s="9">
         <v>75.476666666666674</v>
       </c>
-      <c r="G56" s="10">
-        <v>120.706</v>
+      <c r="G56" s="3">
+        <v>102.20333333333333</v>
       </c>
       <c r="H56" s="3">
         <v>55.9</v>
@@ -2464,7 +2464,7 @@
       <c r="J56" s="11">
         <v>3.9480641484302359E-2</v>
       </c>
-      <c r="K56" s="5"/>
+      <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
     <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2480,14 +2480,14 @@
       <c r="D57" s="8">
         <v>3455028.9</v>
       </c>
-      <c r="E57" s="3">
-        <v>102.47666666666667</v>
+      <c r="E57" s="10">
+        <v>126.943</v>
       </c>
       <c r="F57" s="9">
         <v>67.36666666666666</v>
       </c>
-      <c r="G57" s="10">
-        <v>126.943</v>
+      <c r="G57" s="3">
+        <v>102.47666666666667</v>
       </c>
       <c r="H57" s="3">
         <v>55.1</v>
@@ -2498,7 +2498,7 @@
       <c r="J57" s="11">
         <v>0.64013421619929634</v>
       </c>
-      <c r="K57" s="5"/>
+      <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
     <row r="58" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2514,14 +2514,14 @@
       <c r="D58" s="8">
         <v>3493941.2</v>
       </c>
-      <c r="E58" s="3">
-        <v>101.24000000000001</v>
+      <c r="E58" s="10">
+        <v>124.684</v>
       </c>
       <c r="F58" s="9">
         <v>63.27</v>
       </c>
-      <c r="G58" s="10">
-        <v>124.684</v>
+      <c r="G58" s="3">
+        <v>101.24000000000001</v>
       </c>
       <c r="H58" s="3">
         <v>55</v>
@@ -2532,7 +2532,7 @@
       <c r="J58" s="11">
         <v>-0.69750224246385439</v>
       </c>
-      <c r="K58" s="5"/>
+      <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
     <row r="59" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2548,14 +2548,14 @@
       <c r="D59" s="8">
         <v>3522938.2</v>
       </c>
-      <c r="E59" s="3">
-        <v>103.26666666666667</v>
+      <c r="E59" s="10">
+        <v>133.90600000000001</v>
       </c>
       <c r="F59" s="9">
         <v>68.343333333333348</v>
       </c>
-      <c r="G59" s="10">
-        <v>133.90600000000001</v>
+      <c r="G59" s="3">
+        <v>103.26666666666667</v>
       </c>
       <c r="H59" s="3">
         <v>57.1</v>
@@ -2566,7 +2566,7 @@
       <c r="J59" s="11">
         <v>-2.7585673499091634E-2</v>
       </c>
-      <c r="K59" s="5"/>
+      <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
     <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2582,14 +2582,14 @@
       <c r="D60" s="8">
         <v>3545913.4</v>
       </c>
-      <c r="E60" s="3">
-        <v>102.45333333333333</v>
+      <c r="E60" s="10">
+        <v>133.57499999999999</v>
       </c>
       <c r="F60" s="9">
         <v>61.859999999999992</v>
       </c>
-      <c r="G60" s="10">
-        <v>133.57499999999999</v>
+      <c r="G60" s="3">
+        <v>102.45333333333333</v>
       </c>
       <c r="H60" s="3">
         <v>57.4</v>
@@ -2600,7 +2600,7 @@
       <c r="J60" s="11">
         <v>0.68063648022636725</v>
       </c>
-      <c r="K60" s="5"/>
+      <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
     <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2616,14 +2616,14 @@
       <c r="D61" s="8">
         <v>3570054.1</v>
       </c>
-      <c r="E61" s="3">
-        <v>102.89666666666666</v>
+      <c r="E61" s="10">
+        <v>117.506</v>
       </c>
       <c r="F61" s="9">
         <v>62.653333333333329</v>
       </c>
-      <c r="G61" s="10">
-        <v>117.506</v>
+      <c r="G61" s="3">
+        <v>102.89666666666666</v>
       </c>
       <c r="H61" s="3">
         <v>56.5</v>
@@ -2634,7 +2634,7 @@
       <c r="J61" s="11">
         <v>-1.107800617501322</v>
       </c>
-      <c r="K61" s="5"/>
+      <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
     <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2650,14 +2650,14 @@
       <c r="D62" s="8">
         <v>3483352</v>
       </c>
-      <c r="E62" s="3">
-        <v>101.80333333333333</v>
+      <c r="E62" s="10">
+        <v>111.827</v>
       </c>
       <c r="F62" s="9">
         <v>50.526666666666664</v>
       </c>
-      <c r="G62" s="10">
-        <v>111.827</v>
+      <c r="G62" s="3">
+        <v>101.80333333333333</v>
       </c>
       <c r="H62" s="3">
         <v>55.9</v>
@@ -2668,7 +2668,7 @@
       <c r="J62" s="11">
         <v>0.64152818235095455</v>
       </c>
-      <c r="K62" s="5"/>
+      <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2684,14 +2684,14 @@
       <c r="D63" s="8">
         <v>3134250.5</v>
       </c>
-      <c r="E63" s="3">
-        <v>102.06</v>
+      <c r="E63" s="10">
+        <v>95.454999999999998</v>
       </c>
       <c r="F63" s="9">
         <v>31.429999999999996</v>
       </c>
-      <c r="G63" s="10">
-        <v>95.454999999999998</v>
+      <c r="G63" s="3">
+        <v>102.06</v>
       </c>
       <c r="H63" s="3">
         <v>55.8</v>
@@ -2702,7 +2702,7 @@
       <c r="J63" s="11">
         <v>-1.4821295654638504</v>
       </c>
-      <c r="K63" s="5"/>
+      <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2718,14 +2718,14 @@
       <c r="D64" s="8">
         <v>3453617.6</v>
       </c>
-      <c r="E64" s="3">
-        <v>100.17666666666666</v>
+      <c r="E64" s="10">
+        <v>90.138999999999996</v>
       </c>
       <c r="F64" s="9">
         <v>42.72</v>
       </c>
-      <c r="G64" s="10">
-        <v>90.138999999999996</v>
+      <c r="G64" s="3">
+        <v>100.17666666666666</v>
       </c>
       <c r="H64" s="3">
         <v>57</v>
@@ -2736,7 +2736,7 @@
       <c r="J64" s="11">
         <v>1.5398031967424692</v>
       </c>
-      <c r="K64" s="5"/>
+      <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
     <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2752,14 +2752,14 @@
       <c r="D65" s="8">
         <v>3499125.7</v>
       </c>
-      <c r="E65" s="3">
-        <v>100.64333333333333</v>
+      <c r="E65" s="10">
+        <v>102.57899999999999</v>
       </c>
       <c r="F65" s="9">
         <v>44.523333333333333</v>
       </c>
-      <c r="G65" s="10">
-        <v>102.57899999999999</v>
+      <c r="G65" s="3">
+        <v>100.64333333333333</v>
       </c>
       <c r="H65" s="3">
         <v>56.4</v>
@@ -2770,7 +2770,7 @@
       <c r="J65" s="11">
         <v>0.97034966989242211</v>
       </c>
-      <c r="K65" s="5"/>
+      <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
     <row r="66" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2786,14 +2786,14 @@
       <c r="D66" s="8">
         <v>3553019.2</v>
       </c>
-      <c r="E66" s="3">
-        <v>99.673333333333332</v>
+      <c r="E66" s="10">
+        <v>110.863</v>
       </c>
       <c r="F66" s="9">
         <v>60.566666666666663</v>
       </c>
-      <c r="G66" s="10">
-        <v>110.863</v>
+      <c r="G66" s="3">
+        <v>99.673333333333332</v>
       </c>
       <c r="H66" s="3">
         <v>52.7</v>
@@ -2804,7 +2804,7 @@
       <c r="J66" s="11">
         <v>1.1374495216736578</v>
       </c>
-      <c r="K66" s="5"/>
+      <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
     <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2820,14 +2820,14 @@
       <c r="D67" s="8">
         <v>3643059.4</v>
       </c>
-      <c r="E67" s="3">
-        <v>101.48</v>
+      <c r="E67" s="10">
+        <v>119.20099999999999</v>
       </c>
       <c r="F67" s="9">
         <v>68.626666666666665</v>
       </c>
-      <c r="G67" s="10">
-        <v>119.20099999999999</v>
+      <c r="G67" s="3">
+        <v>101.48</v>
       </c>
       <c r="H67" s="3">
         <v>57</v>
@@ -2838,7 +2838,7 @@
       <c r="J67" s="11">
         <v>-0.49023335149984459</v>
       </c>
-      <c r="K67" s="5"/>
+      <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
     <row r="68" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2854,14 +2854,14 @@
       <c r="D68" s="8">
         <v>3749750.4</v>
       </c>
-      <c r="E68" s="3">
-        <v>101.44666666666666</v>
+      <c r="E68" s="10">
+        <v>134.036</v>
       </c>
       <c r="F68" s="9">
         <v>73.00333333333333</v>
       </c>
-      <c r="G68" s="10">
-        <v>134.036</v>
+      <c r="G68" s="3">
+        <v>101.44666666666666</v>
       </c>
       <c r="H68" s="3">
         <v>60.1</v>
@@ -2872,7 +2872,7 @@
       <c r="J68" s="11">
         <v>2.1347653778548996</v>
       </c>
-      <c r="K68" s="5"/>
+      <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
     <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2888,14 +2888,14 @@
       <c r="D69" s="8">
         <v>3829372.7</v>
       </c>
-      <c r="E69" s="3">
-        <v>104.40666666666668</v>
+      <c r="E69" s="10">
+        <v>133.387</v>
       </c>
       <c r="F69" s="9">
         <v>79.576666666666668</v>
       </c>
-      <c r="G69" s="10">
-        <v>133.387</v>
+      <c r="G69" s="3">
+        <v>104.40666666666668</v>
       </c>
       <c r="H69" s="3">
         <v>59.2</v>
@@ -2906,7 +2906,7 @@
       <c r="J69" s="11">
         <v>0.27812451788017778</v>
       </c>
-      <c r="K69" s="5"/>
+      <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
     <row r="70" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2922,14 +2922,14 @@
       <c r="D70" s="8">
         <v>3921454.8</v>
       </c>
-      <c r="E70" s="3">
-        <v>106.23666666666668</v>
+      <c r="E70" s="10">
+        <v>128.58199999999999</v>
       </c>
       <c r="F70" s="9">
         <v>98.96</v>
       </c>
-      <c r="G70" s="10">
-        <v>128.58199999999999</v>
+      <c r="G70" s="3">
+        <v>106.23666666666668</v>
       </c>
       <c r="H70" s="3">
         <v>59.2</v>
@@ -2940,7 +2940,7 @@
       <c r="J70" s="11">
         <v>1.2030928391142157</v>
       </c>
-      <c r="K70" s="5"/>
+      <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
     <row r="71" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2956,14 +2956,14 @@
       <c r="D71" s="8">
         <v>4009713.5</v>
       </c>
-      <c r="E71" s="3">
-        <v>112.06333333333333</v>
+      <c r="E71" s="10">
+        <v>136.18100000000001</v>
       </c>
       <c r="F71" s="9">
         <v>112.74333333333334</v>
       </c>
-      <c r="G71" s="10">
-        <v>136.18100000000001</v>
+      <c r="G71" s="3">
+        <v>112.06333333333333</v>
       </c>
       <c r="H71" s="3">
         <v>61.1</v>
@@ -2974,7 +2974,7 @@
       <c r="J71" s="11">
         <v>-0.40456738939497372</v>
       </c>
-      <c r="K71" s="5"/>
+      <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
     <row r="72" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -2990,14 +2990,14 @@
       <c r="D72" s="8">
         <v>4078045.1</v>
       </c>
-      <c r="E72" s="3">
-        <v>113.15333333333335</v>
+      <c r="E72" s="10">
+        <v>132.99100000000001</v>
       </c>
       <c r="F72" s="9">
         <v>99.226666666666645</v>
       </c>
-      <c r="G72" s="10">
-        <v>132.99100000000001</v>
+      <c r="G72" s="3">
+        <v>113.15333333333335</v>
       </c>
       <c r="H72" s="3">
         <v>61.9</v>
@@ -3008,7 +3008,7 @@
       <c r="J72" s="11">
         <v>-1.1023044527198622</v>
       </c>
-      <c r="K72" s="5"/>
+      <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3024,14 +3024,14 @@
       <c r="D73" s="8">
         <v>4151186.2</v>
       </c>
-      <c r="E73" s="3">
-        <v>113.40333333333332</v>
+      <c r="E73" s="10">
+        <v>132.602</v>
       </c>
       <c r="F73" s="9">
         <v>88.366666666666674</v>
       </c>
-      <c r="G73" s="10">
-        <v>132.602</v>
+      <c r="G73" s="3">
+        <v>113.40333333333332</v>
       </c>
       <c r="H73" s="3">
         <v>60.7</v>
@@ -3042,7 +3042,7 @@
       <c r="J73" s="11">
         <v>0.17583495838569732</v>
       </c>
-      <c r="K73" s="5"/>
+      <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
     <row r="74" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3058,14 +3058,14 @@
       <c r="D74" s="8">
         <v>4243632.8</v>
       </c>
-      <c r="E74" s="3">
-        <v>113.02666666666669</v>
+      <c r="E74" s="10">
+        <v>139.52600000000001</v>
       </c>
       <c r="F74" s="9">
         <v>81.443333333333342</v>
       </c>
-      <c r="G74" s="10">
-        <v>139.52600000000001</v>
+      <c r="G74" s="3">
+        <v>113.02666666666669</v>
       </c>
       <c r="H74" s="3">
         <v>60.3</v>
@@ -3076,7 +3076,7 @@
       <c r="J74" s="11">
         <v>1.6714875206993502</v>
       </c>
-      <c r="K74" s="5"/>
+      <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3092,14 +3092,14 @@
       <c r="D75" s="8">
         <v>4302131.5999999996</v>
       </c>
-      <c r="E75" s="3">
-        <v>116.31666666666666</v>
+      <c r="E75" s="10">
+        <v>133.61199999999999</v>
       </c>
       <c r="F75" s="9">
         <v>78.233333333333334</v>
       </c>
-      <c r="G75" s="10">
-        <v>133.61199999999999</v>
+      <c r="G75" s="3">
+        <v>116.31666666666666</v>
       </c>
       <c r="H75" s="3">
         <v>62.4</v>
@@ -3110,7 +3110,7 @@
       <c r="J75" s="11">
         <v>-1.6976220186845974</v>
       </c>
-      <c r="K75" s="5"/>
+      <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
     <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3126,14 +3126,14 @@
       <c r="D76" s="8">
         <v>4331508.4000000004</v>
       </c>
-      <c r="E76" s="3">
-        <v>116.66333333333334</v>
+      <c r="E76" s="10">
+        <v>133.23599999999999</v>
       </c>
       <c r="F76" s="9">
         <v>86.754333333333321</v>
       </c>
-      <c r="G76" s="10">
-        <v>133.23599999999999</v>
+      <c r="G76" s="3">
+        <v>116.66333333333334</v>
       </c>
       <c r="H76" s="3">
         <v>62.8</v>
@@ -3144,7 +3144,7 @@
       <c r="J76" s="11">
         <v>0.70474906178332197</v>
       </c>
-      <c r="K76" s="5"/>
+      <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
     <row r="77" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3160,14 +3160,14 @@
       <c r="D77" s="8">
         <v>4387256.3</v>
       </c>
-      <c r="E77" s="3">
-        <v>117.33333333333333</v>
+      <c r="E77" s="10">
+        <v>133.886</v>
       </c>
       <c r="F77" s="9">
         <v>84.034000000000006</v>
       </c>
-      <c r="G77" s="10">
-        <v>133.886</v>
+      <c r="G77" s="3">
+        <v>117.33333333333333</v>
       </c>
       <c r="H77" s="3">
         <v>61.7</v>
@@ -3178,7 +3178,7 @@
       <c r="J77" s="11">
         <v>0.82125937853980469</v>
       </c>
-      <c r="K77" s="5"/>
+      <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
     <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3194,14 +3194,14 @@
       <c r="D78" s="8">
         <v>4437765.2</v>
       </c>
-      <c r="E78" s="3">
-        <v>116.68666666666667</v>
+      <c r="E78" s="10">
+        <v>133.86799999999999</v>
       </c>
       <c r="F78" s="9">
         <v>83.146000000000001</v>
       </c>
-      <c r="G78" s="10">
-        <v>133.86799999999999</v>
+      <c r="G78" s="3">
+        <v>116.68666666666667</v>
       </c>
       <c r="H78" s="3">
         <v>61.6</v>
@@ -3212,7 +3212,7 @@
       <c r="J78" s="11">
         <v>0.26336048363269887</v>
       </c>
-      <c r="K78" s="5"/>
+      <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
     <row r="79" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3228,14 +3228,14 @@
       <c r="D79" s="8">
         <v>4475351.2</v>
       </c>
-      <c r="E79" s="3">
-        <v>119.41666666666667</v>
+      <c r="E79" s="10">
+        <v>136.52199999999999</v>
       </c>
       <c r="F79" s="9">
         <v>84.868000000000009</v>
       </c>
-      <c r="G79" s="10">
-        <v>136.52199999999999</v>
+      <c r="G79" s="3">
+        <v>119.41666666666667</v>
       </c>
       <c r="H79" s="3">
         <v>64</v>
@@ -3246,7 +3246,7 @@
       <c r="J79" s="11">
         <v>1.6587442380861579</v>
       </c>
-      <c r="K79" s="5"/>
+      <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
     <row r="80" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3262,14 +3262,14 @@
       <c r="D80" s="8">
         <v>4523628.8</v>
       </c>
-      <c r="E80" s="3">
-        <v>120.27666666666666</v>
+      <c r="E80" s="10">
+        <v>137.27000000000001</v>
       </c>
       <c r="F80" s="9">
         <v>80.150666666666666</v>
       </c>
-      <c r="G80" s="10">
-        <v>137.27000000000001</v>
+      <c r="G80" s="3">
+        <v>120.27666666666666</v>
       </c>
       <c r="H80" s="3">
         <v>64.099999999999994</v>
@@ -3280,7 +3280,7 @@
       <c r="J80" s="11">
         <v>-1.6037763032745165</v>
       </c>
-      <c r="K80" s="5"/>
+      <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
     <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3296,14 +3296,14 @@
       <c r="D81" s="8">
         <v>4579059.7</v>
       </c>
-      <c r="E81" s="3">
-        <v>120.84666666666668</v>
+      <c r="E81" s="10">
+        <v>138.155</v>
       </c>
       <c r="F81" s="9">
         <v>74.63000000000001</v>
       </c>
-      <c r="G81" s="10">
-        <v>138.155</v>
+      <c r="G81" s="3">
+        <v>120.84666666666668</v>
       </c>
       <c r="H81" s="3">
         <v>63.4</v>
@@ -3314,7 +3314,7 @@
       <c r="J81" s="11">
         <v>1.7833595099956827</v>
       </c>
-      <c r="K81" s="5"/>
+      <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
     <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3330,14 +3330,14 @@
       <c r="D82" s="8">
         <v>4631838.2</v>
       </c>
-      <c r="E82" s="3">
-        <v>120.30333333333333</v>
+      <c r="E82" s="10">
+        <v>137.303</v>
       </c>
       <c r="F82" s="9">
         <v>75.645666666666671</v>
       </c>
-      <c r="G82" s="10">
-        <v>137.303</v>
+      <c r="G82" s="3">
+        <v>120.30333333333333</v>
       </c>
       <c r="H82" s="3">
         <v>62.8</v>
@@ -3348,7 +3348,7 @@
       <c r="J82" s="11">
         <v>-1.1536639035252823</v>
       </c>
-      <c r="K82" s="5"/>
+      <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
     <row r="83" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3364,14 +3364,14 @@
       <c r="D83" s="8">
         <v>4672609.5999999996</v>
       </c>
-      <c r="E83" s="3">
-        <v>123.19999999999999</v>
+      <c r="E83" s="10">
+        <v>139.11799999999999</v>
       </c>
       <c r="F83" s="9">
         <v>67.800333333333342</v>
       </c>
-      <c r="G83" s="10">
-        <v>139.11799999999999</v>
+      <c r="G83" s="3">
+        <v>123.19999999999999</v>
       </c>
       <c r="H83" s="3">
         <v>65.3</v>
@@ -3382,7 +3382,7 @@
       <c r="J83" s="11">
         <v>1.2873431486908382</v>
       </c>
-      <c r="K83" s="5"/>
+      <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
     <row r="84" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -3395,6 +3395,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="10"/>
       <c r="J84"/>
+      <c r="K84" s="3"/>
     </row>
     <row r="85" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
@@ -3405,6 +3406,7 @@
       <c r="F85" s="9"/>
       <c r="G85" s="3"/>
       <c r="H85" s="10"/>
+      <c r="K85" s="3"/>
     </row>
     <row r="86" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
@@ -3415,6 +3417,7 @@
       <c r="F86" s="9"/>
       <c r="G86" s="3"/>
       <c r="H86" s="10"/>
+      <c r="K86" s="3"/>
     </row>
     <row r="87" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
@@ -3425,6 +3428,7 @@
       <c r="F87" s="9"/>
       <c r="G87" s="3"/>
       <c r="H87" s="10"/>
+      <c r="K87" s="3"/>
     </row>
     <row r="88" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
@@ -3435,6 +3439,7 @@
       <c r="F88" s="9"/>
       <c r="G88" s="3"/>
       <c r="H88" s="10"/>
+      <c r="K88" s="3"/>
     </row>
     <row r="89" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
@@ -3445,6 +3450,7 @@
       <c r="F89" s="9"/>
       <c r="G89" s="3"/>
       <c r="H89" s="10"/>
+      <c r="K89" s="3"/>
     </row>
     <row r="90" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
@@ -3455,6 +3461,7 @@
       <c r="F90" s="9"/>
       <c r="G90" s="3"/>
       <c r="H90" s="10"/>
+      <c r="K90" s="3"/>
     </row>
     <row r="91" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
@@ -3465,6 +3472,7 @@
       <c r="F91" s="9"/>
       <c r="G91" s="3"/>
       <c r="H91" s="10"/>
+      <c r="K91" s="3"/>
     </row>
     <row r="92" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
@@ -3475,6 +3483,7 @@
       <c r="F92" s="9"/>
       <c r="G92" s="3"/>
       <c r="H92" s="10"/>
+      <c r="K92" s="3"/>
     </row>
     <row r="93" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
@@ -3485,6 +3494,7 @@
       <c r="F93" s="9"/>
       <c r="G93" s="3"/>
       <c r="H93" s="10"/>
+      <c r="K93" s="3"/>
     </row>
     <row r="94" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
@@ -3495,6 +3505,7 @@
       <c r="F94" s="9"/>
       <c r="G94" s="3"/>
       <c r="H94" s="10"/>
+      <c r="K94" s="3"/>
     </row>
     <row r="95" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
@@ -3505,6 +3516,7 @@
       <c r="F95" s="9"/>
       <c r="G95" s="3"/>
       <c r="H95" s="10"/>
+      <c r="K95" s="3"/>
     </row>
     <row r="96" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
@@ -3515,8 +3527,9 @@
       <c r="F96" s="9"/>
       <c r="G96" s="3"/>
       <c r="H96" s="10"/>
-    </row>
-    <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3525,8 +3538,9 @@
       <c r="F97" s="9"/>
       <c r="G97" s="3"/>
       <c r="H97" s="10"/>
-    </row>
-    <row r="98" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3535,8 +3549,9 @@
       <c r="F98" s="9"/>
       <c r="G98" s="3"/>
       <c r="H98" s="10"/>
-    </row>
-    <row r="99" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3545,8 +3560,9 @@
       <c r="F99" s="9"/>
       <c r="G99" s="3"/>
       <c r="H99" s="10"/>
-    </row>
-    <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3555,8 +3571,9 @@
       <c r="F100" s="9"/>
       <c r="G100" s="3"/>
       <c r="H100" s="10"/>
-    </row>
-    <row r="101" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3565,8 +3582,9 @@
       <c r="F101" s="9"/>
       <c r="G101" s="3"/>
       <c r="H101" s="10"/>
-    </row>
-    <row r="102" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3575,8 +3593,9 @@
       <c r="F102" s="9"/>
       <c r="G102" s="3"/>
       <c r="H102" s="10"/>
-    </row>
-    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3585,8 +3604,9 @@
       <c r="F103" s="9"/>
       <c r="G103" s="3"/>
       <c r="H103" s="10"/>
-    </row>
-    <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3595,8 +3615,9 @@
       <c r="F104" s="9"/>
       <c r="G104" s="3"/>
       <c r="H104" s="10"/>
-    </row>
-    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3605,8 +3626,9 @@
       <c r="F105" s="9"/>
       <c r="G105" s="3"/>
       <c r="H105" s="10"/>
-    </row>
-    <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3615,8 +3637,9 @@
       <c r="F106" s="9"/>
       <c r="G106" s="3"/>
       <c r="H106" s="10"/>
-    </row>
-    <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3625,8 +3648,9 @@
       <c r="F107" s="9"/>
       <c r="G107" s="3"/>
       <c r="H107" s="10"/>
-    </row>
-    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3635,8 +3659,9 @@
       <c r="F108" s="9"/>
       <c r="G108" s="3"/>
       <c r="H108" s="10"/>
-    </row>
-    <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3645,8 +3670,9 @@
       <c r="F109" s="9"/>
       <c r="G109" s="3"/>
       <c r="H109" s="10"/>
-    </row>
-    <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3655,8 +3681,9 @@
       <c r="F110" s="9"/>
       <c r="G110" s="3"/>
       <c r="H110" s="10"/>
-    </row>
-    <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3665,8 +3692,9 @@
       <c r="F111" s="9"/>
       <c r="G111" s="3"/>
       <c r="H111" s="10"/>
-    </row>
-    <row r="112" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3675,8 +3703,9 @@
       <c r="F112" s="9"/>
       <c r="G112" s="3"/>
       <c r="H112" s="10"/>
-    </row>
-    <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3685,8 +3714,9 @@
       <c r="F113" s="9"/>
       <c r="G113" s="3"/>
       <c r="H113" s="10"/>
-    </row>
-    <row r="114" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3695,8 +3725,9 @@
       <c r="F114" s="9"/>
       <c r="G114" s="3"/>
       <c r="H114" s="10"/>
-    </row>
-    <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3705,8 +3736,9 @@
       <c r="F115" s="9"/>
       <c r="G115" s="3"/>
       <c r="H115" s="10"/>
-    </row>
-    <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K115" s="3"/>
+    </row>
+    <row r="116" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3715,8 +3747,9 @@
       <c r="F116" s="9"/>
       <c r="G116" s="3"/>
       <c r="H116" s="10"/>
-    </row>
-    <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K116" s="3"/>
+    </row>
+    <row r="117" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3725,8 +3758,9 @@
       <c r="F117" s="9"/>
       <c r="G117" s="3"/>
       <c r="H117" s="10"/>
-    </row>
-    <row r="118" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3735,8 +3769,9 @@
       <c r="F118" s="9"/>
       <c r="G118" s="3"/>
       <c r="H118" s="10"/>
-    </row>
-    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K118" s="3"/>
+    </row>
+    <row r="119" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3745,8 +3780,9 @@
       <c r="F119" s="9"/>
       <c r="G119" s="3"/>
       <c r="H119" s="10"/>
-    </row>
-    <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K119" s="3"/>
+    </row>
+    <row r="120" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3755,8 +3791,9 @@
       <c r="F120" s="9"/>
       <c r="G120" s="3"/>
       <c r="H120" s="10"/>
-    </row>
-    <row r="121" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K120" s="3"/>
+    </row>
+    <row r="121" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3765,8 +3802,9 @@
       <c r="F121" s="9"/>
       <c r="G121" s="3"/>
       <c r="H121" s="10"/>
-    </row>
-    <row r="122" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K121" s="3"/>
+    </row>
+    <row r="122" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="12"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3774,24 +3812,25 @@
       <c r="E122" s="3"/>
       <c r="F122" s="9"/>
       <c r="G122" s="3"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K122" s="3"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="12"/>
       <c r="B123" s="3"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="12"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="12"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="12"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="12"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Documents/Github_R/Regrassion_GDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6808EAA7-8929-8741-AC13-88DC28FF2985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7D4DD7-3DCE-744F-847A-0CF5AD72D702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15760" xr2:uid="{3580B857-6E9C-4522-A1C6-485FA67992EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>10Y BOND INT</t>
+  </si>
+  <si>
+    <t>Dcovid</t>
+  </si>
+  <si>
+    <t>DGFC</t>
   </si>
 </sst>
 </file>
@@ -181,7 +187,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -218,6 +224,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -543,7 +552,7 @@
   <dimension ref="A1:L366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -594,8 +603,12 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
@@ -628,8 +641,12 @@
       <c r="J2" s="11">
         <v>-0.73775997003258043</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -662,8 +679,12 @@
       <c r="J3" s="11">
         <v>-0.19198564170647303</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
@@ -696,8 +717,12 @@
       <c r="J4" s="11">
         <v>1.192834114240922</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -730,8 +755,12 @@
       <c r="J5" s="11">
         <v>-0.91325168755096142</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -764,8 +793,12 @@
       <c r="J6" s="11">
         <v>1.5590381083053757</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -798,8 +831,12 @@
       <c r="J7" s="11">
         <v>-0.5887718042761283</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
@@ -832,8 +869,12 @@
       <c r="J8" s="11">
         <v>-0.78878743245589156</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -866,8 +907,12 @@
       <c r="J9" s="11">
         <v>0.68505926437646025</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
@@ -900,8 +945,12 @@
       <c r="J10" s="11">
         <v>-1.9501731862862451E-4</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="K10" s="14">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -934,8 +983,12 @@
       <c r="J11" s="11">
         <v>0.71383169521439682</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
@@ -968,8 +1021,12 @@
       <c r="J12" s="11">
         <v>-0.30034869756010396</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
@@ -1002,8 +1059,12 @@
       <c r="J13" s="11">
         <v>-7.30294149308479E-2</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="14">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
@@ -1036,8 +1097,12 @@
       <c r="J14" s="11">
         <v>-1.4042505984193532</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
@@ -1070,8 +1135,12 @@
       <c r="J15" s="11">
         <v>1.7213579177417264</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="14">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -1104,8 +1173,12 @@
       <c r="J16" s="11">
         <v>-1.5767515739417697</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="14">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
@@ -1138,8 +1211,12 @@
       <c r="J17" s="11">
         <v>-1.7583398755939481</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="14">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
@@ -1172,8 +1249,12 @@
       <c r="J18" s="11">
         <v>-1.0256399232721072</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="14">
+        <v>0</v>
+      </c>
+      <c r="L18" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
@@ -1206,8 +1287,12 @@
       <c r="J19" s="11">
         <v>-0.51116077137761884</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
@@ -1240,8 +1325,12 @@
       <c r="J20" s="11">
         <v>8.6249471352584983E-2</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="K20" s="14">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
@@ -1274,8 +1363,12 @@
       <c r="J21" s="11">
         <v>-0.79358764095720524</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="K21" s="14">
+        <v>0</v>
+      </c>
+      <c r="L21" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
@@ -1308,8 +1401,12 @@
       <c r="J22" s="11">
         <v>-0.59686859583268548</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="K22" s="14">
+        <v>0</v>
+      </c>
+      <c r="L22" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
@@ -1342,8 +1439,12 @@
       <c r="J23" s="11">
         <v>-0.55406273382459503</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
@@ -1376,8 +1477,12 @@
       <c r="J24" s="11">
         <v>-1.9931790907010718</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+      <c r="L24" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
@@ -1410,8 +1515,12 @@
       <c r="J25" s="11">
         <v>1.9196749896078236</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
@@ -1444,8 +1553,12 @@
       <c r="J26" s="11">
         <v>-1.0393872832222939</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="K26" s="14">
+        <v>0</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
@@ -1478,8 +1591,12 @@
       <c r="J27" s="11">
         <v>-2.1873605828584051</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="K27" s="14">
+        <v>0</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
@@ -1512,8 +1629,12 @@
       <c r="J28" s="11">
         <v>2.5747365793093602</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="K28" s="14">
+        <v>0</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
@@ -1546,8 +1667,12 @@
       <c r="J29" s="11">
         <v>-3.3202200547679723</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="K29" s="14">
+        <v>0</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
@@ -1580,8 +1705,12 @@
       <c r="J30" s="11">
         <v>0.62476610594101489</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="K30" s="14">
+        <v>0</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
@@ -1614,8 +1743,12 @@
       <c r="J31" s="11">
         <v>0.41650335041408948</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="K31" s="14">
+        <v>0</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
@@ -1648,8 +1781,12 @@
       <c r="J32" s="11">
         <v>0.24976440085827833</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="K32" s="14">
+        <v>0</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
@@ -1682,8 +1819,12 @@
       <c r="J33" s="11">
         <v>-0.98969811056696155</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="K33" s="14">
+        <v>0</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
@@ -1716,8 +1857,12 @@
       <c r="J34" s="11">
         <v>0.24668328248765481</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="K34" s="14">
+        <v>0</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
@@ -1750,8 +1895,12 @@
       <c r="J35" s="11">
         <v>1.2587967883962254</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="K35" s="14">
+        <v>0</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
@@ -1784,8 +1933,12 @@
       <c r="J36" s="11">
         <v>-1.2104658509298976</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="K36" s="14">
+        <v>0</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
@@ -1818,8 +1971,12 @@
       <c r="J37" s="11">
         <v>-0.50056797532180175</v>
       </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="K37" s="14">
+        <v>0</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
@@ -1852,8 +2009,12 @@
       <c r="J38" s="11">
         <v>-0.67816118993914376</v>
       </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="K38" s="14">
+        <v>0</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
@@ -1886,8 +2047,12 @@
       <c r="J39" s="11">
         <v>0.9621542429257971</v>
       </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="K39" s="14">
+        <v>0</v>
+      </c>
+      <c r="L39" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
@@ -1920,8 +2085,12 @@
       <c r="J40" s="11">
         <v>-0.96772549278445263</v>
       </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
+      <c r="K40" s="14">
+        <v>0</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
@@ -1954,8 +2123,12 @@
       <c r="J41" s="11">
         <v>-0.10296935563392833</v>
       </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+      <c r="K41" s="14">
+        <v>0</v>
+      </c>
+      <c r="L41" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
@@ -1988,8 +2161,12 @@
       <c r="J42" s="11">
         <v>1.5751187447695123</v>
       </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
+      <c r="K42" s="14">
+        <v>0</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
@@ -2022,8 +2199,12 @@
       <c r="J43" s="11">
         <v>-2.3724202990103191</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="K43" s="14">
+        <v>0</v>
+      </c>
+      <c r="L43" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
@@ -2056,8 +2237,12 @@
       <c r="J44" s="11">
         <v>2.0914598473117594</v>
       </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
+      <c r="K44" s="14">
+        <v>0</v>
+      </c>
+      <c r="L44" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
@@ -2090,8 +2275,12 @@
       <c r="J45" s="11">
         <v>1.6850308185153224</v>
       </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+      <c r="K45" s="14">
+        <v>0</v>
+      </c>
+      <c r="L45" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
@@ -2124,8 +2313,12 @@
       <c r="J46" s="11">
         <v>-1.9271816030589932</v>
       </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
+      <c r="K46" s="14">
+        <v>0</v>
+      </c>
+      <c r="L46" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
@@ -2158,8 +2351,12 @@
       <c r="J47" s="11">
         <v>0.57964013981868967</v>
       </c>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+      <c r="K47" s="14">
+        <v>0</v>
+      </c>
+      <c r="L47" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
@@ -2192,8 +2389,12 @@
       <c r="J48" s="11">
         <v>0.1760543507322424</v>
       </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+      <c r="K48" s="14">
+        <v>0</v>
+      </c>
+      <c r="L48" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
@@ -2226,8 +2427,12 @@
       <c r="J49" s="11">
         <v>1.5373846031140133</v>
       </c>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
+      <c r="K49" s="14">
+        <v>0</v>
+      </c>
+      <c r="L49" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
@@ -2260,8 +2465,12 @@
       <c r="J50" s="11">
         <v>0.30629366398365238</v>
       </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
+      <c r="K50" s="14">
+        <v>0</v>
+      </c>
+      <c r="L50" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
@@ -2294,8 +2503,12 @@
       <c r="J51" s="11">
         <v>-0.42316367996083309</v>
       </c>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
+      <c r="K51" s="14">
+        <v>0</v>
+      </c>
+      <c r="L51" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
@@ -2328,8 +2541,12 @@
       <c r="J52" s="11">
         <v>-0.50885672719622521</v>
       </c>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
+      <c r="K52" s="14">
+        <v>0</v>
+      </c>
+      <c r="L52" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
@@ -2362,8 +2579,12 @@
       <c r="J53" s="11">
         <v>1.0639205677284982</v>
       </c>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
+      <c r="K53" s="14">
+        <v>0</v>
+      </c>
+      <c r="L53" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
@@ -2396,8 +2617,12 @@
       <c r="J54" s="11">
         <v>0.30674607977813068</v>
       </c>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
+      <c r="K54" s="14">
+        <v>0</v>
+      </c>
+      <c r="L54" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
@@ -2430,8 +2655,12 @@
       <c r="J55" s="11">
         <v>-0.27954881580700253</v>
       </c>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
+      <c r="K55" s="14">
+        <v>0</v>
+      </c>
+      <c r="L55" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
@@ -2464,8 +2693,12 @@
       <c r="J56" s="11">
         <v>3.9480641484302359E-2</v>
       </c>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
+      <c r="K56" s="14">
+        <v>0</v>
+      </c>
+      <c r="L56" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
@@ -2498,8 +2731,12 @@
       <c r="J57" s="11">
         <v>0.64013421619929634</v>
       </c>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
+      <c r="K57" s="14">
+        <v>0</v>
+      </c>
+      <c r="L57" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
@@ -2532,8 +2769,12 @@
       <c r="J58" s="11">
         <v>-0.69750224246385439</v>
       </c>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
+      <c r="K58" s="14">
+        <v>0</v>
+      </c>
+      <c r="L58" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
@@ -2566,8 +2807,12 @@
       <c r="J59" s="11">
         <v>-2.7585673499091634E-2</v>
       </c>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
+      <c r="K59" s="14">
+        <v>0</v>
+      </c>
+      <c r="L59" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
@@ -2600,8 +2845,12 @@
       <c r="J60" s="11">
         <v>0.68063648022636725</v>
       </c>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
+      <c r="K60" s="14">
+        <v>0</v>
+      </c>
+      <c r="L60" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
@@ -2634,8 +2883,12 @@
       <c r="J61" s="11">
         <v>-1.107800617501322</v>
       </c>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
+      <c r="K61" s="14">
+        <v>0</v>
+      </c>
+      <c r="L61" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
@@ -2668,8 +2921,12 @@
       <c r="J62" s="11">
         <v>0.64152818235095455</v>
       </c>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
+      <c r="K62" s="14">
+        <v>0</v>
+      </c>
+      <c r="L62" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
@@ -2702,8 +2959,12 @@
       <c r="J63" s="11">
         <v>-1.4821295654638504</v>
       </c>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
+      <c r="K63" s="14">
+        <v>1</v>
+      </c>
+      <c r="L63" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
@@ -2736,8 +2997,12 @@
       <c r="J64" s="11">
         <v>1.5398031967424692</v>
       </c>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
+      <c r="K64" s="14">
+        <v>1</v>
+      </c>
+      <c r="L64" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
@@ -2770,8 +3035,12 @@
       <c r="J65" s="11">
         <v>0.97034966989242211</v>
       </c>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
+      <c r="K65" s="14">
+        <v>1</v>
+      </c>
+      <c r="L65" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
@@ -2804,8 +3073,12 @@
       <c r="J66" s="11">
         <v>1.1374495216736578</v>
       </c>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
+      <c r="K66" s="14">
+        <v>1</v>
+      </c>
+      <c r="L66" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
@@ -2838,8 +3111,12 @@
       <c r="J67" s="11">
         <v>-0.49023335149984459</v>
       </c>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
+      <c r="K67" s="14">
+        <v>1</v>
+      </c>
+      <c r="L67" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
@@ -2872,8 +3149,12 @@
       <c r="J68" s="11">
         <v>2.1347653778548996</v>
       </c>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
+      <c r="K68" s="14">
+        <v>1</v>
+      </c>
+      <c r="L68" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
@@ -2906,8 +3187,12 @@
       <c r="J69" s="11">
         <v>0.27812451788017778</v>
       </c>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
+      <c r="K69" s="14">
+        <v>0</v>
+      </c>
+      <c r="L69" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
@@ -2940,8 +3225,12 @@
       <c r="J70" s="11">
         <v>1.2030928391142157</v>
       </c>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
+      <c r="K70" s="14">
+        <v>0</v>
+      </c>
+      <c r="L70" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
@@ -2974,8 +3263,12 @@
       <c r="J71" s="11">
         <v>-0.40456738939497372</v>
       </c>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
+      <c r="K71" s="14">
+        <v>0</v>
+      </c>
+      <c r="L71" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
@@ -3008,8 +3301,12 @@
       <c r="J72" s="11">
         <v>-1.1023044527198622</v>
       </c>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
+      <c r="K72" s="14">
+        <v>0</v>
+      </c>
+      <c r="L72" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
@@ -3042,8 +3339,12 @@
       <c r="J73" s="11">
         <v>0.17583495838569732</v>
       </c>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
+      <c r="K73" s="14">
+        <v>0</v>
+      </c>
+      <c r="L73" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
@@ -3076,8 +3377,12 @@
       <c r="J74" s="11">
         <v>1.6714875206993502</v>
       </c>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
+      <c r="K74" s="14">
+        <v>0</v>
+      </c>
+      <c r="L74" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
@@ -3110,8 +3415,12 @@
       <c r="J75" s="11">
         <v>-1.6976220186845974</v>
       </c>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
+      <c r="K75" s="14">
+        <v>0</v>
+      </c>
+      <c r="L75" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -3144,8 +3453,12 @@
       <c r="J76" s="11">
         <v>0.70474906178332197</v>
       </c>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
+      <c r="K76" s="14">
+        <v>0</v>
+      </c>
+      <c r="L76" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
@@ -3178,8 +3491,12 @@
       <c r="J77" s="11">
         <v>0.82125937853980469</v>
       </c>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
+      <c r="K77" s="14">
+        <v>0</v>
+      </c>
+      <c r="L77" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
@@ -3212,8 +3529,12 @@
       <c r="J78" s="11">
         <v>0.26336048363269887</v>
       </c>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
+      <c r="K78" s="14">
+        <v>0</v>
+      </c>
+      <c r="L78" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
@@ -3246,8 +3567,12 @@
       <c r="J79" s="11">
         <v>1.6587442380861579</v>
       </c>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
+      <c r="K79" s="14">
+        <v>0</v>
+      </c>
+      <c r="L79" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
@@ -3280,8 +3605,12 @@
       <c r="J80" s="11">
         <v>-1.6037763032745165</v>
       </c>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
+      <c r="K80" s="14">
+        <v>0</v>
+      </c>
+      <c r="L80" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
@@ -3314,8 +3643,12 @@
       <c r="J81" s="11">
         <v>1.7833595099956827</v>
       </c>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
+      <c r="K81" s="14">
+        <v>0</v>
+      </c>
+      <c r="L81" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
@@ -3348,8 +3681,12 @@
       <c r="J82" s="11">
         <v>-1.1536639035252823</v>
       </c>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
+      <c r="K82" s="14">
+        <v>0</v>
+      </c>
+      <c r="L82" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
@@ -3382,8 +3719,12 @@
       <c r="J83" s="11">
         <v>1.2873431486908382</v>
       </c>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
+      <c r="K83" s="14">
+        <v>0</v>
+      </c>
+      <c r="L83" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Documents/Github_R/Regrassion_GDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7D4DD7-3DCE-744F-847A-0CF5AD72D702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFBCC37-9EEE-4744-9511-3F014DC39525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15760" xr2:uid="{3580B857-6E9C-4522-A1C6-485FA67992EC}"/>
+    <workbookView xWindow="4800" yWindow="620" windowWidth="28800" windowHeight="15760" xr2:uid="{3580B857-6E9C-4522-A1C6-485FA67992EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>DATE</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Dcovid</t>
-  </si>
-  <si>
-    <t>DGFC</t>
   </si>
 </sst>
 </file>
@@ -187,7 +184,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -224,9 +221,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -549,10 +543,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L366"/>
+  <dimension ref="A1:K366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -568,11 +562,10 @@
     <col min="9" max="9" width="16.1640625" style="8" customWidth="1"/>
     <col min="10" max="10" width="16.5" style="8" customWidth="1"/>
     <col min="11" max="11" width="13.5" style="8" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="8"/>
+    <col min="12" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -606,11 +599,8 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>38353</v>
       </c>
@@ -641,14 +631,11 @@
       <c r="J2" s="11">
         <v>-0.73775997003258043</v>
       </c>
-      <c r="K2" s="14">
-        <v>0</v>
-      </c>
-      <c r="L2" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>38443</v>
       </c>
@@ -679,14 +666,11 @@
       <c r="J3" s="11">
         <v>-0.19198564170647303</v>
       </c>
-      <c r="K3" s="14">
-        <v>0</v>
-      </c>
-      <c r="L3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>38534</v>
       </c>
@@ -717,14 +701,11 @@
       <c r="J4" s="11">
         <v>1.192834114240922</v>
       </c>
-      <c r="K4" s="14">
-        <v>0</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>38626</v>
       </c>
@@ -755,14 +736,11 @@
       <c r="J5" s="11">
         <v>-0.91325168755096142</v>
       </c>
-      <c r="K5" s="14">
-        <v>0</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>38718</v>
       </c>
@@ -793,14 +771,11 @@
       <c r="J6" s="11">
         <v>1.5590381083053757</v>
       </c>
-      <c r="K6" s="14">
-        <v>0</v>
-      </c>
-      <c r="L6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>38808</v>
       </c>
@@ -831,14 +806,11 @@
       <c r="J7" s="11">
         <v>-0.5887718042761283</v>
       </c>
-      <c r="K7" s="14">
-        <v>0</v>
-      </c>
-      <c r="L7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>38899</v>
       </c>
@@ -869,14 +841,11 @@
       <c r="J8" s="11">
         <v>-0.78878743245589156</v>
       </c>
-      <c r="K8" s="14">
-        <v>0</v>
-      </c>
-      <c r="L8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>38991</v>
       </c>
@@ -907,14 +876,11 @@
       <c r="J9" s="11">
         <v>0.68505926437646025</v>
       </c>
-      <c r="K9" s="14">
-        <v>0</v>
-      </c>
-      <c r="L9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>39083</v>
       </c>
@@ -945,14 +911,11 @@
       <c r="J10" s="11">
         <v>-1.9501731862862451E-4</v>
       </c>
-      <c r="K10" s="14">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>39173</v>
       </c>
@@ -983,14 +946,11 @@
       <c r="J11" s="11">
         <v>0.71383169521439682</v>
       </c>
-      <c r="K11" s="14">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>39264</v>
       </c>
@@ -1021,14 +981,11 @@
       <c r="J12" s="11">
         <v>-0.30034869756010396</v>
       </c>
-      <c r="K12" s="14">
-        <v>0</v>
-      </c>
-      <c r="L12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>39356</v>
       </c>
@@ -1059,14 +1016,11 @@
       <c r="J13" s="11">
         <v>-7.30294149308479E-2</v>
       </c>
-      <c r="K13" s="14">
-        <v>0</v>
-      </c>
-      <c r="L13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>39448</v>
       </c>
@@ -1097,14 +1051,11 @@
       <c r="J14" s="11">
         <v>-1.4042505984193532</v>
       </c>
-      <c r="K14" s="14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>39539</v>
       </c>
@@ -1121,7 +1072,7 @@
         <v>103.261</v>
       </c>
       <c r="F15" s="9">
-        <v>122.39082972582999</v>
+        <v>122.39082972583</v>
       </c>
       <c r="G15" s="3">
         <v>94.21</v>
@@ -1135,14 +1086,11 @@
       <c r="J15" s="11">
         <v>1.7213579177417264</v>
       </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>39630</v>
       </c>
@@ -1173,14 +1121,11 @@
       <c r="J16" s="11">
         <v>-1.5767515739417697</v>
       </c>
-      <c r="K16" s="14">
-        <v>0</v>
-      </c>
-      <c r="L16" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>39722</v>
       </c>
@@ -1211,14 +1156,11 @@
       <c r="J17" s="11">
         <v>-1.7583398755939481</v>
       </c>
-      <c r="K17" s="14">
-        <v>0</v>
-      </c>
-      <c r="L17" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>39814</v>
       </c>
@@ -1249,14 +1191,11 @@
       <c r="J18" s="11">
         <v>-1.0256399232721072</v>
       </c>
-      <c r="K18" s="14">
-        <v>0</v>
-      </c>
-      <c r="L18" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>39904</v>
       </c>
@@ -1287,14 +1226,11 @@
       <c r="J19" s="11">
         <v>-0.51116077137761884</v>
       </c>
-      <c r="K19" s="14">
-        <v>0</v>
-      </c>
-      <c r="L19" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>39995</v>
       </c>
@@ -1325,14 +1261,11 @@
       <c r="J20" s="11">
         <v>8.6249471352584983E-2</v>
       </c>
-      <c r="K20" s="14">
-        <v>0</v>
-      </c>
-      <c r="L20" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>40087</v>
       </c>
@@ -1363,14 +1296,11 @@
       <c r="J21" s="11">
         <v>-0.79358764095720524</v>
       </c>
-      <c r="K21" s="14">
-        <v>0</v>
-      </c>
-      <c r="L21" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>40179</v>
       </c>
@@ -1401,14 +1331,11 @@
       <c r="J22" s="11">
         <v>-0.59686859583268548</v>
       </c>
-      <c r="K22" s="14">
-        <v>0</v>
-      </c>
-      <c r="L22" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>40269</v>
       </c>
@@ -1439,14 +1366,11 @@
       <c r="J23" s="11">
         <v>-0.55406273382459503</v>
       </c>
-      <c r="K23" s="14">
-        <v>0</v>
-      </c>
-      <c r="L23" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>40360</v>
       </c>
@@ -1477,14 +1401,11 @@
       <c r="J24" s="11">
         <v>-1.9931790907010718</v>
       </c>
-      <c r="K24" s="14">
-        <v>0</v>
-      </c>
-      <c r="L24" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>40452</v>
       </c>
@@ -1515,14 +1436,11 @@
       <c r="J25" s="11">
         <v>1.9196749896078236</v>
       </c>
-      <c r="K25" s="14">
-        <v>0</v>
-      </c>
-      <c r="L25" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>40544</v>
       </c>
@@ -1553,14 +1471,11 @@
       <c r="J26" s="11">
         <v>-1.0393872832222939</v>
       </c>
-      <c r="K26" s="14">
-        <v>0</v>
-      </c>
-      <c r="L26" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>40634</v>
       </c>
@@ -1591,14 +1506,11 @@
       <c r="J27" s="11">
         <v>-2.1873605828584051</v>
       </c>
-      <c r="K27" s="14">
-        <v>0</v>
-      </c>
-      <c r="L27" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>40725</v>
       </c>
@@ -1629,14 +1541,11 @@
       <c r="J28" s="11">
         <v>2.5747365793093602</v>
       </c>
-      <c r="K28" s="14">
-        <v>0</v>
-      </c>
-      <c r="L28" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>40817</v>
       </c>
@@ -1667,14 +1576,11 @@
       <c r="J29" s="11">
         <v>-3.3202200547679723</v>
       </c>
-      <c r="K29" s="14">
-        <v>0</v>
-      </c>
-      <c r="L29" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>40909</v>
       </c>
@@ -1705,14 +1611,11 @@
       <c r="J30" s="11">
         <v>0.62476610594101489</v>
       </c>
-      <c r="K30" s="14">
-        <v>0</v>
-      </c>
-      <c r="L30" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>41000</v>
       </c>
@@ -1743,14 +1646,11 @@
       <c r="J31" s="11">
         <v>0.41650335041408948</v>
       </c>
-      <c r="K31" s="14">
-        <v>0</v>
-      </c>
-      <c r="L31" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>41091</v>
       </c>
@@ -1781,14 +1681,11 @@
       <c r="J32" s="11">
         <v>0.24976440085827833</v>
       </c>
-      <c r="K32" s="14">
-        <v>0</v>
-      </c>
-      <c r="L32" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>41183</v>
       </c>
@@ -1819,14 +1716,11 @@
       <c r="J33" s="11">
         <v>-0.98969811056696155</v>
       </c>
-      <c r="K33" s="14">
-        <v>0</v>
-      </c>
-      <c r="L33" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>41275</v>
       </c>
@@ -1857,14 +1751,11 @@
       <c r="J34" s="11">
         <v>0.24668328248765481</v>
       </c>
-      <c r="K34" s="14">
-        <v>0</v>
-      </c>
-      <c r="L34" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>41365</v>
       </c>
@@ -1895,14 +1786,11 @@
       <c r="J35" s="11">
         <v>1.2587967883962254</v>
       </c>
-      <c r="K35" s="14">
-        <v>0</v>
-      </c>
-      <c r="L35" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>41456</v>
       </c>
@@ -1933,14 +1821,11 @@
       <c r="J36" s="11">
         <v>-1.2104658509298976</v>
       </c>
-      <c r="K36" s="14">
-        <v>0</v>
-      </c>
-      <c r="L36" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>41548</v>
       </c>
@@ -1971,14 +1856,11 @@
       <c r="J37" s="11">
         <v>-0.50056797532180175</v>
       </c>
-      <c r="K37" s="14">
-        <v>0</v>
-      </c>
-      <c r="L37" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>41640</v>
       </c>
@@ -2009,14 +1891,11 @@
       <c r="J38" s="11">
         <v>-0.67816118993914376</v>
       </c>
-      <c r="K38" s="14">
-        <v>0</v>
-      </c>
-      <c r="L38" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>41730</v>
       </c>
@@ -2047,14 +1926,11 @@
       <c r="J39" s="11">
         <v>0.9621542429257971</v>
       </c>
-      <c r="K39" s="14">
-        <v>0</v>
-      </c>
-      <c r="L39" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>41821</v>
       </c>
@@ -2085,14 +1961,11 @@
       <c r="J40" s="11">
         <v>-0.96772549278445263</v>
       </c>
-      <c r="K40" s="14">
-        <v>0</v>
-      </c>
-      <c r="L40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>41913</v>
       </c>
@@ -2123,14 +1996,11 @@
       <c r="J41" s="11">
         <v>-0.10296935563392833</v>
       </c>
-      <c r="K41" s="14">
-        <v>0</v>
-      </c>
-      <c r="L41" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>42005</v>
       </c>
@@ -2161,14 +2031,11 @@
       <c r="J42" s="11">
         <v>1.5751187447695123</v>
       </c>
-      <c r="K42" s="14">
-        <v>0</v>
-      </c>
-      <c r="L42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>42095</v>
       </c>
@@ -2199,14 +2066,11 @@
       <c r="J43" s="11">
         <v>-2.3724202990103191</v>
       </c>
-      <c r="K43" s="14">
-        <v>0</v>
-      </c>
-      <c r="L43" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>42186</v>
       </c>
@@ -2237,14 +2101,11 @@
       <c r="J44" s="11">
         <v>2.0914598473117594</v>
       </c>
-      <c r="K44" s="14">
-        <v>0</v>
-      </c>
-      <c r="L44" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>42278</v>
       </c>
@@ -2275,14 +2136,11 @@
       <c r="J45" s="11">
         <v>1.6850308185153224</v>
       </c>
-      <c r="K45" s="14">
-        <v>0</v>
-      </c>
-      <c r="L45" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>42370</v>
       </c>
@@ -2313,14 +2171,11 @@
       <c r="J46" s="11">
         <v>-1.9271816030589932</v>
       </c>
-      <c r="K46" s="14">
-        <v>0</v>
-      </c>
-      <c r="L46" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>42461</v>
       </c>
@@ -2351,14 +2206,11 @@
       <c r="J47" s="11">
         <v>0.57964013981868967</v>
       </c>
-      <c r="K47" s="14">
-        <v>0</v>
-      </c>
-      <c r="L47" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>42552</v>
       </c>
@@ -2389,14 +2241,11 @@
       <c r="J48" s="11">
         <v>0.1760543507322424</v>
       </c>
-      <c r="K48" s="14">
-        <v>0</v>
-      </c>
-      <c r="L48" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>42644</v>
       </c>
@@ -2427,14 +2276,11 @@
       <c r="J49" s="11">
         <v>1.5373846031140133</v>
       </c>
-      <c r="K49" s="14">
-        <v>0</v>
-      </c>
-      <c r="L49" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>42736</v>
       </c>
@@ -2465,14 +2311,11 @@
       <c r="J50" s="11">
         <v>0.30629366398365238</v>
       </c>
-      <c r="K50" s="14">
-        <v>0</v>
-      </c>
-      <c r="L50" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>42826</v>
       </c>
@@ -2503,14 +2346,11 @@
       <c r="J51" s="11">
         <v>-0.42316367996083309</v>
       </c>
-      <c r="K51" s="14">
-        <v>0</v>
-      </c>
-      <c r="L51" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>42917</v>
       </c>
@@ -2541,14 +2381,11 @@
       <c r="J52" s="11">
         <v>-0.50885672719622521</v>
       </c>
-      <c r="K52" s="14">
-        <v>0</v>
-      </c>
-      <c r="L52" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>43009</v>
       </c>
@@ -2579,14 +2416,11 @@
       <c r="J53" s="11">
         <v>1.0639205677284982</v>
       </c>
-      <c r="K53" s="14">
-        <v>0</v>
-      </c>
-      <c r="L53" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>43101</v>
       </c>
@@ -2617,14 +2451,11 @@
       <c r="J54" s="11">
         <v>0.30674607977813068</v>
       </c>
-      <c r="K54" s="14">
-        <v>0</v>
-      </c>
-      <c r="L54" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>43191</v>
       </c>
@@ -2655,14 +2486,11 @@
       <c r="J55" s="11">
         <v>-0.27954881580700253</v>
       </c>
-      <c r="K55" s="14">
-        <v>0</v>
-      </c>
-      <c r="L55" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>43282</v>
       </c>
@@ -2693,14 +2521,11 @@
       <c r="J56" s="11">
         <v>3.9480641484302359E-2</v>
       </c>
-      <c r="K56" s="14">
-        <v>0</v>
-      </c>
-      <c r="L56" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>43374</v>
       </c>
@@ -2731,14 +2556,11 @@
       <c r="J57" s="11">
         <v>0.64013421619929634</v>
       </c>
-      <c r="K57" s="14">
-        <v>0</v>
-      </c>
-      <c r="L57" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K57" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>43466</v>
       </c>
@@ -2769,14 +2591,11 @@
       <c r="J58" s="11">
         <v>-0.69750224246385439</v>
       </c>
-      <c r="K58" s="14">
-        <v>0</v>
-      </c>
-      <c r="L58" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K58" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>43556</v>
       </c>
@@ -2807,14 +2626,11 @@
       <c r="J59" s="11">
         <v>-2.7585673499091634E-2</v>
       </c>
-      <c r="K59" s="14">
-        <v>0</v>
-      </c>
-      <c r="L59" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K59" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>43647</v>
       </c>
@@ -2845,14 +2661,11 @@
       <c r="J60" s="11">
         <v>0.68063648022636725</v>
       </c>
-      <c r="K60" s="14">
-        <v>0</v>
-      </c>
-      <c r="L60" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K60" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>43739</v>
       </c>
@@ -2883,14 +2696,11 @@
       <c r="J61" s="11">
         <v>-1.107800617501322</v>
       </c>
-      <c r="K61" s="14">
-        <v>0</v>
-      </c>
-      <c r="L61" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>43831</v>
       </c>
@@ -2921,14 +2731,11 @@
       <c r="J62" s="11">
         <v>0.64152818235095455</v>
       </c>
-      <c r="K62" s="14">
-        <v>0</v>
-      </c>
-      <c r="L62" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K62" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>43922</v>
       </c>
@@ -2959,14 +2766,11 @@
       <c r="J63" s="11">
         <v>-1.4821295654638504</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K63" s="8">
         <v>1</v>
       </c>
-      <c r="L63" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>44013</v>
       </c>
@@ -2997,14 +2801,11 @@
       <c r="J64" s="11">
         <v>1.5398031967424692</v>
       </c>
-      <c r="K64" s="14">
-        <v>1</v>
-      </c>
-      <c r="L64" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K64" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>44105</v>
       </c>
@@ -3035,14 +2836,11 @@
       <c r="J65" s="11">
         <v>0.97034966989242211</v>
       </c>
-      <c r="K65" s="14">
-        <v>1</v>
-      </c>
-      <c r="L65" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>44197</v>
       </c>
@@ -3073,14 +2871,11 @@
       <c r="J66" s="11">
         <v>1.1374495216736578</v>
       </c>
-      <c r="K66" s="14">
-        <v>1</v>
-      </c>
-      <c r="L66" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K66" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>44287</v>
       </c>
@@ -3111,14 +2906,11 @@
       <c r="J67" s="11">
         <v>-0.49023335149984459</v>
       </c>
-      <c r="K67" s="14">
-        <v>1</v>
-      </c>
-      <c r="L67" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K67" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>44378</v>
       </c>
@@ -3149,14 +2941,11 @@
       <c r="J68" s="11">
         <v>2.1347653778548996</v>
       </c>
-      <c r="K68" s="14">
-        <v>1</v>
-      </c>
-      <c r="L68" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K68" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>44470</v>
       </c>
@@ -3187,14 +2976,11 @@
       <c r="J69" s="11">
         <v>0.27812451788017778</v>
       </c>
-      <c r="K69" s="14">
-        <v>0</v>
-      </c>
-      <c r="L69" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K69" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>44562</v>
       </c>
@@ -3225,14 +3011,11 @@
       <c r="J70" s="11">
         <v>1.2030928391142157</v>
       </c>
-      <c r="K70" s="14">
-        <v>0</v>
-      </c>
-      <c r="L70" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>44652</v>
       </c>
@@ -3263,14 +3046,11 @@
       <c r="J71" s="11">
         <v>-0.40456738939497372</v>
       </c>
-      <c r="K71" s="14">
-        <v>0</v>
-      </c>
-      <c r="L71" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K71" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>44743</v>
       </c>
@@ -3301,14 +3081,11 @@
       <c r="J72" s="11">
         <v>-1.1023044527198622</v>
       </c>
-      <c r="K72" s="14">
-        <v>0</v>
-      </c>
-      <c r="L72" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K72" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>44835</v>
       </c>
@@ -3339,14 +3116,11 @@
       <c r="J73" s="11">
         <v>0.17583495838569732</v>
       </c>
-      <c r="K73" s="14">
-        <v>0</v>
-      </c>
-      <c r="L73" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K73" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>44927</v>
       </c>
@@ -3377,14 +3151,11 @@
       <c r="J74" s="11">
         <v>1.6714875206993502</v>
       </c>
-      <c r="K74" s="14">
-        <v>0</v>
-      </c>
-      <c r="L74" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K74" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>45017</v>
       </c>
@@ -3415,14 +3186,11 @@
       <c r="J75" s="11">
         <v>-1.6976220186845974</v>
       </c>
-      <c r="K75" s="14">
-        <v>0</v>
-      </c>
-      <c r="L75" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K75" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>45108</v>
       </c>
@@ -3453,14 +3221,11 @@
       <c r="J76" s="11">
         <v>0.70474906178332197</v>
       </c>
-      <c r="K76" s="14">
-        <v>0</v>
-      </c>
-      <c r="L76" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K76" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>45200</v>
       </c>
@@ -3491,14 +3256,11 @@
       <c r="J77" s="11">
         <v>0.82125937853980469</v>
       </c>
-      <c r="K77" s="14">
-        <v>0</v>
-      </c>
-      <c r="L77" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K77" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>45292</v>
       </c>
@@ -3529,14 +3291,11 @@
       <c r="J78" s="11">
         <v>0.26336048363269887</v>
       </c>
-      <c r="K78" s="14">
-        <v>0</v>
-      </c>
-      <c r="L78" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K78" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>45383</v>
       </c>
@@ -3567,14 +3326,11 @@
       <c r="J79" s="11">
         <v>1.6587442380861579</v>
       </c>
-      <c r="K79" s="14">
-        <v>0</v>
-      </c>
-      <c r="L79" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K79" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>45474</v>
       </c>
@@ -3605,14 +3361,11 @@
       <c r="J80" s="11">
         <v>-1.6037763032745165</v>
       </c>
-      <c r="K80" s="14">
-        <v>0</v>
-      </c>
-      <c r="L80" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K80" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>45566</v>
       </c>
@@ -3643,14 +3396,11 @@
       <c r="J81" s="11">
         <v>1.7833595099956827</v>
       </c>
-      <c r="K81" s="14">
-        <v>0</v>
-      </c>
-      <c r="L81" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K81" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>45658</v>
       </c>
@@ -3681,14 +3431,11 @@
       <c r="J82" s="11">
         <v>-1.1536639035252823</v>
       </c>
-      <c r="K82" s="14">
-        <v>0</v>
-      </c>
-      <c r="L82" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K82" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>45748</v>
       </c>
@@ -3719,14 +3466,11 @@
       <c r="J83" s="11">
         <v>1.2873431486908382</v>
       </c>
-      <c r="K83" s="14">
-        <v>0</v>
-      </c>
-      <c r="L83" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K83" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3738,7 +3482,7 @@
       <c r="J84"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3749,7 +3493,7 @@
       <c r="H85" s="10"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3760,7 +3504,7 @@
       <c r="H86" s="10"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3771,7 +3515,7 @@
       <c r="H87" s="10"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3782,7 +3526,7 @@
       <c r="H88" s="10"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3793,7 +3537,7 @@
       <c r="H89" s="10"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3804,7 +3548,7 @@
       <c r="H90" s="10"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3815,7 +3559,7 @@
       <c r="H91" s="10"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3826,7 +3570,7 @@
       <c r="H92" s="10"/>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3837,7 +3581,7 @@
       <c r="H93" s="10"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3848,7 +3592,7 @@
       <c r="H94" s="10"/>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3859,7 +3603,7 @@
       <c r="H95" s="10"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Documents/Github_R/Regrassion_GDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFBCC37-9EEE-4744-9511-3F014DC39525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0554BF9-D82F-5548-AC56-40851BF619FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="620" windowWidth="28800" windowHeight="15760" xr2:uid="{3580B857-6E9C-4522-A1C6-485FA67992EC}"/>
   </bookViews>
@@ -545,8 +545,8 @@
   </sheetPr>
   <dimension ref="A1:K366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Documents/Github_R/Regrassion_GDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0554BF9-D82F-5548-AC56-40851BF619FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27CDE69-519A-F543-8784-C07AB4051430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="620" windowWidth="28800" windowHeight="15760" xr2:uid="{3580B857-6E9C-4522-A1C6-485FA67992EC}"/>
   </bookViews>
@@ -545,8 +545,8 @@
   </sheetPr>
   <dimension ref="A1:K366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Documents/Github_R/Regrassion_GDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27CDE69-519A-F543-8784-C07AB4051430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BF1434-AB27-9743-BF66-FD25FFBDD0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="620" windowWidth="28800" windowHeight="15760" xr2:uid="{3580B857-6E9C-4522-A1C6-485FA67992EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -68,6 +68,9 @@
   <si>
     <t>Dcovid</t>
   </si>
+  <si>
+    <t>German Searches</t>
+  </si>
 </sst>
 </file>
 
@@ -77,7 +80,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="#,##0.##"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +148,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +193,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -223,6 +232,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,10 +553,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K366"/>
+  <dimension ref="A1:N366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -561,11 +571,12 @@
     <col min="8" max="8" width="20" style="8" customWidth="1"/>
     <col min="9" max="9" width="16.1640625" style="8" customWidth="1"/>
     <col min="10" max="10" width="16.5" style="8" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="8"/>
+    <col min="11" max="11" width="20.83203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -597,10 +608,13 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>38353</v>
       </c>
@@ -631,11 +645,15 @@
       <c r="J2" s="11">
         <v>-0.73775997003258043</v>
       </c>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K2" s="11">
+        <v>15</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>38443</v>
       </c>
@@ -666,11 +684,15 @@
       <c r="J3" s="11">
         <v>-0.19198564170647303</v>
       </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K3" s="11">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="L3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>38534</v>
       </c>
@@ -701,11 +723,15 @@
       <c r="J4" s="11">
         <v>1.192834114240922</v>
       </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K4" s="11">
+        <v>18.666666666666668</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>38626</v>
       </c>
@@ -736,11 +762,15 @@
       <c r="J5" s="11">
         <v>-0.91325168755096142</v>
       </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K5" s="11">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>38718</v>
       </c>
@@ -771,11 +801,15 @@
       <c r="J6" s="11">
         <v>1.5590381083053757</v>
       </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K6" s="11">
+        <v>13</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>38808</v>
       </c>
@@ -806,11 +840,15 @@
       <c r="J7" s="11">
         <v>-0.5887718042761283</v>
       </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K7" s="11">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>38899</v>
       </c>
@@ -841,11 +879,15 @@
       <c r="J8" s="11">
         <v>-0.78878743245589156</v>
       </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K8" s="11">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>38991</v>
       </c>
@@ -876,11 +918,15 @@
       <c r="J9" s="11">
         <v>0.68505926437646025</v>
       </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K9" s="11">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>39083</v>
       </c>
@@ -911,11 +957,15 @@
       <c r="J10" s="11">
         <v>-1.9501731862862451E-4</v>
       </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K10" s="11">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>39173</v>
       </c>
@@ -946,11 +996,15 @@
       <c r="J11" s="11">
         <v>0.71383169521439682</v>
       </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K11" s="11">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>39264</v>
       </c>
@@ -981,11 +1035,15 @@
       <c r="J12" s="11">
         <v>-0.30034869756010396</v>
       </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K12" s="11">
+        <v>14.666666666666666</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>39356</v>
       </c>
@@ -1016,11 +1074,15 @@
       <c r="J13" s="11">
         <v>-7.30294149308479E-2</v>
       </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K13" s="11">
+        <v>8</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>39448</v>
       </c>
@@ -1051,11 +1113,15 @@
       <c r="J14" s="11">
         <v>-1.4042505984193532</v>
       </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K14" s="11">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>39539</v>
       </c>
@@ -1086,11 +1152,15 @@
       <c r="J15" s="11">
         <v>1.7213579177417264</v>
       </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K15" s="11">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>39630</v>
       </c>
@@ -1121,11 +1191,15 @@
       <c r="J16" s="11">
         <v>-1.5767515739417697</v>
       </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K16" s="11">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>39722</v>
       </c>
@@ -1156,11 +1230,15 @@
       <c r="J17" s="11">
         <v>-1.7583398755939481</v>
       </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K17" s="11">
+        <v>7</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>39814</v>
       </c>
@@ -1191,11 +1269,15 @@
       <c r="J18" s="11">
         <v>-1.0256399232721072</v>
       </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K18" s="11">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>39904</v>
       </c>
@@ -1226,11 +1308,15 @@
       <c r="J19" s="11">
         <v>-0.51116077137761884</v>
       </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K19" s="11">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>39995</v>
       </c>
@@ -1261,11 +1347,15 @@
       <c r="J20" s="11">
         <v>8.6249471352584983E-2</v>
       </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K20" s="11">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>40087</v>
       </c>
@@ -1296,11 +1386,15 @@
       <c r="J21" s="11">
         <v>-0.79358764095720524</v>
       </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K21" s="11">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>40179</v>
       </c>
@@ -1331,11 +1425,15 @@
       <c r="J22" s="11">
         <v>-0.59686859583268548</v>
       </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K22" s="11">
+        <v>11.333333333333334</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>40269</v>
       </c>
@@ -1366,11 +1464,15 @@
       <c r="J23" s="11">
         <v>-0.55406273382459503</v>
       </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K23" s="11">
+        <v>19</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>40360</v>
       </c>
@@ -1401,11 +1503,15 @@
       <c r="J24" s="11">
         <v>-1.9931790907010718</v>
       </c>
-      <c r="K24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K24" s="11">
+        <v>10</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>40452</v>
       </c>
@@ -1436,11 +1542,15 @@
       <c r="J25" s="11">
         <v>1.9196749896078236</v>
       </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K25" s="11">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0</v>
+      </c>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>40544</v>
       </c>
@@ -1471,11 +1581,15 @@
       <c r="J26" s="11">
         <v>-1.0393872832222939</v>
       </c>
-      <c r="K26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K26" s="11">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>40634</v>
       </c>
@@ -1506,11 +1620,15 @@
       <c r="J27" s="11">
         <v>-2.1873605828584051</v>
       </c>
-      <c r="K27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K27" s="11">
+        <v>15.666666666666666</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>40725</v>
       </c>
@@ -1541,11 +1659,15 @@
       <c r="J28" s="11">
         <v>2.5747365793093602</v>
       </c>
-      <c r="K28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K28" s="11">
+        <v>16</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0</v>
+      </c>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>40817</v>
       </c>
@@ -1576,11 +1698,15 @@
       <c r="J29" s="11">
         <v>-3.3202200547679723</v>
       </c>
-      <c r="K29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K29" s="11">
+        <v>14</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>40909</v>
       </c>
@@ -1611,11 +1737,15 @@
       <c r="J30" s="11">
         <v>0.62476610594101489</v>
       </c>
-      <c r="K30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K30" s="11">
+        <v>15.333333333333334</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0</v>
+      </c>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>41000</v>
       </c>
@@ -1646,11 +1776,15 @@
       <c r="J31" s="11">
         <v>0.41650335041408948</v>
       </c>
-      <c r="K31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K31" s="11">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>41091</v>
       </c>
@@ -1681,11 +1815,15 @@
       <c r="J32" s="11">
         <v>0.24976440085827833</v>
       </c>
-      <c r="K32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K32" s="11">
+        <v>14</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>41183</v>
       </c>
@@ -1716,11 +1854,15 @@
       <c r="J33" s="11">
         <v>-0.98969811056696155</v>
       </c>
-      <c r="K33" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K33" s="11">
+        <v>9</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+      <c r="N33" s="14"/>
+    </row>
+    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>41275</v>
       </c>
@@ -1751,11 +1893,15 @@
       <c r="J34" s="11">
         <v>0.24668328248765481</v>
       </c>
-      <c r="K34" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K34" s="11">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+      <c r="N34" s="14"/>
+    </row>
+    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>41365</v>
       </c>
@@ -1786,11 +1932,15 @@
       <c r="J35" s="11">
         <v>1.2587967883962254</v>
       </c>
-      <c r="K35" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K35" s="11">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+      <c r="N35" s="14"/>
+    </row>
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>41456</v>
       </c>
@@ -1821,11 +1971,15 @@
       <c r="J36" s="11">
         <v>-1.2104658509298976</v>
       </c>
-      <c r="K36" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K36" s="11">
+        <v>12</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0</v>
+      </c>
+      <c r="N36" s="14"/>
+    </row>
+    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>41548</v>
       </c>
@@ -1856,11 +2010,15 @@
       <c r="J37" s="11">
         <v>-0.50056797532180175</v>
       </c>
-      <c r="K37" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K37" s="11">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0</v>
+      </c>
+      <c r="N37" s="14"/>
+    </row>
+    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>41640</v>
       </c>
@@ -1891,11 +2049,15 @@
       <c r="J38" s="11">
         <v>-0.67816118993914376</v>
       </c>
-      <c r="K38" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K38" s="11">
+        <v>10</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0</v>
+      </c>
+      <c r="N38" s="14"/>
+    </row>
+    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>41730</v>
       </c>
@@ -1926,11 +2088,15 @@
       <c r="J39" s="11">
         <v>0.9621542429257971</v>
       </c>
-      <c r="K39" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K39" s="11">
+        <v>20</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0</v>
+      </c>
+      <c r="N39" s="14"/>
+    </row>
+    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>41821</v>
       </c>
@@ -1961,11 +2127,15 @@
       <c r="J40" s="11">
         <v>-0.96772549278445263</v>
       </c>
-      <c r="K40" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K40" s="11">
+        <v>12.666666666666666</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="N40" s="14"/>
+    </row>
+    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>41913</v>
       </c>
@@ -1996,11 +2166,15 @@
       <c r="J41" s="11">
         <v>-0.10296935563392833</v>
       </c>
-      <c r="K41" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K41" s="11">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="N41" s="14"/>
+    </row>
+    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>42005</v>
       </c>
@@ -2031,11 +2205,15 @@
       <c r="J42" s="11">
         <v>1.5751187447695123</v>
       </c>
-      <c r="K42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K42" s="11">
+        <v>24.666666666666668</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0</v>
+      </c>
+      <c r="N42" s="14"/>
+    </row>
+    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>42095</v>
       </c>
@@ -2066,11 +2244,15 @@
       <c r="J43" s="11">
         <v>-2.3724202990103191</v>
       </c>
-      <c r="K43" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K43" s="11">
+        <v>34</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+      <c r="N43" s="14"/>
+    </row>
+    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>42186</v>
       </c>
@@ -2101,11 +2283,15 @@
       <c r="J44" s="11">
         <v>2.0914598473117594</v>
       </c>
-      <c r="K44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K44" s="11">
+        <v>46.333333333333336</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+      <c r="N44" s="14"/>
+    </row>
+    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>42278</v>
       </c>
@@ -2136,11 +2322,15 @@
       <c r="J45" s="11">
         <v>1.6850308185153224</v>
       </c>
-      <c r="K45" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K45" s="11">
+        <v>9</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0</v>
+      </c>
+      <c r="N45" s="14"/>
+    </row>
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>42370</v>
       </c>
@@ -2171,11 +2361,15 @@
       <c r="J46" s="11">
         <v>-1.9271816030589932</v>
       </c>
-      <c r="K46" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K46" s="11">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0</v>
+      </c>
+      <c r="N46" s="14"/>
+    </row>
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>42461</v>
       </c>
@@ -2206,11 +2400,15 @@
       <c r="J47" s="11">
         <v>0.57964013981868967</v>
       </c>
-      <c r="K47" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K47" s="11">
+        <v>13.666666666666666</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0</v>
+      </c>
+      <c r="N47" s="14"/>
+    </row>
+    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>42552</v>
       </c>
@@ -2241,11 +2439,15 @@
       <c r="J48" s="11">
         <v>0.1760543507322424</v>
       </c>
-      <c r="K48" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K48" s="11">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0</v>
+      </c>
+      <c r="N48" s="14"/>
+    </row>
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>42644</v>
       </c>
@@ -2276,11 +2478,15 @@
       <c r="J49" s="11">
         <v>1.5373846031140133</v>
       </c>
-      <c r="K49" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K49" s="11">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+      <c r="N49" s="14"/>
+    </row>
+    <row r="50" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>42736</v>
       </c>
@@ -2311,11 +2517,15 @@
       <c r="J50" s="11">
         <v>0.30629366398365238</v>
       </c>
-      <c r="K50" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K50" s="11">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0</v>
+      </c>
+      <c r="N50" s="14"/>
+    </row>
+    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>42826</v>
       </c>
@@ -2346,11 +2556,15 @@
       <c r="J51" s="11">
         <v>-0.42316367996083309</v>
       </c>
-      <c r="K51" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K51" s="11">
+        <v>15</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+      <c r="N51" s="14"/>
+    </row>
+    <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>42917</v>
       </c>
@@ -2381,11 +2595,15 @@
       <c r="J52" s="11">
         <v>-0.50885672719622521</v>
       </c>
-      <c r="K52" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K52" s="11">
+        <v>17</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0</v>
+      </c>
+      <c r="N52" s="14"/>
+    </row>
+    <row r="53" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>43009</v>
       </c>
@@ -2416,11 +2634,15 @@
       <c r="J53" s="11">
         <v>1.0639205677284982</v>
       </c>
-      <c r="K53" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K53" s="11">
+        <v>11.333333333333334</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0</v>
+      </c>
+      <c r="N53" s="14"/>
+    </row>
+    <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>43101</v>
       </c>
@@ -2451,11 +2673,15 @@
       <c r="J54" s="11">
         <v>0.30674607977813068</v>
       </c>
-      <c r="K54" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K54" s="11">
+        <v>14</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="N54" s="14"/>
+    </row>
+    <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>43191</v>
       </c>
@@ -2486,11 +2712,15 @@
       <c r="J55" s="11">
         <v>-0.27954881580700253</v>
       </c>
-      <c r="K55" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K55" s="11">
+        <v>15.666666666666666</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0</v>
+      </c>
+      <c r="N55" s="14"/>
+    </row>
+    <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>43282</v>
       </c>
@@ -2521,11 +2751,15 @@
       <c r="J56" s="11">
         <v>3.9480641484302359E-2</v>
       </c>
-      <c r="K56" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K56" s="11">
+        <v>19.333333333333332</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0</v>
+      </c>
+      <c r="N56" s="14"/>
+    </row>
+    <row r="57" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>43374</v>
       </c>
@@ -2556,11 +2790,15 @@
       <c r="J57" s="11">
         <v>0.64013421619929634</v>
       </c>
-      <c r="K57" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K57" s="11">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0</v>
+      </c>
+      <c r="N57" s="14"/>
+    </row>
+    <row r="58" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>43466</v>
       </c>
@@ -2591,11 +2829,15 @@
       <c r="J58" s="11">
         <v>-0.69750224246385439</v>
       </c>
-      <c r="K58" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K58" s="11">
+        <v>13</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0</v>
+      </c>
+      <c r="N58" s="14"/>
+    </row>
+    <row r="59" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>43556</v>
       </c>
@@ -2626,11 +2868,15 @@
       <c r="J59" s="11">
         <v>-2.7585673499091634E-2</v>
       </c>
-      <c r="K59" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K59" s="11">
+        <v>15</v>
+      </c>
+      <c r="L59" s="8">
+        <v>0</v>
+      </c>
+      <c r="N59" s="14"/>
+    </row>
+    <row r="60" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>43647</v>
       </c>
@@ -2661,11 +2907,15 @@
       <c r="J60" s="11">
         <v>0.68063648022636725</v>
       </c>
-      <c r="K60" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K60" s="11">
+        <v>17.333333333333332</v>
+      </c>
+      <c r="L60" s="8">
+        <v>0</v>
+      </c>
+      <c r="N60" s="14"/>
+    </row>
+    <row r="61" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>43739</v>
       </c>
@@ -2696,11 +2946,15 @@
       <c r="J61" s="11">
         <v>-1.107800617501322</v>
       </c>
-      <c r="K61" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K61" s="11">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="L61" s="8">
+        <v>0</v>
+      </c>
+      <c r="N61" s="14"/>
+    </row>
+    <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>43831</v>
       </c>
@@ -2731,11 +2985,15 @@
       <c r="J62" s="11">
         <v>0.64152818235095455</v>
       </c>
-      <c r="K62" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K62" s="11">
+        <v>16</v>
+      </c>
+      <c r="L62" s="8">
+        <v>0</v>
+      </c>
+      <c r="N62" s="14"/>
+    </row>
+    <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>43922</v>
       </c>
@@ -2766,11 +3024,15 @@
       <c r="J63" s="11">
         <v>-1.4821295654638504</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K63" s="11">
+        <v>15.333333333333334</v>
+      </c>
+      <c r="L63" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="N63" s="14"/>
+    </row>
+    <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>44013</v>
       </c>
@@ -2801,11 +3063,15 @@
       <c r="J64" s="11">
         <v>1.5398031967424692</v>
       </c>
-      <c r="K64" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K64" s="11">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="L64" s="8">
+        <v>0</v>
+      </c>
+      <c r="N64" s="14"/>
+    </row>
+    <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>44105</v>
       </c>
@@ -2836,11 +3102,15 @@
       <c r="J65" s="11">
         <v>0.97034966989242211</v>
       </c>
-      <c r="K65" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K65" s="11">
+        <v>13.666666666666666</v>
+      </c>
+      <c r="L65" s="8">
+        <v>0</v>
+      </c>
+      <c r="N65" s="14"/>
+    </row>
+    <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>44197</v>
       </c>
@@ -2871,11 +3141,15 @@
       <c r="J66" s="11">
         <v>1.1374495216736578</v>
       </c>
-      <c r="K66" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K66" s="11">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="L66" s="8">
+        <v>0</v>
+      </c>
+      <c r="N66" s="14"/>
+    </row>
+    <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>44287</v>
       </c>
@@ -2906,11 +3180,15 @@
       <c r="J67" s="11">
         <v>-0.49023335149984459</v>
       </c>
-      <c r="K67" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K67" s="11">
+        <v>26.333333333333332</v>
+      </c>
+      <c r="L67" s="8">
+        <v>0</v>
+      </c>
+      <c r="N67" s="14"/>
+    </row>
+    <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>44378</v>
       </c>
@@ -2941,11 +3219,15 @@
       <c r="J68" s="11">
         <v>2.1347653778548996</v>
       </c>
-      <c r="K68" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K68" s="11">
+        <v>43</v>
+      </c>
+      <c r="L68" s="8">
+        <v>0</v>
+      </c>
+      <c r="N68" s="14"/>
+    </row>
+    <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>44470</v>
       </c>
@@ -2976,11 +3258,15 @@
       <c r="J69" s="11">
         <v>0.27812451788017778</v>
       </c>
-      <c r="K69" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K69" s="11">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="L69" s="8">
+        <v>0</v>
+      </c>
+      <c r="N69" s="14"/>
+    </row>
+    <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>44562</v>
       </c>
@@ -3011,11 +3297,15 @@
       <c r="J70" s="11">
         <v>1.2030928391142157</v>
       </c>
-      <c r="K70" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K70" s="11">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L70" s="8">
+        <v>0</v>
+      </c>
+      <c r="N70" s="14"/>
+    </row>
+    <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>44652</v>
       </c>
@@ -3046,11 +3336,15 @@
       <c r="J71" s="11">
         <v>-0.40456738939497372</v>
       </c>
-      <c r="K71" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K71" s="11">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="L71" s="8">
+        <v>0</v>
+      </c>
+      <c r="N71" s="14"/>
+    </row>
+    <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>44743</v>
       </c>
@@ -3081,11 +3375,15 @@
       <c r="J72" s="11">
         <v>-1.1023044527198622</v>
       </c>
-      <c r="K72" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K72" s="11">
+        <v>22.333333333333332</v>
+      </c>
+      <c r="L72" s="8">
+        <v>0</v>
+      </c>
+      <c r="N72" s="14"/>
+    </row>
+    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>44835</v>
       </c>
@@ -3116,11 +3414,15 @@
       <c r="J73" s="11">
         <v>0.17583495838569732</v>
       </c>
-      <c r="K73" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K73" s="11">
+        <v>11</v>
+      </c>
+      <c r="L73" s="8">
+        <v>0</v>
+      </c>
+      <c r="N73" s="14"/>
+    </row>
+    <row r="74" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>44927</v>
       </c>
@@ -3151,11 +3453,15 @@
       <c r="J74" s="11">
         <v>1.6714875206993502</v>
       </c>
-      <c r="K74" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K74" s="11">
+        <v>15</v>
+      </c>
+      <c r="L74" s="8">
+        <v>0</v>
+      </c>
+      <c r="N74" s="14"/>
+    </row>
+    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>45017</v>
       </c>
@@ -3186,11 +3492,15 @@
       <c r="J75" s="11">
         <v>-1.6976220186845974</v>
       </c>
-      <c r="K75" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K75" s="11">
+        <v>17.333333333333332</v>
+      </c>
+      <c r="L75" s="8">
+        <v>0</v>
+      </c>
+      <c r="N75" s="14"/>
+    </row>
+    <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>45108</v>
       </c>
@@ -3221,11 +3531,15 @@
       <c r="J76" s="11">
         <v>0.70474906178332197</v>
       </c>
-      <c r="K76" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K76" s="11">
+        <v>23</v>
+      </c>
+      <c r="L76" s="8">
+        <v>0</v>
+      </c>
+      <c r="N76" s="14"/>
+    </row>
+    <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>45200</v>
       </c>
@@ -3256,11 +3570,15 @@
       <c r="J77" s="11">
         <v>0.82125937853980469</v>
       </c>
-      <c r="K77" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K77" s="11">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="L77" s="8">
+        <v>0</v>
+      </c>
+      <c r="N77" s="14"/>
+    </row>
+    <row r="78" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>45292</v>
       </c>
@@ -3291,11 +3609,15 @@
       <c r="J78" s="11">
         <v>0.26336048363269887</v>
       </c>
-      <c r="K78" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K78" s="11">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="L78" s="8">
+        <v>0</v>
+      </c>
+      <c r="N78" s="14"/>
+    </row>
+    <row r="79" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>45383</v>
       </c>
@@ -3326,11 +3648,15 @@
       <c r="J79" s="11">
         <v>1.6587442380861579</v>
       </c>
-      <c r="K79" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K79" s="11">
+        <v>26</v>
+      </c>
+      <c r="L79" s="8">
+        <v>0</v>
+      </c>
+      <c r="N79" s="14"/>
+    </row>
+    <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>45474</v>
       </c>
@@ -3361,11 +3687,15 @@
       <c r="J80" s="11">
         <v>-1.6037763032745165</v>
       </c>
-      <c r="K80" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K80" s="11">
+        <v>19</v>
+      </c>
+      <c r="L80" s="8">
+        <v>0</v>
+      </c>
+      <c r="N80" s="14"/>
+    </row>
+    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>45566</v>
       </c>
@@ -3396,11 +3726,15 @@
       <c r="J81" s="11">
         <v>1.7833595099956827</v>
       </c>
-      <c r="K81" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K81" s="11">
+        <v>11</v>
+      </c>
+      <c r="L81" s="8">
+        <v>0</v>
+      </c>
+      <c r="N81" s="14"/>
+    </row>
+    <row r="82" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>45658</v>
       </c>
@@ -3431,11 +3765,15 @@
       <c r="J82" s="11">
         <v>-1.1536639035252823</v>
       </c>
-      <c r="K82" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K82" s="11">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="L82" s="8">
+        <v>0</v>
+      </c>
+      <c r="N82" s="14"/>
+    </row>
+    <row r="83" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>45748</v>
       </c>
@@ -3466,11 +3804,15 @@
       <c r="J83" s="11">
         <v>1.2873431486908382</v>
       </c>
-      <c r="K83" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="K83" s="11">
+        <v>16.333333333333332</v>
+      </c>
+      <c r="L83" s="8">
+        <v>0</v>
+      </c>
+      <c r="N83" s="14"/>
+    </row>
+    <row r="84" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3480,9 +3822,10 @@
       <c r="G84" s="3"/>
       <c r="H84" s="10"/>
       <c r="J84"/>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L84" s="3"/>
+      <c r="N84" s="14"/>
+    </row>
+    <row r="85" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3491,9 +3834,10 @@
       <c r="F85" s="9"/>
       <c r="G85" s="3"/>
       <c r="H85" s="10"/>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L85" s="3"/>
+      <c r="N85" s="14"/>
+    </row>
+    <row r="86" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3502,9 +3846,10 @@
       <c r="F86" s="9"/>
       <c r="G86" s="3"/>
       <c r="H86" s="10"/>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L86" s="3"/>
+      <c r="N86" s="14"/>
+    </row>
+    <row r="87" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3513,9 +3858,10 @@
       <c r="F87" s="9"/>
       <c r="G87" s="3"/>
       <c r="H87" s="10"/>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L87" s="3"/>
+      <c r="N87" s="14"/>
+    </row>
+    <row r="88" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3524,9 +3870,10 @@
       <c r="F88" s="9"/>
       <c r="G88" s="3"/>
       <c r="H88" s="10"/>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L88" s="3"/>
+      <c r="N88" s="14"/>
+    </row>
+    <row r="89" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3535,9 +3882,10 @@
       <c r="F89" s="9"/>
       <c r="G89" s="3"/>
       <c r="H89" s="10"/>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+      <c r="N89" s="14"/>
+    </row>
+    <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3546,9 +3894,10 @@
       <c r="F90" s="9"/>
       <c r="G90" s="3"/>
       <c r="H90" s="10"/>
-      <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="N90" s="14"/>
+    </row>
+    <row r="91" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3557,9 +3906,10 @@
       <c r="F91" s="9"/>
       <c r="G91" s="3"/>
       <c r="H91" s="10"/>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+      <c r="N91" s="14"/>
+    </row>
+    <row r="92" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3568,9 +3918,10 @@
       <c r="F92" s="9"/>
       <c r="G92" s="3"/>
       <c r="H92" s="10"/>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L92" s="3"/>
+      <c r="N92" s="14"/>
+    </row>
+    <row r="93" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3579,9 +3930,10 @@
       <c r="F93" s="9"/>
       <c r="G93" s="3"/>
       <c r="H93" s="10"/>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L93" s="3"/>
+      <c r="N93" s="14"/>
+    </row>
+    <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3590,9 +3942,10 @@
       <c r="F94" s="9"/>
       <c r="G94" s="3"/>
       <c r="H94" s="10"/>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+      <c r="N94" s="14"/>
+    </row>
+    <row r="95" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3601,9 +3954,10 @@
       <c r="F95" s="9"/>
       <c r="G95" s="3"/>
       <c r="H95" s="10"/>
-      <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="N95" s="14"/>
+    </row>
+    <row r="96" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3612,9 +3966,10 @@
       <c r="F96" s="9"/>
       <c r="G96" s="3"/>
       <c r="H96" s="10"/>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+      <c r="N96" s="14"/>
+    </row>
+    <row r="97" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3623,9 +3978,10 @@
       <c r="F97" s="9"/>
       <c r="G97" s="3"/>
       <c r="H97" s="10"/>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L97" s="3"/>
+      <c r="N97" s="14"/>
+    </row>
+    <row r="98" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3634,9 +3990,10 @@
       <c r="F98" s="9"/>
       <c r="G98" s="3"/>
       <c r="H98" s="10"/>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L98" s="3"/>
+      <c r="N98" s="14"/>
+    </row>
+    <row r="99" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3645,9 +4002,10 @@
       <c r="F99" s="9"/>
       <c r="G99" s="3"/>
       <c r="H99" s="10"/>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L99" s="3"/>
+      <c r="N99" s="14"/>
+    </row>
+    <row r="100" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3656,9 +4014,10 @@
       <c r="F100" s="9"/>
       <c r="G100" s="3"/>
       <c r="H100" s="10"/>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+      <c r="N100" s="14"/>
+    </row>
+    <row r="101" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3667,9 +4026,10 @@
       <c r="F101" s="9"/>
       <c r="G101" s="3"/>
       <c r="H101" s="10"/>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+      <c r="N101" s="14"/>
+    </row>
+    <row r="102" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3678,9 +4038,10 @@
       <c r="F102" s="9"/>
       <c r="G102" s="3"/>
       <c r="H102" s="10"/>
-      <c r="K102" s="3"/>
-    </row>
-    <row r="103" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L102" s="3"/>
+      <c r="N102" s="14"/>
+    </row>
+    <row r="103" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3689,9 +4050,10 @@
       <c r="F103" s="9"/>
       <c r="G103" s="3"/>
       <c r="H103" s="10"/>
-      <c r="K103" s="3"/>
-    </row>
-    <row r="104" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L103" s="3"/>
+      <c r="N103" s="14"/>
+    </row>
+    <row r="104" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3700,9 +4062,10 @@
       <c r="F104" s="9"/>
       <c r="G104" s="3"/>
       <c r="H104" s="10"/>
-      <c r="K104" s="3"/>
-    </row>
-    <row r="105" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L104" s="3"/>
+      <c r="N104" s="14"/>
+    </row>
+    <row r="105" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3711,9 +4074,10 @@
       <c r="F105" s="9"/>
       <c r="G105" s="3"/>
       <c r="H105" s="10"/>
-      <c r="K105" s="3"/>
-    </row>
-    <row r="106" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L105" s="3"/>
+      <c r="N105" s="14"/>
+    </row>
+    <row r="106" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3722,9 +4086,10 @@
       <c r="F106" s="9"/>
       <c r="G106" s="3"/>
       <c r="H106" s="10"/>
-      <c r="K106" s="3"/>
-    </row>
-    <row r="107" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L106" s="3"/>
+      <c r="N106" s="14"/>
+    </row>
+    <row r="107" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3733,9 +4098,10 @@
       <c r="F107" s="9"/>
       <c r="G107" s="3"/>
       <c r="H107" s="10"/>
-      <c r="K107" s="3"/>
-    </row>
-    <row r="108" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L107" s="3"/>
+      <c r="N107" s="14"/>
+    </row>
+    <row r="108" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3744,9 +4110,10 @@
       <c r="F108" s="9"/>
       <c r="G108" s="3"/>
       <c r="H108" s="10"/>
-      <c r="K108" s="3"/>
-    </row>
-    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L108" s="3"/>
+      <c r="N108" s="14"/>
+    </row>
+    <row r="109" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3755,9 +4122,10 @@
       <c r="F109" s="9"/>
       <c r="G109" s="3"/>
       <c r="H109" s="10"/>
-      <c r="K109" s="3"/>
-    </row>
-    <row r="110" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L109" s="3"/>
+      <c r="N109" s="14"/>
+    </row>
+    <row r="110" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3766,9 +4134,10 @@
       <c r="F110" s="9"/>
       <c r="G110" s="3"/>
       <c r="H110" s="10"/>
-      <c r="K110" s="3"/>
-    </row>
-    <row r="111" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L110" s="3"/>
+      <c r="N110" s="14"/>
+    </row>
+    <row r="111" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3777,9 +4146,10 @@
       <c r="F111" s="9"/>
       <c r="G111" s="3"/>
       <c r="H111" s="10"/>
-      <c r="K111" s="3"/>
-    </row>
-    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L111" s="3"/>
+      <c r="N111" s="14"/>
+    </row>
+    <row r="112" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3788,9 +4158,10 @@
       <c r="F112" s="9"/>
       <c r="G112" s="3"/>
       <c r="H112" s="10"/>
-      <c r="K112" s="3"/>
-    </row>
-    <row r="113" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L112" s="3"/>
+      <c r="N112" s="14"/>
+    </row>
+    <row r="113" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3799,9 +4170,10 @@
       <c r="F113" s="9"/>
       <c r="G113" s="3"/>
       <c r="H113" s="10"/>
-      <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L113" s="3"/>
+      <c r="N113" s="14"/>
+    </row>
+    <row r="114" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3810,9 +4182,10 @@
       <c r="F114" s="9"/>
       <c r="G114" s="3"/>
       <c r="H114" s="10"/>
-      <c r="K114" s="3"/>
-    </row>
-    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L114" s="3"/>
+      <c r="N114" s="14"/>
+    </row>
+    <row r="115" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3821,9 +4194,10 @@
       <c r="F115" s="9"/>
       <c r="G115" s="3"/>
       <c r="H115" s="10"/>
-      <c r="K115" s="3"/>
-    </row>
-    <row r="116" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L115" s="3"/>
+      <c r="N115" s="14"/>
+    </row>
+    <row r="116" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3832,9 +4206,10 @@
       <c r="F116" s="9"/>
       <c r="G116" s="3"/>
       <c r="H116" s="10"/>
-      <c r="K116" s="3"/>
-    </row>
-    <row r="117" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L116" s="3"/>
+      <c r="N116" s="14"/>
+    </row>
+    <row r="117" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3843,9 +4218,10 @@
       <c r="F117" s="9"/>
       <c r="G117" s="3"/>
       <c r="H117" s="10"/>
-      <c r="K117" s="3"/>
-    </row>
-    <row r="118" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L117" s="3"/>
+      <c r="N117" s="14"/>
+    </row>
+    <row r="118" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3854,9 +4230,10 @@
       <c r="F118" s="9"/>
       <c r="G118" s="3"/>
       <c r="H118" s="10"/>
-      <c r="K118" s="3"/>
-    </row>
-    <row r="119" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L118" s="3"/>
+      <c r="N118" s="14"/>
+    </row>
+    <row r="119" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3865,9 +4242,10 @@
       <c r="F119" s="9"/>
       <c r="G119" s="3"/>
       <c r="H119" s="10"/>
-      <c r="K119" s="3"/>
-    </row>
-    <row r="120" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L119" s="3"/>
+      <c r="N119" s="14"/>
+    </row>
+    <row r="120" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3876,9 +4254,10 @@
       <c r="F120" s="9"/>
       <c r="G120" s="3"/>
       <c r="H120" s="10"/>
-      <c r="K120" s="3"/>
-    </row>
-    <row r="121" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L120" s="3"/>
+      <c r="N120" s="14"/>
+    </row>
+    <row r="121" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3887,9 +4266,10 @@
       <c r="F121" s="9"/>
       <c r="G121" s="3"/>
       <c r="H121" s="10"/>
-      <c r="K121" s="3"/>
-    </row>
-    <row r="122" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L121" s="3"/>
+      <c r="N121" s="14"/>
+    </row>
+    <row r="122" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="12"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3897,409 +4277,541 @@
       <c r="E122" s="3"/>
       <c r="F122" s="9"/>
       <c r="G122" s="3"/>
-      <c r="K122" s="3"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L122" s="3"/>
+      <c r="N122" s="14"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="12"/>
       <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N123" s="14"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N124" s="14"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="12"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N125" s="14"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="12"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N126" s="14"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="12"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N127" s="14"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="12"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N128" s="14"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N129" s="14"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="12"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N130" s="14"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="12"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N131" s="14"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="12"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N132" s="14"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="12"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N133" s="14"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="12"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N134" s="14"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="12"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N135" s="14"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="12"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N136" s="14"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="12"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N137" s="14"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="12"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N138" s="14"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="12"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N139" s="14"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="12"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N140" s="14"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="12"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N141" s="14"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="12"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N142" s="14"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="12"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N143" s="14"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="12"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N144" s="14"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="12"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N145" s="14"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="12"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N146" s="14"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="12"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N147" s="14"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="12"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N148" s="14"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="12"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N149" s="14"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="12"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N150" s="14"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="12"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N151" s="14"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="12"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N152" s="14"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="12"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N153" s="14"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="12"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N154" s="14"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="12"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N155" s="14"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="12"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N156" s="14"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="12"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N157" s="14"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="12"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N158" s="14"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="12"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N159" s="14"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="12"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N160" s="14"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="12"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N161" s="14"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="12"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N162" s="14"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="12"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N163" s="14"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="12"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N164" s="14"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="12"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N165" s="14"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="12"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N166" s="14"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="12"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N167" s="14"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="12"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N168" s="14"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="12"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N169" s="14"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="12"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N170" s="14"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="12"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N171" s="14"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="12"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N172" s="14"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="12"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N173" s="14"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="12"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N174" s="14"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="12"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N175" s="14"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="12"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N176" s="14"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="12"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N177" s="14"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="12"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N178" s="14"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="12"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N179" s="14"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="12"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N180" s="14"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="12"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N181" s="14"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="12"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N182" s="14"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="12"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N183" s="14"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="12"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N184" s="14"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N185" s="14"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="12"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N186" s="14"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="12"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N187" s="14"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="12"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N188" s="14"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="12"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N189" s="14"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="12"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N190" s="14"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="12"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N191" s="14"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="12"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N192" s="14"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="12"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N193" s="14"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="12"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N194" s="14"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="12"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N195" s="14"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="12"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N196" s="14"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="12"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N197" s="14"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="12"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N198" s="14"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="12"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N199" s="14"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="12"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N200" s="14"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="12"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N201" s="14"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="12"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N202" s="14"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="12"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N203" s="14"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="12"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N204" s="14"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="12"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N205" s="14"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="12"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N206" s="14"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="12"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N207" s="14"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="12"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N208" s="14"/>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="12"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N209" s="14"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="12"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N210" s="14"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="12"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N211" s="14"/>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="12"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N212" s="14"/>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="12"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N213" s="14"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="12"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N214" s="14"/>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="12"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N215" s="14"/>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="12"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N216" s="14"/>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="12"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N217" s="14"/>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="12"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N218" s="14"/>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="12"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N219" s="14"/>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="12"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N220" s="14"/>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="12"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N221" s="14"/>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="12"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N222" s="14"/>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="12"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N223" s="14"/>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="12"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N224" s="14"/>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="12"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N225" s="14"/>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="12"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N226" s="14"/>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="12"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N227" s="14"/>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="12"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N228" s="14"/>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="12"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N229" s="14"/>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="12"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N230" s="14"/>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="12"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N231" s="14"/>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="12"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N232" s="14"/>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="12"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N233" s="14"/>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="12"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N234" s="14"/>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="12"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N235" s="14"/>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="12"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N236" s="14"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="12"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N237" s="14"/>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="12"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N238" s="14"/>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="12"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N239" s="14"/>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="12"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N240" s="14"/>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="12"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N241" s="14"/>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="12"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N242" s="14"/>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="12"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N243" s="14"/>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="12"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N244" s="14"/>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="12"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N245" s="14"/>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="12"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N246" s="14"/>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="12"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N247" s="14"/>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="12"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N248" s="14"/>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="12"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N249" s="14"/>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="12"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N250" s="14"/>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="12"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N251" s="14"/>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="12"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N252" s="14"/>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="12"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="N253" s="14"/>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="12"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="12"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="12"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Documents/Github_R/Regrassion_GDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BF1434-AB27-9743-BF66-FD25FFBDD0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77709B94-136D-9F44-95FF-B9D21A58B2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="620" windowWidth="28800" windowHeight="15760" xr2:uid="{3580B857-6E9C-4522-A1C6-485FA67992EC}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="#,##0.##"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,12 +148,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,7 +187,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -232,7 +226,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,8 +548,8 @@
   </sheetPr>
   <dimension ref="A1:N366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -568,12 +561,14 @@
     <col min="5" max="5" width="21.33203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="20" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="20" style="8" customWidth="1"/>
     <col min="10" max="10" width="16.5" style="8" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" style="8" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="8"/>
+    <col min="13" max="13" width="8.83203125" style="8"/>
+    <col min="14" max="14" width="20.83203125" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -599,20 +594,21 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
@@ -636,22 +632,22 @@
       <c r="G2" s="3">
         <v>83.013333333333335</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="11">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3">
         <v>59.1</v>
-      </c>
-      <c r="I2" s="5">
-        <v>3.7666666666666671</v>
       </c>
       <c r="J2" s="11">
         <v>-0.73775997003258043</v>
       </c>
-      <c r="K2" s="11">
-        <v>15</v>
+      <c r="K2" s="5">
+        <v>3.7666666666666671</v>
       </c>
       <c r="L2" s="8">
         <v>0</v>
       </c>
-      <c r="N2" s="14"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -675,22 +671,22 @@
       <c r="G3" s="3">
         <v>84.736666666666665</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="11">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="I3" s="3">
         <v>59.8</v>
-      </c>
-      <c r="I3" s="5">
-        <v>3.5999999999999996</v>
       </c>
       <c r="J3" s="11">
         <v>-0.19198564170647303</v>
       </c>
-      <c r="K3" s="11">
-        <v>17.666666666666668</v>
+      <c r="K3" s="5">
+        <v>3.5999999999999996</v>
       </c>
       <c r="L3" s="8">
         <v>0</v>
       </c>
-      <c r="N3" s="14"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
@@ -714,22 +710,22 @@
       <c r="G4" s="3">
         <v>83.95</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="11">
+        <v>18.666666666666668</v>
+      </c>
+      <c r="I4" s="3">
         <v>59.8</v>
-      </c>
-      <c r="I4" s="5">
-        <v>3.41</v>
       </c>
       <c r="J4" s="11">
         <v>1.192834114240922</v>
       </c>
-      <c r="K4" s="11">
-        <v>18.666666666666668</v>
+      <c r="K4" s="5">
+        <v>3.41</v>
       </c>
       <c r="L4" s="8">
         <v>0</v>
       </c>
-      <c r="N4" s="14"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -753,22 +749,22 @@
       <c r="G5" s="3">
         <v>85.696666666666658</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="11">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="I5" s="3">
         <v>59.8</v>
-      </c>
-      <c r="I5" s="5">
-        <v>3.563333333333333</v>
       </c>
       <c r="J5" s="11">
         <v>-0.91325168755096142</v>
       </c>
-      <c r="K5" s="11">
-        <v>10.666666666666666</v>
+      <c r="K5" s="5">
+        <v>3.563333333333333</v>
       </c>
       <c r="L5" s="8">
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -792,22 +788,22 @@
       <c r="G6" s="3">
         <v>85.63333333333334</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="11">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3">
         <v>60</v>
-      </c>
-      <c r="I6" s="5">
-        <v>3.7733333333333334</v>
       </c>
       <c r="J6" s="11">
         <v>1.5590381083053757</v>
       </c>
-      <c r="K6" s="11">
-        <v>13</v>
+      <c r="K6" s="5">
+        <v>3.7733333333333334</v>
       </c>
       <c r="L6" s="8">
         <v>0</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -831,22 +827,22 @@
       <c r="G7" s="3">
         <v>87.64</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="11">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="I7" s="3">
         <v>60.6</v>
-      </c>
-      <c r="I7" s="5">
-        <v>4.28</v>
       </c>
       <c r="J7" s="11">
         <v>-0.5887718042761283</v>
       </c>
-      <c r="K7" s="11">
-        <v>14.333333333333334</v>
+      <c r="K7" s="5">
+        <v>4.28</v>
       </c>
       <c r="L7" s="8">
         <v>0</v>
       </c>
-      <c r="N7" s="14"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
@@ -870,22 +866,22 @@
       <c r="G8" s="3">
         <v>86.88666666666667</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="11">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="I8" s="3">
         <v>61.1</v>
-      </c>
-      <c r="I8" s="5">
-        <v>4.1933333333333325</v>
       </c>
       <c r="J8" s="11">
         <v>-0.78878743245589156</v>
       </c>
-      <c r="K8" s="11">
-        <v>14.333333333333334</v>
+      <c r="K8" s="5">
+        <v>4.1933333333333325</v>
       </c>
       <c r="L8" s="8">
         <v>0</v>
       </c>
-      <c r="N8" s="14"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -909,22 +905,22 @@
       <c r="G9" s="3">
         <v>88.416666666666671</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="11">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="I9" s="3">
         <v>60.5</v>
-      </c>
-      <c r="I9" s="5">
-        <v>4.0333333333333341</v>
       </c>
       <c r="J9" s="11">
         <v>0.68505926437646025</v>
       </c>
-      <c r="K9" s="11">
-        <v>8.6666666666666661</v>
+      <c r="K9" s="5">
+        <v>4.0333333333333341</v>
       </c>
       <c r="L9" s="8">
         <v>0</v>
       </c>
-      <c r="N9" s="14"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
@@ -948,22 +944,22 @@
       <c r="G10" s="3">
         <v>88.153333333333322</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="11">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="I10" s="3">
         <v>60.2</v>
-      </c>
-      <c r="I10" s="5">
-        <v>4.2600000000000007</v>
       </c>
       <c r="J10" s="11">
         <v>-1.9501731862862451E-4</v>
       </c>
-      <c r="K10" s="11">
-        <v>10.666666666666666</v>
+      <c r="K10" s="5">
+        <v>4.2600000000000007</v>
       </c>
       <c r="L10" s="8">
         <v>0</v>
       </c>
-      <c r="N10" s="14"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -987,22 +983,22 @@
       <c r="G11" s="3">
         <v>89.923333333333332</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="11">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="I11" s="3">
         <v>61</v>
-      </c>
-      <c r="I11" s="5">
-        <v>4.57</v>
       </c>
       <c r="J11" s="11">
         <v>0.71383169521439682</v>
       </c>
-      <c r="K11" s="11">
-        <v>12.333333333333334</v>
+      <c r="K11" s="5">
+        <v>4.57</v>
       </c>
       <c r="L11" s="8">
         <v>0</v>
       </c>
-      <c r="N11" s="14"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
@@ -1026,22 +1022,22 @@
       <c r="G12" s="3">
         <v>89.326666666666668</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="11">
+        <v>14.666666666666666</v>
+      </c>
+      <c r="I12" s="3">
         <v>61.3</v>
-      </c>
-      <c r="I12" s="5">
-        <v>4.6566666666666663</v>
       </c>
       <c r="J12" s="11">
         <v>-0.30034869756010396</v>
       </c>
-      <c r="K12" s="11">
-        <v>14.666666666666666</v>
+      <c r="K12" s="5">
+        <v>4.6566666666666663</v>
       </c>
       <c r="L12" s="8">
         <v>0</v>
       </c>
-      <c r="N12" s="14"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
@@ -1065,22 +1061,22 @@
       <c r="G13" s="3">
         <v>91.59333333333332</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="11">
+        <v>8</v>
+      </c>
+      <c r="I13" s="3">
         <v>61</v>
-      </c>
-      <c r="I13" s="5">
-        <v>4.5133333333333328</v>
       </c>
       <c r="J13" s="11">
         <v>-7.30294149308479E-2</v>
       </c>
-      <c r="K13" s="11">
-        <v>8</v>
+      <c r="K13" s="5">
+        <v>4.5133333333333328</v>
       </c>
       <c r="L13" s="8">
         <v>0</v>
       </c>
-      <c r="N13" s="14"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
@@ -1104,22 +1100,22 @@
       <c r="G14" s="3">
         <v>91.926666666666662</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="11">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="I14" s="3">
         <v>60.8</v>
-      </c>
-      <c r="I14" s="5">
-        <v>4.3933333333333335</v>
       </c>
       <c r="J14" s="11">
         <v>-1.4042505984193532</v>
       </c>
-      <c r="K14" s="11">
-        <v>9.6666666666666661</v>
+      <c r="K14" s="5">
+        <v>4.3933333333333335</v>
       </c>
       <c r="L14" s="8">
         <v>0</v>
       </c>
-      <c r="N14" s="14"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
@@ -1143,22 +1139,22 @@
       <c r="G15" s="3">
         <v>94.21</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="11">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="I15" s="3">
         <v>61.8</v>
-      </c>
-      <c r="I15" s="5">
-        <v>4.8166666666666673</v>
       </c>
       <c r="J15" s="11">
         <v>1.7213579177417264</v>
       </c>
-      <c r="K15" s="11">
-        <v>12.333333333333334</v>
+      <c r="K15" s="5">
+        <v>4.8166666666666673</v>
       </c>
       <c r="L15" s="8">
         <v>0</v>
       </c>
-      <c r="N15" s="14"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -1182,22 +1178,22 @@
       <c r="G16" s="3">
         <v>93.64</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="11">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="I16" s="3">
         <v>61.8</v>
-      </c>
-      <c r="I16" s="5">
-        <v>4.9666666666666659</v>
       </c>
       <c r="J16" s="11">
         <v>-1.5767515739417697</v>
       </c>
-      <c r="K16" s="11">
-        <v>10.666666666666666</v>
+      <c r="K16" s="5">
+        <v>4.9666666666666659</v>
       </c>
       <c r="L16" s="8">
         <v>0</v>
       </c>
-      <c r="N16" s="14"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
@@ -1221,22 +1217,22 @@
       <c r="G17" s="3">
         <v>94.40666666666668</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="11">
+        <v>7</v>
+      </c>
+      <c r="I17" s="3">
         <v>61.3</v>
-      </c>
-      <c r="I17" s="5">
-        <v>5.0333333333333332</v>
       </c>
       <c r="J17" s="11">
         <v>-1.7583398755939481</v>
       </c>
-      <c r="K17" s="11">
-        <v>7</v>
+      <c r="K17" s="5">
+        <v>5.0333333333333332</v>
       </c>
       <c r="L17" s="8">
         <v>0</v>
       </c>
-      <c r="N17" s="14"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
@@ -1260,22 +1256,22 @@
       <c r="G18" s="3">
         <v>93.56</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="11">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="I18" s="3">
         <v>60.6</v>
-      </c>
-      <c r="I18" s="5">
-        <v>5.7233333333333336</v>
       </c>
       <c r="J18" s="11">
         <v>-1.0256399232721072</v>
       </c>
-      <c r="K18" s="11">
-        <v>7.666666666666667</v>
+      <c r="K18" s="5">
+        <v>5.7233333333333336</v>
       </c>
       <c r="L18" s="8">
         <v>0</v>
       </c>
-      <c r="N18" s="14"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
@@ -1299,22 +1295,22 @@
       <c r="G19" s="3">
         <v>95.006666666666675</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="11">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="I19" s="3">
         <v>61.2</v>
-      </c>
-      <c r="I19" s="5">
-        <v>5.3499999999999988</v>
       </c>
       <c r="J19" s="11">
         <v>-0.51116077137761884</v>
       </c>
-      <c r="K19" s="11">
-        <v>9.6666666666666661</v>
+      <c r="K19" s="5">
+        <v>5.3499999999999988</v>
       </c>
       <c r="L19" s="8">
         <v>0</v>
       </c>
-      <c r="N19" s="14"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
@@ -1338,22 +1334,22 @@
       <c r="G20" s="3">
         <v>94.396666666666661</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="11">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="I20" s="3">
         <v>61.3</v>
-      </c>
-      <c r="I20" s="5">
-        <v>4.6566666666666663</v>
       </c>
       <c r="J20" s="11">
         <v>8.6249471352584983E-2</v>
       </c>
-      <c r="K20" s="11">
-        <v>10.333333333333334</v>
+      <c r="K20" s="5">
+        <v>4.6566666666666663</v>
       </c>
       <c r="L20" s="8">
         <v>0</v>
       </c>
-      <c r="N20" s="14"/>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
@@ -1377,22 +1373,22 @@
       <c r="G21" s="3">
         <v>96.26</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="11">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I21" s="3">
         <v>60.3</v>
-      </c>
-      <c r="I21" s="5">
-        <v>4.9666666666666668</v>
       </c>
       <c r="J21" s="11">
         <v>-0.79358764095720524</v>
       </c>
-      <c r="K21" s="11">
-        <v>6.666666666666667</v>
+      <c r="K21" s="5">
+        <v>4.9666666666666668</v>
       </c>
       <c r="L21" s="8">
         <v>0</v>
       </c>
-      <c r="N21" s="14"/>
+      <c r="N21" s="11"/>
     </row>
     <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
@@ -1416,22 +1412,22 @@
       <c r="G22" s="3">
         <v>96.40666666666668</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="11">
+        <v>11.333333333333334</v>
+      </c>
+      <c r="I22" s="3">
         <v>59.6</v>
-      </c>
-      <c r="I22" s="5">
-        <v>6.2399999999999993</v>
       </c>
       <c r="J22" s="11">
         <v>-0.59686859583268548</v>
       </c>
-      <c r="K22" s="11">
-        <v>11.333333333333334</v>
+      <c r="K22" s="5">
+        <v>6.2399999999999993</v>
       </c>
       <c r="L22" s="8">
         <v>0</v>
       </c>
-      <c r="N22" s="14"/>
+      <c r="N22" s="11"/>
     </row>
     <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
@@ -1455,22 +1451,22 @@
       <c r="G23" s="3">
         <v>99.836666666666659</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="11">
+        <v>19</v>
+      </c>
+      <c r="I23" s="3">
         <v>59.7</v>
-      </c>
-      <c r="I23" s="5">
-        <v>8.2999999999999989</v>
       </c>
       <c r="J23" s="11">
         <v>-0.55406273382459503</v>
       </c>
-      <c r="K23" s="11">
-        <v>19</v>
+      <c r="K23" s="5">
+        <v>8.2999999999999989</v>
       </c>
       <c r="L23" s="8">
         <v>0</v>
       </c>
-      <c r="N23" s="14"/>
+      <c r="N23" s="11"/>
     </row>
     <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
@@ -1494,22 +1490,22 @@
       <c r="G24" s="3">
         <v>99.686666666666667</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="11">
+        <v>10</v>
+      </c>
+      <c r="I24" s="3">
         <v>59.3</v>
-      </c>
-      <c r="I24" s="5">
-        <v>10.793333333333331</v>
       </c>
       <c r="J24" s="11">
         <v>-1.9931790907010718</v>
       </c>
-      <c r="K24" s="11">
-        <v>10</v>
+      <c r="K24" s="5">
+        <v>10.793333333333331</v>
       </c>
       <c r="L24" s="8">
         <v>0</v>
       </c>
-      <c r="N24" s="14"/>
+      <c r="N24" s="11"/>
     </row>
     <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
@@ -1533,22 +1529,22 @@
       <c r="G25" s="3">
         <v>101.13333333333333</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="11">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="I25" s="3">
         <v>57.8</v>
-      </c>
-      <c r="I25" s="5">
-        <v>11.033333333333333</v>
       </c>
       <c r="J25" s="11">
         <v>1.9196749896078236</v>
       </c>
-      <c r="K25" s="11">
-        <v>5.666666666666667</v>
+      <c r="K25" s="5">
+        <v>11.033333333333333</v>
       </c>
       <c r="L25" s="8">
         <v>0</v>
       </c>
-      <c r="N25" s="14"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
@@ -1572,22 +1568,22 @@
       <c r="G26" s="3">
         <v>100.7</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="11">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="I26" s="3">
         <v>56.4</v>
-      </c>
-      <c r="I26" s="5">
-        <v>11.856666666666667</v>
       </c>
       <c r="J26" s="11">
         <v>-1.0393872832222939</v>
       </c>
-      <c r="K26" s="11">
-        <v>9.3333333333333339</v>
+      <c r="K26" s="5">
+        <v>11.856666666666667</v>
       </c>
       <c r="L26" s="8">
         <v>0</v>
       </c>
-      <c r="N26" s="14"/>
+      <c r="N26" s="11"/>
     </row>
     <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
@@ -1611,22 +1607,22 @@
       <c r="G27" s="3">
         <v>103.13333333333333</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="11">
+        <v>15.666666666666666</v>
+      </c>
+      <c r="I27" s="3">
         <v>56</v>
-      </c>
-      <c r="I27" s="5">
-        <v>15.496666666666664</v>
       </c>
       <c r="J27" s="11">
         <v>-2.1873605828584051</v>
       </c>
-      <c r="K27" s="11">
-        <v>15.666666666666666</v>
+      <c r="K27" s="5">
+        <v>15.496666666666664</v>
       </c>
       <c r="L27" s="8">
         <v>0</v>
       </c>
-      <c r="N27" s="14"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
@@ -1650,22 +1646,22 @@
       <c r="G28" s="3">
         <v>101.82333333333334</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="11">
+        <v>16</v>
+      </c>
+      <c r="I28" s="3">
         <v>55</v>
-      </c>
-      <c r="I28" s="5">
-        <v>16.61</v>
       </c>
       <c r="J28" s="11">
         <v>2.5747365793093602</v>
       </c>
-      <c r="K28" s="11">
-        <v>16</v>
+      <c r="K28" s="5">
+        <v>16.61</v>
       </c>
       <c r="L28" s="8">
         <v>0</v>
       </c>
-      <c r="N28" s="14"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
@@ -1689,22 +1685,22 @@
       <c r="G29" s="3">
         <v>103.78666666666668</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="11">
+        <v>14</v>
+      </c>
+      <c r="I29" s="3">
         <v>53</v>
-      </c>
-      <c r="I29" s="5">
-        <v>19.033333333333335</v>
       </c>
       <c r="J29" s="11">
         <v>-3.3202200547679723</v>
       </c>
-      <c r="K29" s="11">
-        <v>14</v>
+      <c r="K29" s="5">
+        <v>19.033333333333335</v>
       </c>
       <c r="L29" s="8">
         <v>0</v>
       </c>
-      <c r="N29" s="14"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
@@ -1728,22 +1724,22 @@
       <c r="G30" s="3">
         <v>102.40333333333332</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="11">
+        <v>15.333333333333334</v>
+      </c>
+      <c r="I30" s="3">
         <v>51.8</v>
-      </c>
-      <c r="I30" s="5">
-        <v>24.736666666666665</v>
       </c>
       <c r="J30" s="11">
         <v>0.62476610594101489</v>
       </c>
-      <c r="K30" s="11">
-        <v>15.333333333333334</v>
+      <c r="K30" s="5">
+        <v>24.736666666666665</v>
       </c>
       <c r="L30" s="8">
         <v>0</v>
       </c>
-      <c r="N30" s="14"/>
+      <c r="N30" s="11"/>
     </row>
     <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
@@ -1767,22 +1763,22 @@
       <c r="G31" s="3">
         <v>104.30666666666667</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="11">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="I31" s="3">
         <v>51.2</v>
-      </c>
-      <c r="I31" s="5">
-        <v>25.399999999999995</v>
       </c>
       <c r="J31" s="11">
         <v>0.41650335041408948</v>
       </c>
-      <c r="K31" s="11">
-        <v>28.666666666666668</v>
+      <c r="K31" s="5">
+        <v>25.399999999999995</v>
       </c>
       <c r="L31" s="8">
         <v>0</v>
       </c>
-      <c r="N31" s="14"/>
+      <c r="N31" s="11"/>
     </row>
     <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
@@ -1806,22 +1802,22 @@
       <c r="G32" s="3">
         <v>102.61000000000001</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="11">
+        <v>14</v>
+      </c>
+      <c r="I32" s="3">
         <v>50.5</v>
-      </c>
-      <c r="I32" s="5">
-        <v>23.689999999999998</v>
       </c>
       <c r="J32" s="11">
         <v>0.24976440085827833</v>
       </c>
-      <c r="K32" s="11">
-        <v>14</v>
+      <c r="K32" s="5">
+        <v>23.689999999999998</v>
       </c>
       <c r="L32" s="8">
         <v>0</v>
       </c>
-      <c r="N32" s="14"/>
+      <c r="N32" s="11"/>
     </row>
     <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
@@ -1845,22 +1841,22 @@
       <c r="G33" s="3">
         <v>104.36</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="11">
+        <v>9</v>
+      </c>
+      <c r="I33" s="3">
         <v>49.7</v>
-      </c>
-      <c r="I33" s="5">
-        <v>16.16333333333333</v>
       </c>
       <c r="J33" s="11">
         <v>-0.98969811056696155</v>
       </c>
-      <c r="K33" s="11">
-        <v>9</v>
+      <c r="K33" s="5">
+        <v>16.16333333333333</v>
       </c>
       <c r="L33" s="8">
         <v>0</v>
       </c>
-      <c r="N33" s="14"/>
+      <c r="N33" s="11"/>
     </row>
     <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
@@ -1884,22 +1880,22 @@
       <c r="G34" s="3">
         <v>102.38333333333333</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="11">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="I34" s="3">
         <v>48.6</v>
-      </c>
-      <c r="I34" s="5">
-        <v>11.143333333333333</v>
       </c>
       <c r="J34" s="11">
         <v>0.24668328248765481</v>
       </c>
-      <c r="K34" s="11">
-        <v>9.3333333333333339</v>
+      <c r="K34" s="5">
+        <v>11.143333333333333</v>
       </c>
       <c r="L34" s="8">
         <v>0</v>
       </c>
-      <c r="N34" s="14"/>
+      <c r="N34" s="11"/>
     </row>
     <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
@@ -1923,22 +1919,22 @@
       <c r="G35" s="3">
         <v>103.91333333333334</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="11">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="I35" s="3">
         <v>49.1</v>
-      </c>
-      <c r="I35" s="5">
-        <v>10.24</v>
       </c>
       <c r="J35" s="11">
         <v>1.2587967883962254</v>
       </c>
-      <c r="K35" s="11">
-        <v>10.666666666666666</v>
+      <c r="K35" s="5">
+        <v>10.24</v>
       </c>
       <c r="L35" s="8">
         <v>0</v>
       </c>
-      <c r="N35" s="14"/>
+      <c r="N35" s="11"/>
     </row>
     <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
@@ -1962,22 +1958,22 @@
       <c r="G36" s="3">
         <v>101.77333333333333</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="11">
+        <v>12</v>
+      </c>
+      <c r="I36" s="3">
         <v>49.1</v>
-      </c>
-      <c r="I36" s="5">
-        <v>10.229999999999999</v>
       </c>
       <c r="J36" s="11">
         <v>-1.2104658509298976</v>
       </c>
-      <c r="K36" s="11">
-        <v>12</v>
+      <c r="K36" s="5">
+        <v>10.229999999999999</v>
       </c>
       <c r="L36" s="8">
         <v>0</v>
       </c>
-      <c r="N36" s="14"/>
+      <c r="N36" s="11"/>
     </row>
     <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
@@ -2001,22 +1997,22 @@
       <c r="G37" s="3">
         <v>102.07666666666667</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="11">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="I37" s="3">
         <v>48.4</v>
-      </c>
-      <c r="I37" s="5">
-        <v>8.6033333333333335</v>
       </c>
       <c r="J37" s="11">
         <v>-0.50056797532180175</v>
       </c>
-      <c r="K37" s="11">
-        <v>7.666666666666667</v>
+      <c r="K37" s="5">
+        <v>8.6033333333333335</v>
       </c>
       <c r="L37" s="8">
         <v>0</v>
       </c>
-      <c r="N37" s="14"/>
+      <c r="N37" s="11"/>
     </row>
     <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
@@ -2040,22 +2036,22 @@
       <c r="G38" s="3">
         <v>101.09999999999998</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="11">
+        <v>10</v>
+      </c>
+      <c r="I38" s="3">
         <v>48.5</v>
-      </c>
-      <c r="I38" s="5">
-        <v>7.5933333333333337</v>
       </c>
       <c r="J38" s="11">
         <v>-0.67816118993914376</v>
       </c>
-      <c r="K38" s="11">
-        <v>10</v>
+      <c r="K38" s="5">
+        <v>7.5933333333333337</v>
       </c>
       <c r="L38" s="8">
         <v>0</v>
       </c>
-      <c r="N38" s="14"/>
+      <c r="N38" s="11"/>
     </row>
     <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
@@ -2079,22 +2075,22 @@
       <c r="G39" s="3">
         <v>102.11666666666666</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="11">
+        <v>20</v>
+      </c>
+      <c r="I39" s="3">
         <v>49.4</v>
-      </c>
-      <c r="I39" s="5">
-        <v>6.169999999999999</v>
       </c>
       <c r="J39" s="11">
         <v>0.9621542429257971</v>
       </c>
-      <c r="K39" s="11">
-        <v>20</v>
+      <c r="K39" s="5">
+        <v>6.169999999999999</v>
       </c>
       <c r="L39" s="8">
         <v>0</v>
       </c>
-      <c r="N39" s="14"/>
+      <c r="N39" s="11"/>
     </row>
     <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
@@ -2118,22 +2114,22 @@
       <c r="G40" s="3">
         <v>101.03000000000002</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="11">
+        <v>12.666666666666666</v>
+      </c>
+      <c r="I40" s="3">
         <v>50.2</v>
-      </c>
-      <c r="I40" s="5">
-        <v>6.0266666666666664</v>
       </c>
       <c r="J40" s="11">
         <v>-0.96772549278445263</v>
       </c>
-      <c r="K40" s="11">
-        <v>12.666666666666666</v>
+      <c r="K40" s="5">
+        <v>6.0266666666666664</v>
       </c>
       <c r="L40" s="8">
         <v>0</v>
       </c>
-      <c r="N40" s="14"/>
+      <c r="N40" s="11"/>
     </row>
     <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
@@ -2157,22 +2153,22 @@
       <c r="G41" s="3">
         <v>100.18333333333334</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="11">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="I41" s="3">
         <v>49.6</v>
-      </c>
-      <c r="I41" s="5">
-        <v>7.9266666666666667</v>
       </c>
       <c r="J41" s="11">
         <v>-0.10296935563392833</v>
       </c>
-      <c r="K41" s="11">
-        <v>8.6666666666666661</v>
+      <c r="K41" s="5">
+        <v>7.9266666666666667</v>
       </c>
       <c r="L41" s="8">
         <v>0</v>
       </c>
-      <c r="N41" s="14"/>
+      <c r="N41" s="11"/>
     </row>
     <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
@@ -2196,22 +2192,22 @@
       <c r="G42" s="3">
         <v>98.899999999999991</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="11">
+        <v>24.666666666666668</v>
+      </c>
+      <c r="I42" s="3">
         <v>49.2</v>
-      </c>
-      <c r="I42" s="5">
-        <v>9.9066666666666681</v>
       </c>
       <c r="J42" s="11">
         <v>1.5751187447695123</v>
       </c>
-      <c r="K42" s="11">
-        <v>24.666666666666668</v>
+      <c r="K42" s="5">
+        <v>9.9066666666666681</v>
       </c>
       <c r="L42" s="8">
         <v>0</v>
       </c>
-      <c r="N42" s="14"/>
+      <c r="N42" s="11"/>
     </row>
     <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
@@ -2235,22 +2231,22 @@
       <c r="G43" s="3">
         <v>100.64333333333333</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="11">
+        <v>34</v>
+      </c>
+      <c r="I43" s="3">
         <v>51</v>
-      </c>
-      <c r="I43" s="5">
-        <v>11.459999999999999</v>
       </c>
       <c r="J43" s="11">
         <v>-2.3724202990103191</v>
       </c>
-      <c r="K43" s="11">
-        <v>34</v>
+      <c r="K43" s="5">
+        <v>11.459999999999999</v>
       </c>
       <c r="L43" s="8">
         <v>0</v>
       </c>
-      <c r="N43" s="14"/>
+      <c r="N43" s="11"/>
     </row>
     <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
@@ -2274,22 +2270,22 @@
       <c r="G44" s="3">
         <v>100.21666666666665</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="11">
+        <v>46.333333333333336</v>
+      </c>
+      <c r="I44" s="3">
         <v>51.7</v>
-      </c>
-      <c r="I44" s="5">
-        <v>6.2666666666666657</v>
       </c>
       <c r="J44" s="11">
         <v>2.0914598473117594</v>
       </c>
-      <c r="K44" s="11">
-        <v>46.333333333333336</v>
+      <c r="K44" s="5">
+        <v>6.2666666666666657</v>
       </c>
       <c r="L44" s="8">
         <v>0</v>
       </c>
-      <c r="N44" s="14"/>
+      <c r="N44" s="11"/>
     </row>
     <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
@@ -2313,22 +2309,22 @@
       <c r="G45" s="3">
         <v>100.24666666666667</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="11">
+        <v>9</v>
+      </c>
+      <c r="I45" s="3">
         <v>51.3</v>
-      </c>
-      <c r="I45" s="5">
-        <v>7.81</v>
       </c>
       <c r="J45" s="11">
         <v>1.6850308185153224</v>
       </c>
-      <c r="K45" s="11">
-        <v>9</v>
+      <c r="K45" s="5">
+        <v>7.81</v>
       </c>
       <c r="L45" s="8">
         <v>0</v>
       </c>
-      <c r="N45" s="14"/>
+      <c r="N45" s="11"/>
     </row>
     <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
@@ -2352,22 +2348,22 @@
       <c r="G46" s="3">
         <v>98.660000000000011</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="11">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="I46" s="3">
         <v>50.9</v>
-      </c>
-      <c r="I46" s="5">
-        <v>9.5366666666666671</v>
       </c>
       <c r="J46" s="11">
         <v>-1.9271816030589932</v>
       </c>
-      <c r="K46" s="11">
-        <v>11.666666666666666</v>
+      <c r="K46" s="5">
+        <v>9.5366666666666671</v>
       </c>
       <c r="L46" s="8">
         <v>0</v>
       </c>
-      <c r="N46" s="14"/>
+      <c r="N46" s="11"/>
     </row>
     <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
@@ -2391,22 +2387,22 @@
       <c r="G47" s="3">
         <v>100.50999999999999</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="11">
+        <v>13.666666666666666</v>
+      </c>
+      <c r="I47" s="3">
         <v>52.4</v>
-      </c>
-      <c r="I47" s="5">
-        <v>8.1966666666666654</v>
       </c>
       <c r="J47" s="11">
         <v>0.57964013981868967</v>
       </c>
-      <c r="K47" s="11">
-        <v>13.666666666666666</v>
+      <c r="K47" s="5">
+        <v>8.1966666666666654</v>
       </c>
       <c r="L47" s="8">
         <v>0</v>
       </c>
-      <c r="N47" s="14"/>
+      <c r="N47" s="11"/>
     </row>
     <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
@@ -2430,22 +2426,22 @@
       <c r="G48" s="3">
         <v>100.40666666666668</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="11">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="I48" s="3">
         <v>53</v>
-      </c>
-      <c r="I48" s="5">
-        <v>8.1733333333333338</v>
       </c>
       <c r="J48" s="11">
         <v>0.1760543507322424</v>
       </c>
-      <c r="K48" s="11">
-        <v>14.333333333333334</v>
+      <c r="K48" s="5">
+        <v>8.1733333333333338</v>
       </c>
       <c r="L48" s="8">
         <v>0</v>
       </c>
-      <c r="N48" s="14"/>
+      <c r="N48" s="11"/>
     </row>
     <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
@@ -2469,22 +2465,22 @@
       <c r="G49" s="3">
         <v>100.48333333333333</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="11">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="I49" s="3">
         <v>51.8</v>
-      </c>
-      <c r="I49" s="5">
-        <v>7.5333333333333341</v>
       </c>
       <c r="J49" s="11">
         <v>1.5373846031140133</v>
       </c>
-      <c r="K49" s="11">
-        <v>9.3333333333333339</v>
+      <c r="K49" s="5">
+        <v>7.5333333333333341</v>
       </c>
       <c r="L49" s="8">
         <v>0</v>
       </c>
-      <c r="N49" s="14"/>
+      <c r="N49" s="11"/>
     </row>
     <row r="50" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
@@ -2508,22 +2504,22 @@
       <c r="G50" s="3">
         <v>100.18</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="11">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="I50" s="3">
         <v>52</v>
-      </c>
-      <c r="I50" s="5">
-        <v>7.2433333333333323</v>
       </c>
       <c r="J50" s="11">
         <v>0.30629366398365238</v>
       </c>
-      <c r="K50" s="11">
-        <v>13.333333333333334</v>
+      <c r="K50" s="5">
+        <v>7.2433333333333323</v>
       </c>
       <c r="L50" s="8">
         <v>0</v>
       </c>
-      <c r="N50" s="14"/>
+      <c r="N50" s="11"/>
     </row>
     <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
@@ -2547,22 +2543,22 @@
       <c r="G51" s="3">
         <v>101.86</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="11">
+        <v>15</v>
+      </c>
+      <c r="I51" s="3">
         <v>54</v>
-      </c>
-      <c r="I51" s="5">
-        <v>6.1066666666666665</v>
       </c>
       <c r="J51" s="11">
         <v>-0.42316367996083309</v>
       </c>
-      <c r="K51" s="11">
-        <v>15</v>
+      <c r="K51" s="5">
+        <v>6.1066666666666665</v>
       </c>
       <c r="L51" s="8">
         <v>0</v>
       </c>
-      <c r="N51" s="14"/>
+      <c r="N51" s="11"/>
     </row>
     <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
@@ -2586,22 +2582,22 @@
       <c r="G52" s="3">
         <v>101.25999999999999</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="11">
+        <v>17</v>
+      </c>
+      <c r="I52" s="3">
         <v>54.6</v>
-      </c>
-      <c r="I52" s="5">
-        <v>5.4799999999999995</v>
       </c>
       <c r="J52" s="11">
         <v>-0.50885672719622521</v>
       </c>
-      <c r="K52" s="11">
-        <v>17</v>
+      <c r="K52" s="5">
+        <v>5.4799999999999995</v>
       </c>
       <c r="L52" s="8">
         <v>0</v>
       </c>
-      <c r="N52" s="14"/>
+      <c r="N52" s="11"/>
     </row>
     <row r="53" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
@@ -2625,22 +2621,22 @@
       <c r="G53" s="3">
         <v>101.31333333333333</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="11">
+        <v>11.333333333333334</v>
+      </c>
+      <c r="I53" s="3">
         <v>53.4</v>
-      </c>
-      <c r="I53" s="5">
-        <v>5.083333333333333</v>
       </c>
       <c r="J53" s="11">
         <v>1.0639205677284982</v>
       </c>
-      <c r="K53" s="11">
-        <v>11.333333333333334</v>
+      <c r="K53" s="5">
+        <v>5.083333333333333</v>
       </c>
       <c r="L53" s="8">
         <v>0</v>
       </c>
-      <c r="N53" s="14"/>
+      <c r="N53" s="11"/>
     </row>
     <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
@@ -2664,22 +2660,22 @@
       <c r="G54" s="3">
         <v>100.45</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="11">
+        <v>14</v>
+      </c>
+      <c r="I54" s="3">
         <v>53.3</v>
-      </c>
-      <c r="I54" s="5">
-        <v>4.0666666666666664</v>
       </c>
       <c r="J54" s="11">
         <v>0.30674607977813068</v>
       </c>
-      <c r="K54" s="11">
-        <v>14</v>
+      <c r="K54" s="5">
+        <v>4.0666666666666664</v>
       </c>
       <c r="L54" s="8">
         <v>0</v>
       </c>
-      <c r="N54" s="14"/>
+      <c r="N54" s="11"/>
     </row>
     <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
@@ -2703,22 +2699,22 @@
       <c r="G55" s="3">
         <v>102.61666666666667</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="11">
+        <v>15.666666666666666</v>
+      </c>
+      <c r="I55" s="3">
         <v>55.3</v>
-      </c>
-      <c r="I55" s="5">
-        <v>4.2399999999999993</v>
       </c>
       <c r="J55" s="11">
         <v>-0.27954881580700253</v>
       </c>
-      <c r="K55" s="11">
-        <v>15.666666666666666</v>
+      <c r="K55" s="5">
+        <v>4.2399999999999993</v>
       </c>
       <c r="L55" s="8">
         <v>0</v>
       </c>
-      <c r="N55" s="14"/>
+      <c r="N55" s="11"/>
     </row>
     <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
@@ -2742,22 +2738,22 @@
       <c r="G56" s="3">
         <v>102.20333333333333</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="11">
+        <v>19.333333333333332</v>
+      </c>
+      <c r="I56" s="3">
         <v>55.9</v>
-      </c>
-      <c r="I56" s="5">
-        <v>4.0766666666666662</v>
       </c>
       <c r="J56" s="11">
         <v>3.9480641484302359E-2</v>
       </c>
-      <c r="K56" s="11">
-        <v>19.333333333333332</v>
+      <c r="K56" s="5">
+        <v>4.0766666666666662</v>
       </c>
       <c r="L56" s="8">
         <v>0</v>
       </c>
-      <c r="N56" s="14"/>
+      <c r="N56" s="11"/>
     </row>
     <row r="57" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
@@ -2781,22 +2777,22 @@
       <c r="G57" s="3">
         <v>102.47666666666667</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="11">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="I57" s="3">
         <v>55.1</v>
-      </c>
-      <c r="I57" s="5">
-        <v>4.3566666666666665</v>
       </c>
       <c r="J57" s="11">
         <v>0.64013421619929634</v>
       </c>
-      <c r="K57" s="11">
-        <v>10.333333333333334</v>
+      <c r="K57" s="5">
+        <v>4.3566666666666665</v>
       </c>
       <c r="L57" s="8">
         <v>0</v>
       </c>
-      <c r="N57" s="14"/>
+      <c r="N57" s="11"/>
     </row>
     <row r="58" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
@@ -2820,22 +2816,22 @@
       <c r="G58" s="3">
         <v>101.24000000000001</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="11">
+        <v>13</v>
+      </c>
+      <c r="I58" s="3">
         <v>55</v>
-      </c>
-      <c r="I58" s="5">
-        <v>3.936666666666667</v>
       </c>
       <c r="J58" s="11">
         <v>-0.69750224246385439</v>
       </c>
-      <c r="K58" s="11">
-        <v>13</v>
+      <c r="K58" s="5">
+        <v>3.936666666666667</v>
       </c>
       <c r="L58" s="8">
         <v>0</v>
       </c>
-      <c r="N58" s="14"/>
+      <c r="N58" s="11"/>
     </row>
     <row r="59" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
@@ -2859,22 +2855,22 @@
       <c r="G59" s="3">
         <v>103.26666666666667</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="11">
+        <v>15</v>
+      </c>
+      <c r="I59" s="3">
         <v>57.1</v>
-      </c>
-      <c r="I59" s="5">
-        <v>3.1533333333333338</v>
       </c>
       <c r="J59" s="11">
         <v>-2.7585673499091634E-2</v>
       </c>
-      <c r="K59" s="11">
-        <v>15</v>
+      <c r="K59" s="5">
+        <v>3.1533333333333338</v>
       </c>
       <c r="L59" s="8">
         <v>0</v>
       </c>
-      <c r="N59" s="14"/>
+      <c r="N59" s="11"/>
     </row>
     <row r="60" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
@@ -2898,22 +2894,22 @@
       <c r="G60" s="3">
         <v>102.45333333333333</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="11">
+        <v>17.333333333333332</v>
+      </c>
+      <c r="I60" s="3">
         <v>57.4</v>
-      </c>
-      <c r="I60" s="5">
-        <v>1.8800000000000001</v>
       </c>
       <c r="J60" s="11">
         <v>0.68063648022636725</v>
       </c>
-      <c r="K60" s="11">
-        <v>17.333333333333332</v>
+      <c r="K60" s="5">
+        <v>1.8800000000000001</v>
       </c>
       <c r="L60" s="8">
         <v>0</v>
       </c>
-      <c r="N60" s="14"/>
+      <c r="N60" s="11"/>
     </row>
     <row r="61" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
@@ -2937,22 +2933,22 @@
       <c r="G61" s="3">
         <v>102.89666666666666</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="11">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="I61" s="3">
         <v>56.5</v>
-      </c>
-      <c r="I61" s="5">
-        <v>1.3733333333333333</v>
       </c>
       <c r="J61" s="11">
         <v>-1.107800617501322</v>
       </c>
-      <c r="K61" s="11">
-        <v>10.333333333333334</v>
+      <c r="K61" s="5">
+        <v>1.3733333333333333</v>
       </c>
       <c r="L61" s="8">
         <v>0</v>
       </c>
-      <c r="N61" s="14"/>
+      <c r="N61" s="11"/>
     </row>
     <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
@@ -2976,22 +2972,22 @@
       <c r="G62" s="3">
         <v>101.80333333333333</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="11">
+        <v>16</v>
+      </c>
+      <c r="I62" s="3">
         <v>55.9</v>
-      </c>
-      <c r="I62" s="5">
-        <v>1.46</v>
       </c>
       <c r="J62" s="11">
         <v>0.64152818235095455</v>
       </c>
-      <c r="K62" s="11">
-        <v>16</v>
+      <c r="K62" s="5">
+        <v>1.46</v>
       </c>
       <c r="L62" s="8">
         <v>0</v>
       </c>
-      <c r="N62" s="14"/>
+      <c r="N62" s="11"/>
     </row>
     <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
@@ -3015,22 +3011,22 @@
       <c r="G63" s="3">
         <v>102.06</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="11">
+        <v>15.333333333333334</v>
+      </c>
+      <c r="I63" s="3">
         <v>55.8</v>
-      </c>
-      <c r="I63" s="5">
-        <v>1.7666666666666666</v>
       </c>
       <c r="J63" s="11">
         <v>-1.4821295654638504</v>
       </c>
-      <c r="K63" s="11">
-        <v>15.333333333333334</v>
+      <c r="K63" s="5">
+        <v>1.7666666666666666</v>
       </c>
       <c r="L63" s="8">
         <v>1</v>
       </c>
-      <c r="N63" s="14"/>
+      <c r="N63" s="11"/>
     </row>
     <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
@@ -3054,22 +3050,22 @@
       <c r="G64" s="3">
         <v>100.17666666666666</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="11">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="I64" s="3">
         <v>57</v>
-      </c>
-      <c r="I64" s="5">
-        <v>1.0999999999999999</v>
       </c>
       <c r="J64" s="11">
         <v>1.5398031967424692</v>
       </c>
-      <c r="K64" s="11">
-        <v>33.333333333333336</v>
+      <c r="K64" s="5">
+        <v>1.0999999999999999</v>
       </c>
       <c r="L64" s="8">
         <v>0</v>
       </c>
-      <c r="N64" s="14"/>
+      <c r="N64" s="11"/>
     </row>
     <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
@@ -3093,22 +3089,22 @@
       <c r="G65" s="3">
         <v>100.64333333333333</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="11">
+        <v>13.666666666666666</v>
+      </c>
+      <c r="I65" s="3">
         <v>56.4</v>
-      </c>
-      <c r="I65" s="5">
-        <v>0.7599999999999999</v>
       </c>
       <c r="J65" s="11">
         <v>0.97034966989242211</v>
       </c>
-      <c r="K65" s="11">
-        <v>13.666666666666666</v>
+      <c r="K65" s="5">
+        <v>0.7599999999999999</v>
       </c>
       <c r="L65" s="8">
         <v>0</v>
       </c>
-      <c r="N65" s="14"/>
+      <c r="N65" s="11"/>
     </row>
     <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
@@ -3132,22 +3128,22 @@
       <c r="G66" s="3">
         <v>99.673333333333332</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="11">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="I66" s="3">
         <v>52.7</v>
-      </c>
-      <c r="I66" s="5">
-        <v>0.79</v>
       </c>
       <c r="J66" s="11">
         <v>1.1374495216736578</v>
       </c>
-      <c r="K66" s="11">
-        <v>11.666666666666666</v>
+      <c r="K66" s="5">
+        <v>0.79</v>
       </c>
       <c r="L66" s="8">
         <v>0</v>
       </c>
-      <c r="N66" s="14"/>
+      <c r="N66" s="11"/>
     </row>
     <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
@@ -3171,22 +3167,22 @@
       <c r="G67" s="3">
         <v>101.48</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="11">
+        <v>26.333333333333332</v>
+      </c>
+      <c r="I67" s="3">
         <v>57</v>
-      </c>
-      <c r="I67" s="5">
-        <v>0.89333333333333342</v>
       </c>
       <c r="J67" s="11">
         <v>-0.49023335149984459</v>
       </c>
-      <c r="K67" s="11">
-        <v>26.333333333333332</v>
+      <c r="K67" s="5">
+        <v>0.89333333333333342</v>
       </c>
       <c r="L67" s="8">
         <v>0</v>
       </c>
-      <c r="N67" s="14"/>
+      <c r="N67" s="11"/>
     </row>
     <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
@@ -3210,22 +3206,22 @@
       <c r="G68" s="3">
         <v>101.44666666666666</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="11">
+        <v>43</v>
+      </c>
+      <c r="I68" s="3">
         <v>60.1</v>
-      </c>
-      <c r="I68" s="5">
-        <v>0.69666666666666666</v>
       </c>
       <c r="J68" s="11">
         <v>2.1347653778548996</v>
       </c>
-      <c r="K68" s="11">
-        <v>43</v>
+      <c r="K68" s="5">
+        <v>0.69666666666666666</v>
       </c>
       <c r="L68" s="8">
         <v>0</v>
       </c>
-      <c r="N68" s="14"/>
+      <c r="N68" s="11"/>
     </row>
     <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
@@ -3249,22 +3245,22 @@
       <c r="G69" s="3">
         <v>104.40666666666668</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="11">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="I69" s="3">
         <v>59.2</v>
-      </c>
-      <c r="I69" s="5">
-        <v>1.1566666666666665</v>
       </c>
       <c r="J69" s="11">
         <v>0.27812451788017778</v>
       </c>
-      <c r="K69" s="11">
-        <v>12.333333333333334</v>
+      <c r="K69" s="5">
+        <v>1.1566666666666665</v>
       </c>
       <c r="L69" s="8">
         <v>0</v>
       </c>
-      <c r="N69" s="14"/>
+      <c r="N69" s="11"/>
     </row>
     <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
@@ -3288,22 +3284,22 @@
       <c r="G70" s="3">
         <v>106.23666666666668</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="11">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="I70" s="3">
         <v>59.2</v>
-      </c>
-      <c r="I70" s="5">
-        <v>2.23</v>
       </c>
       <c r="J70" s="11">
         <v>1.2030928391142157</v>
       </c>
-      <c r="K70" s="11">
-        <v>16.666666666666668</v>
+      <c r="K70" s="5">
+        <v>2.23</v>
       </c>
       <c r="L70" s="8">
         <v>0</v>
       </c>
-      <c r="N70" s="14"/>
+      <c r="N70" s="11"/>
     </row>
     <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
@@ -3327,22 +3323,22 @@
       <c r="G71" s="3">
         <v>112.06333333333333</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="11">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="I71" s="3">
         <v>61.1</v>
-      </c>
-      <c r="I71" s="5">
-        <v>3.4533333333333331</v>
       </c>
       <c r="J71" s="11">
         <v>-0.40456738939497372</v>
       </c>
-      <c r="K71" s="11">
-        <v>23.333333333333332</v>
+      <c r="K71" s="5">
+        <v>3.4533333333333331</v>
       </c>
       <c r="L71" s="8">
         <v>0</v>
       </c>
-      <c r="N71" s="14"/>
+      <c r="N71" s="11"/>
     </row>
     <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
@@ -3366,22 +3362,22 @@
       <c r="G72" s="3">
         <v>113.15333333333335</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="11">
+        <v>22.333333333333332</v>
+      </c>
+      <c r="I72" s="3">
         <v>61.9</v>
-      </c>
-      <c r="I72" s="5">
-        <v>3.7600000000000002</v>
       </c>
       <c r="J72" s="11">
         <v>-1.1023044527198622</v>
       </c>
-      <c r="K72" s="11">
-        <v>22.333333333333332</v>
+      <c r="K72" s="5">
+        <v>3.7600000000000002</v>
       </c>
       <c r="L72" s="8">
         <v>0</v>
       </c>
-      <c r="N72" s="14"/>
+      <c r="N72" s="11"/>
     </row>
     <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
@@ -3405,22 +3401,22 @@
       <c r="G73" s="3">
         <v>113.40333333333332</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="11">
+        <v>11</v>
+      </c>
+      <c r="I73" s="3">
         <v>60.7</v>
-      </c>
-      <c r="I73" s="5">
-        <v>4.503333333333333</v>
       </c>
       <c r="J73" s="11">
         <v>0.17583495838569732</v>
       </c>
-      <c r="K73" s="11">
-        <v>11</v>
+      <c r="K73" s="5">
+        <v>4.503333333333333</v>
       </c>
       <c r="L73" s="8">
         <v>0</v>
       </c>
-      <c r="N73" s="14"/>
+      <c r="N73" s="11"/>
     </row>
     <row r="74" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
@@ -3444,22 +3440,22 @@
       <c r="G74" s="3">
         <v>113.02666666666669</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="11">
+        <v>15</v>
+      </c>
+      <c r="I74" s="3">
         <v>60.3</v>
-      </c>
-      <c r="I74" s="5">
-        <v>4.28</v>
       </c>
       <c r="J74" s="11">
         <v>1.6714875206993502</v>
       </c>
-      <c r="K74" s="11">
-        <v>15</v>
+      <c r="K74" s="5">
+        <v>4.28</v>
       </c>
       <c r="L74" s="8">
         <v>0</v>
       </c>
-      <c r="N74" s="14"/>
+      <c r="N74" s="11"/>
     </row>
     <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
@@ -3483,22 +3479,22 @@
       <c r="G75" s="3">
         <v>116.31666666666666</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="11">
+        <v>17.333333333333332</v>
+      </c>
+      <c r="I75" s="3">
         <v>62.4</v>
-      </c>
-      <c r="I75" s="5">
-        <v>3.97</v>
       </c>
       <c r="J75" s="11">
         <v>-1.6976220186845974</v>
       </c>
-      <c r="K75" s="11">
-        <v>17.333333333333332</v>
+      <c r="K75" s="5">
+        <v>3.97</v>
       </c>
       <c r="L75" s="8">
         <v>0</v>
       </c>
-      <c r="N75" s="14"/>
+      <c r="N75" s="11"/>
     </row>
     <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
@@ -3522,22 +3518,22 @@
       <c r="G76" s="3">
         <v>116.66333333333334</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="11">
+        <v>23</v>
+      </c>
+      <c r="I76" s="3">
         <v>62.8</v>
-      </c>
-      <c r="I76" s="5">
-        <v>3.936666666666667</v>
       </c>
       <c r="J76" s="11">
         <v>0.70474906178332197</v>
       </c>
-      <c r="K76" s="11">
-        <v>23</v>
+      <c r="K76" s="5">
+        <v>3.936666666666667</v>
       </c>
       <c r="L76" s="8">
         <v>0</v>
       </c>
-      <c r="N76" s="14"/>
+      <c r="N76" s="11"/>
     </row>
     <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
@@ -3561,22 +3557,22 @@
       <c r="G77" s="3">
         <v>117.33333333333333</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="11">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="I77" s="3">
         <v>61.7</v>
-      </c>
-      <c r="I77" s="5">
-        <v>3.82</v>
       </c>
       <c r="J77" s="11">
         <v>0.82125937853980469</v>
       </c>
-      <c r="K77" s="11">
-        <v>10.333333333333334</v>
+      <c r="K77" s="5">
+        <v>3.82</v>
       </c>
       <c r="L77" s="8">
         <v>0</v>
       </c>
-      <c r="N77" s="14"/>
+      <c r="N77" s="11"/>
     </row>
     <row r="78" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
@@ -3600,22 +3596,22 @@
       <c r="G78" s="3">
         <v>116.68666666666667</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="11">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="I78" s="3">
         <v>61.6</v>
-      </c>
-      <c r="I78" s="5">
-        <v>3.3699999999999997</v>
       </c>
       <c r="J78" s="11">
         <v>0.26336048363269887</v>
       </c>
-      <c r="K78" s="11">
-        <v>13.333333333333334</v>
+      <c r="K78" s="5">
+        <v>3.3699999999999997</v>
       </c>
       <c r="L78" s="8">
         <v>0</v>
       </c>
-      <c r="N78" s="14"/>
+      <c r="N78" s="11"/>
     </row>
     <row r="79" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
@@ -3639,22 +3635,22 @@
       <c r="G79" s="3">
         <v>119.41666666666667</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="11">
+        <v>26</v>
+      </c>
+      <c r="I79" s="3">
         <v>64</v>
-      </c>
-      <c r="I79" s="5">
-        <v>3.563333333333333</v>
       </c>
       <c r="J79" s="11">
         <v>1.6587442380861579</v>
       </c>
-      <c r="K79" s="11">
-        <v>26</v>
+      <c r="K79" s="5">
+        <v>3.563333333333333</v>
       </c>
       <c r="L79" s="8">
         <v>0</v>
       </c>
-      <c r="N79" s="14"/>
+      <c r="N79" s="11"/>
     </row>
     <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
@@ -3678,22 +3674,22 @@
       <c r="G80" s="3">
         <v>120.27666666666666</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="11">
+        <v>19</v>
+      </c>
+      <c r="I80" s="3">
         <v>64.099999999999994</v>
-      </c>
-      <c r="I80" s="5">
-        <v>3.3333333333333335</v>
       </c>
       <c r="J80" s="11">
         <v>-1.6037763032745165</v>
       </c>
-      <c r="K80" s="11">
-        <v>19</v>
+      <c r="K80" s="5">
+        <v>3.3333333333333335</v>
       </c>
       <c r="L80" s="8">
         <v>0</v>
       </c>
-      <c r="N80" s="14"/>
+      <c r="N80" s="11"/>
     </row>
     <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
@@ -3717,22 +3713,22 @@
       <c r="G81" s="3">
         <v>120.84666666666668</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="11">
+        <v>11</v>
+      </c>
+      <c r="I81" s="3">
         <v>63.4</v>
-      </c>
-      <c r="I81" s="5">
-        <v>3.1333333333333329</v>
       </c>
       <c r="J81" s="11">
         <v>1.7833595099956827</v>
       </c>
-      <c r="K81" s="11">
-        <v>11</v>
+      <c r="K81" s="5">
+        <v>3.1333333333333329</v>
       </c>
       <c r="L81" s="8">
         <v>0</v>
       </c>
-      <c r="N81" s="14"/>
+      <c r="N81" s="11"/>
     </row>
     <row r="82" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
@@ -3756,22 +3752,22 @@
       <c r="G82" s="3">
         <v>120.30333333333333</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="11">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="I82" s="3">
         <v>62.8</v>
-      </c>
-      <c r="I82" s="5">
-        <v>3.4133333333333336</v>
       </c>
       <c r="J82" s="11">
         <v>-1.1536639035252823</v>
       </c>
-      <c r="K82" s="11">
-        <v>13.333333333333334</v>
+      <c r="K82" s="5">
+        <v>3.4133333333333336</v>
       </c>
       <c r="L82" s="8">
         <v>0</v>
       </c>
-      <c r="N82" s="14"/>
+      <c r="N82" s="11"/>
     </row>
     <row r="83" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
@@ -3795,22 +3791,22 @@
       <c r="G83" s="3">
         <v>123.19999999999999</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="11">
+        <v>16.333333333333332</v>
+      </c>
+      <c r="I83" s="3">
         <v>65.3</v>
-      </c>
-      <c r="I83" s="5">
-        <v>3.3666666666666671</v>
       </c>
       <c r="J83" s="11">
         <v>1.2873431486908382</v>
       </c>
-      <c r="K83" s="11">
-        <v>16.333333333333332</v>
+      <c r="K83" s="5">
+        <v>3.3666666666666671</v>
       </c>
       <c r="L83" s="8">
         <v>0</v>
       </c>
-      <c r="N83" s="14"/>
+      <c r="N83" s="11"/>
     </row>
     <row r="84" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
@@ -3820,10 +3816,9 @@
       <c r="E84" s="3"/>
       <c r="F84" s="9"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
       <c r="J84"/>
       <c r="L84" s="3"/>
-      <c r="N84" s="14"/>
     </row>
     <row r="85" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
@@ -3833,9 +3828,8 @@
       <c r="E85" s="3"/>
       <c r="F85" s="9"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
       <c r="L85" s="3"/>
-      <c r="N85" s="14"/>
     </row>
     <row r="86" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
@@ -3845,9 +3839,8 @@
       <c r="E86" s="3"/>
       <c r="F86" s="9"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
       <c r="L86" s="3"/>
-      <c r="N86" s="14"/>
     </row>
     <row r="87" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
@@ -3857,9 +3850,8 @@
       <c r="E87" s="3"/>
       <c r="F87" s="9"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
       <c r="L87" s="3"/>
-      <c r="N87" s="14"/>
     </row>
     <row r="88" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
@@ -3869,9 +3861,8 @@
       <c r="E88" s="3"/>
       <c r="F88" s="9"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
       <c r="L88" s="3"/>
-      <c r="N88" s="14"/>
     </row>
     <row r="89" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
@@ -3881,9 +3872,8 @@
       <c r="E89" s="3"/>
       <c r="F89" s="9"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
       <c r="L89" s="3"/>
-      <c r="N89" s="14"/>
     </row>
     <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
@@ -3893,9 +3883,8 @@
       <c r="E90" s="3"/>
       <c r="F90" s="9"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
       <c r="L90" s="3"/>
-      <c r="N90" s="14"/>
     </row>
     <row r="91" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
@@ -3905,9 +3894,8 @@
       <c r="E91" s="3"/>
       <c r="F91" s="9"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
       <c r="L91" s="3"/>
-      <c r="N91" s="14"/>
     </row>
     <row r="92" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
@@ -3917,9 +3905,8 @@
       <c r="E92" s="3"/>
       <c r="F92" s="9"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
       <c r="L92" s="3"/>
-      <c r="N92" s="14"/>
     </row>
     <row r="93" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
@@ -3929,9 +3916,8 @@
       <c r="E93" s="3"/>
       <c r="F93" s="9"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
       <c r="L93" s="3"/>
-      <c r="N93" s="14"/>
     </row>
     <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
@@ -3941,9 +3927,8 @@
       <c r="E94" s="3"/>
       <c r="F94" s="9"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
       <c r="L94" s="3"/>
-      <c r="N94" s="14"/>
     </row>
     <row r="95" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
@@ -3953,9 +3938,8 @@
       <c r="E95" s="3"/>
       <c r="F95" s="9"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
       <c r="L95" s="3"/>
-      <c r="N95" s="14"/>
     </row>
     <row r="96" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
@@ -3965,11 +3949,10 @@
       <c r="E96" s="3"/>
       <c r="F96" s="9"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
       <c r="L96" s="3"/>
-      <c r="N96" s="14"/>
-    </row>
-    <row r="97" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3977,11 +3960,10 @@
       <c r="E97" s="3"/>
       <c r="F97" s="9"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
       <c r="L97" s="3"/>
-      <c r="N97" s="14"/>
-    </row>
-    <row r="98" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3989,11 +3971,10 @@
       <c r="E98" s="3"/>
       <c r="F98" s="9"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
       <c r="L98" s="3"/>
-      <c r="N98" s="14"/>
-    </row>
-    <row r="99" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -4001,11 +3982,10 @@
       <c r="E99" s="3"/>
       <c r="F99" s="9"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
       <c r="L99" s="3"/>
-      <c r="N99" s="14"/>
-    </row>
-    <row r="100" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -4013,11 +3993,10 @@
       <c r="E100" s="3"/>
       <c r="F100" s="9"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
       <c r="L100" s="3"/>
-      <c r="N100" s="14"/>
-    </row>
-    <row r="101" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4025,11 +4004,10 @@
       <c r="E101" s="3"/>
       <c r="F101" s="9"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
       <c r="L101" s="3"/>
-      <c r="N101" s="14"/>
-    </row>
-    <row r="102" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4037,11 +4015,10 @@
       <c r="E102" s="3"/>
       <c r="F102" s="9"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
       <c r="L102" s="3"/>
-      <c r="N102" s="14"/>
-    </row>
-    <row r="103" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4049,11 +4026,10 @@
       <c r="E103" s="3"/>
       <c r="F103" s="9"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
       <c r="L103" s="3"/>
-      <c r="N103" s="14"/>
-    </row>
-    <row r="104" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4061,11 +4037,10 @@
       <c r="E104" s="3"/>
       <c r="F104" s="9"/>
       <c r="G104" s="3"/>
-      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
       <c r="L104" s="3"/>
-      <c r="N104" s="14"/>
-    </row>
-    <row r="105" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4073,11 +4048,10 @@
       <c r="E105" s="3"/>
       <c r="F105" s="9"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
       <c r="L105" s="3"/>
-      <c r="N105" s="14"/>
-    </row>
-    <row r="106" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4085,11 +4059,10 @@
       <c r="E106" s="3"/>
       <c r="F106" s="9"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
       <c r="L106" s="3"/>
-      <c r="N106" s="14"/>
-    </row>
-    <row r="107" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4097,11 +4070,10 @@
       <c r="E107" s="3"/>
       <c r="F107" s="9"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
       <c r="L107" s="3"/>
-      <c r="N107" s="14"/>
-    </row>
-    <row r="108" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4109,11 +4081,10 @@
       <c r="E108" s="3"/>
       <c r="F108" s="9"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
       <c r="L108" s="3"/>
-      <c r="N108" s="14"/>
-    </row>
-    <row r="109" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4121,11 +4092,10 @@
       <c r="E109" s="3"/>
       <c r="F109" s="9"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
       <c r="L109" s="3"/>
-      <c r="N109" s="14"/>
-    </row>
-    <row r="110" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4133,11 +4103,10 @@
       <c r="E110" s="3"/>
       <c r="F110" s="9"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
       <c r="L110" s="3"/>
-      <c r="N110" s="14"/>
-    </row>
-    <row r="111" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4145,11 +4114,10 @@
       <c r="E111" s="3"/>
       <c r="F111" s="9"/>
       <c r="G111" s="3"/>
-      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
       <c r="L111" s="3"/>
-      <c r="N111" s="14"/>
-    </row>
-    <row r="112" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4157,11 +4125,10 @@
       <c r="E112" s="3"/>
       <c r="F112" s="9"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
       <c r="L112" s="3"/>
-      <c r="N112" s="14"/>
-    </row>
-    <row r="113" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4169,11 +4136,10 @@
       <c r="E113" s="3"/>
       <c r="F113" s="9"/>
       <c r="G113" s="3"/>
-      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
       <c r="L113" s="3"/>
-      <c r="N113" s="14"/>
-    </row>
-    <row r="114" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4181,11 +4147,10 @@
       <c r="E114" s="3"/>
       <c r="F114" s="9"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
       <c r="L114" s="3"/>
-      <c r="N114" s="14"/>
-    </row>
-    <row r="115" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4193,11 +4158,10 @@
       <c r="E115" s="3"/>
       <c r="F115" s="9"/>
       <c r="G115" s="3"/>
-      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
       <c r="L115" s="3"/>
-      <c r="N115" s="14"/>
-    </row>
-    <row r="116" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -4205,11 +4169,10 @@
       <c r="E116" s="3"/>
       <c r="F116" s="9"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
       <c r="L116" s="3"/>
-      <c r="N116" s="14"/>
-    </row>
-    <row r="117" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4217,11 +4180,10 @@
       <c r="E117" s="3"/>
       <c r="F117" s="9"/>
       <c r="G117" s="3"/>
-      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
       <c r="L117" s="3"/>
-      <c r="N117" s="14"/>
-    </row>
-    <row r="118" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4229,11 +4191,10 @@
       <c r="E118" s="3"/>
       <c r="F118" s="9"/>
       <c r="G118" s="3"/>
-      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
       <c r="L118" s="3"/>
-      <c r="N118" s="14"/>
-    </row>
-    <row r="119" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4241,11 +4202,10 @@
       <c r="E119" s="3"/>
       <c r="F119" s="9"/>
       <c r="G119" s="3"/>
-      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
       <c r="L119" s="3"/>
-      <c r="N119" s="14"/>
-    </row>
-    <row r="120" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4253,11 +4213,10 @@
       <c r="E120" s="3"/>
       <c r="F120" s="9"/>
       <c r="G120" s="3"/>
-      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
       <c r="L120" s="3"/>
-      <c r="N120" s="14"/>
-    </row>
-    <row r="121" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4265,11 +4224,10 @@
       <c r="E121" s="3"/>
       <c r="F121" s="9"/>
       <c r="G121" s="3"/>
-      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
       <c r="L121" s="3"/>
-      <c r="N121" s="14"/>
-    </row>
-    <row r="122" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="12"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4278,540 +4236,408 @@
       <c r="F122" s="9"/>
       <c r="G122" s="3"/>
       <c r="L122" s="3"/>
-      <c r="N122" s="14"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="12"/>
       <c r="B123" s="3"/>
-      <c r="N123" s="14"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
-      <c r="N124" s="14"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="12"/>
-      <c r="N125" s="14"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="12"/>
-      <c r="N126" s="14"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="12"/>
-      <c r="N127" s="14"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="12"/>
-      <c r="N128" s="14"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
-      <c r="N129" s="14"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="12"/>
-      <c r="N130" s="14"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="12"/>
-      <c r="N131" s="14"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="12"/>
-      <c r="N132" s="14"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="12"/>
-      <c r="N133" s="14"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="12"/>
-      <c r="N134" s="14"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="12"/>
-      <c r="N135" s="14"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="12"/>
-      <c r="N136" s="14"/>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="12"/>
-      <c r="N137" s="14"/>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="12"/>
-      <c r="N138" s="14"/>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="12"/>
-      <c r="N139" s="14"/>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="12"/>
-      <c r="N140" s="14"/>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="12"/>
-      <c r="N141" s="14"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="12"/>
-      <c r="N142" s="14"/>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="12"/>
-      <c r="N143" s="14"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="12"/>
-      <c r="N144" s="14"/>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="12"/>
-      <c r="N145" s="14"/>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="12"/>
-      <c r="N146" s="14"/>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="12"/>
-      <c r="N147" s="14"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="12"/>
-      <c r="N148" s="14"/>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="12"/>
-      <c r="N149" s="14"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="12"/>
-      <c r="N150" s="14"/>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="12"/>
-      <c r="N151" s="14"/>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="12"/>
-      <c r="N152" s="14"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="12"/>
-      <c r="N153" s="14"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="12"/>
-      <c r="N154" s="14"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="12"/>
-      <c r="N155" s="14"/>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="12"/>
-      <c r="N156" s="14"/>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="12"/>
-      <c r="N157" s="14"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="12"/>
-      <c r="N158" s="14"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="12"/>
-      <c r="N159" s="14"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="12"/>
-      <c r="N160" s="14"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="12"/>
-      <c r="N161" s="14"/>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="12"/>
-      <c r="N162" s="14"/>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="12"/>
-      <c r="N163" s="14"/>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="12"/>
-      <c r="N164" s="14"/>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="12"/>
-      <c r="N165" s="14"/>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="12"/>
-      <c r="N166" s="14"/>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="12"/>
-      <c r="N167" s="14"/>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="12"/>
-      <c r="N168" s="14"/>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="12"/>
-      <c r="N169" s="14"/>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="12"/>
-      <c r="N170" s="14"/>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="12"/>
-      <c r="N171" s="14"/>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="12"/>
-      <c r="N172" s="14"/>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="12"/>
-      <c r="N173" s="14"/>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="12"/>
-      <c r="N174" s="14"/>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="12"/>
-      <c r="N175" s="14"/>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="12"/>
-      <c r="N176" s="14"/>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="12"/>
-      <c r="N177" s="14"/>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="12"/>
-      <c r="N178" s="14"/>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="12"/>
-      <c r="N179" s="14"/>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="12"/>
-      <c r="N180" s="14"/>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="12"/>
-      <c r="N181" s="14"/>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="12"/>
-      <c r="N182" s="14"/>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="12"/>
-      <c r="N183" s="14"/>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="12"/>
-      <c r="N184" s="14"/>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
-      <c r="N185" s="14"/>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="12"/>
-      <c r="N186" s="14"/>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="12"/>
-      <c r="N187" s="14"/>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="12"/>
-      <c r="N188" s="14"/>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="12"/>
-      <c r="N189" s="14"/>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="12"/>
-      <c r="N190" s="14"/>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="12"/>
-      <c r="N191" s="14"/>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="12"/>
-      <c r="N192" s="14"/>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="12"/>
-      <c r="N193" s="14"/>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="12"/>
-      <c r="N194" s="14"/>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="12"/>
-      <c r="N195" s="14"/>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="12"/>
-      <c r="N196" s="14"/>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="12"/>
-      <c r="N197" s="14"/>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="12"/>
-      <c r="N198" s="14"/>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="12"/>
-      <c r="N199" s="14"/>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="12"/>
-      <c r="N200" s="14"/>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="12"/>
-      <c r="N201" s="14"/>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="12"/>
-      <c r="N202" s="14"/>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="12"/>
-      <c r="N203" s="14"/>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="12"/>
-      <c r="N204" s="14"/>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="12"/>
-      <c r="N205" s="14"/>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="12"/>
-      <c r="N206" s="14"/>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="12"/>
-      <c r="N207" s="14"/>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="12"/>
-      <c r="N208" s="14"/>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="12"/>
-      <c r="N209" s="14"/>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="12"/>
-      <c r="N210" s="14"/>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="12"/>
-      <c r="N211" s="14"/>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="12"/>
-      <c r="N212" s="14"/>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="12"/>
-      <c r="N213" s="14"/>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="12"/>
-      <c r="N214" s="14"/>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="12"/>
-      <c r="N215" s="14"/>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="12"/>
-      <c r="N216" s="14"/>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="12"/>
-      <c r="N217" s="14"/>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="12"/>
-      <c r="N218" s="14"/>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="12"/>
-      <c r="N219" s="14"/>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="12"/>
-      <c r="N220" s="14"/>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="12"/>
-      <c r="N221" s="14"/>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="12"/>
-      <c r="N222" s="14"/>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="12"/>
-      <c r="N223" s="14"/>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="12"/>
-      <c r="N224" s="14"/>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="12"/>
-      <c r="N225" s="14"/>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="12"/>
-      <c r="N226" s="14"/>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="12"/>
-      <c r="N227" s="14"/>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="12"/>
-      <c r="N228" s="14"/>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="12"/>
-      <c r="N229" s="14"/>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="12"/>
-      <c r="N230" s="14"/>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="12"/>
-      <c r="N231" s="14"/>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="12"/>
-      <c r="N232" s="14"/>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="12"/>
-      <c r="N233" s="14"/>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="12"/>
-      <c r="N234" s="14"/>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="12"/>
-      <c r="N235" s="14"/>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="12"/>
-      <c r="N236" s="14"/>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="12"/>
-      <c r="N237" s="14"/>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="12"/>
-      <c r="N238" s="14"/>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="12"/>
-      <c r="N239" s="14"/>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="12"/>
-      <c r="N240" s="14"/>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="12"/>
-      <c r="N241" s="14"/>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="12"/>
-      <c r="N242" s="14"/>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="12"/>
-      <c r="N243" s="14"/>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="12"/>
-      <c r="N244" s="14"/>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="12"/>
-      <c r="N245" s="14"/>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="12"/>
-      <c r="N246" s="14"/>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="12"/>
-      <c r="N247" s="14"/>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="12"/>
-      <c r="N248" s="14"/>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="12"/>
-      <c r="N249" s="14"/>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="12"/>
-      <c r="N250" s="14"/>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="12"/>
-      <c r="N251" s="14"/>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="12"/>
-      <c r="N252" s="14"/>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="12"/>
-      <c r="N253" s="14"/>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="12"/>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="12"/>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="12"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Documents/Github_R/Regrassion_GDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77709B94-136D-9F44-95FF-B9D21A58B2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B2683E-929E-4642-AEAE-4752BD5FDDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="620" windowWidth="28800" windowHeight="15760" xr2:uid="{3580B857-6E9C-4522-A1C6-485FA67992EC}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15760" xr2:uid="{3580B857-6E9C-4522-A1C6-485FA67992EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DATE</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>German Searches</t>
+  </si>
+  <si>
+    <t>Retail Trade</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Drebound</t>
   </si>
 </sst>
 </file>
@@ -546,10 +555,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N366"/>
+  <dimension ref="A1:P366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -563,15 +572,16 @@
     <col min="7" max="7" width="13.5" style="8" customWidth="1"/>
     <col min="8" max="8" width="20.83203125" style="8" customWidth="1"/>
     <col min="9" max="9" width="20" style="8" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="8" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="8"/>
-    <col min="14" max="14" width="20.83203125" style="8" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="8"/>
+    <col min="10" max="11" width="13.1640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="8" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="8" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="20.83203125" style="8" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -600,17 +610,26 @@
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>38353</v>
       </c>
@@ -638,18 +657,27 @@
       <c r="I2" s="3">
         <v>59.1</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="5">
+        <v>1.9248619065223795</v>
+      </c>
+      <c r="K2" s="5">
+        <v>-21.866666666666664</v>
+      </c>
+      <c r="L2" s="11">
         <v>-0.73775997003258043</v>
       </c>
-      <c r="K2" s="5">
+      <c r="M2" s="5">
         <v>3.7666666666666671</v>
       </c>
-      <c r="L2" s="8">
-        <v>0</v>
-      </c>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N2" s="8">
+        <v>0</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>38443</v>
       </c>
@@ -677,18 +705,27 @@
       <c r="I3" s="3">
         <v>59.8</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="5">
+        <v>3.5070465031992142</v>
+      </c>
+      <c r="K3" s="5">
+        <v>-24.333333333333332</v>
+      </c>
+      <c r="L3" s="11">
         <v>-0.19198564170647303</v>
       </c>
-      <c r="K3" s="5">
+      <c r="M3" s="5">
         <v>3.5999999999999996</v>
       </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>38534</v>
       </c>
@@ -716,18 +753,27 @@
       <c r="I4" s="3">
         <v>59.8</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="5">
+        <v>7.0081414876309864</v>
+      </c>
+      <c r="K4" s="5">
+        <v>-27.733333333333331</v>
+      </c>
+      <c r="L4" s="11">
         <v>1.192834114240922</v>
       </c>
-      <c r="K4" s="5">
+      <c r="M4" s="5">
         <v>3.41</v>
       </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>38626</v>
       </c>
@@ -755,18 +801,27 @@
       <c r="I5" s="3">
         <v>59.8</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="5">
+        <v>6.5650656320045835</v>
+      </c>
+      <c r="K5" s="5">
+        <v>-34.233333333333334</v>
+      </c>
+      <c r="L5" s="11">
         <v>-0.91325168755096142</v>
       </c>
-      <c r="K5" s="5">
+      <c r="M5" s="5">
         <v>3.563333333333333</v>
       </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>38718</v>
       </c>
@@ -794,18 +849,27 @@
       <c r="I6" s="3">
         <v>60</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="5">
+        <v>7.5280263205775784</v>
+      </c>
+      <c r="K6" s="5">
+        <v>-28.533333333333331</v>
+      </c>
+      <c r="L6" s="11">
         <v>1.5590381083053757</v>
       </c>
-      <c r="K6" s="5">
+      <c r="M6" s="5">
         <v>3.7733333333333334</v>
       </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>38808</v>
       </c>
@@ -833,18 +897,27 @@
       <c r="I7" s="3">
         <v>60.6</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="5">
+        <v>10.195677857326267</v>
+      </c>
+      <c r="K7" s="5">
+        <v>-27.066666666666663</v>
+      </c>
+      <c r="L7" s="11">
         <v>-0.5887718042761283</v>
       </c>
-      <c r="K7" s="5">
+      <c r="M7" s="5">
         <v>4.28</v>
       </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>38899</v>
       </c>
@@ -872,18 +945,27 @@
       <c r="I8" s="3">
         <v>61.1</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="5">
+        <v>9.9009683737463057</v>
+      </c>
+      <c r="K8" s="5">
+        <v>-26.633333333333336</v>
+      </c>
+      <c r="L8" s="11">
         <v>-0.78878743245589156</v>
       </c>
-      <c r="K8" s="5">
+      <c r="M8" s="5">
         <v>4.1933333333333325</v>
       </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>38991</v>
       </c>
@@ -911,18 +993,27 @@
       <c r="I9" s="3">
         <v>60.5</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="5">
+        <v>8.2985801360080416</v>
+      </c>
+      <c r="K9" s="5">
+        <v>-26.966666666666665</v>
+      </c>
+      <c r="L9" s="11">
         <v>0.68505926437646025</v>
       </c>
-      <c r="K9" s="5">
+      <c r="M9" s="5">
         <v>4.0333333333333341</v>
       </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>39083</v>
       </c>
@@ -950,18 +1041,27 @@
       <c r="I10" s="3">
         <v>60.2</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="5">
+        <v>6.6165913364427453</v>
+      </c>
+      <c r="K10" s="5">
+        <v>-24.833333333333332</v>
+      </c>
+      <c r="L10" s="11">
         <v>-1.9501731862862451E-4</v>
       </c>
-      <c r="K10" s="5">
+      <c r="M10" s="5">
         <v>4.2600000000000007</v>
       </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>39173</v>
       </c>
@@ -989,18 +1089,27 @@
       <c r="I11" s="3">
         <v>61</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="5">
+        <v>2.8818305417927195</v>
+      </c>
+      <c r="K11" s="5">
+        <v>-25.466666666666669</v>
+      </c>
+      <c r="L11" s="11">
         <v>0.71383169521439682</v>
       </c>
-      <c r="K11" s="5">
+      <c r="M11" s="5">
         <v>4.57</v>
       </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>39264</v>
       </c>
@@ -1028,18 +1137,27 @@
       <c r="I12" s="3">
         <v>61.3</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="5">
+        <v>-0.49685605827472451</v>
+      </c>
+      <c r="K12" s="5">
+        <v>-23.866666666666671</v>
+      </c>
+      <c r="L12" s="11">
         <v>-0.30034869756010396</v>
       </c>
-      <c r="K12" s="5">
+      <c r="M12" s="5">
         <v>4.6566666666666663</v>
       </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>39356</v>
       </c>
@@ -1067,18 +1185,27 @@
       <c r="I13" s="3">
         <v>61</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="5">
+        <v>0.61720216023487595</v>
+      </c>
+      <c r="K13" s="5">
+        <v>-25.633333333333336</v>
+      </c>
+      <c r="L13" s="11">
         <v>-7.30294149308479E-2</v>
       </c>
-      <c r="K13" s="5">
+      <c r="M13" s="5">
         <v>4.5133333333333328</v>
       </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>39448</v>
       </c>
@@ -1106,18 +1233,27 @@
       <c r="I14" s="3">
         <v>60.8</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="5">
+        <v>5.0652724995853147</v>
+      </c>
+      <c r="K14" s="5">
+        <v>-29.233333333333331</v>
+      </c>
+      <c r="L14" s="11">
         <v>-1.4042505984193532</v>
       </c>
-      <c r="K14" s="5">
+      <c r="M14" s="5">
         <v>4.3933333333333335</v>
       </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>39539</v>
       </c>
@@ -1145,18 +1281,27 @@
       <c r="I15" s="3">
         <v>61.8</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="5">
+        <v>4.4916178343017554</v>
+      </c>
+      <c r="K15" s="5">
+        <v>-37.466666666666669</v>
+      </c>
+      <c r="L15" s="11">
         <v>1.7213579177417264</v>
       </c>
-      <c r="K15" s="5">
+      <c r="M15" s="5">
         <v>4.8166666666666673</v>
       </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11"/>
+    </row>
+    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>39630</v>
       </c>
@@ -1184,18 +1329,27 @@
       <c r="I16" s="3">
         <v>61.8</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="5">
+        <v>-2.4297425590120172</v>
+      </c>
+      <c r="K16" s="5">
+        <v>-39.533333333333339</v>
+      </c>
+      <c r="L16" s="11">
         <v>-1.5767515739417697</v>
       </c>
-      <c r="K16" s="5">
+      <c r="M16" s="5">
         <v>4.9666666666666659</v>
       </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>39722</v>
       </c>
@@ -1223,18 +1377,27 @@
       <c r="I17" s="3">
         <v>61.3</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="5">
+        <v>-1.2057654376354343</v>
+      </c>
+      <c r="K17" s="5">
+        <v>-48.5</v>
+      </c>
+      <c r="L17" s="11">
         <v>-1.7583398755939481</v>
       </c>
-      <c r="K17" s="5">
+      <c r="M17" s="5">
         <v>5.0333333333333332</v>
       </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>39814</v>
       </c>
@@ -1262,18 +1425,27 @@
       <c r="I18" s="3">
         <v>60.6</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="5">
+        <v>-14.520129320101105</v>
+      </c>
+      <c r="K18" s="5">
+        <v>-40.966666666666669</v>
+      </c>
+      <c r="L18" s="11">
         <v>-1.0256399232721072</v>
       </c>
-      <c r="K18" s="5">
+      <c r="M18" s="5">
         <v>5.7233333333333336</v>
       </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11"/>
+    </row>
+    <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>39904</v>
       </c>
@@ -1301,18 +1473,27 @@
       <c r="I19" s="3">
         <v>61.2</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="5">
+        <v>-14.189532899399451</v>
+      </c>
+      <c r="K19" s="5">
+        <v>-36.5</v>
+      </c>
+      <c r="L19" s="11">
         <v>-0.51116077137761884</v>
       </c>
-      <c r="K19" s="5">
+      <c r="M19" s="5">
         <v>5.3499999999999988</v>
       </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>39995</v>
       </c>
@@ -1340,18 +1521,27 @@
       <c r="I20" s="3">
         <v>61.3</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="5">
+        <v>-8.3752060912149009</v>
+      </c>
+      <c r="K20" s="5">
+        <v>-35</v>
+      </c>
+      <c r="L20" s="11">
         <v>8.6249471352584983E-2</v>
       </c>
-      <c r="K20" s="5">
+      <c r="M20" s="5">
         <v>4.6566666666666663</v>
       </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>40087</v>
       </c>
@@ -1379,18 +1569,27 @@
       <c r="I21" s="3">
         <v>60.3</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="5">
+        <v>-8.2368466166767806</v>
+      </c>
+      <c r="K21" s="5">
+        <v>-29.3</v>
+      </c>
+      <c r="L21" s="11">
         <v>-0.79358764095720524</v>
       </c>
-      <c r="K21" s="5">
+      <c r="M21" s="5">
         <v>4.9666666666666668</v>
       </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>40179</v>
       </c>
@@ -1418,18 +1617,27 @@
       <c r="I22" s="3">
         <v>59.6</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="5">
+        <v>5.2224436042250693</v>
+      </c>
+      <c r="K22" s="5">
+        <v>-45.300000000000004</v>
+      </c>
+      <c r="L22" s="11">
         <v>-0.59686859583268548</v>
       </c>
-      <c r="K22" s="5">
+      <c r="M22" s="5">
         <v>6.2399999999999993</v>
       </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>40269</v>
       </c>
@@ -1457,18 +1665,27 @@
       <c r="I23" s="3">
         <v>59.7</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="5">
+        <v>-5.5640734719777463</v>
+      </c>
+      <c r="K23" s="5">
+        <v>-60.1</v>
+      </c>
+      <c r="L23" s="11">
         <v>-0.55406273382459503</v>
       </c>
-      <c r="K23" s="5">
+      <c r="M23" s="5">
         <v>8.2999999999999989</v>
       </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>40360</v>
       </c>
@@ -1496,18 +1713,27 @@
       <c r="I24" s="3">
         <v>59.3</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="5">
+        <v>-11.114280902113128</v>
+      </c>
+      <c r="K24" s="5">
+        <v>-60.199999999999996</v>
+      </c>
+      <c r="L24" s="11">
         <v>-1.9931790907010718</v>
       </c>
-      <c r="K24" s="5">
+      <c r="M24" s="5">
         <v>10.793333333333331</v>
       </c>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0</v>
+      </c>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>40452</v>
       </c>
@@ -1535,18 +1761,27 @@
       <c r="I25" s="3">
         <v>57.8</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="5">
+        <v>-12.130783096198973</v>
+      </c>
+      <c r="K25" s="5">
+        <v>-65.899999999999991</v>
+      </c>
+      <c r="L25" s="11">
         <v>1.9196749896078236</v>
       </c>
-      <c r="K25" s="5">
+      <c r="M25" s="5">
         <v>11.033333333333333</v>
       </c>
-      <c r="L25" s="8">
-        <v>0</v>
-      </c>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>40544</v>
       </c>
@@ -1574,18 +1809,27 @@
       <c r="I26" s="3">
         <v>56.4</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="5">
+        <v>-14.794613910025026</v>
+      </c>
+      <c r="K26" s="5">
+        <v>-64.86666666666666</v>
+      </c>
+      <c r="L26" s="11">
         <v>-1.0393872832222939</v>
       </c>
-      <c r="K26" s="5">
+      <c r="M26" s="5">
         <v>11.856666666666667</v>
       </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N26" s="8">
+        <v>0</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0</v>
+      </c>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>40634</v>
       </c>
@@ -1613,18 +1857,27 @@
       <c r="I27" s="3">
         <v>56</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="5">
+        <v>-10.234689528431298</v>
+      </c>
+      <c r="K27" s="5">
+        <v>-67.399999999999991</v>
+      </c>
+      <c r="L27" s="11">
         <v>-2.1873605828584051</v>
       </c>
-      <c r="K27" s="5">
+      <c r="M27" s="5">
         <v>15.496666666666664</v>
       </c>
-      <c r="L27" s="8">
-        <v>0</v>
-      </c>
-      <c r="N27" s="11"/>
-    </row>
-    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>40725</v>
       </c>
@@ -1652,18 +1905,27 @@
       <c r="I28" s="3">
         <v>55</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="5">
+        <v>-5.2552572842338137</v>
+      </c>
+      <c r="K28" s="5">
+        <v>-68.466666666666654</v>
+      </c>
+      <c r="L28" s="11">
         <v>2.5747365793093602</v>
       </c>
-      <c r="K28" s="5">
+      <c r="M28" s="5">
         <v>16.61</v>
       </c>
-      <c r="L28" s="8">
-        <v>0</v>
-      </c>
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N28" s="8">
+        <v>0</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0</v>
+      </c>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>40817</v>
       </c>
@@ -1691,18 +1953,27 @@
       <c r="I29" s="3">
         <v>53</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="5">
+        <v>-9.9368958276828483</v>
+      </c>
+      <c r="K29" s="5">
+        <v>-78.533333333333331</v>
+      </c>
+      <c r="L29" s="11">
         <v>-3.3202200547679723</v>
       </c>
-      <c r="K29" s="5">
+      <c r="M29" s="5">
         <v>19.033333333333335</v>
       </c>
-      <c r="L29" s="8">
-        <v>0</v>
-      </c>
-      <c r="N29" s="11"/>
-    </row>
-    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N29" s="8">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>40909</v>
       </c>
@@ -1730,18 +2001,27 @@
       <c r="I30" s="3">
         <v>51.8</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="5">
+        <v>-12.708178962824661</v>
+      </c>
+      <c r="K30" s="5">
+        <v>-77.933333333333337</v>
+      </c>
+      <c r="L30" s="11">
         <v>0.62476610594101489</v>
       </c>
-      <c r="K30" s="5">
+      <c r="M30" s="5">
         <v>24.736666666666665</v>
       </c>
-      <c r="L30" s="8">
-        <v>0</v>
-      </c>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N30" s="8">
+        <v>0</v>
+      </c>
+      <c r="O30" s="8">
+        <v>0</v>
+      </c>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>41000</v>
       </c>
@@ -1769,18 +2049,27 @@
       <c r="I31" s="3">
         <v>51.2</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="5">
+        <v>-11.596968148955751</v>
+      </c>
+      <c r="K31" s="5">
+        <v>-74.266666666666666</v>
+      </c>
+      <c r="L31" s="11">
         <v>0.41650335041408948</v>
       </c>
-      <c r="K31" s="5">
+      <c r="M31" s="5">
         <v>25.399999999999995</v>
       </c>
-      <c r="L31" s="8">
-        <v>0</v>
-      </c>
-      <c r="N31" s="11"/>
-    </row>
-    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N31" s="8">
+        <v>0</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0</v>
+      </c>
+      <c r="P31" s="11"/>
+    </row>
+    <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>41091</v>
       </c>
@@ -1808,18 +2097,27 @@
       <c r="I32" s="3">
         <v>50.5</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="5">
+        <v>-11.055551063006808</v>
+      </c>
+      <c r="K32" s="5">
+        <v>-67.599999999999994</v>
+      </c>
+      <c r="L32" s="11">
         <v>0.24976440085827833</v>
       </c>
-      <c r="K32" s="5">
+      <c r="M32" s="5">
         <v>23.689999999999998</v>
       </c>
-      <c r="L32" s="8">
-        <v>0</v>
-      </c>
-      <c r="N32" s="11"/>
-    </row>
-    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N32" s="8">
+        <v>0</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0</v>
+      </c>
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>41183</v>
       </c>
@@ -1847,18 +2145,27 @@
       <c r="I33" s="3">
         <v>49.7</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="5">
+        <v>-13.911019898868803</v>
+      </c>
+      <c r="K33" s="5">
+        <v>-75.233333333333334</v>
+      </c>
+      <c r="L33" s="11">
         <v>-0.98969811056696155</v>
       </c>
-      <c r="K33" s="5">
+      <c r="M33" s="5">
         <v>16.16333333333333</v>
       </c>
-      <c r="L33" s="8">
-        <v>0</v>
-      </c>
-      <c r="N33" s="11"/>
-    </row>
-    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N33" s="8">
+        <v>0</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0</v>
+      </c>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>41275</v>
       </c>
@@ -1886,18 +2193,27 @@
       <c r="I34" s="3">
         <v>48.6</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="5">
+        <v>-11.633096307103257</v>
+      </c>
+      <c r="K34" s="5">
+        <v>-71.3</v>
+      </c>
+      <c r="L34" s="11">
         <v>0.24668328248765481</v>
       </c>
-      <c r="K34" s="5">
+      <c r="M34" s="5">
         <v>11.143333333333333</v>
       </c>
-      <c r="L34" s="8">
-        <v>0</v>
-      </c>
-      <c r="N34" s="11"/>
-    </row>
-    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N34" s="8">
+        <v>0</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0</v>
+      </c>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>41365</v>
       </c>
@@ -1925,18 +2241,27 @@
       <c r="I35" s="3">
         <v>49.1</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="5">
+        <v>-8.6415803906765323</v>
+      </c>
+      <c r="K35" s="5">
+        <v>-69.63333333333334</v>
+      </c>
+      <c r="L35" s="11">
         <v>1.2587967883962254</v>
       </c>
-      <c r="K35" s="5">
+      <c r="M35" s="5">
         <v>10.24</v>
       </c>
-      <c r="L35" s="8">
-        <v>0</v>
-      </c>
-      <c r="N35" s="11"/>
-    </row>
-    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N35" s="8">
+        <v>0</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0</v>
+      </c>
+      <c r="P35" s="11"/>
+    </row>
+    <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>41456</v>
       </c>
@@ -1964,18 +2289,27 @@
       <c r="I36" s="3">
         <v>49.1</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="5">
+        <v>-9.4653220790317913</v>
+      </c>
+      <c r="K36" s="5">
+        <v>-71.233333333333334</v>
+      </c>
+      <c r="L36" s="11">
         <v>-1.2104658509298976</v>
       </c>
-      <c r="K36" s="5">
+      <c r="M36" s="5">
         <v>10.229999999999999</v>
       </c>
-      <c r="L36" s="8">
-        <v>0</v>
-      </c>
-      <c r="N36" s="11"/>
-    </row>
-    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N36" s="8">
+        <v>0</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11"/>
+    </row>
+    <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>41548</v>
       </c>
@@ -2003,18 +2337,27 @@
       <c r="I37" s="3">
         <v>48.4</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="5">
+        <v>-1.3274910780147313</v>
+      </c>
+      <c r="K37" s="5">
+        <v>-66.666666666666671</v>
+      </c>
+      <c r="L37" s="11">
         <v>-0.50056797532180175</v>
       </c>
-      <c r="K37" s="5">
+      <c r="M37" s="5">
         <v>8.6033333333333335</v>
       </c>
-      <c r="L37" s="8">
-        <v>0</v>
-      </c>
-      <c r="N37" s="11"/>
-    </row>
-    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N37" s="8">
+        <v>0</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0</v>
+      </c>
+      <c r="P37" s="11"/>
+    </row>
+    <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>41640</v>
       </c>
@@ -2042,18 +2385,27 @@
       <c r="I38" s="3">
         <v>48.5</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="5">
+        <v>-2.4626009451517432</v>
+      </c>
+      <c r="K38" s="5">
+        <v>-61.466666666666669</v>
+      </c>
+      <c r="L38" s="11">
         <v>-0.67816118993914376</v>
       </c>
-      <c r="K38" s="5">
+      <c r="M38" s="5">
         <v>7.5933333333333337</v>
       </c>
-      <c r="L38" s="8">
-        <v>0</v>
-      </c>
-      <c r="N38" s="11"/>
-    </row>
-    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N38" s="8">
+        <v>0</v>
+      </c>
+      <c r="O38" s="8">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>41730</v>
       </c>
@@ -2081,18 +2433,27 @@
       <c r="I39" s="3">
         <v>49.4</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="5">
+        <v>-0.11122778999258316</v>
+      </c>
+      <c r="K39" s="5">
+        <v>-51.800000000000004</v>
+      </c>
+      <c r="L39" s="11">
         <v>0.9621542429257971</v>
       </c>
-      <c r="K39" s="5">
+      <c r="M39" s="5">
         <v>6.169999999999999</v>
       </c>
-      <c r="L39" s="8">
-        <v>0</v>
-      </c>
-      <c r="N39" s="11"/>
-    </row>
-    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
+      <c r="O39" s="8">
+        <v>0</v>
+      </c>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>41821</v>
       </c>
@@ -2120,18 +2481,27 @@
       <c r="I40" s="3">
         <v>50.2</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="5">
+        <v>1.2633772622998991</v>
+      </c>
+      <c r="K40" s="5">
+        <v>-50.300000000000004</v>
+      </c>
+      <c r="L40" s="11">
         <v>-0.96772549278445263</v>
       </c>
-      <c r="K40" s="5">
+      <c r="M40" s="5">
         <v>6.0266666666666664</v>
       </c>
-      <c r="L40" s="8">
-        <v>0</v>
-      </c>
-      <c r="N40" s="11"/>
-    </row>
-    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>41913</v>
       </c>
@@ -2159,18 +2529,27 @@
       <c r="I41" s="3">
         <v>49.6</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="5">
+        <v>-0.16503660334637049</v>
+      </c>
+      <c r="K41" s="5">
+        <v>-48.433333333333337</v>
+      </c>
+      <c r="L41" s="11">
         <v>-0.10296935563392833</v>
       </c>
-      <c r="K41" s="5">
+      <c r="M41" s="5">
         <v>7.9266666666666667</v>
       </c>
-      <c r="L41" s="8">
-        <v>0</v>
-      </c>
-      <c r="N41" s="11"/>
-    </row>
-    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N41" s="8">
+        <v>0</v>
+      </c>
+      <c r="O41" s="8">
+        <v>0</v>
+      </c>
+      <c r="P41" s="11"/>
+    </row>
+    <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>42005</v>
       </c>
@@ -2198,18 +2577,27 @@
       <c r="I42" s="3">
         <v>49.2</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="5">
+        <v>0.51061391323300953</v>
+      </c>
+      <c r="K42" s="5">
+        <v>-38.966666666666669</v>
+      </c>
+      <c r="L42" s="11">
         <v>1.5751187447695123</v>
       </c>
-      <c r="K42" s="5">
+      <c r="M42" s="5">
         <v>9.9066666666666681</v>
       </c>
-      <c r="L42" s="8">
-        <v>0</v>
-      </c>
-      <c r="N42" s="11"/>
-    </row>
-    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N42" s="8">
+        <v>0</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>42095</v>
       </c>
@@ -2237,18 +2625,27 @@
       <c r="I43" s="3">
         <v>51</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="5">
+        <v>0.45743212486967427</v>
+      </c>
+      <c r="K43" s="5">
+        <v>-45.1</v>
+      </c>
+      <c r="L43" s="11">
         <v>-2.3724202990103191</v>
       </c>
-      <c r="K43" s="5">
+      <c r="M43" s="5">
         <v>11.459999999999999</v>
       </c>
-      <c r="L43" s="8">
-        <v>0</v>
-      </c>
-      <c r="N43" s="11"/>
-    </row>
-    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N43" s="8">
+        <v>0</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0</v>
+      </c>
+      <c r="P43" s="11"/>
+    </row>
+    <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>42186</v>
       </c>
@@ -2276,18 +2673,27 @@
       <c r="I44" s="3">
         <v>51.7</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="5">
+        <v>-4.4865399831792336</v>
+      </c>
+      <c r="K44" s="5">
+        <v>-61.4</v>
+      </c>
+      <c r="L44" s="11">
         <v>2.0914598473117594</v>
       </c>
-      <c r="K44" s="5">
+      <c r="M44" s="5">
         <v>6.2666666666666657</v>
       </c>
-      <c r="L44" s="8">
-        <v>0</v>
-      </c>
-      <c r="N44" s="11"/>
-    </row>
-    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N44" s="8">
+        <v>0</v>
+      </c>
+      <c r="O44" s="8">
+        <v>0</v>
+      </c>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>42278</v>
       </c>
@@ -2315,18 +2721,27 @@
       <c r="I45" s="3">
         <v>51.3</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="5">
+        <v>-2.0944794376899445</v>
+      </c>
+      <c r="K45" s="5">
+        <v>-61.1</v>
+      </c>
+      <c r="L45" s="11">
         <v>1.6850308185153224</v>
       </c>
-      <c r="K45" s="5">
+      <c r="M45" s="5">
         <v>7.81</v>
       </c>
-      <c r="L45" s="8">
-        <v>0</v>
-      </c>
-      <c r="N45" s="11"/>
-    </row>
-    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N45" s="8">
+        <v>0</v>
+      </c>
+      <c r="O45" s="8">
+        <v>0</v>
+      </c>
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>42370</v>
       </c>
@@ -2354,18 +2769,27 @@
       <c r="I46" s="3">
         <v>50.9</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="5">
+        <v>-2.9573370925309592</v>
+      </c>
+      <c r="K46" s="5">
+        <v>-61.79999999999999</v>
+      </c>
+      <c r="L46" s="11">
         <v>-1.9271816030589932</v>
       </c>
-      <c r="K46" s="5">
+      <c r="M46" s="5">
         <v>9.5366666666666671</v>
       </c>
-      <c r="L46" s="8">
-        <v>0</v>
-      </c>
-      <c r="N46" s="11"/>
-    </row>
-    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N46" s="8">
+        <v>0</v>
+      </c>
+      <c r="O46" s="8">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>42461</v>
       </c>
@@ -2393,18 +2817,27 @@
       <c r="I47" s="3">
         <v>52.4</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="5">
+        <v>-3.8491316366395645</v>
+      </c>
+      <c r="K47" s="5">
+        <v>-61.1</v>
+      </c>
+      <c r="L47" s="11">
         <v>0.57964013981868967</v>
       </c>
-      <c r="K47" s="5">
+      <c r="M47" s="5">
         <v>8.1966666666666654</v>
       </c>
-      <c r="L47" s="8">
-        <v>0</v>
-      </c>
-      <c r="N47" s="11"/>
-    </row>
-    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N47" s="8">
+        <v>0</v>
+      </c>
+      <c r="O47" s="8">
+        <v>0</v>
+      </c>
+      <c r="P47" s="11"/>
+    </row>
+    <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>42552</v>
       </c>
@@ -2432,18 +2865,27 @@
       <c r="I48" s="3">
         <v>53</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="5">
+        <v>2.7722378686796803</v>
+      </c>
+      <c r="K48" s="5">
+        <v>-61.866666666666667</v>
+      </c>
+      <c r="L48" s="11">
         <v>0.1760543507322424</v>
       </c>
-      <c r="K48" s="5">
+      <c r="M48" s="5">
         <v>8.1733333333333338</v>
       </c>
-      <c r="L48" s="8">
-        <v>0</v>
-      </c>
-      <c r="N48" s="11"/>
-    </row>
-    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N48" s="8">
+        <v>0</v>
+      </c>
+      <c r="O48" s="8">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>42644</v>
       </c>
@@ -2471,18 +2913,27 @@
       <c r="I49" s="3">
         <v>51.8</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="5">
+        <v>1.9249210043637743</v>
+      </c>
+      <c r="K49" s="5">
+        <v>-60.366666666666667</v>
+      </c>
+      <c r="L49" s="11">
         <v>1.5373846031140133</v>
       </c>
-      <c r="K49" s="5">
+      <c r="M49" s="5">
         <v>7.5333333333333341</v>
       </c>
-      <c r="L49" s="8">
-        <v>0</v>
-      </c>
-      <c r="N49" s="11"/>
-    </row>
-    <row r="50" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N49" s="8">
+        <v>0</v>
+      </c>
+      <c r="O49" s="8">
+        <v>0</v>
+      </c>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>42736</v>
       </c>
@@ -2510,18 +2961,27 @@
       <c r="I50" s="3">
         <v>52</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="5">
+        <v>3.0948075705586109</v>
+      </c>
+      <c r="K50" s="5">
+        <v>-65.899999999999991</v>
+      </c>
+      <c r="L50" s="11">
         <v>0.30629366398365238</v>
       </c>
-      <c r="K50" s="5">
+      <c r="M50" s="5">
         <v>7.2433333333333323</v>
       </c>
-      <c r="L50" s="8">
-        <v>0</v>
-      </c>
-      <c r="N50" s="11"/>
-    </row>
-    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N50" s="8">
+        <v>0</v>
+      </c>
+      <c r="O50" s="8">
+        <v>0</v>
+      </c>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>42826</v>
       </c>
@@ -2549,18 +3009,27 @@
       <c r="I51" s="3">
         <v>54</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="5">
+        <v>2.1438731958140225</v>
+      </c>
+      <c r="K51" s="5">
+        <v>-62.633333333333326</v>
+      </c>
+      <c r="L51" s="11">
         <v>-0.42316367996083309</v>
       </c>
-      <c r="K51" s="5">
+      <c r="M51" s="5">
         <v>6.1066666666666665</v>
       </c>
-      <c r="L51" s="8">
-        <v>0</v>
-      </c>
-      <c r="N51" s="11"/>
-    </row>
-    <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N51" s="8">
+        <v>0</v>
+      </c>
+      <c r="O51" s="8">
+        <v>0</v>
+      </c>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>42917</v>
       </c>
@@ -2588,18 +3057,27 @@
       <c r="I52" s="3">
         <v>54.6</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J52" s="5">
+        <v>0.17929576992454757</v>
+      </c>
+      <c r="K52" s="5">
+        <v>-54.099999999999994</v>
+      </c>
+      <c r="L52" s="11">
         <v>-0.50885672719622521</v>
       </c>
-      <c r="K52" s="5">
+      <c r="M52" s="5">
         <v>5.4799999999999995</v>
       </c>
-      <c r="L52" s="8">
-        <v>0</v>
-      </c>
-      <c r="N52" s="11"/>
-    </row>
-    <row r="53" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N52" s="8">
+        <v>0</v>
+      </c>
+      <c r="O52" s="8">
+        <v>0</v>
+      </c>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>43009</v>
       </c>
@@ -2627,18 +3105,27 @@
       <c r="I53" s="3">
         <v>53.4</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J53" s="5">
+        <v>-0.27475850730460705</v>
+      </c>
+      <c r="K53" s="5">
+        <v>-49.433333333333337</v>
+      </c>
+      <c r="L53" s="11">
         <v>1.0639205677284982</v>
       </c>
-      <c r="K53" s="5">
+      <c r="M53" s="5">
         <v>5.083333333333333</v>
       </c>
-      <c r="L53" s="8">
-        <v>0</v>
-      </c>
-      <c r="N53" s="11"/>
-    </row>
-    <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N53" s="8">
+        <v>0</v>
+      </c>
+      <c r="O53" s="8">
+        <v>0</v>
+      </c>
+      <c r="P53" s="11"/>
+    </row>
+    <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>43101</v>
       </c>
@@ -2666,18 +3153,27 @@
       <c r="I54" s="3">
         <v>53.3</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J54" s="5">
+        <v>0.91345464187797754</v>
+      </c>
+      <c r="K54" s="5">
+        <v>-50.4</v>
+      </c>
+      <c r="L54" s="11">
         <v>0.30674607977813068</v>
       </c>
-      <c r="K54" s="5">
+      <c r="M54" s="5">
         <v>4.0666666666666664</v>
       </c>
-      <c r="L54" s="8">
-        <v>0</v>
-      </c>
-      <c r="N54" s="11"/>
-    </row>
-    <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N54" s="8">
+        <v>0</v>
+      </c>
+      <c r="O54" s="8">
+        <v>0</v>
+      </c>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>43191</v>
       </c>
@@ -2705,18 +3201,27 @@
       <c r="I55" s="3">
         <v>55.3</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J55" s="5">
+        <v>2.4707175208288219</v>
+      </c>
+      <c r="K55" s="5">
+        <v>-48.333333333333336</v>
+      </c>
+      <c r="L55" s="11">
         <v>-0.27954881580700253</v>
       </c>
-      <c r="K55" s="5">
+      <c r="M55" s="5">
         <v>4.2399999999999993</v>
       </c>
-      <c r="L55" s="8">
-        <v>0</v>
-      </c>
-      <c r="N55" s="11"/>
-    </row>
-    <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N55" s="8">
+        <v>0</v>
+      </c>
+      <c r="O55" s="8">
+        <v>0</v>
+      </c>
+      <c r="P55" s="11"/>
+    </row>
+    <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>43282</v>
       </c>
@@ -2744,18 +3249,27 @@
       <c r="I56" s="3">
         <v>55.9</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J56" s="5">
+        <v>2.4619576893794162</v>
+      </c>
+      <c r="K56" s="5">
+        <v>-46.233333333333341</v>
+      </c>
+      <c r="L56" s="11">
         <v>3.9480641484302359E-2</v>
       </c>
-      <c r="K56" s="5">
+      <c r="M56" s="5">
         <v>4.0766666666666662</v>
       </c>
-      <c r="L56" s="8">
-        <v>0</v>
-      </c>
-      <c r="N56" s="11"/>
-    </row>
-    <row r="57" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N56" s="8">
+        <v>0</v>
+      </c>
+      <c r="O56" s="8">
+        <v>0</v>
+      </c>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>43374</v>
       </c>
@@ -2783,18 +3297,27 @@
       <c r="I57" s="3">
         <v>55.1</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J57" s="5">
+        <v>-0.34413675058752302</v>
+      </c>
+      <c r="K57" s="5">
+        <v>-31.599999999999998</v>
+      </c>
+      <c r="L57" s="11">
         <v>0.64013421619929634</v>
       </c>
-      <c r="K57" s="5">
+      <c r="M57" s="5">
         <v>4.3566666666666665</v>
       </c>
-      <c r="L57" s="8">
-        <v>0</v>
-      </c>
-      <c r="N57" s="11"/>
-    </row>
-    <row r="58" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N57" s="8">
+        <v>0</v>
+      </c>
+      <c r="O57" s="8">
+        <v>0</v>
+      </c>
+      <c r="P57" s="11"/>
+    </row>
+    <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>43466</v>
       </c>
@@ -2822,18 +3345,27 @@
       <c r="I58" s="3">
         <v>55</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J58" s="5">
+        <v>-0.18104573545520619</v>
+      </c>
+      <c r="K58" s="5">
+        <v>-32.833333333333336</v>
+      </c>
+      <c r="L58" s="11">
         <v>-0.69750224246385439</v>
       </c>
-      <c r="K58" s="5">
+      <c r="M58" s="5">
         <v>3.936666666666667</v>
       </c>
-      <c r="L58" s="8">
-        <v>0</v>
-      </c>
-      <c r="N58" s="11"/>
-    </row>
-    <row r="59" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N58" s="8">
+        <v>0</v>
+      </c>
+      <c r="O58" s="8">
+        <v>0</v>
+      </c>
+      <c r="P58" s="11"/>
+    </row>
+    <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>43556</v>
       </c>
@@ -2861,18 +3393,27 @@
       <c r="I59" s="3">
         <v>57.1</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J59" s="5">
+        <v>-0.62526800735390775</v>
+      </c>
+      <c r="K59" s="5">
+        <v>-30.933333333333337</v>
+      </c>
+      <c r="L59" s="11">
         <v>-2.7585673499091634E-2</v>
       </c>
-      <c r="K59" s="5">
+      <c r="M59" s="5">
         <v>3.1533333333333338</v>
       </c>
-      <c r="L59" s="8">
-        <v>0</v>
-      </c>
-      <c r="N59" s="11"/>
-    </row>
-    <row r="60" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N59" s="8">
+        <v>0</v>
+      </c>
+      <c r="O59" s="8">
+        <v>0</v>
+      </c>
+      <c r="P59" s="11"/>
+    </row>
+    <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>43647</v>
       </c>
@@ -2900,18 +3441,27 @@
       <c r="I60" s="3">
         <v>57.4</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J60" s="5">
+        <v>1.3716628207112842</v>
+      </c>
+      <c r="K60" s="5">
+        <v>-10.6</v>
+      </c>
+      <c r="L60" s="11">
         <v>0.68063648022636725</v>
       </c>
-      <c r="K60" s="5">
+      <c r="M60" s="5">
         <v>1.8800000000000001</v>
       </c>
-      <c r="L60" s="8">
-        <v>0</v>
-      </c>
-      <c r="N60" s="11"/>
-    </row>
-    <row r="61" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N60" s="8">
+        <v>0</v>
+      </c>
+      <c r="O60" s="8">
+        <v>0</v>
+      </c>
+      <c r="P60" s="11"/>
+    </row>
+    <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>43739</v>
       </c>
@@ -2939,18 +3489,27 @@
       <c r="I61" s="3">
         <v>56.5</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J61" s="5">
+        <v>2.9285930950565073</v>
+      </c>
+      <c r="K61" s="5">
+        <v>-4.2</v>
+      </c>
+      <c r="L61" s="11">
         <v>-1.107800617501322</v>
       </c>
-      <c r="K61" s="5">
+      <c r="M61" s="5">
         <v>1.3733333333333333</v>
       </c>
-      <c r="L61" s="8">
-        <v>0</v>
-      </c>
-      <c r="N61" s="11"/>
-    </row>
-    <row r="62" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N61" s="8">
+        <v>0</v>
+      </c>
+      <c r="O61" s="8">
+        <v>0</v>
+      </c>
+      <c r="P61" s="11"/>
+    </row>
+    <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>43831</v>
       </c>
@@ -2978,18 +3537,27 @@
       <c r="I62" s="3">
         <v>55.9</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J62" s="5">
+        <v>2.3051885865523114</v>
+      </c>
+      <c r="K62" s="5">
+        <v>-14.4</v>
+      </c>
+      <c r="L62" s="11">
         <v>0.64152818235095455</v>
       </c>
-      <c r="K62" s="5">
+      <c r="M62" s="5">
         <v>1.46</v>
       </c>
-      <c r="L62" s="8">
-        <v>0</v>
-      </c>
-      <c r="N62" s="11"/>
-    </row>
-    <row r="63" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N62" s="8">
+        <v>0</v>
+      </c>
+      <c r="O62" s="8">
+        <v>0</v>
+      </c>
+      <c r="P62" s="11"/>
+    </row>
+    <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>43922</v>
       </c>
@@ -3017,18 +3585,27 @@
       <c r="I63" s="3">
         <v>55.8</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J63" s="5">
+        <v>-10.396878200393122</v>
+      </c>
+      <c r="K63" s="5">
+        <v>-38.300000000000004</v>
+      </c>
+      <c r="L63" s="11">
         <v>-1.4821295654638504</v>
       </c>
-      <c r="K63" s="5">
+      <c r="M63" s="5">
         <v>1.7666666666666666</v>
       </c>
-      <c r="L63" s="8">
+      <c r="N63" s="8">
         <v>1</v>
       </c>
-      <c r="N63" s="11"/>
-    </row>
-    <row r="64" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O63" s="8">
+        <v>0</v>
+      </c>
+      <c r="P63" s="11"/>
+    </row>
+    <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>44013</v>
       </c>
@@ -3056,18 +3633,27 @@
       <c r="I64" s="3">
         <v>57</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J64" s="5">
+        <v>-2.4950433419369618</v>
+      </c>
+      <c r="K64" s="5">
+        <v>-37</v>
+      </c>
+      <c r="L64" s="11">
         <v>1.5398031967424692</v>
       </c>
-      <c r="K64" s="5">
+      <c r="M64" s="5">
         <v>1.0999999999999999</v>
       </c>
-      <c r="L64" s="8">
-        <v>0</v>
-      </c>
-      <c r="N64" s="11"/>
-    </row>
-    <row r="65" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N64" s="8">
+        <v>0</v>
+      </c>
+      <c r="O64" s="8">
+        <v>1</v>
+      </c>
+      <c r="P64" s="11"/>
+    </row>
+    <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>44105</v>
       </c>
@@ -3095,18 +3681,27 @@
       <c r="I65" s="3">
         <v>56.4</v>
       </c>
-      <c r="J65" s="11">
+      <c r="J65" s="5">
+        <v>-4.9039897737184921</v>
+      </c>
+      <c r="K65" s="5">
+        <v>-40.233333333333334</v>
+      </c>
+      <c r="L65" s="11">
         <v>0.97034966989242211</v>
       </c>
-      <c r="K65" s="5">
+      <c r="M65" s="5">
         <v>0.7599999999999999</v>
       </c>
-      <c r="L65" s="8">
-        <v>0</v>
-      </c>
-      <c r="N65" s="11"/>
-    </row>
-    <row r="66" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N65" s="8">
+        <v>0</v>
+      </c>
+      <c r="O65" s="8">
+        <v>0</v>
+      </c>
+      <c r="P65" s="11"/>
+    </row>
+    <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>44197</v>
       </c>
@@ -3134,18 +3729,27 @@
       <c r="I66" s="3">
         <v>52.7</v>
       </c>
-      <c r="J66" s="11">
+      <c r="J66" s="5">
+        <v>-1.6736260431475365</v>
+      </c>
+      <c r="K66" s="5">
+        <v>-40.733333333333327</v>
+      </c>
+      <c r="L66" s="11">
         <v>1.1374495216736578</v>
       </c>
-      <c r="K66" s="5">
+      <c r="M66" s="5">
         <v>0.79</v>
       </c>
-      <c r="L66" s="8">
-        <v>0</v>
-      </c>
-      <c r="N66" s="11"/>
-    </row>
-    <row r="67" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N66" s="8">
+        <v>0</v>
+      </c>
+      <c r="O66" s="8">
+        <v>0</v>
+      </c>
+      <c r="P66" s="11"/>
+    </row>
+    <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>44287</v>
       </c>
@@ -3173,18 +3777,27 @@
       <c r="I67" s="3">
         <v>57</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J67" s="5">
+        <v>21.603455056533075</v>
+      </c>
+      <c r="K67" s="5">
+        <v>-28.333333333333332</v>
+      </c>
+      <c r="L67" s="11">
         <v>-0.49023335149984459</v>
       </c>
-      <c r="K67" s="5">
+      <c r="M67" s="5">
         <v>0.89333333333333342</v>
       </c>
-      <c r="L67" s="8">
-        <v>0</v>
-      </c>
-      <c r="N67" s="11"/>
-    </row>
-    <row r="68" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N67" s="8">
+        <v>0</v>
+      </c>
+      <c r="O67" s="8">
+        <v>0</v>
+      </c>
+      <c r="P67" s="11"/>
+    </row>
+    <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>44378</v>
       </c>
@@ -3212,18 +3825,27 @@
       <c r="I68" s="3">
         <v>60.1</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J68" s="5">
+        <v>8.5595966545398987</v>
+      </c>
+      <c r="K68" s="5">
+        <v>-33.633333333333333</v>
+      </c>
+      <c r="L68" s="11">
         <v>2.1347653778548996</v>
       </c>
-      <c r="K68" s="5">
+      <c r="M68" s="5">
         <v>0.69666666666666666</v>
       </c>
-      <c r="L68" s="8">
-        <v>0</v>
-      </c>
-      <c r="N68" s="11"/>
-    </row>
-    <row r="69" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N68" s="8">
+        <v>0</v>
+      </c>
+      <c r="O68" s="8">
+        <v>0</v>
+      </c>
+      <c r="P68" s="11"/>
+    </row>
+    <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>44470</v>
       </c>
@@ -3251,18 +3873,27 @@
       <c r="I69" s="3">
         <v>59.2</v>
       </c>
-      <c r="J69" s="11">
+      <c r="J69" s="5">
+        <v>14.949616559222326</v>
+      </c>
+      <c r="K69" s="5">
+        <v>-38.833333333333336</v>
+      </c>
+      <c r="L69" s="11">
         <v>0.27812451788017778</v>
       </c>
-      <c r="K69" s="5">
+      <c r="M69" s="5">
         <v>1.1566666666666665</v>
       </c>
-      <c r="L69" s="8">
-        <v>0</v>
-      </c>
-      <c r="N69" s="11"/>
-    </row>
-    <row r="70" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N69" s="8">
+        <v>0</v>
+      </c>
+      <c r="O69" s="8">
+        <v>0</v>
+      </c>
+      <c r="P69" s="11"/>
+    </row>
+    <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>44562</v>
       </c>
@@ -3290,18 +3921,27 @@
       <c r="I70" s="3">
         <v>59.2</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J70" s="5">
+        <v>10.707336195173371</v>
+      </c>
+      <c r="K70" s="5">
+        <v>-43.6</v>
+      </c>
+      <c r="L70" s="11">
         <v>1.2030928391142157</v>
       </c>
-      <c r="K70" s="5">
+      <c r="M70" s="5">
         <v>2.23</v>
       </c>
-      <c r="L70" s="8">
-        <v>0</v>
-      </c>
-      <c r="N70" s="11"/>
-    </row>
-    <row r="71" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N70" s="8">
+        <v>0</v>
+      </c>
+      <c r="O70" s="8">
+        <v>0</v>
+      </c>
+      <c r="P70" s="11"/>
+    </row>
+    <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>44652</v>
       </c>
@@ -3329,18 +3969,27 @@
       <c r="I71" s="3">
         <v>61.1</v>
       </c>
-      <c r="J71" s="11">
+      <c r="J71" s="5">
+        <v>1.687439359248617</v>
+      </c>
+      <c r="K71" s="5">
+        <v>-53.033333333333331</v>
+      </c>
+      <c r="L71" s="11">
         <v>-0.40456738939497372</v>
       </c>
-      <c r="K71" s="5">
+      <c r="M71" s="5">
         <v>3.4533333333333331</v>
       </c>
-      <c r="L71" s="8">
-        <v>0</v>
-      </c>
-      <c r="N71" s="11"/>
-    </row>
-    <row r="72" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N71" s="8">
+        <v>0</v>
+      </c>
+      <c r="O71" s="8">
+        <v>0</v>
+      </c>
+      <c r="P71" s="11"/>
+    </row>
+    <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>44743</v>
       </c>
@@ -3368,18 +4017,27 @@
       <c r="I72" s="3">
         <v>61.9</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J72" s="5">
+        <v>2.4516454463029329</v>
+      </c>
+      <c r="K72" s="5">
+        <v>-53.566666666666663</v>
+      </c>
+      <c r="L72" s="11">
         <v>-1.1023044527198622</v>
       </c>
-      <c r="K72" s="5">
+      <c r="M72" s="5">
         <v>3.7600000000000002</v>
       </c>
-      <c r="L72" s="8">
-        <v>0</v>
-      </c>
-      <c r="N72" s="11"/>
-    </row>
-    <row r="73" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N72" s="8">
+        <v>0</v>
+      </c>
+      <c r="O72" s="8">
+        <v>0</v>
+      </c>
+      <c r="P72" s="11"/>
+    </row>
+    <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>44835</v>
       </c>
@@ -3407,18 +4065,27 @@
       <c r="I73" s="3">
         <v>60.7</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J73" s="5">
+        <v>-0.66443969740927067</v>
+      </c>
+      <c r="K73" s="5">
+        <v>-52.566666666666663</v>
+      </c>
+      <c r="L73" s="11">
         <v>0.17583495838569732</v>
       </c>
-      <c r="K73" s="5">
+      <c r="M73" s="5">
         <v>4.503333333333333</v>
       </c>
-      <c r="L73" s="8">
-        <v>0</v>
-      </c>
-      <c r="N73" s="11"/>
-    </row>
-    <row r="74" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N73" s="8">
+        <v>0</v>
+      </c>
+      <c r="O73" s="8">
+        <v>0</v>
+      </c>
+      <c r="P73" s="11"/>
+    </row>
+    <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>44927</v>
       </c>
@@ -3446,18 +4113,27 @@
       <c r="I74" s="3">
         <v>60.3</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J74" s="5">
+        <v>-2.1863370644732627</v>
+      </c>
+      <c r="K74" s="5">
+        <v>-43.300000000000004</v>
+      </c>
+      <c r="L74" s="11">
         <v>1.6714875206993502</v>
       </c>
-      <c r="K74" s="5">
+      <c r="M74" s="5">
         <v>4.28</v>
       </c>
-      <c r="L74" s="8">
-        <v>0</v>
-      </c>
-      <c r="N74" s="11"/>
-    </row>
-    <row r="75" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N74" s="8">
+        <v>0</v>
+      </c>
+      <c r="O74" s="8">
+        <v>0</v>
+      </c>
+      <c r="P74" s="11"/>
+    </row>
+    <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>45017</v>
       </c>
@@ -3485,18 +4161,27 @@
       <c r="I75" s="3">
         <v>62.4</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J75" s="5">
+        <v>-4.4818771242636259</v>
+      </c>
+      <c r="K75" s="5">
+        <v>-36.699999999999996</v>
+      </c>
+      <c r="L75" s="11">
         <v>-1.6976220186845974</v>
       </c>
-      <c r="K75" s="5">
+      <c r="M75" s="5">
         <v>3.97</v>
       </c>
-      <c r="L75" s="8">
-        <v>0</v>
-      </c>
-      <c r="N75" s="11"/>
-    </row>
-    <row r="76" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N75" s="8">
+        <v>0</v>
+      </c>
+      <c r="O75" s="8">
+        <v>0</v>
+      </c>
+      <c r="P75" s="11"/>
+    </row>
+    <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>45108</v>
       </c>
@@ -3524,18 +4209,27 @@
       <c r="I76" s="3">
         <v>62.8</v>
       </c>
-      <c r="J76" s="11">
+      <c r="J76" s="5">
+        <v>-3.2418076215242344</v>
+      </c>
+      <c r="K76" s="5">
+        <v>-36.333333333333336</v>
+      </c>
+      <c r="L76" s="11">
         <v>0.70474906178332197</v>
       </c>
-      <c r="K76" s="5">
+      <c r="M76" s="5">
         <v>3.936666666666667</v>
       </c>
-      <c r="L76" s="8">
-        <v>0</v>
-      </c>
-      <c r="N76" s="11"/>
-    </row>
-    <row r="77" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N76" s="8">
+        <v>0</v>
+      </c>
+      <c r="O76" s="8">
+        <v>0</v>
+      </c>
+      <c r="P76" s="11"/>
+    </row>
+    <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>45200</v>
       </c>
@@ -3563,18 +4257,27 @@
       <c r="I77" s="3">
         <v>61.7</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J77" s="5">
+        <v>-3.0214874927275375</v>
+      </c>
+      <c r="K77" s="5">
+        <v>-43.533333333333339</v>
+      </c>
+      <c r="L77" s="11">
         <v>0.82125937853980469</v>
       </c>
-      <c r="K77" s="5">
+      <c r="M77" s="5">
         <v>3.82</v>
       </c>
-      <c r="L77" s="8">
-        <v>0</v>
-      </c>
-      <c r="N77" s="11"/>
-    </row>
-    <row r="78" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N77" s="8">
+        <v>0</v>
+      </c>
+      <c r="O77" s="8">
+        <v>0</v>
+      </c>
+      <c r="P77" s="11"/>
+    </row>
+    <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>45292</v>
       </c>
@@ -3602,18 +4305,27 @@
       <c r="I78" s="3">
         <v>61.6</v>
       </c>
-      <c r="J78" s="11">
+      <c r="J78" s="5">
+        <v>-4.2401869665807661</v>
+      </c>
+      <c r="K78" s="5">
+        <v>-46.066666666666663</v>
+      </c>
+      <c r="L78" s="11">
         <v>0.26336048363269887</v>
       </c>
-      <c r="K78" s="5">
+      <c r="M78" s="5">
         <v>3.3699999999999997</v>
       </c>
-      <c r="L78" s="8">
-        <v>0</v>
-      </c>
-      <c r="N78" s="11"/>
-    </row>
-    <row r="79" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N78" s="8">
+        <v>0</v>
+      </c>
+      <c r="O78" s="8">
+        <v>0</v>
+      </c>
+      <c r="P78" s="11"/>
+    </row>
+    <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>45383</v>
       </c>
@@ -3641,18 +4353,27 @@
       <c r="I79" s="3">
         <v>64</v>
       </c>
-      <c r="J79" s="11">
+      <c r="J79" s="5">
+        <v>2.6784327498909355</v>
+      </c>
+      <c r="K79" s="5">
+        <v>-42.733333333333327</v>
+      </c>
+      <c r="L79" s="11">
         <v>1.6587442380861579</v>
       </c>
-      <c r="K79" s="5">
+      <c r="M79" s="5">
         <v>3.563333333333333</v>
       </c>
-      <c r="L79" s="8">
-        <v>0</v>
-      </c>
-      <c r="N79" s="11"/>
-    </row>
-    <row r="80" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N79" s="8">
+        <v>0</v>
+      </c>
+      <c r="O79" s="8">
+        <v>0</v>
+      </c>
+      <c r="P79" s="11"/>
+    </row>
+    <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>45474</v>
       </c>
@@ -3680,18 +4401,27 @@
       <c r="I80" s="3">
         <v>64.099999999999994</v>
       </c>
-      <c r="J80" s="11">
+      <c r="J80" s="5">
+        <v>-2.6072774497494806</v>
+      </c>
+      <c r="K80" s="5">
+        <v>-47.766666666666673</v>
+      </c>
+      <c r="L80" s="11">
         <v>-1.6037763032745165</v>
       </c>
-      <c r="K80" s="5">
+      <c r="M80" s="5">
         <v>3.3333333333333335</v>
       </c>
-      <c r="L80" s="8">
-        <v>0</v>
-      </c>
-      <c r="N80" s="11"/>
-    </row>
-    <row r="81" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N80" s="8">
+        <v>0</v>
+      </c>
+      <c r="O80" s="8">
+        <v>0</v>
+      </c>
+      <c r="P80" s="11"/>
+    </row>
+    <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>45566</v>
       </c>
@@ -3719,18 +4449,27 @@
       <c r="I81" s="3">
         <v>63.4</v>
       </c>
-      <c r="J81" s="11">
+      <c r="J81" s="5">
+        <v>-1.7016448354647633</v>
+      </c>
+      <c r="K81" s="5">
+        <v>-47.366666666666667</v>
+      </c>
+      <c r="L81" s="11">
         <v>1.7833595099956827</v>
       </c>
-      <c r="K81" s="5">
+      <c r="M81" s="5">
         <v>3.1333333333333329</v>
       </c>
-      <c r="L81" s="8">
-        <v>0</v>
-      </c>
-      <c r="N81" s="11"/>
-    </row>
-    <row r="82" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N81" s="8">
+        <v>0</v>
+      </c>
+      <c r="O81" s="8">
+        <v>0</v>
+      </c>
+      <c r="P81" s="11"/>
+    </row>
+    <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>45658</v>
       </c>
@@ -3758,18 +4497,27 @@
       <c r="I82" s="3">
         <v>62.8</v>
       </c>
-      <c r="J82" s="11">
+      <c r="J82" s="5">
+        <v>3.1984357153723231</v>
+      </c>
+      <c r="K82" s="5">
+        <v>-43.066666666666663</v>
+      </c>
+      <c r="L82" s="11">
         <v>-1.1536639035252823</v>
       </c>
-      <c r="K82" s="5">
+      <c r="M82" s="5">
         <v>3.4133333333333336</v>
       </c>
-      <c r="L82" s="8">
-        <v>0</v>
-      </c>
-      <c r="N82" s="11"/>
-    </row>
-    <row r="83" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N82" s="8">
+        <v>0</v>
+      </c>
+      <c r="O82" s="8">
+        <v>0</v>
+      </c>
+      <c r="P82" s="11"/>
+    </row>
+    <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>45748</v>
       </c>
@@ -3797,18 +4545,27 @@
       <c r="I83" s="3">
         <v>65.3</v>
       </c>
-      <c r="J83" s="11">
+      <c r="J83" s="5">
+        <v>0.67218381986065479</v>
+      </c>
+      <c r="K83" s="5">
+        <v>-45.466666666666669</v>
+      </c>
+      <c r="L83" s="11">
         <v>1.2873431486908382</v>
       </c>
-      <c r="K83" s="5">
+      <c r="M83" s="5">
         <v>3.3666666666666671</v>
       </c>
-      <c r="L83" s="8">
-        <v>0</v>
-      </c>
-      <c r="N83" s="11"/>
-    </row>
-    <row r="84" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N83" s="8">
+        <v>0</v>
+      </c>
+      <c r="O83" s="8">
+        <v>0</v>
+      </c>
+      <c r="P83" s="11"/>
+    </row>
+    <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3817,10 +4574,13 @@
       <c r="F84" s="9"/>
       <c r="G84" s="3"/>
       <c r="I84" s="10"/>
-      <c r="J84"/>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="5"/>
+    </row>
+    <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3829,9 +4589,9 @@
       <c r="F85" s="9"/>
       <c r="G85" s="3"/>
       <c r="I85" s="10"/>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3840,9 +4600,9 @@
       <c r="F86" s="9"/>
       <c r="G86" s="3"/>
       <c r="I86" s="10"/>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3851,9 +4611,9 @@
       <c r="F87" s="9"/>
       <c r="G87" s="3"/>
       <c r="I87" s="10"/>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3862,9 +4622,9 @@
       <c r="F88" s="9"/>
       <c r="G88" s="3"/>
       <c r="I88" s="10"/>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3873,9 +4633,9 @@
       <c r="F89" s="9"/>
       <c r="G89" s="3"/>
       <c r="I89" s="10"/>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3884,9 +4644,9 @@
       <c r="F90" s="9"/>
       <c r="G90" s="3"/>
       <c r="I90" s="10"/>
-      <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3895,9 +4655,9 @@
       <c r="F91" s="9"/>
       <c r="G91" s="3"/>
       <c r="I91" s="10"/>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3906,9 +4666,9 @@
       <c r="F92" s="9"/>
       <c r="G92" s="3"/>
       <c r="I92" s="10"/>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3917,9 +4677,9 @@
       <c r="F93" s="9"/>
       <c r="G93" s="3"/>
       <c r="I93" s="10"/>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3928,9 +4688,9 @@
       <c r="F94" s="9"/>
       <c r="G94" s="3"/>
       <c r="I94" s="10"/>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3939,9 +4699,9 @@
       <c r="F95" s="9"/>
       <c r="G95" s="3"/>
       <c r="I95" s="10"/>
-      <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3950,9 +4710,9 @@
       <c r="F96" s="9"/>
       <c r="G96" s="3"/>
       <c r="I96" s="10"/>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3961,9 +4721,9 @@
       <c r="F97" s="9"/>
       <c r="G97" s="3"/>
       <c r="I97" s="10"/>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3972,9 +4732,9 @@
       <c r="F98" s="9"/>
       <c r="G98" s="3"/>
       <c r="I98" s="10"/>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3983,9 +4743,9 @@
       <c r="F99" s="9"/>
       <c r="G99" s="3"/>
       <c r="I99" s="10"/>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3994,9 +4754,9 @@
       <c r="F100" s="9"/>
       <c r="G100" s="3"/>
       <c r="I100" s="10"/>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4005,9 +4765,9 @@
       <c r="F101" s="9"/>
       <c r="G101" s="3"/>
       <c r="I101" s="10"/>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4016,9 +4776,9 @@
       <c r="F102" s="9"/>
       <c r="G102" s="3"/>
       <c r="I102" s="10"/>
-      <c r="L102" s="3"/>
-    </row>
-    <row r="103" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N102" s="3"/>
+    </row>
+    <row r="103" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4027,9 +4787,9 @@
       <c r="F103" s="9"/>
       <c r="G103" s="3"/>
       <c r="I103" s="10"/>
-      <c r="L103" s="3"/>
-    </row>
-    <row r="104" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N103" s="3"/>
+    </row>
+    <row r="104" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4038,9 +4798,9 @@
       <c r="F104" s="9"/>
       <c r="G104" s="3"/>
       <c r="I104" s="10"/>
-      <c r="L104" s="3"/>
-    </row>
-    <row r="105" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N104" s="3"/>
+    </row>
+    <row r="105" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4049,9 +4809,9 @@
       <c r="F105" s="9"/>
       <c r="G105" s="3"/>
       <c r="I105" s="10"/>
-      <c r="L105" s="3"/>
-    </row>
-    <row r="106" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N105" s="3"/>
+    </row>
+    <row r="106" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4060,9 +4820,9 @@
       <c r="F106" s="9"/>
       <c r="G106" s="3"/>
       <c r="I106" s="10"/>
-      <c r="L106" s="3"/>
-    </row>
-    <row r="107" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N106" s="3"/>
+    </row>
+    <row r="107" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4071,9 +4831,9 @@
       <c r="F107" s="9"/>
       <c r="G107" s="3"/>
       <c r="I107" s="10"/>
-      <c r="L107" s="3"/>
-    </row>
-    <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N107" s="3"/>
+    </row>
+    <row r="108" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4082,9 +4842,9 @@
       <c r="F108" s="9"/>
       <c r="G108" s="3"/>
       <c r="I108" s="10"/>
-      <c r="L108" s="3"/>
-    </row>
-    <row r="109" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N108" s="3"/>
+    </row>
+    <row r="109" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4093,9 +4853,9 @@
       <c r="F109" s="9"/>
       <c r="G109" s="3"/>
       <c r="I109" s="10"/>
-      <c r="L109" s="3"/>
-    </row>
-    <row r="110" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N109" s="3"/>
+    </row>
+    <row r="110" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4104,9 +4864,9 @@
       <c r="F110" s="9"/>
       <c r="G110" s="3"/>
       <c r="I110" s="10"/>
-      <c r="L110" s="3"/>
-    </row>
-    <row r="111" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N110" s="3"/>
+    </row>
+    <row r="111" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4115,9 +4875,9 @@
       <c r="F111" s="9"/>
       <c r="G111" s="3"/>
       <c r="I111" s="10"/>
-      <c r="L111" s="3"/>
-    </row>
-    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N111" s="3"/>
+    </row>
+    <row r="112" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4126,9 +4886,9 @@
       <c r="F112" s="9"/>
       <c r="G112" s="3"/>
       <c r="I112" s="10"/>
-      <c r="L112" s="3"/>
-    </row>
-    <row r="113" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N112" s="3"/>
+    </row>
+    <row r="113" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4137,9 +4897,9 @@
       <c r="F113" s="9"/>
       <c r="G113" s="3"/>
       <c r="I113" s="10"/>
-      <c r="L113" s="3"/>
-    </row>
-    <row r="114" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N113" s="3"/>
+    </row>
+    <row r="114" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4148,9 +4908,9 @@
       <c r="F114" s="9"/>
       <c r="G114" s="3"/>
       <c r="I114" s="10"/>
-      <c r="L114" s="3"/>
-    </row>
-    <row r="115" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N114" s="3"/>
+    </row>
+    <row r="115" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4159,9 +4919,9 @@
       <c r="F115" s="9"/>
       <c r="G115" s="3"/>
       <c r="I115" s="10"/>
-      <c r="L115" s="3"/>
-    </row>
-    <row r="116" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N115" s="3"/>
+    </row>
+    <row r="116" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -4170,9 +4930,9 @@
       <c r="F116" s="9"/>
       <c r="G116" s="3"/>
       <c r="I116" s="10"/>
-      <c r="L116" s="3"/>
-    </row>
-    <row r="117" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N116" s="3"/>
+    </row>
+    <row r="117" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4181,9 +4941,9 @@
       <c r="F117" s="9"/>
       <c r="G117" s="3"/>
       <c r="I117" s="10"/>
-      <c r="L117" s="3"/>
-    </row>
-    <row r="118" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N117" s="3"/>
+    </row>
+    <row r="118" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4192,9 +4952,9 @@
       <c r="F118" s="9"/>
       <c r="G118" s="3"/>
       <c r="I118" s="10"/>
-      <c r="L118" s="3"/>
-    </row>
-    <row r="119" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N118" s="3"/>
+    </row>
+    <row r="119" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4203,9 +4963,9 @@
       <c r="F119" s="9"/>
       <c r="G119" s="3"/>
       <c r="I119" s="10"/>
-      <c r="L119" s="3"/>
-    </row>
-    <row r="120" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N119" s="3"/>
+    </row>
+    <row r="120" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4214,9 +4974,9 @@
       <c r="F120" s="9"/>
       <c r="G120" s="3"/>
       <c r="I120" s="10"/>
-      <c r="L120" s="3"/>
-    </row>
-    <row r="121" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N120" s="3"/>
+    </row>
+    <row r="121" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4225,9 +4985,9 @@
       <c r="F121" s="9"/>
       <c r="G121" s="3"/>
       <c r="I121" s="10"/>
-      <c r="L121" s="3"/>
-    </row>
-    <row r="122" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="N121" s="3"/>
+    </row>
+    <row r="122" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="12"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4235,25 +4995,25 @@
       <c r="E122" s="3"/>
       <c r="F122" s="9"/>
       <c r="G122" s="3"/>
-      <c r="L122" s="3"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N122" s="3"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="12"/>
       <c r="B123" s="3"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="12"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="12"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="12"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="12"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Documents/Github_R/Regrassion_GDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B2683E-929E-4642-AEAE-4752BD5FDDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EFE405-692E-F942-AC45-BA9002EC5785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15760" xr2:uid="{3580B857-6E9C-4522-A1C6-485FA67992EC}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19360" xr2:uid="{3580B857-6E9C-4522-A1C6-485FA67992EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="#,##0.##"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +157,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -196,7 +209,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -235,6 +248,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +572,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:P366"/>
+  <dimension ref="A1:AE366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -578,10 +595,11 @@
     <col min="14" max="14" width="13.5" style="8" customWidth="1"/>
     <col min="15" max="15" width="13.1640625" style="8" customWidth="1"/>
     <col min="16" max="16" width="20.83203125" style="8" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="8"/>
+    <col min="17" max="17" width="8.83203125" style="8" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -628,8 +646,23 @@
         <v>14</v>
       </c>
       <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+    </row>
+    <row r="2" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>38353</v>
       </c>
@@ -637,7 +670,7 @@
         <v>53156.7</v>
       </c>
       <c r="C2" s="3">
-        <v>617</v>
+        <v>3758.69</v>
       </c>
       <c r="D2" s="8">
         <v>2356338.2999999998</v>
@@ -649,13 +682,13 @@
         <v>47.641474747473332</v>
       </c>
       <c r="G2" s="3">
-        <v>83.013333333333335</v>
+        <v>83.71</v>
       </c>
       <c r="H2" s="11">
-        <v>15</v>
+        <v>17.14</v>
       </c>
       <c r="I2" s="3">
-        <v>59.1</v>
+        <v>59.99</v>
       </c>
       <c r="J2" s="5">
         <v>1.9248619065223795</v>
@@ -675,9 +708,24 @@
       <c r="O2" s="8">
         <v>0</v>
       </c>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+    </row>
+    <row r="3" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>38443</v>
       </c>
@@ -685,7 +733,7 @@
         <v>53475.8</v>
       </c>
       <c r="C3" s="3">
-        <v>2570.5</v>
+        <v>2720.02</v>
       </c>
       <c r="D3" s="8">
         <v>2380453.2999999998</v>
@@ -697,13 +745,13 @@
         <v>51.609956709956663</v>
       </c>
       <c r="G3" s="3">
-        <v>84.736666666666665</v>
+        <v>84.04</v>
       </c>
       <c r="H3" s="11">
-        <v>17.666666666666668</v>
+        <v>14.55</v>
       </c>
       <c r="I3" s="3">
-        <v>59.8</v>
+        <v>59.43</v>
       </c>
       <c r="J3" s="5">
         <v>3.5070465031992142</v>
@@ -723,9 +771,24 @@
       <c r="O3" s="8">
         <v>0</v>
       </c>
-      <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+    </row>
+    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>38534</v>
       </c>
@@ -733,7 +796,7 @@
         <v>54292.1</v>
       </c>
       <c r="C4" s="3">
-        <v>6145.9999979969425</v>
+        <v>2544.61</v>
       </c>
       <c r="D4" s="8">
         <v>2413478</v>
@@ -745,13 +808,13 @@
         <v>61.550288600290003</v>
       </c>
       <c r="G4" s="3">
-        <v>83.95</v>
+        <v>84.15</v>
       </c>
       <c r="H4" s="11">
-        <v>18.666666666666668</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3">
-        <v>59.8</v>
+        <v>59.07</v>
       </c>
       <c r="J4" s="5">
         <v>7.0081414876309864</v>
@@ -771,9 +834,24 @@
       <c r="O4" s="8">
         <v>0</v>
       </c>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+    </row>
+    <row r="5" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>38626</v>
       </c>
@@ -781,7 +859,7 @@
         <v>54618</v>
       </c>
       <c r="C5" s="3">
-        <v>1396</v>
+        <v>2935.74</v>
       </c>
       <c r="D5" s="8">
         <v>2446409.2999999998</v>
@@ -793,13 +871,13 @@
         <v>56.934801587300001</v>
       </c>
       <c r="G5" s="3">
-        <v>85.696666666666658</v>
+        <v>85.49</v>
       </c>
       <c r="H5" s="11">
-        <v>10.666666666666666</v>
+        <v>16.02</v>
       </c>
       <c r="I5" s="3">
-        <v>59.8</v>
+        <v>60.02</v>
       </c>
       <c r="J5" s="5">
         <v>6.5650656320045835</v>
@@ -819,9 +897,24 @@
       <c r="O5" s="8">
         <v>0</v>
       </c>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+    </row>
+    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>38718</v>
       </c>
@@ -829,7 +922,7 @@
         <v>56457.2</v>
       </c>
       <c r="C6" s="3">
-        <v>519.401027</v>
+        <v>3164.13</v>
       </c>
       <c r="D6" s="8">
         <v>2481974.7000000002</v>
@@ -841,13 +934,13 @@
         <v>61.916776397516664</v>
       </c>
       <c r="G6" s="3">
-        <v>85.63333333333334</v>
+        <v>86.35</v>
       </c>
       <c r="H6" s="11">
-        <v>13</v>
+        <v>14.85</v>
       </c>
       <c r="I6" s="3">
-        <v>60</v>
+        <v>60.9</v>
       </c>
       <c r="J6" s="5">
         <v>7.5280263205775784</v>
@@ -867,9 +960,24 @@
       <c r="O6" s="8">
         <v>0</v>
       </c>
-      <c r="P6" s="11"/>
-    </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+    </row>
+    <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>38808</v>
       </c>
@@ -877,7 +985,7 @@
         <v>56838.3</v>
       </c>
       <c r="C7" s="3">
-        <v>2805.5604209999997</v>
+        <v>2968.75</v>
       </c>
       <c r="D7" s="8">
         <v>2525498.4</v>
@@ -889,13 +997,13 @@
         <v>69.829035087720001</v>
       </c>
       <c r="G7" s="3">
-        <v>87.64</v>
+        <v>86.92</v>
       </c>
       <c r="H7" s="11">
-        <v>14.333333333333334</v>
+        <v>11.8</v>
       </c>
       <c r="I7" s="3">
-        <v>60.6</v>
+        <v>60.23</v>
       </c>
       <c r="J7" s="5">
         <v>10.195677857326267</v>
@@ -915,9 +1023,24 @@
       <c r="O7" s="8">
         <v>0</v>
       </c>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+    </row>
+    <row r="8" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>38899</v>
       </c>
@@ -925,7 +1048,7 @@
         <v>57211.5</v>
       </c>
       <c r="C8" s="3">
-        <v>6676.2934879999993</v>
+        <v>2764.17</v>
       </c>
       <c r="D8" s="8">
         <v>2556118.1</v>
@@ -937,13 +1060,13 @@
         <v>70.093740510693337</v>
       </c>
       <c r="G8" s="3">
-        <v>86.88666666666667</v>
+        <v>87.1</v>
       </c>
       <c r="H8" s="11">
-        <v>14.333333333333334</v>
+        <v>11.52</v>
       </c>
       <c r="I8" s="3">
-        <v>61.1</v>
+        <v>60.35</v>
       </c>
       <c r="J8" s="5">
         <v>9.9009683737463057</v>
@@ -963,9 +1086,24 @@
       <c r="O8" s="8">
         <v>0</v>
       </c>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+    </row>
+    <row r="9" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>38991</v>
       </c>
@@ -973,7 +1111,7 @@
         <v>58776.6</v>
       </c>
       <c r="C9" s="3">
-        <v>1355.4400680000001</v>
+        <v>2850.45</v>
       </c>
       <c r="D9" s="8">
         <v>2603872.1</v>
@@ -985,13 +1123,13 @@
         <v>59.725972886763337</v>
       </c>
       <c r="G9" s="3">
-        <v>88.416666666666671</v>
+        <v>88.2</v>
       </c>
       <c r="H9" s="11">
-        <v>8.6666666666666661</v>
+        <v>13.01</v>
       </c>
       <c r="I9" s="3">
-        <v>60.5</v>
+        <v>60.72</v>
       </c>
       <c r="J9" s="5">
         <v>8.2985801360080416</v>
@@ -1011,9 +1149,24 @@
       <c r="O9" s="8">
         <v>0</v>
       </c>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+    </row>
+    <row r="10" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>39083</v>
       </c>
@@ -1021,7 +1174,7 @@
         <v>58456.3</v>
       </c>
       <c r="C10" s="3">
-        <v>544.01929299999995</v>
+        <v>3314.1</v>
       </c>
       <c r="D10" s="8">
         <v>2649569.4</v>
@@ -1033,13 +1186,13 @@
         <v>58.066575757576665</v>
       </c>
       <c r="G10" s="3">
-        <v>88.153333333333322</v>
+        <v>88.9</v>
       </c>
       <c r="H10" s="11">
-        <v>10.666666666666666</v>
+        <v>12.19</v>
       </c>
       <c r="I10" s="3">
-        <v>60.2</v>
+        <v>61.11</v>
       </c>
       <c r="J10" s="5">
         <v>6.6165913364427453</v>
@@ -1059,9 +1212,24 @@
       <c r="O10" s="8">
         <v>0</v>
       </c>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+    </row>
+    <row r="11" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>39173</v>
       </c>
@@ -1069,7 +1237,7 @@
         <v>59970.5</v>
       </c>
       <c r="C11" s="3">
-        <v>2805.6498120000001</v>
+        <v>2968.85</v>
       </c>
       <c r="D11" s="8">
         <v>2682738.1</v>
@@ -1081,13 +1249,13 @@
         <v>68.730232828446674</v>
       </c>
       <c r="G11" s="3">
-        <v>89.923333333333332</v>
+        <v>89.18</v>
       </c>
       <c r="H11" s="11">
-        <v>12.333333333333334</v>
+        <v>10.16</v>
       </c>
       <c r="I11" s="3">
-        <v>61</v>
+        <v>60.63</v>
       </c>
       <c r="J11" s="5">
         <v>2.8818305417927195</v>
@@ -1107,9 +1275,24 @@
       <c r="O11" s="8">
         <v>0</v>
       </c>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+    </row>
+    <row r="12" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>39264</v>
       </c>
@@ -1117,7 +1300,7 @@
         <v>59685.3</v>
       </c>
       <c r="C12" s="3">
-        <v>6604.4086560000005</v>
+        <v>2734.41</v>
       </c>
       <c r="D12" s="8">
         <v>2710938.8</v>
@@ -1129,13 +1312,13 @@
         <v>75.042537549406674</v>
       </c>
       <c r="G12" s="3">
-        <v>89.326666666666668</v>
+        <v>89.54</v>
       </c>
       <c r="H12" s="11">
-        <v>14.666666666666666</v>
+        <v>11.78</v>
       </c>
       <c r="I12" s="3">
-        <v>61.3</v>
+        <v>60.55</v>
       </c>
       <c r="J12" s="5">
         <v>-0.49685605827472451</v>
@@ -1155,9 +1338,24 @@
       <c r="O12" s="8">
         <v>0</v>
       </c>
-      <c r="P12" s="11"/>
-    </row>
-    <row r="13" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+    </row>
+    <row r="13" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>39356</v>
       </c>
@@ -1165,7 +1363,7 @@
         <v>59009.599999999999</v>
       </c>
       <c r="C13" s="3">
-        <v>1365.2122770000001</v>
+        <v>2871</v>
       </c>
       <c r="D13" s="8">
         <v>2751016.7</v>
@@ -1177,13 +1375,13 @@
         <v>88.945335968379993</v>
       </c>
       <c r="G13" s="3">
-        <v>91.59333333333332</v>
+        <v>91.37</v>
       </c>
       <c r="H13" s="11">
-        <v>8</v>
+        <v>12.01</v>
       </c>
       <c r="I13" s="3">
-        <v>61</v>
+        <v>61.23</v>
       </c>
       <c r="J13" s="5">
         <v>0.61720216023487595</v>
@@ -1203,9 +1401,24 @@
       <c r="O13" s="8">
         <v>0</v>
       </c>
-      <c r="P13" s="11"/>
-    </row>
-    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+    </row>
+    <row r="14" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>39448</v>
       </c>
@@ -1213,7 +1426,7 @@
         <v>59831.1</v>
       </c>
       <c r="C14" s="3">
-        <v>586.233293</v>
+        <v>3571.26</v>
       </c>
       <c r="D14" s="8">
         <v>2785158.7</v>
@@ -1225,13 +1438,13 @@
         <v>96.671540404040002</v>
       </c>
       <c r="G14" s="3">
-        <v>91.926666666666662</v>
+        <v>92.7</v>
       </c>
       <c r="H14" s="11">
-        <v>9.6666666666666661</v>
+        <v>11.04</v>
       </c>
       <c r="I14" s="3">
-        <v>60.8</v>
+        <v>61.72</v>
       </c>
       <c r="J14" s="5">
         <v>5.0652724995853147</v>
@@ -1251,9 +1464,24 @@
       <c r="O14" s="8">
         <v>0</v>
       </c>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+    </row>
+    <row r="15" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>39539</v>
       </c>
@@ -1261,7 +1489,7 @@
         <v>59295.9</v>
       </c>
       <c r="C15" s="3">
-        <v>3042.8554560000002</v>
+        <v>3219.85</v>
       </c>
       <c r="D15" s="8">
         <v>2801520</v>
@@ -1273,13 +1501,13 @@
         <v>122.39082972583</v>
       </c>
       <c r="G15" s="3">
-        <v>94.21</v>
+        <v>93.43</v>
       </c>
       <c r="H15" s="11">
-        <v>12.333333333333334</v>
+        <v>10.16</v>
       </c>
       <c r="I15" s="3">
-        <v>61.8</v>
+        <v>61.42</v>
       </c>
       <c r="J15" s="5">
         <v>4.4916178343017554</v>
@@ -1299,9 +1527,24 @@
       <c r="O15" s="8">
         <v>0</v>
       </c>
-      <c r="P15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+    </row>
+    <row r="16" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>39630</v>
       </c>
@@ -1309,7 +1552,7 @@
         <v>59313</v>
       </c>
       <c r="C16" s="3">
-        <v>6705.0731249999999</v>
+        <v>2776.09</v>
       </c>
       <c r="D16" s="8">
         <v>2803978.5</v>
@@ -1321,13 +1564,13 @@
         <v>115.59539400213333</v>
       </c>
       <c r="G16" s="3">
-        <v>93.64</v>
+        <v>93.87</v>
       </c>
       <c r="H16" s="11">
-        <v>10.666666666666666</v>
+        <v>8.57</v>
       </c>
       <c r="I16" s="3">
-        <v>61.8</v>
+        <v>61.05</v>
       </c>
       <c r="J16" s="5">
         <v>-2.4297425590120172</v>
@@ -1347,9 +1590,24 @@
       <c r="O16" s="8">
         <v>0</v>
       </c>
-      <c r="P16" s="11"/>
-    </row>
-    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+    </row>
+    <row r="17" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>39722</v>
       </c>
@@ -1357,7 +1615,7 @@
         <v>58899.7</v>
       </c>
       <c r="C17" s="3">
-        <v>1301.8</v>
+        <v>2737.64</v>
       </c>
       <c r="D17" s="8">
         <v>2742042.2</v>
@@ -1369,13 +1627,13 @@
         <v>55.888172595519997</v>
       </c>
       <c r="G17" s="3">
-        <v>94.40666666666668</v>
+        <v>94.18</v>
       </c>
       <c r="H17" s="11">
-        <v>7</v>
+        <v>10.51</v>
       </c>
       <c r="I17" s="3">
-        <v>61.3</v>
+        <v>61.53</v>
       </c>
       <c r="J17" s="5">
         <v>-1.2057654376354343</v>
@@ -1395,9 +1653,24 @@
       <c r="O17" s="8">
         <v>0</v>
       </c>
-      <c r="P17" s="11"/>
-    </row>
-    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+    </row>
+    <row r="18" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>39814</v>
       </c>
@@ -1405,7 +1678,7 @@
         <v>55931.1</v>
       </c>
       <c r="C18" s="3">
-        <v>486.3</v>
+        <v>2962.48</v>
       </c>
       <c r="D18" s="8">
         <v>2641341.2999999998</v>
@@ -1417,13 +1690,13 @@
         <v>44.980530303030001</v>
       </c>
       <c r="G18" s="3">
-        <v>93.56</v>
+        <v>94.35</v>
       </c>
       <c r="H18" s="11">
-        <v>7.666666666666667</v>
+        <v>8.76</v>
       </c>
       <c r="I18" s="3">
-        <v>60.6</v>
+        <v>61.51</v>
       </c>
       <c r="J18" s="5">
         <v>-14.520129320101105</v>
@@ -1443,9 +1716,24 @@
       <c r="O18" s="8">
         <v>0</v>
       </c>
-      <c r="P18" s="11"/>
-    </row>
-    <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+    </row>
+    <row r="19" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>39904</v>
       </c>
@@ -1453,7 +1741,7 @@
         <v>57373.599999999999</v>
       </c>
       <c r="C19" s="3">
-        <v>2672.5047060000002</v>
+        <v>2827.96</v>
       </c>
       <c r="D19" s="8">
         <v>2646829.7999999998</v>
@@ -1465,13 +1753,13 @@
         <v>59.13433621933666</v>
       </c>
       <c r="G19" s="3">
-        <v>95.006666666666675</v>
+        <v>94.22</v>
       </c>
       <c r="H19" s="11">
-        <v>9.6666666666666661</v>
+        <v>7.96</v>
       </c>
       <c r="I19" s="3">
-        <v>61.2</v>
+        <v>60.82</v>
       </c>
       <c r="J19" s="5">
         <v>-14.189532899399451</v>
@@ -1491,9 +1779,24 @@
       <c r="O19" s="8">
         <v>0</v>
       </c>
-      <c r="P19" s="11"/>
-    </row>
-    <row r="20" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+    </row>
+    <row r="20" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>39995</v>
       </c>
@@ -1501,7 +1804,7 @@
         <v>57181.1</v>
       </c>
       <c r="C20" s="3">
-        <v>6050.18552</v>
+        <v>2504.94</v>
       </c>
       <c r="D20" s="8">
         <v>2669703.2000000002</v>
@@ -1513,13 +1816,13 @@
         <v>68.367193362193333</v>
       </c>
       <c r="G20" s="3">
-        <v>94.396666666666661</v>
+        <v>94.62</v>
       </c>
       <c r="H20" s="11">
-        <v>10.333333333333334</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I20" s="3">
-        <v>61.3</v>
+        <v>60.55</v>
       </c>
       <c r="J20" s="5">
         <v>-8.3752060912149009</v>
@@ -1539,9 +1842,24 @@
       <c r="O20" s="8">
         <v>0</v>
       </c>
-      <c r="P20" s="11"/>
-    </row>
-    <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+    </row>
+    <row r="21" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>40087</v>
       </c>
@@ -1549,7 +1867,7 @@
         <v>57085.1</v>
       </c>
       <c r="C21" s="3">
-        <v>1191.252753</v>
+        <v>2505.17</v>
       </c>
       <c r="D21" s="8">
         <v>2692020.8</v>
@@ -1561,13 +1879,13 @@
         <v>74.966767676770004</v>
       </c>
       <c r="G21" s="3">
-        <v>96.26</v>
+        <v>96.03</v>
       </c>
       <c r="H21" s="11">
-        <v>6.666666666666667</v>
+        <v>10.01</v>
       </c>
       <c r="I21" s="3">
-        <v>60.3</v>
+        <v>60.52</v>
       </c>
       <c r="J21" s="5">
         <v>-8.2368466166767806</v>
@@ -1587,9 +1905,24 @@
       <c r="O21" s="8">
         <v>0</v>
       </c>
-      <c r="P21" s="11"/>
-    </row>
-    <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+    </row>
+    <row r="22" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>40179</v>
       </c>
@@ -1597,7 +1930,7 @@
         <v>56431.4</v>
       </c>
       <c r="C22" s="3">
-        <v>476.58524499999999</v>
+        <v>2903.3</v>
       </c>
       <c r="D22" s="8">
         <v>2712271.4</v>
@@ -1609,13 +1942,13 @@
         <v>76.653260869566665</v>
       </c>
       <c r="G22" s="3">
-        <v>96.40666666666668</v>
+        <v>97.22</v>
       </c>
       <c r="H22" s="11">
-        <v>11.333333333333334</v>
+        <v>12.95</v>
       </c>
       <c r="I22" s="3">
-        <v>59.6</v>
+        <v>60.5</v>
       </c>
       <c r="J22" s="5">
         <v>5.2224436042250693</v>
@@ -1635,9 +1968,24 @@
       <c r="O22" s="8">
         <v>0</v>
       </c>
-      <c r="P22" s="11"/>
-    </row>
-    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+    </row>
+    <row r="23" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>40269</v>
       </c>
@@ -1645,7 +1993,7 @@
         <v>54012.1</v>
       </c>
       <c r="C23" s="3">
-        <v>2374.8288990000001</v>
+        <v>2512.96</v>
       </c>
       <c r="D23" s="8">
         <v>2747893.6</v>
@@ -1657,13 +2005,13 @@
         <v>78.689235209233331</v>
       </c>
       <c r="G23" s="3">
-        <v>99.836666666666659</v>
+        <v>99.01</v>
       </c>
       <c r="H23" s="11">
-        <v>19</v>
+        <v>15.65</v>
       </c>
       <c r="I23" s="3">
-        <v>59.7</v>
+        <v>59.33</v>
       </c>
       <c r="J23" s="5">
         <v>-5.5640734719777463</v>
@@ -1683,9 +2031,24 @@
       <c r="O23" s="8">
         <v>0</v>
       </c>
-      <c r="P23" s="11"/>
-    </row>
-    <row r="24" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+    </row>
+    <row r="24" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>40360</v>
       </c>
@@ -1693,7 +2056,7 @@
         <v>52265.599999999999</v>
       </c>
       <c r="C24" s="3">
-        <v>5651.4713750000001</v>
+        <v>2339.86</v>
       </c>
       <c r="D24" s="8">
         <v>2775611.3</v>
@@ -1705,13 +2068,13 @@
         <v>76.405151515149996</v>
       </c>
       <c r="G24" s="3">
-        <v>99.686666666666667</v>
+        <v>99.93</v>
       </c>
       <c r="H24" s="11">
-        <v>10</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="I24" s="3">
-        <v>59.3</v>
+        <v>58.58</v>
       </c>
       <c r="J24" s="5">
         <v>-11.114280902113128</v>
@@ -1731,9 +2094,24 @@
       <c r="O24" s="8">
         <v>0</v>
       </c>
-      <c r="P24" s="11"/>
-    </row>
-    <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+    </row>
+    <row r="25" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>40452</v>
       </c>
@@ -1741,7 +2119,7 @@
         <v>52034</v>
       </c>
       <c r="C25" s="3">
-        <v>1108.3817349999999</v>
+        <v>2330.89</v>
       </c>
       <c r="D25" s="8">
         <v>2801450.8</v>
@@ -1753,13 +2131,13 @@
         <v>86.794872325743327</v>
       </c>
       <c r="G25" s="3">
-        <v>101.13333333333333</v>
+        <v>100.89</v>
       </c>
       <c r="H25" s="11">
-        <v>5.666666666666667</v>
+        <v>8.51</v>
       </c>
       <c r="I25" s="3">
-        <v>57.8</v>
+        <v>58.01</v>
       </c>
       <c r="J25" s="5">
         <v>-12.130783096198973</v>
@@ -1779,9 +2157,24 @@
       <c r="O25" s="8">
         <v>0</v>
       </c>
-      <c r="P25" s="11"/>
-    </row>
-    <row r="26" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+    </row>
+    <row r="26" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>40544</v>
       </c>
@@ -1789,7 +2182,7 @@
         <v>50168</v>
       </c>
       <c r="C26" s="3">
-        <v>466.68764499999997</v>
+        <v>2843</v>
       </c>
       <c r="D26" s="8">
         <v>2845988.5</v>
@@ -1801,13 +2194,13 @@
         <v>104.89703002070667</v>
       </c>
       <c r="G26" s="3">
-        <v>100.7</v>
+        <v>101.55</v>
       </c>
       <c r="H26" s="11">
-        <v>9.3333333333333339</v>
+        <v>10.66</v>
       </c>
       <c r="I26" s="3">
-        <v>56.4</v>
+        <v>57.25</v>
       </c>
       <c r="J26" s="5">
         <v>-14.794613910025026</v>
@@ -1827,9 +2220,24 @@
       <c r="O26" s="8">
         <v>0</v>
       </c>
-      <c r="P26" s="11"/>
-    </row>
-    <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+    </row>
+    <row r="27" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>40634</v>
       </c>
@@ -1837,7 +2245,7 @@
         <v>49240.2</v>
       </c>
       <c r="C27" s="3">
-        <v>2621.0291670000001</v>
+        <v>2773.49</v>
       </c>
       <c r="D27" s="8">
         <v>2852764.2</v>
@@ -1849,13 +2257,13 @@
         <v>117.09530303030333</v>
       </c>
       <c r="G27" s="3">
-        <v>103.13333333333333</v>
+        <v>102.28</v>
       </c>
       <c r="H27" s="11">
-        <v>15.666666666666666</v>
+        <v>12.9</v>
       </c>
       <c r="I27" s="3">
-        <v>56</v>
+        <v>55.66</v>
       </c>
       <c r="J27" s="5">
         <v>-10.234689528431298</v>
@@ -1875,9 +2283,24 @@
       <c r="O27" s="8">
         <v>0</v>
       </c>
-      <c r="P27" s="11"/>
-    </row>
-    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+    </row>
+    <row r="28" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>40725</v>
       </c>
@@ -1885,7 +2308,7 @@
         <v>48160.4</v>
       </c>
       <c r="C28" s="3">
-        <v>6246.0008530000005</v>
+        <v>2586.02</v>
       </c>
       <c r="D28" s="8">
         <v>2856616.2</v>
@@ -1897,13 +2320,13 @@
         <v>112.47346508563999</v>
       </c>
       <c r="G28" s="3">
-        <v>101.82333333333334</v>
+        <v>102.07</v>
       </c>
       <c r="H28" s="11">
-        <v>16</v>
+        <v>12.86</v>
       </c>
       <c r="I28" s="3">
-        <v>55</v>
+        <v>54.33</v>
       </c>
       <c r="J28" s="5">
         <v>-5.2552572842338137</v>
@@ -1923,9 +2346,24 @@
       <c r="O28" s="8">
         <v>0</v>
       </c>
-      <c r="P28" s="11"/>
-    </row>
-    <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+    </row>
+    <row r="29" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>40817</v>
       </c>
@@ -1933,7 +2371,7 @@
         <v>45997</v>
       </c>
       <c r="C29" s="3">
-        <v>1171.0101159999999</v>
+        <v>2462.6</v>
       </c>
       <c r="D29" s="8">
         <v>2847827.2</v>
@@ -1945,13 +2383,13 @@
         <v>109.29390331890333</v>
       </c>
       <c r="G29" s="3">
-        <v>103.78666666666668</v>
+        <v>103.53</v>
       </c>
       <c r="H29" s="11">
-        <v>14</v>
+        <v>21.02</v>
       </c>
       <c r="I29" s="3">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="J29" s="5">
         <v>-9.9368958276828483</v>
@@ -1971,9 +2409,24 @@
       <c r="O29" s="8">
         <v>0</v>
       </c>
-      <c r="P29" s="11"/>
-    </row>
-    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+    </row>
+    <row r="30" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>40909</v>
       </c>
@@ -1981,7 +2434,7 @@
         <v>45578.9</v>
       </c>
       <c r="C30" s="3">
-        <v>412.59972139999996</v>
+        <v>2513.5100000000002</v>
       </c>
       <c r="D30" s="8">
         <v>2860406.7</v>
@@ -1993,13 +2446,13 @@
         <v>118.59573593073667</v>
       </c>
       <c r="G30" s="3">
-        <v>102.40333333333332</v>
+        <v>103.27</v>
       </c>
       <c r="H30" s="11">
-        <v>15.333333333333334</v>
+        <v>17.52</v>
       </c>
       <c r="I30" s="3">
-        <v>51.8</v>
+        <v>52.58</v>
       </c>
       <c r="J30" s="5">
         <v>-12.708178962824661</v>
@@ -2019,9 +2472,24 @@
       <c r="O30" s="8">
         <v>0</v>
       </c>
-      <c r="P30" s="11"/>
-    </row>
-    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="16"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+    </row>
+    <row r="31" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>41000</v>
       </c>
@@ -2029,7 +2497,7 @@
         <v>44492.5</v>
       </c>
       <c r="C31" s="3">
-        <v>2545.6737936</v>
+        <v>2693.75</v>
       </c>
       <c r="D31" s="8">
         <v>2859998.6</v>
@@ -2041,13 +2509,13 @@
         <v>108.85809558316333</v>
       </c>
       <c r="G31" s="3">
-        <v>104.30666666666667</v>
+        <v>103.45</v>
       </c>
       <c r="H31" s="11">
-        <v>28.666666666666668</v>
+        <v>23.61</v>
       </c>
       <c r="I31" s="3">
-        <v>51.2</v>
+        <v>50.89</v>
       </c>
       <c r="J31" s="5">
         <v>-11.596968148955751</v>
@@ -2067,9 +2535,24 @@
       <c r="O31" s="8">
         <v>0</v>
       </c>
-      <c r="P31" s="11"/>
-    </row>
-    <row r="32" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+    </row>
+    <row r="32" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>41091</v>
       </c>
@@ -2077,7 +2560,7 @@
         <v>43846.3</v>
       </c>
       <c r="C32" s="3">
-        <v>6401.5498660000003</v>
+        <v>2650.42</v>
       </c>
       <c r="D32" s="8">
         <v>2877730.6</v>
@@ -2089,13 +2572,13 @@
         <v>109.95446969697001</v>
       </c>
       <c r="G32" s="3">
-        <v>102.61000000000001</v>
+        <v>102.86</v>
       </c>
       <c r="H32" s="11">
-        <v>14</v>
+        <v>11.25</v>
       </c>
       <c r="I32" s="3">
-        <v>50.5</v>
+        <v>49.88</v>
       </c>
       <c r="J32" s="5">
         <v>-11.055551063006808</v>
@@ -2115,9 +2598,24 @@
       <c r="O32" s="8">
         <v>0</v>
       </c>
-      <c r="P32" s="11"/>
-    </row>
-    <row r="33" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+    </row>
+    <row r="33" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>41183</v>
       </c>
@@ -2125,7 +2623,7 @@
         <v>43395.8</v>
       </c>
       <c r="C33" s="3">
-        <v>1082.6514999999999</v>
+        <v>2276.7800000000002</v>
       </c>
       <c r="D33" s="8">
         <v>2870431.6</v>
@@ -2137,13 +2635,13 @@
         <v>110.45393214756332</v>
       </c>
       <c r="G33" s="3">
-        <v>104.36</v>
+        <v>104.11</v>
       </c>
       <c r="H33" s="11">
-        <v>9</v>
+        <v>13.52</v>
       </c>
       <c r="I33" s="3">
-        <v>49.7</v>
+        <v>49.88</v>
       </c>
       <c r="J33" s="5">
         <v>-13.911019898868803</v>
@@ -2163,9 +2661,24 @@
       <c r="O33" s="8">
         <v>0</v>
       </c>
-      <c r="P33" s="11"/>
-    </row>
-    <row r="34" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+    </row>
+    <row r="34" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>41275</v>
       </c>
@@ -2173,7 +2686,7 @@
         <v>43082.400000000001</v>
       </c>
       <c r="C34" s="3">
-        <v>401.83466900000002</v>
+        <v>2447.9299999999998</v>
       </c>
       <c r="D34" s="8">
         <v>2874772.3</v>
@@ -2185,13 +2698,13 @@
         <v>112.91104545454665</v>
       </c>
       <c r="G34" s="3">
-        <v>102.38333333333333</v>
+        <v>103.25</v>
       </c>
       <c r="H34" s="11">
-        <v>9.3333333333333339</v>
+        <v>10.66</v>
       </c>
       <c r="I34" s="3">
-        <v>48.6</v>
+        <v>49.33</v>
       </c>
       <c r="J34" s="5">
         <v>-11.633096307103257</v>
@@ -2211,9 +2724,24 @@
       <c r="O34" s="8">
         <v>0</v>
       </c>
-      <c r="P34" s="11"/>
-    </row>
-    <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+    </row>
+    <row r="35" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>41365</v>
       </c>
@@ -2221,7 +2749,7 @@
         <v>43134.400000000001</v>
       </c>
       <c r="C35" s="3">
-        <v>3073.9050000000002</v>
+        <v>3252.7</v>
       </c>
       <c r="D35" s="8">
         <v>2897891.5</v>
@@ -2233,13 +2761,13 @@
         <v>103.0041370224</v>
       </c>
       <c r="G35" s="3">
-        <v>103.91333333333334</v>
+        <v>103.06</v>
       </c>
       <c r="H35" s="11">
-        <v>10.666666666666666</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="I35" s="3">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
       <c r="J35" s="5">
         <v>-8.6415803906765323</v>
@@ -2259,9 +2787,24 @@
       <c r="O35" s="8">
         <v>0</v>
       </c>
-      <c r="P35" s="11"/>
-    </row>
-    <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+    </row>
+    <row r="36" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>41456</v>
       </c>
@@ -2269,7 +2812,7 @@
         <v>43399.1</v>
       </c>
       <c r="C36" s="3">
-        <v>7343.326</v>
+        <v>3040.34</v>
       </c>
       <c r="D36" s="8">
         <v>2909070.5</v>
@@ -2281,13 +2824,13 @@
         <v>110.10068699416667</v>
       </c>
       <c r="G36" s="3">
-        <v>101.77333333333333</v>
+        <v>102.02</v>
       </c>
       <c r="H36" s="11">
-        <v>12</v>
+        <v>9.64</v>
       </c>
       <c r="I36" s="3">
-        <v>49.1</v>
+        <v>48.5</v>
       </c>
       <c r="J36" s="5">
         <v>-9.4653220790317913</v>
@@ -2307,9 +2850,24 @@
       <c r="O36" s="8">
         <v>0</v>
       </c>
-      <c r="P36" s="11"/>
-    </row>
-    <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+    </row>
+    <row r="37" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>41548</v>
       </c>
@@ -2317,7 +2875,7 @@
         <v>43612.1</v>
       </c>
       <c r="C37" s="3">
-        <v>1333.158062</v>
+        <v>2803.59</v>
       </c>
       <c r="D37" s="8">
         <v>2920612.4</v>
@@ -2329,13 +2887,13 @@
         <v>109.40962870945334</v>
       </c>
       <c r="G37" s="3">
-        <v>102.07666666666667</v>
+        <v>101.83</v>
       </c>
       <c r="H37" s="11">
-        <v>7.666666666666667</v>
+        <v>11.51</v>
       </c>
       <c r="I37" s="3">
-        <v>48.4</v>
+        <v>48.58</v>
       </c>
       <c r="J37" s="5">
         <v>-1.3274910780147313</v>
@@ -2355,9 +2913,24 @@
       <c r="O37" s="8">
         <v>0</v>
       </c>
-      <c r="P37" s="11"/>
-    </row>
-    <row r="38" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+    </row>
+    <row r="38" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>41640</v>
       </c>
@@ -2365,7 +2938,7 @@
         <v>43522</v>
       </c>
       <c r="C38" s="3">
-        <v>471.38645900000006</v>
+        <v>2871.63</v>
       </c>
       <c r="D38" s="8">
         <v>2944262.1</v>
@@ -2377,13 +2950,13 @@
         <v>107.87666666666667</v>
       </c>
       <c r="G38" s="3">
-        <v>101.09999999999998</v>
+        <v>101.95</v>
       </c>
       <c r="H38" s="11">
-        <v>10</v>
+        <v>11.43</v>
       </c>
       <c r="I38" s="3">
-        <v>48.5</v>
+        <v>49.23</v>
       </c>
       <c r="J38" s="5">
         <v>-2.4626009451517432</v>
@@ -2403,9 +2976,24 @@
       <c r="O38" s="8">
         <v>0</v>
       </c>
-      <c r="P38" s="11"/>
-    </row>
-    <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+    </row>
+    <row r="39" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>41730</v>
       </c>
@@ -2413,7 +3001,7 @@
         <v>43567</v>
       </c>
       <c r="C39" s="3">
-        <v>3339.4994650000003</v>
+        <v>3533.75</v>
       </c>
       <c r="D39" s="8">
         <v>2958342.3</v>
@@ -2425,13 +3013,13 @@
         <v>109.78000000000002</v>
       </c>
       <c r="G39" s="3">
-        <v>102.11666666666666</v>
+        <v>101.27</v>
       </c>
       <c r="H39" s="11">
-        <v>20</v>
+        <v>16.47</v>
       </c>
       <c r="I39" s="3">
-        <v>49.4</v>
+        <v>49.1</v>
       </c>
       <c r="J39" s="5">
         <v>-0.11122778999258316</v>
@@ -2451,9 +3039,24 @@
       <c r="O39" s="8">
         <v>0</v>
       </c>
-      <c r="P39" s="11"/>
-    </row>
-    <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+    </row>
+    <row r="40" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>41821</v>
       </c>
@@ -2461,7 +3064,7 @@
         <v>43996.800000000003</v>
       </c>
       <c r="C40" s="3">
-        <v>8190.421886726228</v>
+        <v>3391.06</v>
       </c>
       <c r="D40" s="8">
         <v>2978310.5</v>
@@ -2473,13 +3076,13 @@
         <v>102.08</v>
       </c>
       <c r="G40" s="3">
-        <v>101.03000000000002</v>
+        <v>101.27</v>
       </c>
       <c r="H40" s="11">
-        <v>12.666666666666666</v>
+        <v>10.18</v>
       </c>
       <c r="I40" s="3">
-        <v>50.2</v>
+        <v>49.59</v>
       </c>
       <c r="J40" s="5">
         <v>1.2633772622998991</v>
@@ -2499,9 +3102,24 @@
       <c r="O40" s="8">
         <v>0</v>
       </c>
-      <c r="P40" s="11"/>
-    </row>
-    <row r="41" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+    </row>
+    <row r="41" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>41913</v>
       </c>
@@ -2509,7 +3127,7 @@
         <v>43660</v>
       </c>
       <c r="C41" s="3">
-        <v>1391.7007441029691</v>
+        <v>2926.7</v>
       </c>
       <c r="D41" s="8">
         <v>2996687.2</v>
@@ -2521,13 +3139,13 @@
         <v>76.013333333333321</v>
       </c>
       <c r="G41" s="3">
-        <v>100.18333333333334</v>
+        <v>99.94</v>
       </c>
       <c r="H41" s="11">
-        <v>8.6666666666666661</v>
+        <v>13.01</v>
       </c>
       <c r="I41" s="3">
-        <v>49.6</v>
+        <v>49.78</v>
       </c>
       <c r="J41" s="5">
         <v>-0.16503660334637049</v>
@@ -2547,9 +3165,24 @@
       <c r="O41" s="8">
         <v>0</v>
       </c>
-      <c r="P41" s="11"/>
-    </row>
-    <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+    </row>
+    <row r="42" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>42005</v>
       </c>
@@ -2557,7 +3190,7 @@
         <v>43844.2</v>
       </c>
       <c r="C42" s="3">
-        <v>515.97044099999994</v>
+        <v>3143.23</v>
       </c>
       <c r="D42" s="8">
         <v>3036344.9</v>
@@ -2569,13 +3202,13 @@
         <v>53.93</v>
       </c>
       <c r="G42" s="3">
-        <v>98.899999999999991</v>
+        <v>99.73</v>
       </c>
       <c r="H42" s="11">
-        <v>24.666666666666668</v>
+        <v>28.18</v>
       </c>
       <c r="I42" s="3">
-        <v>49.2</v>
+        <v>49.94</v>
       </c>
       <c r="J42" s="5">
         <v>0.51061391323300953</v>
@@ -2595,9 +3228,24 @@
       <c r="O42" s="8">
         <v>0</v>
       </c>
-      <c r="P42" s="11"/>
-    </row>
-    <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="16"/>
+    </row>
+    <row r="43" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>42095</v>
       </c>
@@ -2605,7 +3253,7 @@
         <v>43748.6</v>
       </c>
       <c r="C43" s="3">
-        <v>3655.2875106802503</v>
+        <v>3867.9</v>
       </c>
       <c r="D43" s="8">
         <v>3068451.1</v>
@@ -2617,13 +3265,13 @@
         <v>62.096666666666671</v>
       </c>
       <c r="G43" s="3">
-        <v>100.64333333333333</v>
+        <v>99.81</v>
       </c>
       <c r="H43" s="11">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I43" s="3">
-        <v>51</v>
+        <v>50.69</v>
       </c>
       <c r="J43" s="5">
         <v>0.45743212486967427</v>
@@ -2643,9 +3291,24 @@
       <c r="O43" s="8">
         <v>0</v>
       </c>
-      <c r="P43" s="11"/>
-    </row>
-    <row r="44" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+    </row>
+    <row r="44" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>42186</v>
       </c>
@@ -2653,7 +3316,7 @@
         <v>42852.7</v>
       </c>
       <c r="C44" s="3">
-        <v>8616.5329220000021</v>
+        <v>3567.48</v>
       </c>
       <c r="D44" s="8">
         <v>3089545.1</v>
@@ -2665,13 +3328,13 @@
         <v>50.033333333333331</v>
       </c>
       <c r="G44" s="3">
-        <v>100.21666666666665</v>
+        <v>100.46</v>
       </c>
       <c r="H44" s="11">
-        <v>46.333333333333336</v>
+        <v>37.229999999999997</v>
       </c>
       <c r="I44" s="3">
-        <v>51.7</v>
+        <v>51.07</v>
       </c>
       <c r="J44" s="5">
         <v>-4.4865399831792336</v>
@@ -2691,9 +3354,24 @@
       <c r="O44" s="8">
         <v>0</v>
       </c>
-      <c r="P44" s="11"/>
-    </row>
-    <row r="45" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+    </row>
+    <row r="45" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>42278</v>
       </c>
@@ -2701,7 +3379,7 @@
         <v>43879.3</v>
       </c>
       <c r="C45" s="3">
-        <v>1338.0211130000002</v>
+        <v>2813.82</v>
       </c>
       <c r="D45" s="8">
         <v>3112248.7</v>
@@ -2713,13 +3391,13 @@
         <v>43.419999999999995</v>
       </c>
       <c r="G45" s="3">
-        <v>100.24666666666667</v>
+        <v>100</v>
       </c>
       <c r="H45" s="11">
-        <v>9</v>
+        <v>13.52</v>
       </c>
       <c r="I45" s="3">
-        <v>51.3</v>
+        <v>51.49</v>
       </c>
       <c r="J45" s="5">
         <v>-2.0944794376899445</v>
@@ -2739,9 +3417,24 @@
       <c r="O45" s="8">
         <v>0</v>
       </c>
-      <c r="P45" s="11"/>
-    </row>
-    <row r="46" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="16"/>
+    </row>
+    <row r="46" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>42370</v>
       </c>
@@ -2749,7 +3442,7 @@
         <v>43449.5</v>
       </c>
       <c r="C46" s="3">
-        <v>539.11229200000002</v>
+        <v>3284.21</v>
       </c>
       <c r="D46" s="8">
         <v>3128145</v>
@@ -2761,13 +3454,13 @@
         <v>34.356666666666662</v>
       </c>
       <c r="G46" s="3">
-        <v>98.660000000000011</v>
+        <v>99.49</v>
       </c>
       <c r="H46" s="11">
-        <v>11.666666666666666</v>
+        <v>13.33</v>
       </c>
       <c r="I46" s="3">
-        <v>50.9</v>
+        <v>51.67</v>
       </c>
       <c r="J46" s="5">
         <v>-2.9573370925309592</v>
@@ -2787,9 +3480,24 @@
       <c r="O46" s="8">
         <v>0</v>
       </c>
-      <c r="P46" s="11"/>
-    </row>
-    <row r="47" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="16"/>
+    </row>
+    <row r="47" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>42461</v>
       </c>
@@ -2797,7 +3505,7 @@
         <v>43430.7</v>
       </c>
       <c r="C47" s="3">
-        <v>3301.779</v>
+        <v>3493.83</v>
       </c>
       <c r="D47" s="8">
         <v>3143587</v>
@@ -2809,13 +3517,13 @@
         <v>45.953333333333326</v>
       </c>
       <c r="G47" s="3">
-        <v>100.50999999999999</v>
+        <v>99.68</v>
       </c>
       <c r="H47" s="11">
-        <v>13.666666666666666</v>
+        <v>11.25</v>
       </c>
       <c r="I47" s="3">
-        <v>52.4</v>
+        <v>52.08</v>
       </c>
       <c r="J47" s="5">
         <v>-3.8491316366395645</v>
@@ -2835,9 +3543,24 @@
       <c r="O47" s="8">
         <v>0</v>
       </c>
-      <c r="P47" s="11"/>
-    </row>
-    <row r="48" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="16"/>
+    </row>
+    <row r="48" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>42552</v>
       </c>
@@ -2845,7 +3568,7 @@
         <v>43549.599999999999</v>
       </c>
       <c r="C48" s="3">
-        <v>7940.2518569999993</v>
+        <v>3287.48</v>
       </c>
       <c r="D48" s="8">
         <v>3166325.6</v>
@@ -2857,13 +3580,13 @@
         <v>45.800000000000004</v>
       </c>
       <c r="G48" s="3">
-        <v>100.40666666666668</v>
+        <v>100.65</v>
       </c>
       <c r="H48" s="11">
-        <v>14.333333333333334</v>
+        <v>11.52</v>
       </c>
       <c r="I48" s="3">
-        <v>53</v>
+        <v>52.35</v>
       </c>
       <c r="J48" s="5">
         <v>2.7722378686796803</v>
@@ -2883,9 +3606,24 @@
       <c r="O48" s="8">
         <v>0</v>
       </c>
-      <c r="P48" s="11"/>
-    </row>
-    <row r="49" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="16"/>
+      <c r="AD48" s="16"/>
+      <c r="AE48" s="16"/>
+    </row>
+    <row r="49" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>42644</v>
       </c>
@@ -2893,7 +3631,7 @@
         <v>43805.7</v>
       </c>
       <c r="C49" s="3">
-        <v>1425.6362779999999</v>
+        <v>2998.07</v>
       </c>
       <c r="D49" s="8">
         <v>3193172.7</v>
@@ -2905,13 +3643,13 @@
         <v>50.079999999999991</v>
       </c>
       <c r="G49" s="3">
-        <v>100.48333333333333</v>
+        <v>100.24</v>
       </c>
       <c r="H49" s="11">
-        <v>9.3333333333333339</v>
+        <v>14.02</v>
       </c>
       <c r="I49" s="3">
-        <v>51.8</v>
+        <v>51.99</v>
       </c>
       <c r="J49" s="5">
         <v>1.9249210043637743</v>
@@ -2931,9 +3669,24 @@
       <c r="O49" s="8">
         <v>0</v>
       </c>
-      <c r="P49" s="11"/>
-    </row>
-    <row r="50" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="16"/>
+    </row>
+    <row r="50" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>42736</v>
       </c>
@@ -2941,7 +3694,7 @@
         <v>43887.9</v>
       </c>
       <c r="C50" s="3">
-        <v>489.372342</v>
+        <v>2981.2</v>
       </c>
       <c r="D50" s="8">
         <v>3239565.5</v>
@@ -2953,13 +3706,13 @@
         <v>54.116666666666667</v>
       </c>
       <c r="G50" s="3">
-        <v>100.18</v>
+        <v>101.02</v>
       </c>
       <c r="H50" s="11">
-        <v>13.333333333333334</v>
+        <v>15.23</v>
       </c>
       <c r="I50" s="3">
-        <v>52</v>
+        <v>52.78</v>
       </c>
       <c r="J50" s="5">
         <v>3.0948075705586109</v>
@@ -2979,9 +3732,24 @@
       <c r="O50" s="8">
         <v>0</v>
       </c>
-      <c r="P50" s="11"/>
-    </row>
-    <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
+      <c r="AD50" s="16"/>
+      <c r="AE50" s="16"/>
+    </row>
+    <row r="51" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>42826</v>
       </c>
@@ -2989,7 +3757,7 @@
         <v>44121.5</v>
       </c>
       <c r="C51" s="3">
-        <v>3587.6988880000004</v>
+        <v>3796.38</v>
       </c>
       <c r="D51" s="8">
         <v>3277629</v>
@@ -3001,13 +3769,13 @@
         <v>50.24666666666667</v>
       </c>
       <c r="G51" s="3">
-        <v>101.86</v>
+        <v>101.02</v>
       </c>
       <c r="H51" s="11">
-        <v>15</v>
+        <v>12.35</v>
       </c>
       <c r="I51" s="3">
-        <v>54</v>
+        <v>53.67</v>
       </c>
       <c r="J51" s="5">
         <v>2.1438731958140225</v>
@@ -3027,9 +3795,24 @@
       <c r="O51" s="8">
         <v>0</v>
       </c>
-      <c r="P51" s="11"/>
-    </row>
-    <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="16"/>
+      <c r="AE51" s="16"/>
+    </row>
+    <row r="52" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>42917</v>
       </c>
@@ -3037,7 +3820,7 @@
         <v>44518.8</v>
       </c>
       <c r="C52" s="3">
-        <v>8943.8499389999997</v>
+        <v>3703</v>
       </c>
       <c r="D52" s="8">
         <v>3312174.1</v>
@@ -3049,13 +3832,13 @@
         <v>51.74</v>
       </c>
       <c r="G52" s="3">
-        <v>101.25999999999999</v>
+        <v>101.5</v>
       </c>
       <c r="H52" s="11">
-        <v>17</v>
+        <v>13.66</v>
       </c>
       <c r="I52" s="3">
-        <v>54.6</v>
+        <v>53.93</v>
       </c>
       <c r="J52" s="5">
         <v>0.17929576992454757</v>
@@ -3075,9 +3858,24 @@
       <c r="O52" s="8">
         <v>0</v>
       </c>
-      <c r="P52" s="11"/>
-    </row>
-    <row r="53" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16"/>
+      <c r="AD52" s="16"/>
+      <c r="AE52" s="16"/>
+    </row>
+    <row r="53" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>43009</v>
       </c>
@@ -3085,7 +3883,7 @@
         <v>44186</v>
       </c>
       <c r="C53" s="3">
-        <v>1609.1399608479021</v>
+        <v>3383.97</v>
       </c>
       <c r="D53" s="8">
         <v>3350217.3</v>
@@ -3097,13 +3895,13 @@
         <v>61.466666666666661</v>
       </c>
       <c r="G53" s="3">
-        <v>101.31333333333333</v>
+        <v>101.07</v>
       </c>
       <c r="H53" s="11">
-        <v>11.333333333333334</v>
+        <v>17.02</v>
       </c>
       <c r="I53" s="3">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="J53" s="5">
         <v>-0.27475850730460705</v>
@@ -3123,9 +3921,24 @@
       <c r="O53" s="8">
         <v>0</v>
       </c>
-      <c r="P53" s="11"/>
-    </row>
-    <row r="54" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="16"/>
+      <c r="AD53" s="16"/>
+      <c r="AE53" s="16"/>
+    </row>
+    <row r="54" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>43101</v>
       </c>
@@ -3133,7 +3946,7 @@
         <v>44854</v>
       </c>
       <c r="C54" s="3">
-        <v>553.84007800000006</v>
+        <v>3373.93</v>
       </c>
       <c r="D54" s="8">
         <v>3371166.9</v>
@@ -3145,13 +3958,13 @@
         <v>66.953333333333333</v>
       </c>
       <c r="G54" s="3">
-        <v>100.45</v>
+        <v>101.3</v>
       </c>
       <c r="H54" s="11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I54" s="3">
-        <v>53.3</v>
+        <v>54.1</v>
       </c>
       <c r="J54" s="5">
         <v>0.91345464187797754</v>
@@ -3171,9 +3984,24 @@
       <c r="O54" s="8">
         <v>0</v>
       </c>
-      <c r="P54" s="11"/>
-    </row>
-    <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="16"/>
+      <c r="AD54" s="16"/>
+      <c r="AE54" s="16"/>
+    </row>
+    <row r="55" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>43191</v>
       </c>
@@ -3181,7 +4009,7 @@
         <v>44934.9</v>
       </c>
       <c r="C55" s="3">
-        <v>4222.9300519999997</v>
+        <v>4468.5600000000004</v>
       </c>
       <c r="D55" s="8">
         <v>3393630.3</v>
@@ -3193,13 +4021,13 @@
         <v>74.489999999999995</v>
       </c>
       <c r="G55" s="3">
-        <v>102.61666666666667</v>
+        <v>101.77</v>
       </c>
       <c r="H55" s="11">
-        <v>15.666666666666666</v>
+        <v>12.9</v>
       </c>
       <c r="I55" s="3">
-        <v>55.3</v>
+        <v>54.96</v>
       </c>
       <c r="J55" s="5">
         <v>2.4707175208288219</v>
@@ -3219,9 +4047,24 @@
       <c r="O55" s="8">
         <v>0</v>
       </c>
-      <c r="P55" s="11"/>
-    </row>
-    <row r="56" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="16"/>
+    </row>
+    <row r="56" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>43282</v>
       </c>
@@ -3229,7 +4072,7 @@
         <v>45057.4</v>
       </c>
       <c r="C56" s="3">
-        <v>9335.8607880000018</v>
+        <v>3865.3</v>
       </c>
       <c r="D56" s="8">
         <v>3416540.8</v>
@@ -3241,13 +4084,13 @@
         <v>75.476666666666674</v>
       </c>
       <c r="G56" s="3">
-        <v>102.20333333333333</v>
+        <v>102.45</v>
       </c>
       <c r="H56" s="11">
-        <v>19.333333333333332</v>
+        <v>15.53</v>
       </c>
       <c r="I56" s="3">
-        <v>55.9</v>
+        <v>55.22</v>
       </c>
       <c r="J56" s="5">
         <v>2.4619576893794162</v>
@@ -3267,9 +4110,24 @@
       <c r="O56" s="8">
         <v>0</v>
       </c>
-      <c r="P56" s="11"/>
-    </row>
-    <row r="57" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="16"/>
+      <c r="AD56" s="16"/>
+      <c r="AE56" s="16"/>
+    </row>
+    <row r="57" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>43374</v>
       </c>
@@ -3277,7 +4135,7 @@
         <v>45340.5</v>
       </c>
       <c r="C57" s="3">
-        <v>1973.1928619999999</v>
+        <v>4149.5600000000004</v>
       </c>
       <c r="D57" s="8">
         <v>3455028.9</v>
@@ -3289,13 +4147,13 @@
         <v>67.36666666666666</v>
       </c>
       <c r="G57" s="3">
-        <v>102.47666666666667</v>
+        <v>102.23</v>
       </c>
       <c r="H57" s="11">
-        <v>10.333333333333334</v>
+        <v>15.52</v>
       </c>
       <c r="I57" s="3">
-        <v>55.1</v>
+        <v>55.3</v>
       </c>
       <c r="J57" s="5">
         <v>-0.34413675058752302</v>
@@ -3315,9 +4173,24 @@
       <c r="O57" s="8">
         <v>0</v>
       </c>
-      <c r="P57" s="11"/>
-    </row>
-    <row r="58" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="16"/>
+      <c r="Z57" s="16"/>
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="16"/>
+      <c r="AC57" s="16"/>
+      <c r="AD57" s="16"/>
+      <c r="AE57" s="16"/>
+    </row>
+    <row r="58" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>43466</v>
       </c>
@@ -3325,7 +4198,7 @@
         <v>45856</v>
       </c>
       <c r="C58" s="3">
-        <v>746.53499999999997</v>
+        <v>4547.8</v>
       </c>
       <c r="D58" s="8">
         <v>3493941.2</v>
@@ -3337,13 +4210,13 @@
         <v>63.27</v>
       </c>
       <c r="G58" s="3">
-        <v>101.24000000000001</v>
+        <v>102.09</v>
       </c>
       <c r="H58" s="11">
-        <v>13</v>
+        <v>14.85</v>
       </c>
       <c r="I58" s="3">
-        <v>55</v>
+        <v>55.83</v>
       </c>
       <c r="J58" s="5">
         <v>-0.18104573545520619</v>
@@ -3363,9 +4236,24 @@
       <c r="O58" s="8">
         <v>0</v>
       </c>
-      <c r="P58" s="11"/>
-    </row>
-    <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16"/>
+      <c r="AC58" s="16"/>
+      <c r="AD58" s="16"/>
+      <c r="AE58" s="16"/>
+    </row>
+    <row r="59" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>43556</v>
       </c>
@@ -3373,7 +4261,7 @@
         <v>46278.9</v>
       </c>
       <c r="C59" s="3">
-        <v>4667.1969690000005</v>
+        <v>4938.67</v>
       </c>
       <c r="D59" s="8">
         <v>3522938.2</v>
@@ -3385,13 +4273,13 @@
         <v>68.343333333333348</v>
       </c>
       <c r="G59" s="3">
-        <v>103.26666666666667</v>
+        <v>102.41</v>
       </c>
       <c r="H59" s="11">
-        <v>15</v>
+        <v>12.35</v>
       </c>
       <c r="I59" s="3">
-        <v>57.1</v>
+        <v>56.75</v>
       </c>
       <c r="J59" s="5">
         <v>-0.62526800735390775</v>
@@ -3411,9 +4299,24 @@
       <c r="O59" s="8">
         <v>0</v>
       </c>
-      <c r="P59" s="11"/>
-    </row>
-    <row r="60" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="16"/>
+      <c r="Z59" s="16"/>
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="16"/>
+      <c r="AC59" s="16"/>
+      <c r="AD59" s="16"/>
+      <c r="AE59" s="16"/>
+    </row>
+    <row r="60" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>43647</v>
       </c>
@@ -3421,7 +4324,7 @@
         <v>46044.7</v>
       </c>
       <c r="C60" s="3">
-        <v>10693.391007260974</v>
+        <v>4427.3599999999997</v>
       </c>
       <c r="D60" s="8">
         <v>3545913.4</v>
@@ -3433,13 +4336,13 @@
         <v>61.859999999999992</v>
       </c>
       <c r="G60" s="3">
-        <v>102.45333333333333</v>
+        <v>102.7</v>
       </c>
       <c r="H60" s="11">
-        <v>17.333333333333332</v>
+        <v>13.93</v>
       </c>
       <c r="I60" s="3">
-        <v>57.4</v>
+        <v>56.7</v>
       </c>
       <c r="J60" s="5">
         <v>1.3716628207112842</v>
@@ -3459,9 +4362,24 @@
       <c r="O60" s="8">
         <v>0</v>
       </c>
-      <c r="P60" s="11"/>
-    </row>
-    <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
+      <c r="W60" s="16"/>
+      <c r="X60" s="16"/>
+      <c r="Y60" s="16"/>
+      <c r="Z60" s="16"/>
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="16"/>
+      <c r="AC60" s="16"/>
+      <c r="AD60" s="16"/>
+      <c r="AE60" s="16"/>
+    </row>
+    <row r="61" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>43739</v>
       </c>
@@ -3469,7 +4387,7 @@
         <v>46002.5</v>
       </c>
       <c r="C61" s="3">
-        <v>2071.6764716412044</v>
+        <v>4356.67</v>
       </c>
       <c r="D61" s="8">
         <v>3570054.1</v>
@@ -3481,13 +4399,13 @@
         <v>62.653333333333329</v>
       </c>
       <c r="G61" s="3">
-        <v>102.89666666666666</v>
+        <v>102.65</v>
       </c>
       <c r="H61" s="11">
-        <v>10.333333333333334</v>
+        <v>15.52</v>
       </c>
       <c r="I61" s="3">
-        <v>56.5</v>
+        <v>56.71</v>
       </c>
       <c r="J61" s="5">
         <v>2.9285930950565073</v>
@@ -3507,9 +4425,24 @@
       <c r="O61" s="8">
         <v>0</v>
       </c>
-      <c r="P61" s="11"/>
-    </row>
-    <row r="62" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
+      <c r="W61" s="16"/>
+      <c r="X61" s="16"/>
+      <c r="Y61" s="16"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="16"/>
+      <c r="AD61" s="16"/>
+      <c r="AE61" s="16"/>
+    </row>
+    <row r="62" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>43831</v>
       </c>
@@ -3517,7 +4450,7 @@
         <v>45103.4</v>
       </c>
       <c r="C62" s="3">
-        <v>593.30947722788665</v>
+        <v>3614.37</v>
       </c>
       <c r="D62" s="8">
         <v>3483352</v>
@@ -3529,13 +4462,13 @@
         <v>50.526666666666664</v>
       </c>
       <c r="G62" s="3">
-        <v>101.80333333333333</v>
+        <v>102.66</v>
       </c>
       <c r="H62" s="11">
-        <v>16</v>
+        <v>18.28</v>
       </c>
       <c r="I62" s="3">
-        <v>55.9</v>
+        <v>56.74</v>
       </c>
       <c r="J62" s="5">
         <v>2.3051885865523114</v>
@@ -3555,9 +4488,24 @@
       <c r="O62" s="8">
         <v>0</v>
       </c>
-      <c r="P62" s="11"/>
-    </row>
-    <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="16"/>
+      <c r="V62" s="16"/>
+      <c r="W62" s="16"/>
+      <c r="X62" s="16"/>
+      <c r="Y62" s="16"/>
+      <c r="Z62" s="16"/>
+      <c r="AA62" s="16"/>
+      <c r="AB62" s="16"/>
+      <c r="AC62" s="16"/>
+      <c r="AD62" s="16"/>
+      <c r="AE62" s="16"/>
+    </row>
+    <row r="63" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>43922</v>
       </c>
@@ -3565,7 +4513,7 @@
         <v>38889.9</v>
       </c>
       <c r="C63" s="3">
-        <v>140.448151</v>
+        <v>148.62</v>
       </c>
       <c r="D63" s="8">
         <v>3134250.5</v>
@@ -3577,13 +4525,13 @@
         <v>31.429999999999996</v>
       </c>
       <c r="G63" s="3">
-        <v>102.06</v>
+        <v>101.22</v>
       </c>
       <c r="H63" s="11">
-        <v>15.333333333333334</v>
+        <v>12.63</v>
       </c>
       <c r="I63" s="3">
-        <v>55.8</v>
+        <v>55.46</v>
       </c>
       <c r="J63" s="5">
         <v>-10.396878200393122</v>
@@ -3603,9 +4551,24 @@
       <c r="O63" s="8">
         <v>0</v>
       </c>
-      <c r="P63" s="11"/>
-    </row>
-    <row r="64" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="16"/>
+      <c r="AE63" s="16"/>
+    </row>
+    <row r="64" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>44013</v>
       </c>
@@ -3613,7 +4576,7 @@
         <v>41273.699999999997</v>
       </c>
       <c r="C64" s="3">
-        <v>2926.3678141775581</v>
+        <v>1211.5999999999999</v>
       </c>
       <c r="D64" s="8">
         <v>3453617.6</v>
@@ -3625,13 +4588,13 @@
         <v>42.72</v>
       </c>
       <c r="G64" s="3">
-        <v>100.17666666666666</v>
+        <v>100.42</v>
       </c>
       <c r="H64" s="11">
-        <v>33.333333333333336</v>
+        <v>26.78</v>
       </c>
       <c r="I64" s="3">
-        <v>57</v>
+        <v>56.3</v>
       </c>
       <c r="J64" s="5">
         <v>-2.4950433419369618</v>
@@ -3651,9 +4614,24 @@
       <c r="O64" s="8">
         <v>1</v>
       </c>
-      <c r="P64" s="11"/>
-    </row>
-    <row r="65" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="16"/>
+      <c r="AD64" s="16"/>
+      <c r="AE64" s="16"/>
+    </row>
+    <row r="65" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>44105</v>
       </c>
@@ -3661,7 +4639,7 @@
         <v>42345.8</v>
       </c>
       <c r="C65" s="3">
-        <v>658.65960878509941</v>
+        <v>1385.14</v>
       </c>
       <c r="D65" s="8">
         <v>3499125.7</v>
@@ -3673,13 +4651,13 @@
         <v>44.523333333333333</v>
       </c>
       <c r="G65" s="3">
-        <v>100.64333333333333</v>
+        <v>100.4</v>
       </c>
       <c r="H65" s="11">
-        <v>13.666666666666666</v>
+        <v>20.52</v>
       </c>
       <c r="I65" s="3">
-        <v>56.4</v>
+        <v>56.61</v>
       </c>
       <c r="J65" s="5">
         <v>-4.9039897737184921</v>
@@ -3699,9 +4677,24 @@
       <c r="O65" s="8">
         <v>0</v>
       </c>
-      <c r="P65" s="11"/>
-    </row>
-    <row r="66" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="16"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="16"/>
+      <c r="AD65" s="16"/>
+      <c r="AE65" s="16"/>
+    </row>
+    <row r="66" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>44197</v>
       </c>
@@ -3709,7 +4702,7 @@
         <v>44128.6</v>
       </c>
       <c r="C66" s="3">
-        <v>106.221114</v>
+        <v>647.09</v>
       </c>
       <c r="D66" s="8">
         <v>3553019.2</v>
@@ -3721,13 +4714,13 @@
         <v>60.566666666666663</v>
       </c>
       <c r="G66" s="3">
-        <v>99.673333333333332</v>
+        <v>100.51</v>
       </c>
       <c r="H66" s="11">
-        <v>11.666666666666666</v>
+        <v>13.33</v>
       </c>
       <c r="I66" s="3">
-        <v>52.7</v>
+        <v>53.49</v>
       </c>
       <c r="J66" s="5">
         <v>-1.6736260431475365</v>
@@ -3747,9 +4740,24 @@
       <c r="O66" s="8">
         <v>0</v>
       </c>
-      <c r="P66" s="11"/>
-    </row>
-    <row r="67" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="16"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="16"/>
+      <c r="AB66" s="16"/>
+      <c r="AC66" s="16"/>
+      <c r="AD66" s="16"/>
+      <c r="AE66" s="16"/>
+    </row>
+    <row r="67" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>44287</v>
       </c>
@@ -3757,7 +4765,7 @@
         <v>44731.4</v>
       </c>
       <c r="C67" s="3">
-        <v>1087.7421170291375</v>
+        <v>1151.01</v>
       </c>
       <c r="D67" s="8">
         <v>3643059.4</v>
@@ -3769,13 +4777,13 @@
         <v>68.626666666666665</v>
       </c>
       <c r="G67" s="3">
-        <v>101.48</v>
+        <v>100.64</v>
       </c>
       <c r="H67" s="11">
-        <v>26.333333333333332</v>
+        <v>21.69</v>
       </c>
       <c r="I67" s="3">
-        <v>57</v>
+        <v>56.65</v>
       </c>
       <c r="J67" s="5">
         <v>21.603455056533075</v>
@@ -3795,9 +4803,24 @@
       <c r="O67" s="8">
         <v>0</v>
       </c>
-      <c r="P67" s="11"/>
-    </row>
-    <row r="68" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="16"/>
+      <c r="Z67" s="16"/>
+      <c r="AA67" s="16"/>
+      <c r="AB67" s="16"/>
+      <c r="AC67" s="16"/>
+      <c r="AD67" s="16"/>
+      <c r="AE67" s="16"/>
+    </row>
+    <row r="68" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>44378</v>
       </c>
@@ -3805,7 +4828,7 @@
         <v>46015.9</v>
       </c>
       <c r="C68" s="3">
-        <v>7557.3977115694843</v>
+        <v>3128.97</v>
       </c>
       <c r="D68" s="8">
         <v>3749750.4</v>
@@ -3817,13 +4840,13 @@
         <v>73.00333333333333</v>
       </c>
       <c r="G68" s="3">
-        <v>101.44666666666666</v>
+        <v>101.69</v>
       </c>
       <c r="H68" s="11">
-        <v>43</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="I68" s="3">
-        <v>60.1</v>
+        <v>59.37</v>
       </c>
       <c r="J68" s="5">
         <v>8.5595966545398987</v>
@@ -3843,9 +4866,24 @@
       <c r="O68" s="8">
         <v>0</v>
       </c>
-      <c r="P68" s="11"/>
-    </row>
-    <row r="69" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="16"/>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="16"/>
+      <c r="AC68" s="16"/>
+      <c r="AD68" s="16"/>
+      <c r="AE68" s="16"/>
+    </row>
+    <row r="69" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>44470</v>
       </c>
@@ -3853,7 +4891,7 @@
         <v>46664.9</v>
       </c>
       <c r="C69" s="3">
-        <v>1751.3432339018</v>
+        <v>3683.02</v>
       </c>
       <c r="D69" s="8">
         <v>3829372.7</v>
@@ -3865,13 +4903,13 @@
         <v>79.576666666666668</v>
       </c>
       <c r="G69" s="3">
-        <v>104.40666666666668</v>
+        <v>104.15</v>
       </c>
       <c r="H69" s="11">
-        <v>12.333333333333334</v>
+        <v>18.52</v>
       </c>
       <c r="I69" s="3">
-        <v>59.2</v>
+        <v>59.42</v>
       </c>
       <c r="J69" s="5">
         <v>14.949616559222326</v>
@@ -3891,9 +4929,24 @@
       <c r="O69" s="8">
         <v>0</v>
       </c>
-      <c r="P69" s="11"/>
-    </row>
-    <row r="70" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="16"/>
+      <c r="X69" s="16"/>
+      <c r="Y69" s="16"/>
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="16"/>
+      <c r="AB69" s="16"/>
+      <c r="AC69" s="16"/>
+      <c r="AD69" s="16"/>
+      <c r="AE69" s="16"/>
+    </row>
+    <row r="70" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>44562</v>
       </c>
@@ -3901,7 +4954,7 @@
         <v>47645.8</v>
       </c>
       <c r="C70" s="3">
-        <v>447.46388225643398</v>
+        <v>2725.89</v>
       </c>
       <c r="D70" s="8">
         <v>3921454.8</v>
@@ -3913,13 +4966,13 @@
         <v>98.96</v>
       </c>
       <c r="G70" s="3">
-        <v>106.23666666666668</v>
+        <v>107.13</v>
       </c>
       <c r="H70" s="11">
-        <v>16.666666666666668</v>
+        <v>19.04</v>
       </c>
       <c r="I70" s="3">
-        <v>59.2</v>
+        <v>60.09</v>
       </c>
       <c r="J70" s="5">
         <v>10.707336195173371</v>
@@ -3939,9 +4992,24 @@
       <c r="O70" s="8">
         <v>0</v>
       </c>
-      <c r="P70" s="11"/>
-    </row>
-    <row r="71" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="16"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="16"/>
+      <c r="AB70" s="16"/>
+      <c r="AC70" s="16"/>
+      <c r="AD70" s="16"/>
+      <c r="AE70" s="16"/>
+    </row>
+    <row r="71" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>44652</v>
       </c>
@@ -3949,7 +5017,7 @@
         <v>47725.4</v>
       </c>
       <c r="C71" s="3">
-        <v>4535.5115173650101</v>
+        <v>4799.33</v>
       </c>
       <c r="D71" s="8">
         <v>4009713.5</v>
@@ -3961,13 +5029,13 @@
         <v>112.74333333333334</v>
       </c>
       <c r="G71" s="3">
-        <v>112.06333333333333</v>
+        <v>111.14</v>
       </c>
       <c r="H71" s="11">
-        <v>23.333333333333332</v>
+        <v>19.22</v>
       </c>
       <c r="I71" s="3">
-        <v>61.1</v>
+        <v>60.72</v>
       </c>
       <c r="J71" s="5">
         <v>1.687439359248617</v>
@@ -3987,9 +5055,24 @@
       <c r="O71" s="8">
         <v>0</v>
       </c>
-      <c r="P71" s="11"/>
-    </row>
-    <row r="72" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
+      <c r="AE71" s="16"/>
+    </row>
+    <row r="72" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>44743</v>
       </c>
@@ -3997,7 +5080,7 @@
         <v>48185</v>
       </c>
       <c r="C72" s="3">
-        <v>10576.8216440698</v>
+        <v>4379.1000000000004</v>
       </c>
       <c r="D72" s="8">
         <v>4078045.1</v>
@@ -4009,13 +5092,13 @@
         <v>99.226666666666645</v>
       </c>
       <c r="G72" s="3">
-        <v>113.15333333333335</v>
+        <v>113.43</v>
       </c>
       <c r="H72" s="11">
-        <v>22.333333333333332</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="I72" s="3">
-        <v>61.9</v>
+        <v>61.14</v>
       </c>
       <c r="J72" s="5">
         <v>2.4516454463029329</v>
@@ -4035,9 +5118,24 @@
       <c r="O72" s="8">
         <v>0</v>
       </c>
-      <c r="P72" s="11"/>
-    </row>
-    <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
+      <c r="AC72" s="16"/>
+      <c r="AD72" s="16"/>
+      <c r="AE72" s="16"/>
+    </row>
+    <row r="73" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>44835</v>
       </c>
@@ -4045,7 +5143,7 @@
         <v>48594.8</v>
       </c>
       <c r="C73" s="3">
-        <v>2116.3820966340099</v>
+        <v>4450.6899999999996</v>
       </c>
       <c r="D73" s="8">
         <v>4151186.2</v>
@@ -4057,13 +5155,13 @@
         <v>88.366666666666674</v>
       </c>
       <c r="G73" s="3">
-        <v>113.40333333333332</v>
+        <v>113.13</v>
       </c>
       <c r="H73" s="11">
-        <v>11</v>
+        <v>16.52</v>
       </c>
       <c r="I73" s="3">
-        <v>60.7</v>
+        <v>60.93</v>
       </c>
       <c r="J73" s="5">
         <v>-0.66443969740927067</v>
@@ -4083,9 +5181,24 @@
       <c r="O73" s="8">
         <v>0</v>
       </c>
-      <c r="P73" s="11"/>
-    </row>
-    <row r="74" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="16"/>
+      <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
+      <c r="AB73" s="16"/>
+      <c r="AC73" s="16"/>
+      <c r="AD73" s="16"/>
+      <c r="AE73" s="16"/>
+    </row>
+    <row r="74" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>44927</v>
       </c>
@@ -4093,7 +5206,7 @@
         <v>48630.1</v>
       </c>
       <c r="C74" s="3">
-        <v>735.00468372596697</v>
+        <v>4477.5600000000004</v>
       </c>
       <c r="D74" s="8">
         <v>4243632.8</v>
@@ -4105,13 +5218,13 @@
         <v>81.443333333333342</v>
       </c>
       <c r="G74" s="3">
-        <v>113.02666666666669</v>
+        <v>113.98</v>
       </c>
       <c r="H74" s="11">
-        <v>15</v>
+        <v>17.14</v>
       </c>
       <c r="I74" s="3">
-        <v>60.3</v>
+        <v>61.21</v>
       </c>
       <c r="J74" s="5">
         <v>-2.1863370644732627</v>
@@ -4131,9 +5244,24 @@
       <c r="O74" s="8">
         <v>0</v>
       </c>
-      <c r="P74" s="11"/>
-    </row>
-    <row r="75" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="16"/>
+      <c r="W74" s="16"/>
+      <c r="X74" s="16"/>
+      <c r="Y74" s="16"/>
+      <c r="Z74" s="16"/>
+      <c r="AA74" s="16"/>
+      <c r="AB74" s="16"/>
+      <c r="AC74" s="16"/>
+      <c r="AD74" s="16"/>
+      <c r="AE74" s="16"/>
+    </row>
+    <row r="75" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>45017</v>
       </c>
@@ -4141,7 +5269,7 @@
         <v>49195.1</v>
       </c>
       <c r="C75" s="3">
-        <v>5431.4480202190698</v>
+        <v>5747.38</v>
       </c>
       <c r="D75" s="8">
         <v>4302131.5999999996</v>
@@ -4153,13 +5281,13 @@
         <v>78.233333333333334</v>
       </c>
       <c r="G75" s="3">
-        <v>116.31666666666666</v>
+        <v>115.36</v>
       </c>
       <c r="H75" s="11">
-        <v>17.333333333333332</v>
+        <v>14.27</v>
       </c>
       <c r="I75" s="3">
-        <v>62.4</v>
+        <v>62.02</v>
       </c>
       <c r="J75" s="5">
         <v>-4.4818771242636259</v>
@@ -4179,9 +5307,24 @@
       <c r="O75" s="8">
         <v>0</v>
       </c>
-      <c r="P75" s="11"/>
-    </row>
-    <row r="76" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="16"/>
+      <c r="W75" s="16"/>
+      <c r="X75" s="16"/>
+      <c r="Y75" s="16"/>
+      <c r="Z75" s="16"/>
+      <c r="AA75" s="16"/>
+      <c r="AB75" s="16"/>
+      <c r="AC75" s="16"/>
+      <c r="AD75" s="16"/>
+      <c r="AE75" s="16"/>
+    </row>
+    <row r="76" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>45108</v>
       </c>
@@ -4189,7 +5332,7 @@
         <v>49256</v>
       </c>
       <c r="C76" s="3">
-        <v>11854.973392411801</v>
+        <v>4908.29</v>
       </c>
       <c r="D76" s="8">
         <v>4331508.4000000004</v>
@@ -4201,13 +5344,13 @@
         <v>86.754333333333321</v>
       </c>
       <c r="G76" s="3">
-        <v>116.66333333333334</v>
+        <v>116.94</v>
       </c>
       <c r="H76" s="11">
-        <v>23</v>
+        <v>18.48</v>
       </c>
       <c r="I76" s="3">
-        <v>62.8</v>
+        <v>62.03</v>
       </c>
       <c r="J76" s="5">
         <v>-3.2418076215242344</v>
@@ -4227,9 +5370,24 @@
       <c r="O76" s="8">
         <v>0</v>
       </c>
-      <c r="P76" s="11"/>
-    </row>
-    <row r="77" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
+      <c r="W76" s="16"/>
+      <c r="X76" s="16"/>
+      <c r="Y76" s="16"/>
+      <c r="Z76" s="16"/>
+      <c r="AA76" s="16"/>
+      <c r="AB76" s="16"/>
+      <c r="AC76" s="16"/>
+      <c r="AD76" s="16"/>
+      <c r="AE76" s="16"/>
+    </row>
+    <row r="77" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>45200</v>
       </c>
@@ -4237,7 +5395,7 @@
         <v>49534.3</v>
       </c>
       <c r="C77" s="3">
-        <v>2572.1999999999998</v>
+        <v>5409.26</v>
       </c>
       <c r="D77" s="8">
         <v>4387256.3</v>
@@ -4249,13 +5407,13 @@
         <v>84.034000000000006</v>
       </c>
       <c r="G77" s="3">
-        <v>117.33333333333333</v>
+        <v>117.05</v>
       </c>
       <c r="H77" s="11">
-        <v>10.333333333333334</v>
+        <v>15.52</v>
       </c>
       <c r="I77" s="3">
-        <v>61.7</v>
+        <v>61.93</v>
       </c>
       <c r="J77" s="5">
         <v>-3.0214874927275375</v>
@@ -4275,9 +5433,24 @@
       <c r="O77" s="8">
         <v>0</v>
       </c>
-      <c r="P77" s="11"/>
-    </row>
-    <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="17"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="16"/>
+      <c r="W77" s="16"/>
+      <c r="X77" s="16"/>
+      <c r="Y77" s="16"/>
+      <c r="Z77" s="16"/>
+      <c r="AA77" s="16"/>
+      <c r="AB77" s="16"/>
+      <c r="AC77" s="16"/>
+      <c r="AD77" s="16"/>
+      <c r="AE77" s="16"/>
+    </row>
+    <row r="78" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>45292</v>
       </c>
@@ -4285,7 +5458,7 @@
         <v>49704.4</v>
       </c>
       <c r="C78" s="3">
-        <v>1027.03787016353</v>
+        <v>6256.59</v>
       </c>
       <c r="D78" s="8">
         <v>4437765.2</v>
@@ -4297,13 +5470,13 @@
         <v>83.146000000000001</v>
       </c>
       <c r="G78" s="3">
-        <v>116.68666666666667</v>
+        <v>117.67</v>
       </c>
       <c r="H78" s="11">
-        <v>13.333333333333334</v>
+        <v>15.23</v>
       </c>
       <c r="I78" s="3">
-        <v>61.6</v>
+        <v>62.53</v>
       </c>
       <c r="J78" s="5">
         <v>-4.2401869665807661</v>
@@ -4323,9 +5496,24 @@
       <c r="O78" s="8">
         <v>0</v>
       </c>
-      <c r="P78" s="11"/>
-    </row>
-    <row r="79" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="17"/>
+      <c r="U78" s="16"/>
+      <c r="V78" s="16"/>
+      <c r="W78" s="16"/>
+      <c r="X78" s="16"/>
+      <c r="Y78" s="16"/>
+      <c r="Z78" s="16"/>
+      <c r="AA78" s="16"/>
+      <c r="AB78" s="16"/>
+      <c r="AC78" s="16"/>
+      <c r="AD78" s="16"/>
+      <c r="AE78" s="16"/>
+    </row>
+    <row r="79" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>45383</v>
       </c>
@@ -4333,7 +5521,7 @@
         <v>50249.4</v>
       </c>
       <c r="C79" s="3">
-        <v>5871.5</v>
+        <v>6213.03</v>
       </c>
       <c r="D79" s="8">
         <v>4475351.2</v>
@@ -4345,13 +5533,13 @@
         <v>84.868000000000009</v>
       </c>
       <c r="G79" s="3">
-        <v>119.41666666666667</v>
+        <v>118.43</v>
       </c>
       <c r="H79" s="11">
-        <v>26</v>
+        <v>21.41</v>
       </c>
       <c r="I79" s="3">
-        <v>64</v>
+        <v>63.61</v>
       </c>
       <c r="J79" s="5">
         <v>2.6784327498909355</v>
@@ -4371,9 +5559,24 @@
       <c r="O79" s="8">
         <v>0</v>
       </c>
-      <c r="P79" s="11"/>
-    </row>
-    <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="16"/>
+      <c r="W79" s="16"/>
+      <c r="X79" s="16"/>
+      <c r="Y79" s="16"/>
+      <c r="Z79" s="16"/>
+      <c r="AA79" s="16"/>
+      <c r="AB79" s="16"/>
+      <c r="AC79" s="16"/>
+      <c r="AD79" s="16"/>
+      <c r="AE79" s="16"/>
+    </row>
+    <row r="80" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>45474</v>
       </c>
@@ -4381,7 +5584,7 @@
         <v>50373.9</v>
       </c>
       <c r="C80" s="3">
-        <v>11573.770354033701</v>
+        <v>4791.8599999999997</v>
       </c>
       <c r="D80" s="8">
         <v>4523628.8</v>
@@ -4393,13 +5596,13 @@
         <v>80.150666666666666</v>
       </c>
       <c r="G80" s="3">
-        <v>120.27666666666666</v>
+        <v>120.57</v>
       </c>
       <c r="H80" s="11">
-        <v>19</v>
+        <v>15.27</v>
       </c>
       <c r="I80" s="3">
-        <v>64.099999999999994</v>
+        <v>63.32</v>
       </c>
       <c r="J80" s="5">
         <v>-2.6072774497494806</v>
@@ -4419,9 +5622,24 @@
       <c r="O80" s="8">
         <v>0</v>
       </c>
-      <c r="P80" s="11"/>
-    </row>
-    <row r="81" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="16"/>
+      <c r="W80" s="16"/>
+      <c r="X80" s="16"/>
+      <c r="Y80" s="16"/>
+      <c r="Z80" s="16"/>
+      <c r="AA80" s="16"/>
+      <c r="AB80" s="16"/>
+      <c r="AC80" s="16"/>
+      <c r="AD80" s="16"/>
+      <c r="AE80" s="16"/>
+    </row>
+    <row r="81" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>45566</v>
       </c>
@@ -4429,7 +5647,7 @@
         <v>50776.1</v>
       </c>
       <c r="C81" s="3">
-        <v>3120</v>
+        <v>6561.26</v>
       </c>
       <c r="D81" s="8">
         <v>4579059.7</v>
@@ -4441,13 +5659,13 @@
         <v>74.63000000000001</v>
       </c>
       <c r="G81" s="3">
-        <v>120.84666666666668</v>
+        <v>120.55</v>
       </c>
       <c r="H81" s="11">
-        <v>11</v>
+        <v>16.52</v>
       </c>
       <c r="I81" s="3">
-        <v>63.4</v>
+        <v>63.64</v>
       </c>
       <c r="J81" s="5">
         <v>-1.7016448354647633</v>
@@ -4467,9 +5685,24 @@
       <c r="O81" s="8">
         <v>0</v>
       </c>
-      <c r="P81" s="11"/>
-    </row>
-    <row r="82" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="16"/>
+      <c r="W81" s="16"/>
+      <c r="X81" s="16"/>
+      <c r="Y81" s="16"/>
+      <c r="Z81" s="16"/>
+      <c r="AA81" s="16"/>
+      <c r="AB81" s="16"/>
+      <c r="AC81" s="16"/>
+      <c r="AD81" s="16"/>
+      <c r="AE81" s="16"/>
+    </row>
+    <row r="82" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>45658</v>
       </c>
@@ -4477,7 +5710,7 @@
         <v>50807.3</v>
       </c>
       <c r="C82" s="3">
-        <v>1020.1</v>
+        <v>6214.32</v>
       </c>
       <c r="D82" s="8">
         <v>4631838.2</v>
@@ -4489,13 +5722,13 @@
         <v>75.645666666666671</v>
       </c>
       <c r="G82" s="3">
-        <v>120.30333333333333</v>
+        <v>121.32</v>
       </c>
       <c r="H82" s="11">
-        <v>13.333333333333334</v>
+        <v>15.23</v>
       </c>
       <c r="I82" s="3">
-        <v>62.8</v>
+        <v>63.75</v>
       </c>
       <c r="J82" s="5">
         <v>3.1984357153723231</v>
@@ -4515,9 +5748,24 @@
       <c r="O82" s="8">
         <v>0</v>
       </c>
-      <c r="P82" s="11"/>
-    </row>
-    <row r="83" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="16"/>
+      <c r="W82" s="16"/>
+      <c r="X82" s="16"/>
+      <c r="Y82" s="16"/>
+      <c r="Z82" s="16"/>
+      <c r="AA82" s="16"/>
+      <c r="AB82" s="16"/>
+      <c r="AC82" s="16"/>
+      <c r="AD82" s="16"/>
+      <c r="AE82" s="16"/>
+    </row>
+    <row r="83" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>45748</v>
       </c>
@@ -4525,7 +5773,7 @@
         <v>51101.7</v>
       </c>
       <c r="C83" s="3">
-        <v>6644.1988557101904</v>
+        <v>7030.67</v>
       </c>
       <c r="D83" s="8">
         <v>4672609.5999999996</v>
@@ -4537,13 +5785,13 @@
         <v>67.800333333333342</v>
       </c>
       <c r="G83" s="3">
-        <v>123.19999999999999</v>
+        <v>122.18</v>
       </c>
       <c r="H83" s="11">
-        <v>16.333333333333332</v>
+        <v>13.45</v>
       </c>
       <c r="I83" s="3">
-        <v>65.3</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="J83" s="5">
         <v>0.67218381986065479</v>
@@ -4563,9 +5811,24 @@
       <c r="O83" s="8">
         <v>0</v>
       </c>
-      <c r="P83" s="11"/>
-    </row>
-    <row r="84" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="17"/>
+      <c r="T83" s="17"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="16"/>
+      <c r="W83" s="16"/>
+      <c r="X83" s="16"/>
+      <c r="Y83" s="16"/>
+      <c r="Z83" s="16"/>
+      <c r="AA83" s="16"/>
+      <c r="AB83" s="16"/>
+      <c r="AC83" s="16"/>
+      <c r="AD83" s="16"/>
+      <c r="AE83" s="16"/>
+    </row>
+    <row r="84" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4579,8 +5842,11 @@
       <c r="L84"/>
       <c r="N84" s="3"/>
       <c r="O84" s="5"/>
-    </row>
-    <row r="85" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="P84" s="15"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+    </row>
+    <row r="85" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4591,7 +5857,7 @@
       <c r="I85" s="10"/>
       <c r="N85" s="3"/>
     </row>
-    <row r="86" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4602,7 +5868,7 @@
       <c r="I86" s="10"/>
       <c r="N86" s="3"/>
     </row>
-    <row r="87" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4613,7 +5879,7 @@
       <c r="I87" s="10"/>
       <c r="N87" s="3"/>
     </row>
-    <row r="88" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4624,7 +5890,7 @@
       <c r="I88" s="10"/>
       <c r="N88" s="3"/>
     </row>
-    <row r="89" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4635,7 +5901,7 @@
       <c r="I89" s="10"/>
       <c r="N89" s="3"/>
     </row>
-    <row r="90" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4646,7 +5912,7 @@
       <c r="I90" s="10"/>
       <c r="N90" s="3"/>
     </row>
-    <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4657,7 +5923,7 @@
       <c r="I91" s="10"/>
       <c r="N91" s="3"/>
     </row>
-    <row r="92" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4668,7 +5934,7 @@
       <c r="I92" s="10"/>
       <c r="N92" s="3"/>
     </row>
-    <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4679,7 +5945,7 @@
       <c r="I93" s="10"/>
       <c r="N93" s="3"/>
     </row>
-    <row r="94" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -4690,7 +5956,7 @@
       <c r="I94" s="10"/>
       <c r="N94" s="3"/>
     </row>
-    <row r="95" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4701,7 +5967,7 @@
       <c r="I95" s="10"/>
       <c r="N95" s="3"/>
     </row>
-    <row r="96" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Documents/Github_R/Regrassion_GDP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EFE405-692E-F942-AC45-BA9002EC5785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BC9110-736B-4642-9052-A90BD703FDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19360" xr2:uid="{3580B857-6E9C-4522-A1C6-485FA67992EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>DATE</t>
   </si>
@@ -80,14 +80,24 @@
   <si>
     <t>Drebound</t>
   </si>
+  <si>
+    <t>MCI</t>
+  </si>
+  <si>
+    <t>Stock ATH</t>
+  </si>
+  <si>
+    <t>IMPORT GOOD/ser</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="#,##0.##"/>
+    <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -209,7 +219,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -252,6 +262,7 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,10 +583,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AE366"/>
+  <dimension ref="A1:AH366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -583,23 +594,24 @@
     <col min="1" max="1" width="16.5" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="20" style="8" customWidth="1"/>
-    <col min="10" max="11" width="13.1640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="8" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="8" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" style="8" customWidth="1"/>
+    <col min="4" max="5" width="16.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="8" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="20" style="8" customWidth="1"/>
+    <col min="11" max="12" width="13.1640625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="16.5" style="8" customWidth="1"/>
+    <col min="14" max="15" width="16.1640625" style="8" customWidth="1"/>
     <col min="16" max="16" width="20.83203125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" style="8" customWidth="1"/>
-    <col min="18" max="16384" width="8.83203125" style="8"/>
+    <col min="17" max="17" width="13.5" style="8" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="20.83203125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -613,42 +625,48 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="S1" s="2"/>
       <c r="T1" s="14"/>
       <c r="U1" s="14"/>
       <c r="V1" s="14"/>
@@ -661,8 +679,11 @@
       <c r="AC1" s="14"/>
       <c r="AD1" s="14"/>
       <c r="AE1" s="14"/>
-    </row>
-    <row r="2" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+    </row>
+    <row r="2" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>38353</v>
       </c>
@@ -675,47 +696,53 @@
       <c r="D2" s="8">
         <v>2356338.2999999998</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="5">
+        <v>400.03963333333331</v>
+      </c>
+      <c r="F2" s="10">
         <v>83.106999999999999</v>
       </c>
-      <c r="F2" s="9">
+      <c r="G2" s="9">
         <v>47.641474747473332</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>83.71</v>
       </c>
-      <c r="H2" s="11">
+      <c r="I2" s="11">
         <v>17.14</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>59.99</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>1.9248619065223795</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>-21.866666666666664</v>
       </c>
-      <c r="L2" s="11">
+      <c r="M2" s="11">
         <v>-0.73775997003258043</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>3.7666666666666671</v>
       </c>
-      <c r="N2" s="8">
-        <v>0</v>
-      </c>
-      <c r="O2" s="8">
-        <v>0</v>
-      </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="O2" s="5">
+        <v>-4.9666666666666668</v>
+      </c>
+      <c r="P2" s="5">
+        <v>4.5580395222087926</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0</v>
+      </c>
+      <c r="S2" s="18"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
@@ -724,8 +751,11 @@
       <c r="AC2" s="16"/>
       <c r="AD2" s="16"/>
       <c r="AE2" s="16"/>
-    </row>
-    <row r="3" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+    </row>
+    <row r="3" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>38443</v>
       </c>
@@ -738,47 +768,53 @@
       <c r="D3" s="8">
         <v>2380453.2999999998</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="5">
+        <v>399.68336666666664</v>
+      </c>
+      <c r="F3" s="10">
         <v>83.007999999999996</v>
       </c>
-      <c r="F3" s="9">
+      <c r="G3" s="9">
         <v>51.609956709956663</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>84.04</v>
       </c>
-      <c r="H3" s="11">
+      <c r="I3" s="11">
         <v>14.55</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>59.43</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>3.5070465031992142</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>-24.333333333333332</v>
       </c>
-      <c r="L3" s="11">
+      <c r="M3" s="11">
         <v>-0.19198564170647303</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>3.5999999999999996</v>
       </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="O3" s="5">
+        <v>-8.3666666666666671</v>
+      </c>
+      <c r="P3" s="5">
+        <v>-7.6985364030560559</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="16"/>
       <c r="Y3" s="16"/>
       <c r="Z3" s="16"/>
@@ -787,8 +823,11 @@
       <c r="AC3" s="16"/>
       <c r="AD3" s="16"/>
       <c r="AE3" s="16"/>
-    </row>
-    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+    </row>
+    <row r="4" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>38534</v>
       </c>
@@ -801,47 +840,53 @@
       <c r="D4" s="8">
         <v>2413478</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="5">
+        <v>438.04006666666669</v>
+      </c>
+      <c r="F4" s="10">
         <v>83.248000000000005</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
         <v>61.550288600290003</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>84.15</v>
       </c>
-      <c r="H4" s="11">
+      <c r="I4" s="11">
         <v>15</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>59.07</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>7.0081414876309864</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>-27.733333333333331</v>
       </c>
-      <c r="L4" s="11">
+      <c r="M4" s="11">
         <v>1.192834114240922</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>3.41</v>
       </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="O4" s="5">
+        <v>-6.9333333333333327</v>
+      </c>
+      <c r="P4" s="5">
+        <v>-0.94224268088277596</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="18"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
@@ -850,8 +895,11 @@
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
-    </row>
-    <row r="5" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+    </row>
+    <row r="5" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>38626</v>
       </c>
@@ -864,47 +912,53 @@
       <c r="D5" s="8">
         <v>2446409.2999999998</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="5">
+        <v>465.79883333333333</v>
+      </c>
+      <c r="F5" s="10">
         <v>83.703000000000003</v>
       </c>
-      <c r="F5" s="9">
+      <c r="G5" s="9">
         <v>56.934801587300001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>85.49</v>
       </c>
-      <c r="H5" s="11">
+      <c r="I5" s="11">
         <v>16.02</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>60.02</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>6.5650656320045835</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>-34.233333333333334</v>
       </c>
-      <c r="L5" s="11">
+      <c r="M5" s="11">
         <v>-0.91325168755096142</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>3.563333333333333</v>
       </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="O5" s="5">
+        <v>-2.3333333333333335</v>
+      </c>
+      <c r="P5" s="5">
+        <v>5.343533077901637</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0</v>
+      </c>
+      <c r="S5" s="18"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
@@ -913,8 +967,11 @@
       <c r="AC5" s="16"/>
       <c r="AD5" s="16"/>
       <c r="AE5" s="16"/>
-    </row>
-    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+    </row>
+    <row r="6" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>38718</v>
       </c>
@@ -927,47 +984,53 @@
       <c r="D6" s="8">
         <v>2481974.7000000002</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="5">
+        <v>544.81190000000004</v>
+      </c>
+      <c r="F6" s="10">
         <v>85.477000000000004</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G6" s="9">
         <v>61.916776397516664</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>86.35</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="11">
         <v>14.85</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>60.9</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>7.5280263205775784</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>-28.533333333333331</v>
       </c>
-      <c r="L6" s="11">
+      <c r="M6" s="11">
         <v>1.5590381083053757</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>3.7733333333333334</v>
       </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="O6" s="5">
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="P6" s="5">
+        <v>3.3778949562554619</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0</v>
+      </c>
+      <c r="S6" s="18"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
@@ -976,8 +1039,11 @@
       <c r="AC6" s="16"/>
       <c r="AD6" s="16"/>
       <c r="AE6" s="16"/>
-    </row>
-    <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+    </row>
+    <row r="7" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>38808</v>
       </c>
@@ -990,47 +1056,53 @@
       <c r="D7" s="8">
         <v>2525498.4</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="5">
+        <v>530.09526666666659</v>
+      </c>
+      <c r="F7" s="10">
         <v>87.918000000000006</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <v>69.829035087720001</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>86.92</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="11">
         <v>11.8</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>60.23</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>10.195677857326267</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>-27.066666666666663</v>
       </c>
-      <c r="L7" s="11">
+      <c r="M7" s="11">
         <v>-0.5887718042761283</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>4.28</v>
       </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="O7" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="P7" s="5">
+        <v>15.76589270075681</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="18"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
@@ -1039,8 +1111,11 @@
       <c r="AC7" s="16"/>
       <c r="AD7" s="16"/>
       <c r="AE7" s="16"/>
-    </row>
-    <row r="8" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+    </row>
+    <row r="8" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>38899</v>
       </c>
@@ -1053,47 +1128,53 @@
       <c r="D8" s="8">
         <v>2556118.1</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="5">
+        <v>514.31883333333337</v>
+      </c>
+      <c r="F8" s="10">
         <v>89.328000000000003</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <v>70.093740510693337</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>87.1</v>
       </c>
-      <c r="H8" s="11">
+      <c r="I8" s="11">
         <v>11.52</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>60.35</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>9.9009683737463057</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>-26.633333333333336</v>
       </c>
-      <c r="L8" s="11">
+      <c r="M8" s="11">
         <v>-0.78878743245589156</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>4.1933333333333325</v>
       </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
+      <c r="O8" s="5">
+        <v>4.2666666666666666</v>
+      </c>
+      <c r="P8" s="5">
+        <v>10.351803637464521</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="18"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
@@ -1102,8 +1183,11 @@
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
       <c r="AE8" s="16"/>
-    </row>
-    <row r="9" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+    </row>
+    <row r="9" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>38991</v>
       </c>
@@ -1116,47 +1200,53 @@
       <c r="D9" s="8">
         <v>2603872.1</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="5">
+        <v>568.41993333333335</v>
+      </c>
+      <c r="F9" s="10">
         <v>88.421999999999997</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G9" s="9">
         <v>59.725972886763337</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>88.2</v>
       </c>
-      <c r="H9" s="11">
+      <c r="I9" s="11">
         <v>13.01</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>60.72</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>8.2985801360080416</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>-26.966666666666665</v>
       </c>
-      <c r="L9" s="11">
+      <c r="M9" s="11">
         <v>0.68505926437646025</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>4.0333333333333341</v>
       </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
+      <c r="O9" s="5">
+        <v>3.7666666666666671</v>
+      </c>
+      <c r="P9" s="5">
+        <v>9.9680268000062302</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="18"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
@@ -1165,8 +1255,11 @@
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
       <c r="AE9" s="16"/>
-    </row>
-    <row r="10" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+    </row>
+    <row r="10" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>39083</v>
       </c>
@@ -1179,47 +1272,53 @@
       <c r="D10" s="8">
         <v>2649569.4</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="5">
+        <v>623.91679999999997</v>
+      </c>
+      <c r="F10" s="10">
         <v>92.24</v>
       </c>
-      <c r="F10" s="9">
+      <c r="G10" s="9">
         <v>58.066575757576665</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>88.9</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I10" s="11">
         <v>12.19</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>61.11</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>6.6165913364427453</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>-24.833333333333332</v>
       </c>
-      <c r="L10" s="11">
+      <c r="M10" s="11">
         <v>-1.9501731862862451E-4</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>4.2600000000000007</v>
       </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
+      <c r="O10" s="5">
+        <v>4.0333333333333332</v>
+      </c>
+      <c r="P10" s="5">
+        <v>16.2898626721793</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+      <c r="S10" s="18"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
@@ -1228,8 +1327,11 @@
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
       <c r="AE10" s="16"/>
-    </row>
-    <row r="11" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+    </row>
+    <row r="11" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>39173</v>
       </c>
@@ -1242,47 +1344,53 @@
       <c r="D11" s="8">
         <v>2682738.1</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="5">
+        <v>651.89313333333337</v>
+      </c>
+      <c r="F11" s="10">
         <v>92.816000000000003</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G11" s="9">
         <v>68.730232828446674</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>89.18</v>
       </c>
-      <c r="H11" s="11">
+      <c r="I11" s="11">
         <v>10.16</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>60.63</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>2.8818305417927195</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <v>-25.466666666666669</v>
       </c>
-      <c r="L11" s="11">
+      <c r="M11" s="11">
         <v>0.71383169521439682</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>4.57</v>
       </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
+      <c r="O11" s="5">
+        <v>6.4666666666666677</v>
+      </c>
+      <c r="P11" s="5">
+        <v>3.5492807388452161</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>0</v>
+      </c>
+      <c r="S11" s="18"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
@@ -1291,8 +1399,11 @@
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
       <c r="AE11" s="16"/>
-    </row>
-    <row r="12" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+    </row>
+    <row r="12" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>39264</v>
       </c>
@@ -1305,47 +1416,53 @@
       <c r="D12" s="8">
         <v>2710938.8</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="5">
+        <v>661.8803333333334</v>
+      </c>
+      <c r="F12" s="10">
         <v>95.6</v>
       </c>
-      <c r="F12" s="9">
+      <c r="G12" s="9">
         <v>75.042537549406674</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>89.54</v>
       </c>
-      <c r="H12" s="11">
+      <c r="I12" s="11">
         <v>11.78</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>60.55</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>-0.49685605827472451</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>-23.866666666666671</v>
       </c>
-      <c r="L12" s="11">
+      <c r="M12" s="11">
         <v>-0.30034869756010396</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>4.6566666666666663</v>
       </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
+      <c r="O12" s="5">
+        <v>5.2666666666666666</v>
+      </c>
+      <c r="P12" s="5">
+        <v>15.025295445643451</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="18"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
@@ -1354,8 +1471,11 @@
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
-    </row>
-    <row r="13" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+    </row>
+    <row r="13" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>39356</v>
       </c>
@@ -1368,47 +1488,53 @@
       <c r="D13" s="8">
         <v>2751016.7</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="5">
+        <v>693.59886666666671</v>
+      </c>
+      <c r="F13" s="10">
         <v>102.46299999999999</v>
       </c>
-      <c r="F13" s="9">
+      <c r="G13" s="9">
         <v>88.945335968379993</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>91.37</v>
       </c>
-      <c r="H13" s="11">
+      <c r="I13" s="11">
         <v>12.01</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>61.23</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <v>0.61720216023487595</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>-25.633333333333336</v>
       </c>
-      <c r="L13" s="11">
+      <c r="M13" s="11">
         <v>-7.30294149308479E-2</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>4.5133333333333328</v>
       </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
+      <c r="O13" s="5">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="P13" s="5">
+        <v>17.05809712118845</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
+      <c r="S13" s="18"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
@@ -1417,8 +1543,11 @@
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
-    </row>
-    <row r="14" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+    </row>
+    <row r="14" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>39448</v>
       </c>
@@ -1431,47 +1560,53 @@
       <c r="D14" s="8">
         <v>2785158.7</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="5">
+        <v>583.60816666666676</v>
+      </c>
+      <c r="F14" s="10">
         <v>102.688</v>
       </c>
-      <c r="F14" s="9">
+      <c r="G14" s="9">
         <v>96.671540404040002</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>92.7</v>
       </c>
-      <c r="H14" s="11">
+      <c r="I14" s="11">
         <v>11.04</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>61.72</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <v>5.0652724995853147</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>-29.233333333333331</v>
       </c>
-      <c r="L14" s="11">
+      <c r="M14" s="11">
         <v>-1.4042505984193532</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>4.3933333333333335</v>
       </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
+      <c r="O14" s="5">
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="P14" s="5">
+        <v>3.5947930805567552</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>0</v>
+      </c>
+      <c r="S14" s="18"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
@@ -1480,8 +1615,11 @@
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
-    </row>
-    <row r="15" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+    </row>
+    <row r="15" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>39539</v>
       </c>
@@ -1494,47 +1632,53 @@
       <c r="D15" s="8">
         <v>2801520</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="5">
+        <v>541.79253333333338</v>
+      </c>
+      <c r="F15" s="10">
         <v>103.261</v>
       </c>
-      <c r="F15" s="9">
+      <c r="G15" s="9">
         <v>122.39082972583</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>93.43</v>
       </c>
-      <c r="H15" s="11">
+      <c r="I15" s="11">
         <v>10.16</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>61.42</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K15" s="5">
         <v>4.4916178343017554</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <v>-37.466666666666669</v>
       </c>
-      <c r="L15" s="11">
+      <c r="M15" s="11">
         <v>1.7213579177417264</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>4.8166666666666673</v>
       </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <v>0</v>
-      </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
+      <c r="O15" s="5">
+        <v>-1.1666666666666667</v>
+      </c>
+      <c r="P15" s="5">
+        <v>14.51946756064493</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0</v>
+      </c>
+      <c r="S15" s="18"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
@@ -1543,8 +1687,11 @@
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
-    </row>
-    <row r="16" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+    </row>
+    <row r="16" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>39630</v>
       </c>
@@ -1557,47 +1704,53 @@
       <c r="D16" s="8">
         <v>2803978.5</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="5">
+        <v>440.62076666666667</v>
+      </c>
+      <c r="F16" s="10">
         <v>100.626</v>
       </c>
-      <c r="F16" s="9">
+      <c r="G16" s="9">
         <v>115.59539400213333</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>93.87</v>
       </c>
-      <c r="H16" s="11">
+      <c r="I16" s="11">
         <v>8.57</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>61.05</v>
       </c>
-      <c r="J16" s="5">
+      <c r="K16" s="5">
         <v>-2.4297425590120172</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <v>-39.533333333333339</v>
       </c>
-      <c r="L16" s="11">
+      <c r="M16" s="11">
         <v>-1.5767515739417697</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>4.9666666666666659</v>
       </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0</v>
-      </c>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
+      <c r="O16" s="5">
+        <v>-4.6000000000000005</v>
+      </c>
+      <c r="P16" s="5">
+        <v>4.2252272669716833</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0</v>
+      </c>
+      <c r="S16" s="18"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
@@ -1606,8 +1759,11 @@
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="16"/>
-    </row>
-    <row r="17" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+    </row>
+    <row r="17" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>39722</v>
       </c>
@@ -1620,47 +1776,53 @@
       <c r="D17" s="8">
         <v>2742042.2</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="5">
+        <v>272.85070000000002</v>
+      </c>
+      <c r="F17" s="10">
         <v>93.873000000000005</v>
       </c>
-      <c r="F17" s="9">
+      <c r="G17" s="9">
         <v>55.888172595519997</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>94.18</v>
       </c>
-      <c r="H17" s="11">
+      <c r="I17" s="11">
         <v>10.51</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>61.53</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K17" s="5">
         <v>-1.2057654376354343</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <v>-48.5</v>
       </c>
-      <c r="L17" s="11">
+      <c r="M17" s="11">
         <v>-1.7583398755939481</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>5.0333333333333332</v>
       </c>
-      <c r="N17" s="8">
-        <v>0</v>
-      </c>
-      <c r="O17" s="8">
-        <v>0</v>
-      </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
+      <c r="O17" s="5">
+        <v>-19.8</v>
+      </c>
+      <c r="P17" s="5">
+        <v>-8.1292222044847087</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0</v>
+      </c>
+      <c r="S17" s="18"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
@@ -1669,8 +1831,11 @@
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
       <c r="AE17" s="16"/>
-    </row>
-    <row r="18" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+    </row>
+    <row r="18" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>39814</v>
       </c>
@@ -1683,47 +1848,53 @@
       <c r="D18" s="8">
         <v>2641341.2999999998</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="5">
+        <v>226.18579999999997</v>
+      </c>
+      <c r="F18" s="10">
         <v>86.546000000000006</v>
       </c>
-      <c r="F18" s="9">
+      <c r="G18" s="9">
         <v>44.980530303030001</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>94.35</v>
       </c>
-      <c r="H18" s="11">
+      <c r="I18" s="11">
         <v>8.76</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>61.51</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>-14.520129320101105</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>-40.966666666666669</v>
       </c>
-      <c r="L18" s="11">
+      <c r="M18" s="11">
         <v>-1.0256399232721072</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>5.7233333333333336</v>
       </c>
-      <c r="N18" s="8">
-        <v>0</v>
-      </c>
-      <c r="O18" s="8">
-        <v>0</v>
-      </c>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
+      <c r="O18" s="5">
+        <v>-34.199999999999996</v>
+      </c>
+      <c r="P18" s="5">
+        <v>-20.664135247230661</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+      <c r="S18" s="18"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
@@ -1732,8 +1903,11 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="16"/>
-    </row>
-    <row r="19" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+    </row>
+    <row r="19" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>39904</v>
       </c>
@@ -1746,47 +1920,53 @@
       <c r="D19" s="8">
         <v>2646829.7999999998</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="5">
+        <v>286.84989999999999</v>
+      </c>
+      <c r="F19" s="10">
         <v>82.778000000000006</v>
       </c>
-      <c r="F19" s="9">
+      <c r="G19" s="9">
         <v>59.13433621933666</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>94.22</v>
       </c>
-      <c r="H19" s="11">
+      <c r="I19" s="11">
         <v>7.96</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>60.82</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K19" s="5">
         <v>-14.189532899399451</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <v>-36.5</v>
       </c>
-      <c r="L19" s="11">
+      <c r="M19" s="11">
         <v>-0.51116077137761884</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>5.3499999999999988</v>
       </c>
-      <c r="N19" s="8">
-        <v>0</v>
-      </c>
-      <c r="O19" s="8">
-        <v>0</v>
-      </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
+      <c r="O19" s="5">
+        <v>-28.600000000000005</v>
+      </c>
+      <c r="P19" s="5">
+        <v>-23.34131638593372</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0</v>
+      </c>
+      <c r="S19" s="18"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
@@ -1795,8 +1975,11 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="16"/>
-    </row>
-    <row r="20" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+    </row>
+    <row r="20" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>39995</v>
       </c>
@@ -1809,47 +1992,53 @@
       <c r="D20" s="8">
         <v>2669703.2000000002</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="5">
+        <v>323.77483333333333</v>
+      </c>
+      <c r="F20" s="10">
         <v>82.094999999999999</v>
       </c>
-      <c r="F20" s="9">
+      <c r="G20" s="9">
         <v>68.367193362193333</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>94.62</v>
       </c>
-      <c r="H20" s="11">
+      <c r="I20" s="11">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>60.55</v>
       </c>
-      <c r="J20" s="5">
+      <c r="K20" s="5">
         <v>-8.3752060912149009</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <v>-35</v>
       </c>
-      <c r="L20" s="11">
+      <c r="M20" s="11">
         <v>8.6249471352584983E-2</v>
       </c>
-      <c r="M20" s="5">
+      <c r="N20" s="5">
         <v>4.6566666666666663</v>
       </c>
-      <c r="N20" s="8">
-        <v>0</v>
-      </c>
-      <c r="O20" s="8">
-        <v>0</v>
-      </c>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
+      <c r="O20" s="5">
+        <v>-21.566666666666663</v>
+      </c>
+      <c r="P20" s="5">
+        <v>-20.641036085175131</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+      <c r="S20" s="18"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
@@ -1858,8 +2047,11 @@
       <c r="AC20" s="16"/>
       <c r="AD20" s="16"/>
       <c r="AE20" s="16"/>
-    </row>
-    <row r="21" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+    </row>
+    <row r="21" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>40087</v>
       </c>
@@ -1872,47 +2064,53 @@
       <c r="D21" s="8">
         <v>2692020.8</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="5">
+        <v>338.35546666666664</v>
+      </c>
+      <c r="F21" s="10">
         <v>79.882000000000005</v>
       </c>
-      <c r="F21" s="9">
+      <c r="G21" s="9">
         <v>74.966767676770004</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>96.03</v>
       </c>
-      <c r="H21" s="11">
+      <c r="I21" s="11">
         <v>10.01</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>60.52</v>
       </c>
-      <c r="J21" s="5">
+      <c r="K21" s="5">
         <v>-8.2368466166767806</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
         <v>-29.3</v>
       </c>
-      <c r="L21" s="11">
+      <c r="M21" s="11">
         <v>-0.79358764095720524</v>
       </c>
-      <c r="M21" s="5">
+      <c r="N21" s="5">
         <v>4.9666666666666668</v>
       </c>
-      <c r="N21" s="8">
-        <v>0</v>
-      </c>
-      <c r="O21" s="8">
-        <v>0</v>
-      </c>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
+      <c r="O21" s="5">
+        <v>-21.466666666666669</v>
+      </c>
+      <c r="P21" s="5">
+        <v>-13.31661748078294</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0</v>
+      </c>
+      <c r="S21" s="18"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
@@ -1921,8 +2119,11 @@
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="16"/>
-    </row>
-    <row r="22" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
+    </row>
+    <row r="22" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>40179</v>
       </c>
@@ -1935,47 +2136,53 @@
       <c r="D22" s="8">
         <v>2712271.4</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="5">
+        <v>276.61500000000001</v>
+      </c>
+      <c r="F22" s="10">
         <v>84.873000000000005</v>
       </c>
-      <c r="F22" s="9">
+      <c r="G22" s="9">
         <v>76.653260869566665</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>97.22</v>
       </c>
-      <c r="H22" s="11">
+      <c r="I22" s="11">
         <v>12.95</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>60.5</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K22" s="5">
         <v>5.2224436042250693</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <v>-45.300000000000004</v>
       </c>
-      <c r="L22" s="11">
+      <c r="M22" s="11">
         <v>-0.59686859583268548</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N22" s="5">
         <v>6.2399999999999993</v>
       </c>
-      <c r="N22" s="8">
-        <v>0</v>
-      </c>
-      <c r="O22" s="8">
-        <v>0</v>
-      </c>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
+      <c r="O22" s="5">
+        <v>-24.433333333333337</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.92072947979422981</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
+      <c r="S22" s="18"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
@@ -1984,8 +2191,11 @@
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
       <c r="AE22" s="16"/>
-    </row>
-    <row r="23" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF22" s="16"/>
+      <c r="AG22" s="16"/>
+      <c r="AH22" s="16"/>
+    </row>
+    <row r="23" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>40269</v>
       </c>
@@ -1998,47 +2208,53 @@
       <c r="D23" s="8">
         <v>2747893.6</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="5">
+        <v>229.43896666666669</v>
+      </c>
+      <c r="F23" s="10">
         <v>86.335999999999999</v>
       </c>
-      <c r="F23" s="9">
+      <c r="G23" s="9">
         <v>78.689235209233331</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>99.01</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>15.65</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>59.33</v>
       </c>
-      <c r="J23" s="5">
+      <c r="K23" s="5">
         <v>-5.5640734719777463</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="5">
         <v>-60.1</v>
       </c>
-      <c r="L23" s="11">
+      <c r="M23" s="11">
         <v>-0.55406273382459503</v>
       </c>
-      <c r="M23" s="5">
+      <c r="N23" s="5">
         <v>8.2999999999999989</v>
       </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8">
-        <v>0</v>
-      </c>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
+      <c r="O23" s="5">
+        <v>-23.566666666666663</v>
+      </c>
+      <c r="P23" s="5">
+        <v>-2.9331941957833418</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+      <c r="S23" s="18"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
@@ -2047,8 +2263,11 @@
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
       <c r="AE23" s="16"/>
-    </row>
-    <row r="24" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+    </row>
+    <row r="24" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>40360</v>
       </c>
@@ -2061,47 +2280,53 @@
       <c r="D24" s="8">
         <v>2775611.3</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="5">
+        <v>214.74026666666666</v>
+      </c>
+      <c r="F24" s="10">
         <v>84.918000000000006</v>
       </c>
-      <c r="F24" s="9">
+      <c r="G24" s="9">
         <v>76.405151515149996</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>99.93</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>8.0299999999999994</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>58.58</v>
       </c>
-      <c r="J24" s="5">
+      <c r="K24" s="5">
         <v>-11.114280902113128</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5">
         <v>-60.199999999999996</v>
       </c>
-      <c r="L24" s="11">
+      <c r="M24" s="11">
         <v>-1.9931790907010718</v>
       </c>
-      <c r="M24" s="5">
+      <c r="N24" s="5">
         <v>10.793333333333331</v>
       </c>
-      <c r="N24" s="8">
-        <v>0</v>
-      </c>
-      <c r="O24" s="8">
-        <v>0</v>
-      </c>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
+      <c r="O24" s="5">
+        <v>-21.099999999999998</v>
+      </c>
+      <c r="P24" s="5">
+        <v>-9.3610163154400645</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>0</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0</v>
+      </c>
+      <c r="S24" s="18"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
       <c r="Z24" s="16"/>
@@ -2110,8 +2335,11 @@
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
       <c r="AE24" s="16"/>
-    </row>
-    <row r="25" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+    </row>
+    <row r="25" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>40452</v>
       </c>
@@ -2124,47 +2352,53 @@
       <c r="D25" s="8">
         <v>2801450.8</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="5">
+        <v>203.2628</v>
+      </c>
+      <c r="F25" s="10">
         <v>90.337999999999994</v>
       </c>
-      <c r="F25" s="9">
+      <c r="G25" s="9">
         <v>86.794872325743327</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>100.89</v>
       </c>
-      <c r="H25" s="11">
+      <c r="I25" s="11">
         <v>8.51</v>
       </c>
-      <c r="I25" s="3">
+      <c r="J25" s="3">
         <v>58.01</v>
       </c>
-      <c r="J25" s="5">
+      <c r="K25" s="5">
         <v>-12.130783096198973</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <v>-65.899999999999991</v>
       </c>
-      <c r="L25" s="11">
+      <c r="M25" s="11">
         <v>1.9196749896078236</v>
       </c>
-      <c r="M25" s="5">
+      <c r="N25" s="5">
         <v>11.033333333333333</v>
       </c>
-      <c r="N25" s="8">
-        <v>0</v>
-      </c>
-      <c r="O25" s="8">
-        <v>0</v>
-      </c>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
+      <c r="O25" s="5">
+        <v>-21.7</v>
+      </c>
+      <c r="P25" s="5">
+        <v>-5.4475271072652047</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>0</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0</v>
+      </c>
+      <c r="S25" s="18"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="16"/>
@@ -2173,8 +2407,11 @@
       <c r="AC25" s="16"/>
       <c r="AD25" s="16"/>
       <c r="AE25" s="16"/>
-    </row>
-    <row r="26" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+    </row>
+    <row r="26" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>40544</v>
       </c>
@@ -2187,47 +2424,53 @@
       <c r="D26" s="8">
         <v>2845988.5</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="5">
+        <v>211.80109999999999</v>
+      </c>
+      <c r="F26" s="10">
         <v>86.296000000000006</v>
       </c>
-      <c r="F26" s="9">
+      <c r="G26" s="9">
         <v>104.89703002070667</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>101.55</v>
       </c>
-      <c r="H26" s="11">
+      <c r="I26" s="11">
         <v>10.66</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>57.25</v>
       </c>
-      <c r="J26" s="5">
+      <c r="K26" s="5">
         <v>-14.794613910025026</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L26" s="5">
         <v>-64.86666666666666</v>
       </c>
-      <c r="L26" s="11">
+      <c r="M26" s="11">
         <v>-1.0393872832222939</v>
       </c>
-      <c r="M26" s="5">
+      <c r="N26" s="5">
         <v>11.856666666666667</v>
       </c>
-      <c r="N26" s="8">
-        <v>0</v>
-      </c>
-      <c r="O26" s="8">
-        <v>0</v>
-      </c>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
+      <c r="O26" s="5">
+        <v>-19.766666666666666</v>
+      </c>
+      <c r="P26" s="5">
+        <v>-9.5781894445765836</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>0</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0</v>
+      </c>
+      <c r="S26" s="18"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="16"/>
@@ -2236,8 +2479,11 @@
       <c r="AC26" s="16"/>
       <c r="AD26" s="16"/>
       <c r="AE26" s="16"/>
-    </row>
-    <row r="27" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+    </row>
+    <row r="27" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>40634</v>
       </c>
@@ -2250,47 +2496,53 @@
       <c r="D27" s="8">
         <v>2852764.2</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="5">
+        <v>183.15733333333333</v>
+      </c>
+      <c r="F27" s="10">
         <v>87.831000000000003</v>
       </c>
-      <c r="F27" s="9">
+      <c r="G27" s="9">
         <v>117.09530303030333</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>102.28</v>
       </c>
-      <c r="H27" s="11">
+      <c r="I27" s="11">
         <v>12.9</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>55.66</v>
       </c>
-      <c r="J27" s="5">
+      <c r="K27" s="5">
         <v>-10.234689528431298</v>
       </c>
-      <c r="K27" s="5">
+      <c r="L27" s="5">
         <v>-67.399999999999991</v>
       </c>
-      <c r="L27" s="11">
+      <c r="M27" s="11">
         <v>-2.1873605828584051</v>
       </c>
-      <c r="M27" s="5">
+      <c r="N27" s="5">
         <v>15.496666666666664</v>
       </c>
-      <c r="N27" s="8">
-        <v>0</v>
-      </c>
-      <c r="O27" s="8">
-        <v>0</v>
-      </c>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
+      <c r="O27" s="5">
+        <v>-22.866666666666664</v>
+      </c>
+      <c r="P27" s="5">
+        <v>-7.6292183686037216</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0</v>
+      </c>
+      <c r="S27" s="18"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
       <c r="X27" s="16"/>
       <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
@@ -2299,8 +2551,11 @@
       <c r="AC27" s="16"/>
       <c r="AD27" s="16"/>
       <c r="AE27" s="16"/>
-    </row>
-    <row r="28" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+    </row>
+    <row r="28" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>40725</v>
       </c>
@@ -2313,47 +2568,53 @@
       <c r="D28" s="8">
         <v>2856616.2</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="5">
+        <v>138.48496666666668</v>
+      </c>
+      <c r="F28" s="10">
         <v>89.034000000000006</v>
       </c>
-      <c r="F28" s="9">
+      <c r="G28" s="9">
         <v>112.47346508563999</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <v>102.07</v>
       </c>
-      <c r="H28" s="11">
+      <c r="I28" s="11">
         <v>12.86</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <v>54.33</v>
       </c>
-      <c r="J28" s="5">
+      <c r="K28" s="5">
         <v>-5.2552572842338137</v>
       </c>
-      <c r="K28" s="5">
+      <c r="L28" s="5">
         <v>-68.466666666666654</v>
       </c>
-      <c r="L28" s="11">
+      <c r="M28" s="11">
         <v>2.5747365793093602</v>
       </c>
-      <c r="M28" s="5">
+      <c r="N28" s="5">
         <v>16.61</v>
       </c>
-      <c r="N28" s="8">
-        <v>0</v>
-      </c>
-      <c r="O28" s="8">
-        <v>0</v>
-      </c>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
+      <c r="O28" s="5">
+        <v>-19.133333333333333</v>
+      </c>
+      <c r="P28" s="5">
+        <v>-6.0983168512675219</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0</v>
+      </c>
+      <c r="S28" s="18"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
       <c r="X28" s="16"/>
       <c r="Y28" s="16"/>
       <c r="Z28" s="16"/>
@@ -2362,8 +2623,11 @@
       <c r="AC28" s="16"/>
       <c r="AD28" s="16"/>
       <c r="AE28" s="16"/>
-    </row>
-    <row r="29" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF28" s="16"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="16"/>
+    </row>
+    <row r="29" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>40817</v>
       </c>
@@ -2376,47 +2640,53 @@
       <c r="D29" s="8">
         <v>2847827.2</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="5">
+        <v>96.874710000000007</v>
+      </c>
+      <c r="F29" s="10">
         <v>85.216999999999999</v>
       </c>
-      <c r="F29" s="9">
+      <c r="G29" s="9">
         <v>109.29390331890333</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>103.53</v>
       </c>
-      <c r="H29" s="11">
+      <c r="I29" s="11">
         <v>21.02</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>53.2</v>
       </c>
-      <c r="J29" s="5">
+      <c r="K29" s="5">
         <v>-9.9368958276828483</v>
       </c>
-      <c r="K29" s="5">
+      <c r="L29" s="5">
         <v>-78.533333333333331</v>
       </c>
-      <c r="L29" s="11">
+      <c r="M29" s="11">
         <v>-3.3202200547679723</v>
       </c>
-      <c r="M29" s="5">
+      <c r="N29" s="5">
         <v>19.033333333333335</v>
       </c>
-      <c r="N29" s="8">
-        <v>0</v>
-      </c>
-      <c r="O29" s="8">
-        <v>0</v>
-      </c>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
+      <c r="O29" s="5">
+        <v>-24.066666666666666</v>
+      </c>
+      <c r="P29" s="5">
+        <v>-15.73743272375849</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>0</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0</v>
+      </c>
+      <c r="S29" s="18"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
       <c r="X29" s="16"/>
       <c r="Y29" s="16"/>
       <c r="Z29" s="16"/>
@@ -2425,8 +2695,11 @@
       <c r="AC29" s="16"/>
       <c r="AD29" s="16"/>
       <c r="AE29" s="16"/>
-    </row>
-    <row r="30" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+    </row>
+    <row r="30" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>40909</v>
       </c>
@@ -2439,47 +2712,53 @@
       <c r="D30" s="8">
         <v>2860406.7</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="5">
+        <v>100.20524999999999</v>
+      </c>
+      <c r="F30" s="10">
         <v>89.397000000000006</v>
       </c>
-      <c r="F30" s="9">
+      <c r="G30" s="9">
         <v>118.59573593073667</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>103.27</v>
       </c>
-      <c r="H30" s="11">
+      <c r="I30" s="11">
         <v>17.52</v>
       </c>
-      <c r="I30" s="3">
+      <c r="J30" s="3">
         <v>52.58</v>
       </c>
-      <c r="J30" s="5">
+      <c r="K30" s="5">
         <v>-12.708178962824661</v>
       </c>
-      <c r="K30" s="5">
+      <c r="L30" s="5">
         <v>-77.933333333333337</v>
       </c>
-      <c r="L30" s="11">
+      <c r="M30" s="11">
         <v>0.62476610594101489</v>
       </c>
-      <c r="M30" s="5">
+      <c r="N30" s="5">
         <v>24.736666666666665</v>
       </c>
-      <c r="N30" s="8">
-        <v>0</v>
-      </c>
-      <c r="O30" s="8">
-        <v>0</v>
-      </c>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
+      <c r="O30" s="5">
+        <v>-26.233333333333331</v>
+      </c>
+      <c r="P30" s="5">
+        <v>-7.5452017236198401</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+      <c r="S30" s="18"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
       <c r="X30" s="16"/>
       <c r="Y30" s="16"/>
       <c r="Z30" s="16"/>
@@ -2488,8 +2767,11 @@
       <c r="AC30" s="16"/>
       <c r="AD30" s="16"/>
       <c r="AE30" s="16"/>
-    </row>
-    <row r="31" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
+    </row>
+    <row r="31" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>41000</v>
       </c>
@@ -2502,47 +2784,53 @@
       <c r="D31" s="8">
         <v>2859998.6</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="5">
+        <v>82.721473333333321</v>
+      </c>
+      <c r="F31" s="10">
         <v>87.048000000000002</v>
       </c>
-      <c r="F31" s="9">
+      <c r="G31" s="9">
         <v>108.85809558316333</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <v>103.45</v>
       </c>
-      <c r="H31" s="11">
+      <c r="I31" s="11">
         <v>23.61</v>
       </c>
-      <c r="I31" s="3">
+      <c r="J31" s="3">
         <v>50.89</v>
       </c>
-      <c r="J31" s="5">
+      <c r="K31" s="5">
         <v>-11.596968148955751</v>
       </c>
-      <c r="K31" s="5">
+      <c r="L31" s="5">
         <v>-74.266666666666666</v>
       </c>
-      <c r="L31" s="11">
+      <c r="M31" s="11">
         <v>0.41650335041408948</v>
       </c>
-      <c r="M31" s="5">
+      <c r="N31" s="5">
         <v>25.399999999999995</v>
       </c>
-      <c r="N31" s="8">
-        <v>0</v>
-      </c>
-      <c r="O31" s="8">
-        <v>0</v>
-      </c>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
+      <c r="O31" s="5">
+        <v>-22.8</v>
+      </c>
+      <c r="P31" s="5">
+        <v>-7.7734426522013358</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>0</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0</v>
+      </c>
+      <c r="S31" s="18"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
       <c r="X31" s="16"/>
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
@@ -2551,8 +2839,11 @@
       <c r="AC31" s="16"/>
       <c r="AD31" s="16"/>
       <c r="AE31" s="16"/>
-    </row>
-    <row r="32" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="16"/>
+    </row>
+    <row r="32" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>41091</v>
       </c>
@@ -2565,47 +2856,53 @@
       <c r="D32" s="8">
         <v>2877730.6</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="5">
+        <v>88.584076666666661</v>
+      </c>
+      <c r="F32" s="10">
         <v>86.858999999999995</v>
       </c>
-      <c r="F32" s="9">
+      <c r="G32" s="9">
         <v>109.95446969697001</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>102.86</v>
       </c>
-      <c r="H32" s="11">
+      <c r="I32" s="11">
         <v>11.25</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>49.88</v>
       </c>
-      <c r="J32" s="5">
+      <c r="K32" s="5">
         <v>-11.055551063006808</v>
       </c>
-      <c r="K32" s="5">
+      <c r="L32" s="5">
         <v>-67.599999999999994</v>
       </c>
-      <c r="L32" s="11">
+      <c r="M32" s="11">
         <v>0.24976440085827833</v>
       </c>
-      <c r="M32" s="5">
+      <c r="N32" s="5">
         <v>23.689999999999998</v>
       </c>
-      <c r="N32" s="8">
-        <v>0</v>
-      </c>
-      <c r="O32" s="8">
-        <v>0</v>
-      </c>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
+      <c r="O32" s="5">
+        <v>-21.166666666666668</v>
+      </c>
+      <c r="P32" s="5">
+        <v>-9.4974835538604712</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>0</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0</v>
+      </c>
+      <c r="S32" s="18"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
       <c r="X32" s="16"/>
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
@@ -2614,8 +2911,11 @@
       <c r="AC32" s="16"/>
       <c r="AD32" s="16"/>
       <c r="AE32" s="16"/>
-    </row>
-    <row r="33" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
+    </row>
+    <row r="33" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>41183</v>
       </c>
@@ -2628,47 +2928,53 @@
       <c r="D33" s="8">
         <v>2870431.6</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="5">
+        <v>113.06046666666667</v>
+      </c>
+      <c r="F33" s="10">
         <v>92.179000000000002</v>
       </c>
-      <c r="F33" s="9">
+      <c r="G33" s="9">
         <v>110.45393214756332</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>104.11</v>
       </c>
-      <c r="H33" s="11">
+      <c r="I33" s="11">
         <v>13.52</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>49.88</v>
       </c>
-      <c r="J33" s="5">
+      <c r="K33" s="5">
         <v>-13.911019898868803</v>
       </c>
-      <c r="K33" s="5">
+      <c r="L33" s="5">
         <v>-75.233333333333334</v>
       </c>
-      <c r="L33" s="11">
+      <c r="M33" s="11">
         <v>-0.98969811056696155</v>
       </c>
-      <c r="M33" s="5">
+      <c r="N33" s="5">
         <v>16.16333333333333</v>
       </c>
-      <c r="N33" s="8">
-        <v>0</v>
-      </c>
-      <c r="O33" s="8">
-        <v>0</v>
-      </c>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
+      <c r="O33" s="5">
+        <v>-14.666666666666666</v>
+      </c>
+      <c r="P33" s="5">
+        <v>3.64165219581229</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>0</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0</v>
+      </c>
+      <c r="S33" s="18"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
       <c r="X33" s="16"/>
       <c r="Y33" s="16"/>
       <c r="Z33" s="16"/>
@@ -2677,8 +2983,11 @@
       <c r="AC33" s="16"/>
       <c r="AD33" s="16"/>
       <c r="AE33" s="16"/>
-    </row>
-    <row r="34" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+    </row>
+    <row r="34" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>41275</v>
       </c>
@@ -2691,47 +3000,53 @@
       <c r="D34" s="8">
         <v>2874772.3</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="5">
+        <v>131.84093333333334</v>
+      </c>
+      <c r="F34" s="10">
         <v>87.918999999999997</v>
       </c>
-      <c r="F34" s="9">
+      <c r="G34" s="9">
         <v>112.91104545454665</v>
       </c>
-      <c r="G34" s="3">
+      <c r="H34" s="3">
         <v>103.25</v>
       </c>
-      <c r="H34" s="11">
+      <c r="I34" s="11">
         <v>10.66</v>
       </c>
-      <c r="I34" s="3">
+      <c r="J34" s="3">
         <v>49.33</v>
       </c>
-      <c r="J34" s="5">
+      <c r="K34" s="5">
         <v>-11.633096307103257</v>
       </c>
-      <c r="K34" s="5">
+      <c r="L34" s="5">
         <v>-71.3</v>
       </c>
-      <c r="L34" s="11">
+      <c r="M34" s="11">
         <v>0.24668328248765481</v>
       </c>
-      <c r="M34" s="5">
+      <c r="N34" s="5">
         <v>11.143333333333333</v>
       </c>
-      <c r="N34" s="8">
-        <v>0</v>
-      </c>
-      <c r="O34" s="8">
-        <v>0</v>
-      </c>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
+      <c r="O34" s="5">
+        <v>-13.966666666666669</v>
+      </c>
+      <c r="P34" s="5">
+        <v>-4.0801050607416673</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>0</v>
+      </c>
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+      <c r="S34" s="18"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
       <c r="X34" s="16"/>
       <c r="Y34" s="16"/>
       <c r="Z34" s="16"/>
@@ -2740,8 +3055,11 @@
       <c r="AC34" s="16"/>
       <c r="AD34" s="16"/>
       <c r="AE34" s="16"/>
-    </row>
-    <row r="35" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+    </row>
+    <row r="35" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>41365</v>
       </c>
@@ -2754,47 +3072,53 @@
       <c r="D35" s="8">
         <v>2897891.5</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="5">
+        <v>128.87559999999999</v>
+      </c>
+      <c r="F35" s="10">
         <v>91.265000000000001</v>
       </c>
-      <c r="F35" s="9">
+      <c r="G35" s="9">
         <v>103.0041370224</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>103.06</v>
       </c>
-      <c r="H35" s="11">
+      <c r="I35" s="11">
         <v>8.7799999999999994</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>48.8</v>
       </c>
-      <c r="J35" s="5">
+      <c r="K35" s="5">
         <v>-8.6415803906765323</v>
       </c>
-      <c r="K35" s="5">
+      <c r="L35" s="5">
         <v>-69.63333333333334</v>
       </c>
-      <c r="L35" s="11">
+      <c r="M35" s="11">
         <v>1.2587967883962254</v>
       </c>
-      <c r="M35" s="5">
+      <c r="N35" s="5">
         <v>10.24</v>
       </c>
-      <c r="N35" s="8">
-        <v>0</v>
-      </c>
-      <c r="O35" s="8">
-        <v>0</v>
-      </c>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
+      <c r="O35" s="5">
+        <v>-9.5333333333333332</v>
+      </c>
+      <c r="P35" s="5">
+        <v>-4.0649160958427926</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>0</v>
+      </c>
+      <c r="R35" s="8">
+        <v>0</v>
+      </c>
+      <c r="S35" s="18"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
       <c r="X35" s="16"/>
       <c r="Y35" s="16"/>
       <c r="Z35" s="16"/>
@@ -2803,8 +3127,11 @@
       <c r="AC35" s="16"/>
       <c r="AD35" s="16"/>
       <c r="AE35" s="16"/>
-    </row>
-    <row r="36" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+    </row>
+    <row r="36" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>41456</v>
       </c>
@@ -2817,47 +3144,53 @@
       <c r="D36" s="8">
         <v>2909070.5</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="5">
+        <v>123.67910000000001</v>
+      </c>
+      <c r="F36" s="10">
         <v>92.62</v>
       </c>
-      <c r="F36" s="9">
+      <c r="G36" s="9">
         <v>110.10068699416667</v>
       </c>
-      <c r="G36" s="3">
+      <c r="H36" s="3">
         <v>102.02</v>
       </c>
-      <c r="H36" s="11">
+      <c r="I36" s="11">
         <v>9.64</v>
       </c>
-      <c r="I36" s="3">
+      <c r="J36" s="3">
         <v>48.5</v>
       </c>
-      <c r="J36" s="5">
+      <c r="K36" s="5">
         <v>-9.4653220790317913</v>
       </c>
-      <c r="K36" s="5">
+      <c r="L36" s="5">
         <v>-71.233333333333334</v>
       </c>
-      <c r="L36" s="11">
+      <c r="M36" s="11">
         <v>-1.2104658509298976</v>
       </c>
-      <c r="M36" s="5">
+      <c r="N36" s="5">
         <v>10.229999999999999</v>
       </c>
-      <c r="N36" s="8">
-        <v>0</v>
-      </c>
-      <c r="O36" s="8">
-        <v>0</v>
-      </c>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
+      <c r="O36" s="5">
+        <v>-7.6333333333333337</v>
+      </c>
+      <c r="P36" s="5">
+        <v>3.0817857321151871</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>0</v>
+      </c>
+      <c r="R36" s="8">
+        <v>0</v>
+      </c>
+      <c r="S36" s="18"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
       <c r="X36" s="16"/>
       <c r="Y36" s="16"/>
       <c r="Z36" s="16"/>
@@ -2866,8 +3199,11 @@
       <c r="AC36" s="16"/>
       <c r="AD36" s="16"/>
       <c r="AE36" s="16"/>
-    </row>
-    <row r="37" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="16"/>
+    </row>
+    <row r="37" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>41548</v>
       </c>
@@ -2880,47 +3216,53 @@
       <c r="D37" s="8">
         <v>2920612.4</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="5">
+        <v>155.46836666666667</v>
+      </c>
+      <c r="F37" s="10">
         <v>89.918000000000006</v>
       </c>
-      <c r="F37" s="9">
+      <c r="G37" s="9">
         <v>109.40962870945334</v>
       </c>
-      <c r="G37" s="3">
+      <c r="H37" s="3">
         <v>101.83</v>
       </c>
-      <c r="H37" s="11">
+      <c r="I37" s="11">
         <v>11.51</v>
       </c>
-      <c r="I37" s="3">
+      <c r="J37" s="3">
         <v>48.58</v>
       </c>
-      <c r="J37" s="5">
+      <c r="K37" s="5">
         <v>-1.3274910780147313</v>
       </c>
-      <c r="K37" s="5">
+      <c r="L37" s="5">
         <v>-66.666666666666671</v>
       </c>
-      <c r="L37" s="11">
+      <c r="M37" s="11">
         <v>-0.50056797532180175</v>
       </c>
-      <c r="M37" s="5">
+      <c r="N37" s="5">
         <v>8.6033333333333335</v>
       </c>
-      <c r="N37" s="8">
-        <v>0</v>
-      </c>
-      <c r="O37" s="8">
-        <v>0</v>
-      </c>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
+      <c r="O37" s="5">
+        <v>-10.799999999999999</v>
+      </c>
+      <c r="P37" s="5">
+        <v>-9.0188981275488445</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>0</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0</v>
+      </c>
+      <c r="S37" s="18"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
       <c r="X37" s="16"/>
       <c r="Y37" s="16"/>
       <c r="Z37" s="16"/>
@@ -2929,8 +3271,11 @@
       <c r="AC37" s="16"/>
       <c r="AD37" s="16"/>
       <c r="AE37" s="16"/>
-    </row>
-    <row r="38" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="16"/>
+    </row>
+    <row r="38" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>41640</v>
       </c>
@@ -2943,47 +3288,53 @@
       <c r="D38" s="8">
         <v>2944262.1</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="5">
+        <v>172.02526666666668</v>
+      </c>
+      <c r="F38" s="10">
         <v>95.441000000000003</v>
       </c>
-      <c r="F38" s="9">
+      <c r="G38" s="9">
         <v>107.87666666666667</v>
       </c>
-      <c r="G38" s="3">
+      <c r="H38" s="3">
         <v>101.95</v>
       </c>
-      <c r="H38" s="11">
+      <c r="I38" s="11">
         <v>11.43</v>
       </c>
-      <c r="I38" s="3">
+      <c r="J38" s="3">
         <v>49.23</v>
       </c>
-      <c r="J38" s="5">
+      <c r="K38" s="5">
         <v>-2.4626009451517432</v>
       </c>
-      <c r="K38" s="5">
+      <c r="L38" s="5">
         <v>-61.466666666666669</v>
       </c>
-      <c r="L38" s="11">
+      <c r="M38" s="11">
         <v>-0.67816118993914376</v>
       </c>
-      <c r="M38" s="5">
+      <c r="N38" s="5">
         <v>7.5933333333333337</v>
       </c>
-      <c r="N38" s="8">
-        <v>0</v>
-      </c>
-      <c r="O38" s="8">
-        <v>0</v>
-      </c>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
+      <c r="O38" s="5">
+        <v>-8.9333333333333336</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0.12408679160584141</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>0</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0</v>
+      </c>
+      <c r="S38" s="18"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
       <c r="X38" s="16"/>
       <c r="Y38" s="16"/>
       <c r="Z38" s="16"/>
@@ -2992,8 +3343,11 @@
       <c r="AC38" s="16"/>
       <c r="AD38" s="16"/>
       <c r="AE38" s="16"/>
-    </row>
-    <row r="39" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="16"/>
+    </row>
+    <row r="39" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>41730</v>
       </c>
@@ -3006,47 +3360,53 @@
       <c r="D39" s="8">
         <v>2958342.3</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="5">
+        <v>166.95893333333333</v>
+      </c>
+      <c r="F39" s="10">
         <v>95.846000000000004</v>
       </c>
-      <c r="F39" s="9">
+      <c r="G39" s="9">
         <v>109.78000000000002</v>
       </c>
-      <c r="G39" s="3">
+      <c r="H39" s="3">
         <v>101.27</v>
       </c>
-      <c r="H39" s="11">
+      <c r="I39" s="11">
         <v>16.47</v>
       </c>
-      <c r="I39" s="3">
+      <c r="J39" s="3">
         <v>49.1</v>
       </c>
-      <c r="J39" s="5">
+      <c r="K39" s="5">
         <v>-0.11122778999258316</v>
       </c>
-      <c r="K39" s="5">
+      <c r="L39" s="5">
         <v>-51.800000000000004</v>
       </c>
-      <c r="L39" s="11">
+      <c r="M39" s="11">
         <v>0.9621542429257971</v>
       </c>
-      <c r="M39" s="5">
+      <c r="N39" s="5">
         <v>6.169999999999999</v>
       </c>
-      <c r="N39" s="8">
-        <v>0</v>
-      </c>
-      <c r="O39" s="8">
-        <v>0</v>
-      </c>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
+      <c r="O39" s="5">
+        <v>-4.3666666666666663</v>
+      </c>
+      <c r="P39" s="5">
+        <v>3.9226699616815481</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>0</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0</v>
+      </c>
+      <c r="S39" s="18"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
       <c r="X39" s="16"/>
       <c r="Y39" s="16"/>
       <c r="Z39" s="16"/>
@@ -3055,8 +3415,11 @@
       <c r="AC39" s="16"/>
       <c r="AD39" s="16"/>
       <c r="AE39" s="16"/>
-    </row>
-    <row r="40" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="16"/>
+    </row>
+    <row r="40" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>41821</v>
       </c>
@@ -3069,47 +3432,53 @@
       <c r="D40" s="8">
         <v>2978310.5</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="5">
+        <v>155.51563333333334</v>
+      </c>
+      <c r="F40" s="10">
         <v>99.094999999999999</v>
       </c>
-      <c r="F40" s="9">
+      <c r="G40" s="9">
         <v>102.08</v>
       </c>
-      <c r="G40" s="3">
+      <c r="H40" s="3">
         <v>101.27</v>
       </c>
-      <c r="H40" s="11">
+      <c r="I40" s="11">
         <v>10.18</v>
       </c>
-      <c r="I40" s="3">
+      <c r="J40" s="3">
         <v>49.59</v>
       </c>
-      <c r="J40" s="5">
+      <c r="K40" s="5">
         <v>1.2633772622998991</v>
       </c>
-      <c r="K40" s="5">
+      <c r="L40" s="5">
         <v>-50.300000000000004</v>
       </c>
-      <c r="L40" s="11">
+      <c r="M40" s="11">
         <v>-0.96772549278445263</v>
       </c>
-      <c r="M40" s="5">
+      <c r="N40" s="5">
         <v>6.0266666666666664</v>
       </c>
-      <c r="N40" s="8">
-        <v>0</v>
-      </c>
-      <c r="O40" s="8">
-        <v>0</v>
-      </c>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
+      <c r="O40" s="5">
+        <v>0.16666666666666682</v>
+      </c>
+      <c r="P40" s="5">
+        <v>6.2511648759162952</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>0</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0</v>
+      </c>
+      <c r="S40" s="18"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
       <c r="X40" s="16"/>
       <c r="Y40" s="16"/>
       <c r="Z40" s="16"/>
@@ -3118,8 +3487,11 @@
       <c r="AC40" s="16"/>
       <c r="AD40" s="16"/>
       <c r="AE40" s="16"/>
-    </row>
-    <row r="41" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF40" s="16"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="16"/>
+    </row>
+    <row r="41" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>41913</v>
       </c>
@@ -3132,47 +3504,53 @@
       <c r="D41" s="8">
         <v>2996687.2</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="5">
+        <v>126.25256666666667</v>
+      </c>
+      <c r="F41" s="10">
         <v>101.28700000000001</v>
       </c>
-      <c r="F41" s="9">
+      <c r="G41" s="9">
         <v>76.013333333333321</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>99.94</v>
       </c>
-      <c r="H41" s="11">
+      <c r="I41" s="11">
         <v>13.01</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>49.78</v>
       </c>
-      <c r="J41" s="5">
+      <c r="K41" s="5">
         <v>-0.16503660334637049</v>
       </c>
-      <c r="K41" s="5">
+      <c r="L41" s="5">
         <v>-48.433333333333337</v>
       </c>
-      <c r="L41" s="11">
+      <c r="M41" s="11">
         <v>-0.10296935563392833</v>
       </c>
-      <c r="M41" s="5">
+      <c r="N41" s="5">
         <v>7.9266666666666667</v>
       </c>
-      <c r="N41" s="8">
-        <v>0</v>
-      </c>
-      <c r="O41" s="8">
-        <v>0</v>
-      </c>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
+      <c r="O41" s="5">
+        <v>-1.0666666666666667</v>
+      </c>
+      <c r="P41" s="5">
+        <v>17.505073782542009</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>0</v>
+      </c>
+      <c r="R41" s="8">
+        <v>0</v>
+      </c>
+      <c r="S41" s="18"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
       <c r="X41" s="16"/>
       <c r="Y41" s="16"/>
       <c r="Z41" s="16"/>
@@ -3181,8 +3559,11 @@
       <c r="AC41" s="16"/>
       <c r="AD41" s="16"/>
       <c r="AE41" s="16"/>
-    </row>
-    <row r="42" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="16"/>
+    </row>
+    <row r="42" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>42005</v>
       </c>
@@ -3195,47 +3576,53 @@
       <c r="D42" s="8">
         <v>3036344.9</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="5">
+        <v>109.52996666666667</v>
+      </c>
+      <c r="F42" s="10">
         <v>102.715</v>
       </c>
-      <c r="F42" s="9">
+      <c r="G42" s="9">
         <v>53.93</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>99.73</v>
       </c>
-      <c r="H42" s="11">
+      <c r="I42" s="11">
         <v>28.18</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>49.94</v>
       </c>
-      <c r="J42" s="5">
+      <c r="K42" s="5">
         <v>0.51061391323300953</v>
       </c>
-      <c r="K42" s="5">
+      <c r="L42" s="5">
         <v>-38.966666666666669</v>
       </c>
-      <c r="L42" s="11">
+      <c r="M42" s="11">
         <v>1.5751187447695123</v>
       </c>
-      <c r="M42" s="5">
+      <c r="N42" s="5">
         <v>9.9066666666666681</v>
       </c>
-      <c r="N42" s="8">
-        <v>0</v>
-      </c>
-      <c r="O42" s="8">
-        <v>0</v>
-      </c>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
+      <c r="O42" s="5">
+        <v>-12</v>
+      </c>
+      <c r="P42" s="5">
+        <v>18.910416847414979</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>0</v>
+      </c>
+      <c r="R42" s="8">
+        <v>0</v>
+      </c>
+      <c r="S42" s="18"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
       <c r="X42" s="16"/>
       <c r="Y42" s="16"/>
       <c r="Z42" s="16"/>
@@ -3244,8 +3631,11 @@
       <c r="AC42" s="16"/>
       <c r="AD42" s="16"/>
       <c r="AE42" s="16"/>
-    </row>
-    <row r="43" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF42" s="16"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="16"/>
+    </row>
+    <row r="43" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>42095</v>
       </c>
@@ -3258,47 +3648,53 @@
       <c r="D43" s="8">
         <v>3068451.1</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="5">
+        <v>106.48943333333334</v>
+      </c>
+      <c r="F43" s="10">
         <v>104.089</v>
       </c>
-      <c r="F43" s="9">
+      <c r="G43" s="9">
         <v>62.096666666666671</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>99.81</v>
       </c>
-      <c r="H43" s="11">
+      <c r="I43" s="11">
         <v>28</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>50.69</v>
       </c>
-      <c r="J43" s="5">
+      <c r="K43" s="5">
         <v>0.45743212486967427</v>
       </c>
-      <c r="K43" s="5">
+      <c r="L43" s="5">
         <v>-45.1</v>
       </c>
-      <c r="L43" s="11">
+      <c r="M43" s="11">
         <v>-2.3724202990103191</v>
       </c>
-      <c r="M43" s="5">
+      <c r="N43" s="5">
         <v>11.459999999999999</v>
       </c>
-      <c r="N43" s="8">
-        <v>0</v>
-      </c>
-      <c r="O43" s="8">
-        <v>0</v>
-      </c>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
+      <c r="O43" s="5">
+        <v>-14.5</v>
+      </c>
+      <c r="P43" s="5">
+        <v>12.770467121174031</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>0</v>
+      </c>
+      <c r="R43" s="8">
+        <v>0</v>
+      </c>
+      <c r="S43" s="18"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
       <c r="X43" s="16"/>
       <c r="Y43" s="16"/>
       <c r="Z43" s="16"/>
@@ -3307,8 +3703,11 @@
       <c r="AC43" s="16"/>
       <c r="AD43" s="16"/>
       <c r="AE43" s="16"/>
-    </row>
-    <row r="44" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF43" s="16"/>
+      <c r="AG43" s="16"/>
+      <c r="AH43" s="16"/>
+    </row>
+    <row r="44" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>42186</v>
       </c>
@@ -3321,47 +3720,53 @@
       <c r="D44" s="8">
         <v>3089545.1</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="5">
+        <v>95.482550000000003</v>
+      </c>
+      <c r="F44" s="10">
         <v>102.009</v>
       </c>
-      <c r="F44" s="9">
+      <c r="G44" s="9">
         <v>50.033333333333331</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>100.46</v>
       </c>
-      <c r="H44" s="11">
+      <c r="I44" s="11">
         <v>37.229999999999997</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>51.07</v>
       </c>
-      <c r="J44" s="5">
+      <c r="K44" s="5">
         <v>-4.4865399831792336</v>
       </c>
-      <c r="K44" s="5">
+      <c r="L44" s="5">
         <v>-61.4</v>
       </c>
-      <c r="L44" s="11">
+      <c r="M44" s="11">
         <v>2.0914598473117594</v>
       </c>
-      <c r="M44" s="5">
+      <c r="N44" s="5">
         <v>6.2666666666666657</v>
       </c>
-      <c r="N44" s="8">
-        <v>0</v>
-      </c>
-      <c r="O44" s="8">
-        <v>0</v>
-      </c>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
+      <c r="O44" s="5">
+        <v>-26.100000000000005</v>
+      </c>
+      <c r="P44" s="5">
+        <v>-2.017772309325244</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>0</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0</v>
+      </c>
+      <c r="S44" s="18"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
       <c r="X44" s="16"/>
       <c r="Y44" s="16"/>
       <c r="Z44" s="16"/>
@@ -3370,8 +3775,11 @@
       <c r="AC44" s="16"/>
       <c r="AD44" s="16"/>
       <c r="AE44" s="16"/>
-    </row>
-    <row r="45" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16"/>
+      <c r="AH44" s="16"/>
+    </row>
+    <row r="45" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>42278</v>
       </c>
@@ -3384,47 +3792,53 @@
       <c r="D45" s="8">
         <v>3112248.7</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="5">
+        <v>88.49805666666667</v>
+      </c>
+      <c r="F45" s="10">
         <v>103.35599999999999</v>
       </c>
-      <c r="F45" s="9">
+      <c r="G45" s="9">
         <v>43.419999999999995</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="11">
+      <c r="I45" s="11">
         <v>13.52</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>51.49</v>
       </c>
-      <c r="J45" s="5">
+      <c r="K45" s="5">
         <v>-2.0944794376899445</v>
       </c>
-      <c r="K45" s="5">
+      <c r="L45" s="5">
         <v>-61.1</v>
       </c>
-      <c r="L45" s="11">
+      <c r="M45" s="11">
         <v>1.6850308185153224</v>
       </c>
-      <c r="M45" s="5">
+      <c r="N45" s="5">
         <v>7.81</v>
       </c>
-      <c r="N45" s="8">
-        <v>0</v>
-      </c>
-      <c r="O45" s="8">
-        <v>0</v>
-      </c>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
+      <c r="O45" s="5">
+        <v>-13.333333333333334</v>
+      </c>
+      <c r="P45" s="5">
+        <v>4.2728909545243088</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>0</v>
+      </c>
+      <c r="R45" s="8">
+        <v>0</v>
+      </c>
+      <c r="S45" s="18"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
       <c r="X45" s="16"/>
       <c r="Y45" s="16"/>
       <c r="Z45" s="16"/>
@@ -3433,8 +3847,11 @@
       <c r="AC45" s="16"/>
       <c r="AD45" s="16"/>
       <c r="AE45" s="16"/>
-    </row>
-    <row r="46" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF45" s="16"/>
+      <c r="AG45" s="16"/>
+      <c r="AH45" s="16"/>
+    </row>
+    <row r="46" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>42370</v>
       </c>
@@ -3447,47 +3864,53 @@
       <c r="D46" s="8">
         <v>3128145</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="5">
+        <v>72.92613333333334</v>
+      </c>
+      <c r="F46" s="10">
         <v>100.992</v>
       </c>
-      <c r="F46" s="9">
+      <c r="G46" s="9">
         <v>34.356666666666662</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>99.49</v>
       </c>
-      <c r="H46" s="11">
+      <c r="I46" s="11">
         <v>13.33</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>51.67</v>
       </c>
-      <c r="J46" s="5">
+      <c r="K46" s="5">
         <v>-2.9573370925309592</v>
       </c>
-      <c r="K46" s="5">
+      <c r="L46" s="5">
         <v>-61.79999999999999</v>
       </c>
-      <c r="L46" s="11">
+      <c r="M46" s="11">
         <v>-1.9271816030589932</v>
       </c>
-      <c r="M46" s="5">
+      <c r="N46" s="5">
         <v>9.5366666666666671</v>
       </c>
-      <c r="N46" s="8">
-        <v>0</v>
-      </c>
-      <c r="O46" s="8">
-        <v>0</v>
-      </c>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
+      <c r="O46" s="5">
+        <v>-8.5333333333333332</v>
+      </c>
+      <c r="P46" s="5">
+        <v>-2.1136985376275028</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>0</v>
+      </c>
+      <c r="R46" s="8">
+        <v>0</v>
+      </c>
+      <c r="S46" s="18"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
       <c r="X46" s="16"/>
       <c r="Y46" s="16"/>
       <c r="Z46" s="16"/>
@@ -3496,8 +3919,11 @@
       <c r="AC46" s="16"/>
       <c r="AD46" s="16"/>
       <c r="AE46" s="16"/>
-    </row>
-    <row r="47" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF46" s="16"/>
+      <c r="AG46" s="16"/>
+      <c r="AH46" s="16"/>
+    </row>
+    <row r="47" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>42461</v>
       </c>
@@ -3510,47 +3936,53 @@
       <c r="D47" s="8">
         <v>3143587</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="5">
+        <v>80.833473333333345</v>
+      </c>
+      <c r="F47" s="10">
         <v>100.64100000000001</v>
       </c>
-      <c r="F47" s="9">
+      <c r="G47" s="9">
         <v>45.953333333333326</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>99.68</v>
       </c>
-      <c r="H47" s="11">
+      <c r="I47" s="11">
         <v>11.25</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>52.08</v>
       </c>
-      <c r="J47" s="5">
+      <c r="K47" s="5">
         <v>-3.8491316366395645</v>
       </c>
-      <c r="K47" s="5">
+      <c r="L47" s="5">
         <v>-61.1</v>
       </c>
-      <c r="L47" s="11">
+      <c r="M47" s="11">
         <v>0.57964013981868967</v>
       </c>
-      <c r="M47" s="5">
+      <c r="N47" s="5">
         <v>8.1966666666666654</v>
       </c>
-      <c r="N47" s="8">
-        <v>0</v>
-      </c>
-      <c r="O47" s="8">
-        <v>0</v>
-      </c>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
+      <c r="O47" s="5">
+        <v>-8.1333333333333329</v>
+      </c>
+      <c r="P47" s="5">
+        <v>-0.54517658121609647</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>0</v>
+      </c>
+      <c r="R47" s="8">
+        <v>0</v>
+      </c>
+      <c r="S47" s="18"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
       <c r="X47" s="16"/>
       <c r="Y47" s="16"/>
       <c r="Z47" s="16"/>
@@ -3559,8 +3991,11 @@
       <c r="AC47" s="16"/>
       <c r="AD47" s="16"/>
       <c r="AE47" s="16"/>
-    </row>
-    <row r="48" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF47" s="16"/>
+      <c r="AG47" s="16"/>
+      <c r="AH47" s="16"/>
+    </row>
+    <row r="48" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>42552</v>
       </c>
@@ -3573,47 +4008,53 @@
       <c r="D48" s="8">
         <v>3166325.6</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="5">
+        <v>75.983773333333332</v>
+      </c>
+      <c r="F48" s="10">
         <v>103.97</v>
       </c>
-      <c r="F48" s="9">
+      <c r="G48" s="9">
         <v>45.800000000000004</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>100.65</v>
       </c>
-      <c r="H48" s="11">
+      <c r="I48" s="11">
         <v>11.52</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>52.35</v>
       </c>
-      <c r="J48" s="5">
+      <c r="K48" s="5">
         <v>2.7722378686796803</v>
       </c>
-      <c r="K48" s="5">
+      <c r="L48" s="5">
         <v>-61.866666666666667</v>
       </c>
-      <c r="L48" s="11">
+      <c r="M48" s="11">
         <v>0.1760543507322424</v>
       </c>
-      <c r="M48" s="5">
+      <c r="N48" s="5">
         <v>8.1733333333333338</v>
       </c>
-      <c r="N48" s="8">
-        <v>0</v>
-      </c>
-      <c r="O48" s="8">
-        <v>0</v>
-      </c>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
+      <c r="O48" s="5">
+        <v>-6.5666666666666664</v>
+      </c>
+      <c r="P48" s="5">
+        <v>9.2954762003911924</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>0</v>
+      </c>
+      <c r="R48" s="8">
+        <v>0</v>
+      </c>
+      <c r="S48" s="18"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
       <c r="X48" s="16"/>
       <c r="Y48" s="16"/>
       <c r="Z48" s="16"/>
@@ -3622,8 +4063,11 @@
       <c r="AC48" s="16"/>
       <c r="AD48" s="16"/>
       <c r="AE48" s="16"/>
-    </row>
-    <row r="49" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF48" s="16"/>
+      <c r="AG48" s="16"/>
+      <c r="AH48" s="16"/>
+    </row>
+    <row r="49" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>42644</v>
       </c>
@@ -3636,47 +4080,53 @@
       <c r="D49" s="8">
         <v>3193172.7</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="5">
+        <v>81.766663333333341</v>
+      </c>
+      <c r="F49" s="10">
         <v>104.937</v>
       </c>
-      <c r="F49" s="9">
+      <c r="G49" s="9">
         <v>50.079999999999991</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>100.24</v>
       </c>
-      <c r="H49" s="11">
+      <c r="I49" s="11">
         <v>14.02</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>51.99</v>
       </c>
-      <c r="J49" s="5">
+      <c r="K49" s="5">
         <v>1.9249210043637743</v>
       </c>
-      <c r="K49" s="5">
+      <c r="L49" s="5">
         <v>-60.366666666666667</v>
       </c>
-      <c r="L49" s="11">
+      <c r="M49" s="11">
         <v>1.5373846031140133</v>
       </c>
-      <c r="M49" s="5">
+      <c r="N49" s="5">
         <v>7.5333333333333341</v>
       </c>
-      <c r="N49" s="8">
-        <v>0</v>
-      </c>
-      <c r="O49" s="8">
-        <v>0</v>
-      </c>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
+      <c r="O49" s="5">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="P49" s="5">
+        <v>2.5739564366459322</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>0</v>
+      </c>
+      <c r="R49" s="8">
+        <v>0</v>
+      </c>
+      <c r="S49" s="18"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
       <c r="X49" s="16"/>
       <c r="Y49" s="16"/>
       <c r="Z49" s="16"/>
@@ -3685,8 +4135,11 @@
       <c r="AC49" s="16"/>
       <c r="AD49" s="16"/>
       <c r="AE49" s="16"/>
-    </row>
-    <row r="50" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF49" s="16"/>
+      <c r="AG49" s="16"/>
+      <c r="AH49" s="16"/>
+    </row>
+    <row r="50" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>42736</v>
       </c>
@@ -3699,47 +4152,53 @@
       <c r="D50" s="8">
         <v>3239565.5</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="5">
+        <v>86.89425</v>
+      </c>
+      <c r="F50" s="10">
         <v>107.983</v>
       </c>
-      <c r="F50" s="9">
+      <c r="G50" s="9">
         <v>54.116666666666667</v>
       </c>
-      <c r="G50" s="3">
+      <c r="H50" s="3">
         <v>101.02</v>
       </c>
-      <c r="H50" s="11">
+      <c r="I50" s="11">
         <v>15.23</v>
       </c>
-      <c r="I50" s="3">
+      <c r="J50" s="3">
         <v>52.78</v>
       </c>
-      <c r="J50" s="5">
+      <c r="K50" s="5">
         <v>3.0948075705586109</v>
       </c>
-      <c r="K50" s="5">
+      <c r="L50" s="5">
         <v>-65.899999999999991</v>
       </c>
-      <c r="L50" s="11">
+      <c r="M50" s="11">
         <v>0.30629366398365238</v>
       </c>
-      <c r="M50" s="5">
+      <c r="N50" s="5">
         <v>7.2433333333333323</v>
       </c>
-      <c r="N50" s="8">
-        <v>0</v>
-      </c>
-      <c r="O50" s="8">
-        <v>0</v>
-      </c>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
+      <c r="O50" s="5">
+        <v>-7.2666666666666666</v>
+      </c>
+      <c r="P50" s="5">
+        <v>6.2376878388302934</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>0</v>
+      </c>
+      <c r="R50" s="8">
+        <v>0</v>
+      </c>
+      <c r="S50" s="18"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="17"/>
       <c r="X50" s="16"/>
       <c r="Y50" s="16"/>
       <c r="Z50" s="16"/>
@@ -3748,8 +4207,11 @@
       <c r="AC50" s="16"/>
       <c r="AD50" s="16"/>
       <c r="AE50" s="16"/>
-    </row>
-    <row r="51" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF50" s="16"/>
+      <c r="AG50" s="16"/>
+      <c r="AH50" s="16"/>
+    </row>
+    <row r="51" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>42826</v>
       </c>
@@ -3762,47 +4224,53 @@
       <c r="D51" s="8">
         <v>3277629</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="5">
+        <v>101.71990666666666</v>
+      </c>
+      <c r="F51" s="10">
         <v>110.803</v>
       </c>
-      <c r="F51" s="9">
+      <c r="G51" s="9">
         <v>50.24666666666667</v>
       </c>
-      <c r="G51" s="3">
+      <c r="H51" s="3">
         <v>101.02</v>
       </c>
-      <c r="H51" s="11">
+      <c r="I51" s="11">
         <v>12.35</v>
       </c>
-      <c r="I51" s="3">
+      <c r="J51" s="3">
         <v>53.67</v>
       </c>
-      <c r="J51" s="5">
+      <c r="K51" s="5">
         <v>2.1438731958140225</v>
       </c>
-      <c r="K51" s="5">
+      <c r="L51" s="5">
         <v>-62.633333333333326</v>
       </c>
-      <c r="L51" s="11">
+      <c r="M51" s="11">
         <v>-0.42316367996083309</v>
       </c>
-      <c r="M51" s="5">
+      <c r="N51" s="5">
         <v>6.1066666666666665</v>
       </c>
-      <c r="N51" s="8">
-        <v>0</v>
-      </c>
-      <c r="O51" s="8">
-        <v>0</v>
-      </c>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16"/>
+      <c r="O51" s="5">
+        <v>-8.9</v>
+      </c>
+      <c r="P51" s="5">
+        <v>6.9417047757564561</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>0</v>
+      </c>
+      <c r="R51" s="8">
+        <v>0</v>
+      </c>
+      <c r="S51" s="18"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
       <c r="X51" s="16"/>
       <c r="Y51" s="16"/>
       <c r="Z51" s="16"/>
@@ -3811,8 +4279,11 @@
       <c r="AC51" s="16"/>
       <c r="AD51" s="16"/>
       <c r="AE51" s="16"/>
-    </row>
-    <row r="52" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF51" s="16"/>
+      <c r="AG51" s="16"/>
+      <c r="AH51" s="16"/>
+    </row>
+    <row r="52" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>42917</v>
       </c>
@@ -3825,47 +4296,53 @@
       <c r="D52" s="8">
         <v>3312174.1</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="5">
+        <v>110.39873333333334</v>
+      </c>
+      <c r="F52" s="10">
         <v>112.95099999999999</v>
       </c>
-      <c r="F52" s="9">
+      <c r="G52" s="9">
         <v>51.74</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>101.5</v>
       </c>
-      <c r="H52" s="11">
+      <c r="I52" s="11">
         <v>13.66</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>53.93</v>
       </c>
-      <c r="J52" s="5">
+      <c r="K52" s="5">
         <v>0.17929576992454757</v>
       </c>
-      <c r="K52" s="5">
+      <c r="L52" s="5">
         <v>-54.099999999999994</v>
       </c>
-      <c r="L52" s="11">
+      <c r="M52" s="11">
         <v>-0.50885672719622521</v>
       </c>
-      <c r="M52" s="5">
+      <c r="N52" s="5">
         <v>5.4799999999999995</v>
       </c>
-      <c r="N52" s="8">
-        <v>0</v>
-      </c>
-      <c r="O52" s="8">
-        <v>0</v>
-      </c>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
+      <c r="O52" s="5">
+        <v>-3.6999999999999997</v>
+      </c>
+      <c r="P52" s="5">
+        <v>8.4309912646798644</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>0</v>
+      </c>
+      <c r="R52" s="8">
+        <v>0</v>
+      </c>
+      <c r="S52" s="18"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
       <c r="X52" s="16"/>
       <c r="Y52" s="16"/>
       <c r="Z52" s="16"/>
@@ -3874,8 +4351,11 @@
       <c r="AC52" s="16"/>
       <c r="AD52" s="16"/>
       <c r="AE52" s="16"/>
-    </row>
-    <row r="53" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF52" s="16"/>
+      <c r="AG52" s="16"/>
+      <c r="AH52" s="16"/>
+    </row>
+    <row r="53" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>43009</v>
       </c>
@@ -3888,47 +4368,53 @@
       <c r="D53" s="8">
         <v>3350217.3</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="5">
+        <v>101.36950666666667</v>
+      </c>
+      <c r="F53" s="10">
         <v>113.31</v>
       </c>
-      <c r="F53" s="9">
+      <c r="G53" s="9">
         <v>61.466666666666661</v>
       </c>
-      <c r="G53" s="3">
+      <c r="H53" s="3">
         <v>101.07</v>
       </c>
-      <c r="H53" s="11">
+      <c r="I53" s="11">
         <v>17.02</v>
       </c>
-      <c r="I53" s="3">
+      <c r="J53" s="3">
         <v>53.6</v>
       </c>
-      <c r="J53" s="5">
+      <c r="K53" s="5">
         <v>-0.27475850730460705</v>
       </c>
-      <c r="K53" s="5">
+      <c r="L53" s="5">
         <v>-49.433333333333337</v>
       </c>
-      <c r="L53" s="11">
+      <c r="M53" s="11">
         <v>1.0639205677284982</v>
       </c>
-      <c r="M53" s="5">
+      <c r="N53" s="5">
         <v>5.083333333333333</v>
       </c>
-      <c r="N53" s="8">
-        <v>0</v>
-      </c>
-      <c r="O53" s="8">
-        <v>0</v>
-      </c>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
+      <c r="O53" s="5">
+        <v>-0.76666666666666661</v>
+      </c>
+      <c r="P53" s="5">
+        <v>6.98765537499703</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>0</v>
+      </c>
+      <c r="R53" s="8">
+        <v>0</v>
+      </c>
+      <c r="S53" s="18"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
       <c r="X53" s="16"/>
       <c r="Y53" s="16"/>
       <c r="Z53" s="16"/>
@@ -3937,8 +4423,11 @@
       <c r="AC53" s="16"/>
       <c r="AD53" s="16"/>
       <c r="AE53" s="16"/>
-    </row>
-    <row r="54" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF53" s="16"/>
+      <c r="AG53" s="16"/>
+      <c r="AH53" s="16"/>
+    </row>
+    <row r="54" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>43101</v>
       </c>
@@ -3951,47 +4440,53 @@
       <c r="D54" s="8">
         <v>3371166.9</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="5">
+        <v>112.47996666666667</v>
+      </c>
+      <c r="F54" s="10">
         <v>118.01900000000001</v>
       </c>
-      <c r="F54" s="9">
+      <c r="G54" s="9">
         <v>66.953333333333333</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>101.3</v>
       </c>
-      <c r="H54" s="11">
+      <c r="I54" s="11">
         <v>16</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>54.1</v>
       </c>
-      <c r="J54" s="5">
+      <c r="K54" s="5">
         <v>0.91345464187797754</v>
       </c>
-      <c r="K54" s="5">
+      <c r="L54" s="5">
         <v>-50.4</v>
       </c>
-      <c r="L54" s="11">
+      <c r="M54" s="11">
         <v>0.30674607977813068</v>
       </c>
-      <c r="M54" s="5">
+      <c r="N54" s="5">
         <v>4.0666666666666664</v>
       </c>
-      <c r="N54" s="8">
-        <v>0</v>
-      </c>
-      <c r="O54" s="8">
-        <v>0</v>
-      </c>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
+      <c r="O54" s="5">
+        <v>0.46666666666666679</v>
+      </c>
+      <c r="P54" s="5">
+        <v>4.0866762843832376</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>0</v>
+      </c>
+      <c r="R54" s="8">
+        <v>0</v>
+      </c>
+      <c r="S54" s="18"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
       <c r="X54" s="16"/>
       <c r="Y54" s="16"/>
       <c r="Z54" s="16"/>
@@ -4000,8 +4495,11 @@
       <c r="AC54" s="16"/>
       <c r="AD54" s="16"/>
       <c r="AE54" s="16"/>
-    </row>
-    <row r="55" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF54" s="16"/>
+      <c r="AG54" s="16"/>
+      <c r="AH54" s="16"/>
+    </row>
+    <row r="55" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>43191</v>
       </c>
@@ -4014,47 +4512,53 @@
       <c r="D55" s="8">
         <v>3393630.3</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="5">
+        <v>107.50143333333334</v>
+      </c>
+      <c r="F55" s="10">
         <v>120.474</v>
       </c>
-      <c r="F55" s="9">
+      <c r="G55" s="9">
         <v>74.489999999999995</v>
       </c>
-      <c r="G55" s="3">
+      <c r="H55" s="3">
         <v>101.77</v>
       </c>
-      <c r="H55" s="11">
+      <c r="I55" s="11">
         <v>12.9</v>
       </c>
-      <c r="I55" s="3">
+      <c r="J55" s="3">
         <v>54.96</v>
       </c>
-      <c r="J55" s="5">
+      <c r="K55" s="5">
         <v>2.4707175208288219</v>
       </c>
-      <c r="K55" s="5">
+      <c r="L55" s="5">
         <v>-48.333333333333336</v>
       </c>
-      <c r="L55" s="11">
+      <c r="M55" s="11">
         <v>-0.27954881580700253</v>
       </c>
-      <c r="M55" s="5">
+      <c r="N55" s="5">
         <v>4.2399999999999993</v>
       </c>
-      <c r="N55" s="8">
-        <v>0</v>
-      </c>
-      <c r="O55" s="8">
-        <v>0</v>
-      </c>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="16"/>
+      <c r="O55" s="5">
+        <v>-2.5333333333333337</v>
+      </c>
+      <c r="P55" s="5">
+        <v>9.7744705706344828</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>0</v>
+      </c>
+      <c r="R55" s="8">
+        <v>0</v>
+      </c>
+      <c r="S55" s="18"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
       <c r="X55" s="16"/>
       <c r="Y55" s="16"/>
       <c r="Z55" s="16"/>
@@ -4063,8 +4567,11 @@
       <c r="AC55" s="16"/>
       <c r="AD55" s="16"/>
       <c r="AE55" s="16"/>
-    </row>
-    <row r="56" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF55" s="16"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="16"/>
+    </row>
+    <row r="56" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>43282</v>
       </c>
@@ -4077,47 +4584,53 @@
       <c r="D56" s="8">
         <v>3416540.8</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="5">
+        <v>98.387080000000012</v>
+      </c>
+      <c r="F56" s="10">
         <v>120.706</v>
       </c>
-      <c r="F56" s="9">
+      <c r="G56" s="9">
         <v>75.476666666666674</v>
       </c>
-      <c r="G56" s="3">
+      <c r="H56" s="3">
         <v>102.45</v>
       </c>
-      <c r="H56" s="11">
+      <c r="I56" s="11">
         <v>15.53</v>
       </c>
-      <c r="I56" s="3">
+      <c r="J56" s="3">
         <v>55.22</v>
       </c>
-      <c r="J56" s="5">
+      <c r="K56" s="5">
         <v>2.4619576893794162</v>
       </c>
-      <c r="K56" s="5">
+      <c r="L56" s="5">
         <v>-46.233333333333341</v>
       </c>
-      <c r="L56" s="11">
+      <c r="M56" s="11">
         <v>3.9480641484302359E-2</v>
       </c>
-      <c r="M56" s="5">
+      <c r="N56" s="5">
         <v>4.0766666666666662</v>
       </c>
-      <c r="N56" s="8">
-        <v>0</v>
-      </c>
-      <c r="O56" s="8">
-        <v>0</v>
-      </c>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
+      <c r="O56" s="5">
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="P56" s="5">
+        <v>11.26656046334938</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>0</v>
+      </c>
+      <c r="R56" s="8">
+        <v>0</v>
+      </c>
+      <c r="S56" s="18"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="17"/>
       <c r="X56" s="16"/>
       <c r="Y56" s="16"/>
       <c r="Z56" s="16"/>
@@ -4126,8 +4639,11 @@
       <c r="AC56" s="16"/>
       <c r="AD56" s="16"/>
       <c r="AE56" s="16"/>
-    </row>
-    <row r="57" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF56" s="16"/>
+      <c r="AG56" s="16"/>
+      <c r="AH56" s="16"/>
+    </row>
+    <row r="57" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>43374</v>
       </c>
@@ -4140,47 +4656,53 @@
       <c r="D57" s="8">
         <v>3455028.9</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="5">
+        <v>85.219286666666676</v>
+      </c>
+      <c r="F57" s="10">
         <v>126.943</v>
       </c>
-      <c r="F57" s="9">
+      <c r="G57" s="9">
         <v>67.36666666666666</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>102.23</v>
       </c>
-      <c r="H57" s="11">
+      <c r="I57" s="11">
         <v>15.52</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>55.3</v>
       </c>
-      <c r="J57" s="5">
+      <c r="K57" s="5">
         <v>-0.34413675058752302</v>
       </c>
-      <c r="K57" s="5">
+      <c r="L57" s="5">
         <v>-31.599999999999998</v>
       </c>
-      <c r="L57" s="11">
+      <c r="M57" s="11">
         <v>0.64013421619929634</v>
       </c>
-      <c r="M57" s="5">
+      <c r="N57" s="5">
         <v>4.3566666666666665</v>
       </c>
-      <c r="N57" s="8">
-        <v>0</v>
-      </c>
-      <c r="O57" s="8">
-        <v>0</v>
-      </c>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="16"/>
-      <c r="V57" s="16"/>
-      <c r="W57" s="16"/>
+      <c r="O57" s="5">
+        <v>-3.1</v>
+      </c>
+      <c r="P57" s="5">
+        <v>7.8380606532524446</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>0</v>
+      </c>
+      <c r="R57" s="8">
+        <v>0</v>
+      </c>
+      <c r="S57" s="18"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
       <c r="X57" s="16"/>
       <c r="Y57" s="16"/>
       <c r="Z57" s="16"/>
@@ -4189,8 +4711,11 @@
       <c r="AC57" s="16"/>
       <c r="AD57" s="16"/>
       <c r="AE57" s="16"/>
-    </row>
-    <row r="58" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF57" s="16"/>
+      <c r="AG57" s="16"/>
+      <c r="AH57" s="16"/>
+    </row>
+    <row r="58" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>43466</v>
       </c>
@@ -4203,47 +4728,53 @@
       <c r="D58" s="8">
         <v>3493941.2</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="5">
+        <v>90.156360000000006</v>
+      </c>
+      <c r="F58" s="10">
         <v>124.684</v>
       </c>
-      <c r="F58" s="9">
+      <c r="G58" s="9">
         <v>63.27</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>102.09</v>
       </c>
-      <c r="H58" s="11">
+      <c r="I58" s="11">
         <v>14.85</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>55.83</v>
       </c>
-      <c r="J58" s="5">
+      <c r="K58" s="5">
         <v>-0.18104573545520619</v>
       </c>
-      <c r="K58" s="5">
+      <c r="L58" s="5">
         <v>-32.833333333333336</v>
       </c>
-      <c r="L58" s="11">
+      <c r="M58" s="11">
         <v>-0.69750224246385439</v>
       </c>
-      <c r="M58" s="5">
+      <c r="N58" s="5">
         <v>3.936666666666667</v>
       </c>
-      <c r="N58" s="8">
-        <v>0</v>
-      </c>
-      <c r="O58" s="8">
-        <v>0</v>
-      </c>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="16"/>
-      <c r="V58" s="16"/>
-      <c r="W58" s="16"/>
+      <c r="O58" s="5">
+        <v>-2.8000000000000003</v>
+      </c>
+      <c r="P58" s="5">
+        <v>8.18404078164472</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>0</v>
+      </c>
+      <c r="R58" s="8">
+        <v>0</v>
+      </c>
+      <c r="S58" s="18"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
       <c r="X58" s="16"/>
       <c r="Y58" s="16"/>
       <c r="Z58" s="16"/>
@@ -4252,8 +4783,11 @@
       <c r="AC58" s="16"/>
       <c r="AD58" s="16"/>
       <c r="AE58" s="16"/>
-    </row>
-    <row r="59" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF58" s="16"/>
+      <c r="AG58" s="16"/>
+      <c r="AH58" s="16"/>
+    </row>
+    <row r="59" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>43556</v>
       </c>
@@ -4266,47 +4800,53 @@
       <c r="D59" s="8">
         <v>3522938.2</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="5">
+        <v>106.28089999999999</v>
+      </c>
+      <c r="F59" s="10">
         <v>133.90600000000001</v>
       </c>
-      <c r="F59" s="9">
+      <c r="G59" s="9">
         <v>68.343333333333348</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>102.41</v>
       </c>
-      <c r="H59" s="11">
+      <c r="I59" s="11">
         <v>12.35</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>56.75</v>
       </c>
-      <c r="J59" s="5">
+      <c r="K59" s="5">
         <v>-0.62526800735390775</v>
       </c>
-      <c r="K59" s="5">
+      <c r="L59" s="5">
         <v>-30.933333333333337</v>
       </c>
-      <c r="L59" s="11">
+      <c r="M59" s="11">
         <v>-2.7585673499091634E-2</v>
       </c>
-      <c r="M59" s="5">
+      <c r="N59" s="5">
         <v>3.1533333333333338</v>
       </c>
-      <c r="N59" s="8">
-        <v>0</v>
-      </c>
-      <c r="O59" s="8">
-        <v>0</v>
-      </c>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="16"/>
-      <c r="V59" s="16"/>
-      <c r="W59" s="16"/>
+      <c r="O59" s="5">
+        <v>-1.4333333333333333</v>
+      </c>
+      <c r="P59" s="5">
+        <v>2.400284333706177</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>0</v>
+      </c>
+      <c r="R59" s="8">
+        <v>0</v>
+      </c>
+      <c r="S59" s="18"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
       <c r="X59" s="16"/>
       <c r="Y59" s="16"/>
       <c r="Z59" s="16"/>
@@ -4315,8 +4855,11 @@
       <c r="AC59" s="16"/>
       <c r="AD59" s="16"/>
       <c r="AE59" s="16"/>
-    </row>
-    <row r="60" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF59" s="16"/>
+      <c r="AG59" s="16"/>
+      <c r="AH59" s="16"/>
+    </row>
+    <row r="60" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>43647</v>
       </c>
@@ -4329,47 +4872,53 @@
       <c r="D60" s="8">
         <v>3545913.4</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="5">
+        <v>116.02940000000001</v>
+      </c>
+      <c r="F60" s="10">
         <v>133.57499999999999</v>
       </c>
-      <c r="F60" s="9">
+      <c r="G60" s="9">
         <v>61.859999999999992</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>102.7</v>
       </c>
-      <c r="H60" s="11">
+      <c r="I60" s="11">
         <v>13.93</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56.7</v>
       </c>
-      <c r="J60" s="5">
+      <c r="K60" s="5">
         <v>1.3716628207112842</v>
       </c>
-      <c r="K60" s="5">
+      <c r="L60" s="5">
         <v>-10.6</v>
       </c>
-      <c r="L60" s="11">
+      <c r="M60" s="11">
         <v>0.68063648022636725</v>
       </c>
-      <c r="M60" s="5">
+      <c r="N60" s="5">
         <v>1.8800000000000001</v>
       </c>
-      <c r="N60" s="8">
-        <v>0</v>
-      </c>
-      <c r="O60" s="8">
-        <v>0</v>
-      </c>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="16"/>
-      <c r="V60" s="16"/>
-      <c r="W60" s="16"/>
+      <c r="O60" s="5">
+        <v>2</v>
+      </c>
+      <c r="P60" s="5">
+        <v>1.5824218654006621</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>0</v>
+      </c>
+      <c r="R60" s="8">
+        <v>0</v>
+      </c>
+      <c r="S60" s="18"/>
+      <c r="T60" s="15"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
       <c r="X60" s="16"/>
       <c r="Y60" s="16"/>
       <c r="Z60" s="16"/>
@@ -4378,8 +4927,11 @@
       <c r="AC60" s="16"/>
       <c r="AD60" s="16"/>
       <c r="AE60" s="16"/>
-    </row>
-    <row r="61" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF60" s="16"/>
+      <c r="AG60" s="16"/>
+      <c r="AH60" s="16"/>
+    </row>
+    <row r="61" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>43739</v>
       </c>
@@ -4392,47 +4944,53 @@
       <c r="D61" s="8">
         <v>3570054.1</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="5">
+        <v>118.57133333333333</v>
+      </c>
+      <c r="F61" s="10">
         <v>117.506</v>
       </c>
-      <c r="F61" s="9">
+      <c r="G61" s="9">
         <v>62.653333333333329</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>102.65</v>
       </c>
-      <c r="H61" s="11">
+      <c r="I61" s="11">
         <v>15.52</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>56.71</v>
       </c>
-      <c r="J61" s="5">
+      <c r="K61" s="5">
         <v>2.9285930950565073</v>
       </c>
-      <c r="K61" s="5">
+      <c r="L61" s="5">
         <v>-4.2</v>
       </c>
-      <c r="L61" s="11">
+      <c r="M61" s="11">
         <v>-1.107800617501322</v>
       </c>
-      <c r="M61" s="5">
+      <c r="N61" s="5">
         <v>1.3733333333333333</v>
       </c>
-      <c r="N61" s="8">
-        <v>0</v>
-      </c>
-      <c r="O61" s="8">
-        <v>0</v>
-      </c>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="17"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="16"/>
-      <c r="W61" s="16"/>
+      <c r="O61" s="5">
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="P61" s="5">
+        <v>-0.50425005364220465</v>
+      </c>
+      <c r="Q61" s="8">
+        <v>0</v>
+      </c>
+      <c r="R61" s="8">
+        <v>0</v>
+      </c>
+      <c r="S61" s="18"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
       <c r="X61" s="16"/>
       <c r="Y61" s="16"/>
       <c r="Z61" s="16"/>
@@ -4441,8 +4999,11 @@
       <c r="AC61" s="16"/>
       <c r="AD61" s="16"/>
       <c r="AE61" s="16"/>
-    </row>
-    <row r="62" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF61" s="16"/>
+      <c r="AG61" s="16"/>
+      <c r="AH61" s="16"/>
+    </row>
+    <row r="62" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>43831</v>
       </c>
@@ -4455,47 +5016,53 @@
       <c r="D62" s="8">
         <v>3483352</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="5">
+        <v>108.18600666666667</v>
+      </c>
+      <c r="F62" s="10">
         <v>111.827</v>
       </c>
-      <c r="F62" s="9">
+      <c r="G62" s="9">
         <v>50.526666666666664</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>102.66</v>
       </c>
-      <c r="H62" s="11">
+      <c r="I62" s="11">
         <v>18.28</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>56.74</v>
       </c>
-      <c r="J62" s="5">
+      <c r="K62" s="5">
         <v>2.3051885865523114</v>
       </c>
-      <c r="K62" s="5">
+      <c r="L62" s="5">
         <v>-14.4</v>
       </c>
-      <c r="L62" s="11">
+      <c r="M62" s="11">
         <v>0.64152818235095455</v>
       </c>
-      <c r="M62" s="5">
+      <c r="N62" s="5">
         <v>1.46</v>
       </c>
-      <c r="N62" s="8">
-        <v>0</v>
-      </c>
-      <c r="O62" s="8">
-        <v>0</v>
-      </c>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="16"/>
-      <c r="V62" s="16"/>
-      <c r="W62" s="16"/>
+      <c r="O62" s="5">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="P62" s="5">
+        <v>3.1161351885255959</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>0</v>
+      </c>
+      <c r="R62" s="8">
+        <v>0</v>
+      </c>
+      <c r="S62" s="18"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
       <c r="X62" s="16"/>
       <c r="Y62" s="16"/>
       <c r="Z62" s="16"/>
@@ -4504,8 +5071,11 @@
       <c r="AC62" s="16"/>
       <c r="AD62" s="16"/>
       <c r="AE62" s="16"/>
-    </row>
-    <row r="63" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF62" s="16"/>
+      <c r="AG62" s="16"/>
+      <c r="AH62" s="16"/>
+    </row>
+    <row r="63" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>43922</v>
       </c>
@@ -4518,47 +5088,53 @@
       <c r="D63" s="8">
         <v>3134250.5</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="5">
+        <v>84.585599999999999</v>
+      </c>
+      <c r="F63" s="10">
         <v>95.454999999999998</v>
       </c>
-      <c r="F63" s="9">
+      <c r="G63" s="9">
         <v>31.429999999999996</v>
       </c>
-      <c r="G63" s="3">
+      <c r="H63" s="3">
         <v>101.22</v>
       </c>
-      <c r="H63" s="11">
+      <c r="I63" s="11">
         <v>12.63</v>
       </c>
-      <c r="I63" s="3">
+      <c r="J63" s="3">
         <v>55.46</v>
       </c>
-      <c r="J63" s="5">
+      <c r="K63" s="5">
         <v>-10.396878200393122</v>
       </c>
-      <c r="K63" s="5">
+      <c r="L63" s="5">
         <v>-38.300000000000004</v>
       </c>
-      <c r="L63" s="11">
+      <c r="M63" s="11">
         <v>-1.4821295654638504</v>
       </c>
-      <c r="M63" s="5">
+      <c r="N63" s="5">
         <v>1.7666666666666666</v>
       </c>
-      <c r="N63" s="8">
+      <c r="O63" s="5">
+        <v>-17.166666666666668</v>
+      </c>
+      <c r="P63" s="5">
+        <v>-15.596757634013921</v>
+      </c>
+      <c r="Q63" s="8">
         <v>1</v>
       </c>
-      <c r="O63" s="8">
-        <v>0</v>
-      </c>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="16"/>
+      <c r="R63" s="8">
+        <v>0</v>
+      </c>
+      <c r="S63" s="18"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="17"/>
       <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
+      <c r="W63" s="17"/>
       <c r="X63" s="16"/>
       <c r="Y63" s="16"/>
       <c r="Z63" s="16"/>
@@ -4567,8 +5143,11 @@
       <c r="AC63" s="16"/>
       <c r="AD63" s="16"/>
       <c r="AE63" s="16"/>
-    </row>
-    <row r="64" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF63" s="16"/>
+      <c r="AG63" s="16"/>
+      <c r="AH63" s="16"/>
+    </row>
+    <row r="64" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>44013</v>
       </c>
@@ -4581,47 +5160,53 @@
       <c r="D64" s="8">
         <v>3453617.6</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="5">
+        <v>86.038973333333331</v>
+      </c>
+      <c r="F64" s="10">
         <v>90.138999999999996</v>
       </c>
-      <c r="F64" s="9">
+      <c r="G64" s="9">
         <v>42.72</v>
       </c>
-      <c r="G64" s="3">
+      <c r="H64" s="3">
         <v>100.42</v>
       </c>
-      <c r="H64" s="11">
+      <c r="I64" s="11">
         <v>26.78</v>
       </c>
-      <c r="I64" s="3">
+      <c r="J64" s="3">
         <v>56.3</v>
       </c>
-      <c r="J64" s="5">
+      <c r="K64" s="5">
         <v>-2.4950433419369618</v>
       </c>
-      <c r="K64" s="5">
+      <c r="L64" s="5">
         <v>-37</v>
       </c>
-      <c r="L64" s="11">
+      <c r="M64" s="11">
         <v>1.5398031967424692</v>
       </c>
-      <c r="M64" s="5">
+      <c r="N64" s="5">
         <v>1.0999999999999999</v>
       </c>
-      <c r="N64" s="8">
-        <v>0</v>
-      </c>
-      <c r="O64" s="8">
+      <c r="O64" s="5">
+        <v>-15.366666666666667</v>
+      </c>
+      <c r="P64" s="5">
+        <v>-8.2318589810028389</v>
+      </c>
+      <c r="Q64" s="8">
+        <v>0</v>
+      </c>
+      <c r="R64" s="8">
         <v>1</v>
       </c>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="17"/>
       <c r="X64" s="16"/>
       <c r="Y64" s="16"/>
       <c r="Z64" s="16"/>
@@ -4630,8 +5215,11 @@
       <c r="AC64" s="16"/>
       <c r="AD64" s="16"/>
       <c r="AE64" s="16"/>
-    </row>
-    <row r="65" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF64" s="16"/>
+      <c r="AG64" s="16"/>
+      <c r="AH64" s="16"/>
+    </row>
+    <row r="65" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>44105</v>
       </c>
@@ -4644,47 +5232,53 @@
       <c r="D65" s="8">
         <v>3499125.7</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="5">
+        <v>93.375229999999988</v>
+      </c>
+      <c r="F65" s="10">
         <v>102.57899999999999</v>
       </c>
-      <c r="F65" s="9">
+      <c r="G65" s="9">
         <v>44.523333333333333</v>
       </c>
-      <c r="G65" s="3">
+      <c r="H65" s="3">
         <v>100.4</v>
       </c>
-      <c r="H65" s="11">
+      <c r="I65" s="11">
         <v>20.52</v>
       </c>
-      <c r="I65" s="3">
+      <c r="J65" s="3">
         <v>56.61</v>
       </c>
-      <c r="J65" s="5">
+      <c r="K65" s="5">
         <v>-4.9039897737184921</v>
       </c>
-      <c r="K65" s="5">
+      <c r="L65" s="5">
         <v>-40.233333333333334</v>
       </c>
-      <c r="L65" s="11">
+      <c r="M65" s="11">
         <v>0.97034966989242211</v>
       </c>
-      <c r="M65" s="5">
+      <c r="N65" s="5">
         <v>0.7599999999999999</v>
       </c>
-      <c r="N65" s="8">
-        <v>0</v>
-      </c>
-      <c r="O65" s="8">
-        <v>0</v>
-      </c>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="16"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="16"/>
+      <c r="O65" s="5">
+        <v>-7.833333333333333</v>
+      </c>
+      <c r="P65" s="5">
+        <v>-8.50866293113247</v>
+      </c>
+      <c r="Q65" s="8">
+        <v>0</v>
+      </c>
+      <c r="R65" s="8">
+        <v>0</v>
+      </c>
+      <c r="S65" s="18"/>
+      <c r="T65" s="15"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
       <c r="X65" s="16"/>
       <c r="Y65" s="16"/>
       <c r="Z65" s="16"/>
@@ -4693,8 +5287,11 @@
       <c r="AC65" s="16"/>
       <c r="AD65" s="16"/>
       <c r="AE65" s="16"/>
-    </row>
-    <row r="66" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF65" s="16"/>
+      <c r="AG65" s="16"/>
+      <c r="AH65" s="16"/>
+    </row>
+    <row r="66" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>44197</v>
       </c>
@@ -4707,47 +5304,53 @@
       <c r="D66" s="8">
         <v>3553019.2</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="5">
+        <v>108.38506666666667</v>
+      </c>
+      <c r="F66" s="10">
         <v>110.863</v>
       </c>
-      <c r="F66" s="9">
+      <c r="G66" s="9">
         <v>60.566666666666663</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100.51</v>
       </c>
-      <c r="H66" s="11">
+      <c r="I66" s="11">
         <v>13.33</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>53.49</v>
       </c>
-      <c r="J66" s="5">
+      <c r="K66" s="5">
         <v>-1.6736260431475365</v>
       </c>
-      <c r="K66" s="5">
+      <c r="L66" s="5">
         <v>-40.733333333333327</v>
       </c>
-      <c r="L66" s="11">
+      <c r="M66" s="11">
         <v>1.1374495216736578</v>
       </c>
-      <c r="M66" s="5">
+      <c r="N66" s="5">
         <v>0.79</v>
       </c>
-      <c r="N66" s="8">
-        <v>0</v>
-      </c>
-      <c r="O66" s="8">
-        <v>0</v>
-      </c>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="16"/>
+      <c r="O66" s="5">
+        <v>-6.5</v>
+      </c>
+      <c r="P66" s="5">
+        <v>-5.0383875766812807</v>
+      </c>
+      <c r="Q66" s="8">
+        <v>0</v>
+      </c>
+      <c r="R66" s="8">
+        <v>0</v>
+      </c>
+      <c r="S66" s="18"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="17"/>
       <c r="V66" s="16"/>
-      <c r="W66" s="16"/>
+      <c r="W66" s="17"/>
       <c r="X66" s="16"/>
       <c r="Y66" s="16"/>
       <c r="Z66" s="16"/>
@@ -4756,8 +5359,11 @@
       <c r="AC66" s="16"/>
       <c r="AD66" s="16"/>
       <c r="AE66" s="16"/>
-    </row>
-    <row r="67" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF66" s="16"/>
+      <c r="AG66" s="16"/>
+      <c r="AH66" s="16"/>
+    </row>
+    <row r="67" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>44287</v>
       </c>
@@ -4770,47 +5376,53 @@
       <c r="D67" s="8">
         <v>3643059.4</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="5">
+        <v>121.33936666666666</v>
+      </c>
+      <c r="F67" s="10">
         <v>119.20099999999999</v>
       </c>
-      <c r="F67" s="9">
+      <c r="G67" s="9">
         <v>68.626666666666665</v>
       </c>
-      <c r="G67" s="3">
+      <c r="H67" s="3">
         <v>100.64</v>
       </c>
-      <c r="H67" s="11">
+      <c r="I67" s="11">
         <v>21.69</v>
       </c>
-      <c r="I67" s="3">
+      <c r="J67" s="3">
         <v>56.65</v>
       </c>
-      <c r="J67" s="5">
+      <c r="K67" s="5">
         <v>21.603455056533075</v>
       </c>
-      <c r="K67" s="5">
+      <c r="L67" s="5">
         <v>-28.333333333333332</v>
       </c>
-      <c r="L67" s="11">
+      <c r="M67" s="11">
         <v>-0.49023335149984459</v>
       </c>
-      <c r="M67" s="5">
+      <c r="N67" s="5">
         <v>0.89333333333333342</v>
       </c>
-      <c r="N67" s="8">
-        <v>0</v>
-      </c>
-      <c r="O67" s="8">
-        <v>0</v>
-      </c>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="17"/>
-      <c r="U67" s="16"/>
-      <c r="V67" s="16"/>
-      <c r="W67" s="16"/>
+      <c r="O67" s="5">
+        <v>-0.33333333333333348</v>
+      </c>
+      <c r="P67" s="5">
+        <v>25.4883117200635</v>
+      </c>
+      <c r="Q67" s="8">
+        <v>0</v>
+      </c>
+      <c r="R67" s="8">
+        <v>0</v>
+      </c>
+      <c r="S67" s="18"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
       <c r="X67" s="16"/>
       <c r="Y67" s="16"/>
       <c r="Z67" s="16"/>
@@ -4819,8 +5431,11 @@
       <c r="AC67" s="16"/>
       <c r="AD67" s="16"/>
       <c r="AE67" s="16"/>
-    </row>
-    <row r="68" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF67" s="16"/>
+      <c r="AG67" s="16"/>
+      <c r="AH67" s="16"/>
+    </row>
+    <row r="68" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>44378</v>
       </c>
@@ -4833,47 +5448,53 @@
       <c r="D68" s="8">
         <v>3749750.4</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="5">
+        <v>120.14226666666666</v>
+      </c>
+      <c r="F68" s="10">
         <v>134.036</v>
       </c>
-      <c r="F68" s="9">
+      <c r="G68" s="9">
         <v>73.00333333333333</v>
       </c>
-      <c r="G68" s="3">
+      <c r="H68" s="3">
         <v>101.69</v>
       </c>
-      <c r="H68" s="11">
+      <c r="I68" s="11">
         <v>34.549999999999997</v>
       </c>
-      <c r="I68" s="3">
+      <c r="J68" s="3">
         <v>59.37</v>
       </c>
-      <c r="J68" s="5">
+      <c r="K68" s="5">
         <v>8.5595966545398987</v>
       </c>
-      <c r="K68" s="5">
+      <c r="L68" s="5">
         <v>-33.633333333333333</v>
       </c>
-      <c r="L68" s="11">
+      <c r="M68" s="11">
         <v>2.1347653778548996</v>
       </c>
-      <c r="M68" s="5">
+      <c r="N68" s="5">
         <v>0.69666666666666666</v>
       </c>
-      <c r="N68" s="8">
-        <v>0</v>
-      </c>
-      <c r="O68" s="8">
-        <v>0</v>
-      </c>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
+      <c r="O68" s="5">
+        <v>8.4333333333333318</v>
+      </c>
+      <c r="P68" s="5">
+        <v>21.625826081991988</v>
+      </c>
+      <c r="Q68" s="8">
+        <v>0</v>
+      </c>
+      <c r="R68" s="8">
+        <v>0</v>
+      </c>
+      <c r="S68" s="18"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
       <c r="X68" s="16"/>
       <c r="Y68" s="16"/>
       <c r="Z68" s="16"/>
@@ -4882,8 +5503,11 @@
       <c r="AC68" s="16"/>
       <c r="AD68" s="16"/>
       <c r="AE68" s="16"/>
-    </row>
-    <row r="69" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF68" s="16"/>
+      <c r="AG68" s="16"/>
+      <c r="AH68" s="16"/>
+    </row>
+    <row r="69" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>44470</v>
       </c>
@@ -4896,47 +5520,53 @@
       <c r="D69" s="8">
         <v>3829372.7</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="5">
+        <v>120.89756666666666</v>
+      </c>
+      <c r="F69" s="10">
         <v>133.387</v>
       </c>
-      <c r="F69" s="9">
+      <c r="G69" s="9">
         <v>79.576666666666668</v>
       </c>
-      <c r="G69" s="3">
+      <c r="H69" s="3">
         <v>104.15</v>
       </c>
-      <c r="H69" s="11">
+      <c r="I69" s="11">
         <v>18.52</v>
       </c>
-      <c r="I69" s="3">
+      <c r="J69" s="3">
         <v>59.42</v>
       </c>
-      <c r="J69" s="5">
+      <c r="K69" s="5">
         <v>14.949616559222326</v>
       </c>
-      <c r="K69" s="5">
+      <c r="L69" s="5">
         <v>-38.833333333333336</v>
       </c>
-      <c r="L69" s="11">
+      <c r="M69" s="11">
         <v>0.27812451788017778</v>
       </c>
-      <c r="M69" s="5">
+      <c r="N69" s="5">
         <v>1.1566666666666665</v>
       </c>
-      <c r="N69" s="8">
-        <v>0</v>
-      </c>
-      <c r="O69" s="8">
-        <v>0</v>
-      </c>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="17"/>
-      <c r="T69" s="17"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
+      <c r="O69" s="5">
+        <v>9.7333333333333343</v>
+      </c>
+      <c r="P69" s="5">
+        <v>30.972419512551209</v>
+      </c>
+      <c r="Q69" s="8">
+        <v>0</v>
+      </c>
+      <c r="R69" s="8">
+        <v>0</v>
+      </c>
+      <c r="S69" s="18"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
       <c r="X69" s="16"/>
       <c r="Y69" s="16"/>
       <c r="Z69" s="16"/>
@@ -4945,8 +5575,11 @@
       <c r="AC69" s="16"/>
       <c r="AD69" s="16"/>
       <c r="AE69" s="16"/>
-    </row>
-    <row r="70" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF69" s="16"/>
+      <c r="AG69" s="16"/>
+      <c r="AH69" s="16"/>
+    </row>
+    <row r="70" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>44562</v>
       </c>
@@ -4959,47 +5592,53 @@
       <c r="D70" s="8">
         <v>3921454.8</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="5">
+        <v>122.6671</v>
+      </c>
+      <c r="F70" s="10">
         <v>128.58199999999999</v>
       </c>
-      <c r="F70" s="9">
+      <c r="G70" s="9">
         <v>98.96</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>107.13</v>
       </c>
-      <c r="H70" s="11">
+      <c r="I70" s="11">
         <v>19.04</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>60.09</v>
       </c>
-      <c r="J70" s="5">
+      <c r="K70" s="5">
         <v>10.707336195173371</v>
       </c>
-      <c r="K70" s="5">
+      <c r="L70" s="5">
         <v>-43.6</v>
       </c>
-      <c r="L70" s="11">
+      <c r="M70" s="11">
         <v>1.2030928391142157</v>
       </c>
-      <c r="M70" s="5">
+      <c r="N70" s="5">
         <v>2.23</v>
       </c>
-      <c r="N70" s="8">
-        <v>0</v>
-      </c>
-      <c r="O70" s="8">
-        <v>0</v>
-      </c>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="17"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="16"/>
+      <c r="O70" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="P70" s="5">
+        <v>17.984927189971319</v>
+      </c>
+      <c r="Q70" s="8">
+        <v>0</v>
+      </c>
+      <c r="R70" s="8">
+        <v>0</v>
+      </c>
+      <c r="S70" s="18"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
       <c r="X70" s="16"/>
       <c r="Y70" s="16"/>
       <c r="Z70" s="16"/>
@@ -5008,8 +5647,11 @@
       <c r="AC70" s="16"/>
       <c r="AD70" s="16"/>
       <c r="AE70" s="16"/>
-    </row>
-    <row r="71" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF70" s="16"/>
+      <c r="AG70" s="16"/>
+      <c r="AH70" s="16"/>
+    </row>
+    <row r="71" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>44652</v>
       </c>
@@ -5022,47 +5664,53 @@
       <c r="D71" s="8">
         <v>4009713.5</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="5">
+        <v>119.15186666666666</v>
+      </c>
+      <c r="F71" s="10">
         <v>136.18100000000001</v>
       </c>
-      <c r="F71" s="9">
+      <c r="G71" s="9">
         <v>112.74333333333334</v>
       </c>
-      <c r="G71" s="3">
+      <c r="H71" s="3">
         <v>111.14</v>
       </c>
-      <c r="H71" s="11">
+      <c r="I71" s="11">
         <v>19.22</v>
       </c>
-      <c r="I71" s="3">
+      <c r="J71" s="3">
         <v>60.72</v>
       </c>
-      <c r="J71" s="5">
+      <c r="K71" s="5">
         <v>1.687439359248617</v>
       </c>
-      <c r="K71" s="5">
+      <c r="L71" s="5">
         <v>-53.033333333333331</v>
       </c>
-      <c r="L71" s="11">
+      <c r="M71" s="11">
         <v>-0.40456738939497372</v>
       </c>
-      <c r="M71" s="5">
+      <c r="N71" s="5">
         <v>3.4533333333333331</v>
       </c>
-      <c r="N71" s="8">
-        <v>0</v>
-      </c>
-      <c r="O71" s="8">
-        <v>0</v>
-      </c>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="17"/>
-      <c r="T71" s="17"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
+      <c r="O71" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="P71" s="5">
+        <v>15.063330282124779</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>0</v>
+      </c>
+      <c r="R71" s="8">
+        <v>0</v>
+      </c>
+      <c r="S71" s="18"/>
+      <c r="T71" s="15"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="17"/>
       <c r="X71" s="16"/>
       <c r="Y71" s="16"/>
       <c r="Z71" s="16"/>
@@ -5071,8 +5719,11 @@
       <c r="AC71" s="16"/>
       <c r="AD71" s="16"/>
       <c r="AE71" s="16"/>
-    </row>
-    <row r="72" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF71" s="16"/>
+      <c r="AG71" s="16"/>
+      <c r="AH71" s="16"/>
+    </row>
+    <row r="72" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>44743</v>
       </c>
@@ -5085,47 +5736,53 @@
       <c r="D72" s="8">
         <v>4078045.1</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="5">
+        <v>113.11363333333333</v>
+      </c>
+      <c r="F72" s="10">
         <v>132.99100000000001</v>
       </c>
-      <c r="F72" s="9">
+      <c r="G72" s="9">
         <v>99.226666666666645</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>113.43</v>
       </c>
-      <c r="H72" s="11">
+      <c r="I72" s="11">
         <v>17.940000000000001</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>61.14</v>
       </c>
-      <c r="J72" s="5">
+      <c r="K72" s="5">
         <v>2.4516454463029329</v>
       </c>
-      <c r="K72" s="5">
+      <c r="L72" s="5">
         <v>-53.566666666666663</v>
       </c>
-      <c r="L72" s="11">
+      <c r="M72" s="11">
         <v>-1.1023044527198622</v>
       </c>
-      <c r="M72" s="5">
+      <c r="N72" s="5">
         <v>3.7600000000000002</v>
       </c>
-      <c r="N72" s="8">
-        <v>0</v>
-      </c>
-      <c r="O72" s="8">
-        <v>0</v>
-      </c>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="17"/>
-      <c r="T72" s="17"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
+      <c r="O72" s="5">
+        <v>-2.8000000000000003</v>
+      </c>
+      <c r="P72" s="5">
+        <v>4.8750152790144714</v>
+      </c>
+      <c r="Q72" s="8">
+        <v>0</v>
+      </c>
+      <c r="R72" s="8">
+        <v>0</v>
+      </c>
+      <c r="S72" s="18"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="17"/>
       <c r="X72" s="16"/>
       <c r="Y72" s="16"/>
       <c r="Z72" s="16"/>
@@ -5134,8 +5791,11 @@
       <c r="AC72" s="16"/>
       <c r="AD72" s="16"/>
       <c r="AE72" s="16"/>
-    </row>
-    <row r="73" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF72" s="16"/>
+      <c r="AG72" s="16"/>
+      <c r="AH72" s="16"/>
+    </row>
+    <row r="73" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>44835</v>
       </c>
@@ -5148,47 +5808,53 @@
       <c r="D73" s="8">
         <v>4151186.2</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="5">
+        <v>119.35590000000001</v>
+      </c>
+      <c r="F73" s="10">
         <v>132.602</v>
       </c>
-      <c r="F73" s="9">
+      <c r="G73" s="9">
         <v>88.366666666666674</v>
       </c>
-      <c r="G73" s="3">
+      <c r="H73" s="3">
         <v>113.13</v>
       </c>
-      <c r="H73" s="11">
+      <c r="I73" s="11">
         <v>16.52</v>
       </c>
-      <c r="I73" s="3">
+      <c r="J73" s="3">
         <v>60.93</v>
       </c>
-      <c r="J73" s="5">
+      <c r="K73" s="5">
         <v>-0.66443969740927067</v>
       </c>
-      <c r="K73" s="5">
+      <c r="L73" s="5">
         <v>-52.566666666666663</v>
       </c>
-      <c r="L73" s="11">
+      <c r="M73" s="11">
         <v>0.17583495838569732</v>
       </c>
-      <c r="M73" s="5">
+      <c r="N73" s="5">
         <v>4.503333333333333</v>
       </c>
-      <c r="N73" s="8">
-        <v>0</v>
-      </c>
-      <c r="O73" s="8">
-        <v>0</v>
-      </c>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="17"/>
-      <c r="S73" s="17"/>
-      <c r="T73" s="17"/>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="16"/>
+      <c r="O73" s="5">
+        <v>-3.3000000000000003</v>
+      </c>
+      <c r="P73" s="5">
+        <v>7.3914096678278192</v>
+      </c>
+      <c r="Q73" s="8">
+        <v>0</v>
+      </c>
+      <c r="R73" s="8">
+        <v>0</v>
+      </c>
+      <c r="S73" s="18"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="17"/>
       <c r="X73" s="16"/>
       <c r="Y73" s="16"/>
       <c r="Z73" s="16"/>
@@ -5197,8 +5863,11 @@
       <c r="AC73" s="16"/>
       <c r="AD73" s="16"/>
       <c r="AE73" s="16"/>
-    </row>
-    <row r="74" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF73" s="16"/>
+      <c r="AG73" s="16"/>
+      <c r="AH73" s="16"/>
+    </row>
+    <row r="74" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>44927</v>
       </c>
@@ -5211,47 +5880,53 @@
       <c r="D74" s="8">
         <v>4243632.8</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="5">
+        <v>140.4675</v>
+      </c>
+      <c r="F74" s="10">
         <v>139.52600000000001</v>
       </c>
-      <c r="F74" s="9">
+      <c r="G74" s="9">
         <v>81.443333333333342</v>
       </c>
-      <c r="G74" s="3">
+      <c r="H74" s="3">
         <v>113.98</v>
       </c>
-      <c r="H74" s="11">
+      <c r="I74" s="11">
         <v>17.14</v>
       </c>
-      <c r="I74" s="3">
+      <c r="J74" s="3">
         <v>61.21</v>
       </c>
-      <c r="J74" s="5">
+      <c r="K74" s="5">
         <v>-2.1863370644732627</v>
       </c>
-      <c r="K74" s="5">
+      <c r="L74" s="5">
         <v>-43.300000000000004</v>
       </c>
-      <c r="L74" s="11">
+      <c r="M74" s="11">
         <v>1.6714875206993502</v>
       </c>
-      <c r="M74" s="5">
+      <c r="N74" s="5">
         <v>4.28</v>
       </c>
-      <c r="N74" s="8">
-        <v>0</v>
-      </c>
-      <c r="O74" s="8">
-        <v>0</v>
-      </c>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="16"/>
-      <c r="W74" s="16"/>
+      <c r="O74" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="P74" s="5">
+        <v>3.915425463407451</v>
+      </c>
+      <c r="Q74" s="8">
+        <v>0</v>
+      </c>
+      <c r="R74" s="8">
+        <v>0</v>
+      </c>
+      <c r="S74" s="18"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
       <c r="X74" s="16"/>
       <c r="Y74" s="16"/>
       <c r="Z74" s="16"/>
@@ -5260,8 +5935,11 @@
       <c r="AC74" s="16"/>
       <c r="AD74" s="16"/>
       <c r="AE74" s="16"/>
-    </row>
-    <row r="75" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF74" s="16"/>
+      <c r="AG74" s="16"/>
+      <c r="AH74" s="16"/>
+    </row>
+    <row r="75" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>45017</v>
       </c>
@@ -5274,47 +5952,53 @@
       <c r="D75" s="8">
         <v>4302131.5999999996</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="5">
+        <v>157.54913333333334</v>
+      </c>
+      <c r="F75" s="10">
         <v>133.61199999999999</v>
       </c>
-      <c r="F75" s="9">
+      <c r="G75" s="9">
         <v>78.233333333333334</v>
       </c>
-      <c r="G75" s="3">
+      <c r="H75" s="3">
         <v>115.36</v>
       </c>
-      <c r="H75" s="11">
+      <c r="I75" s="11">
         <v>14.27</v>
       </c>
-      <c r="I75" s="3">
+      <c r="J75" s="3">
         <v>62.02</v>
       </c>
-      <c r="J75" s="5">
+      <c r="K75" s="5">
         <v>-4.4818771242636259</v>
       </c>
-      <c r="K75" s="5">
+      <c r="L75" s="5">
         <v>-36.699999999999996</v>
       </c>
-      <c r="L75" s="11">
+      <c r="M75" s="11">
         <v>-1.6976220186845974</v>
       </c>
-      <c r="M75" s="5">
+      <c r="N75" s="5">
         <v>3.97</v>
       </c>
-      <c r="N75" s="8">
-        <v>0</v>
-      </c>
-      <c r="O75" s="8">
-        <v>0</v>
-      </c>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="17"/>
-      <c r="T75" s="17"/>
-      <c r="U75" s="16"/>
-      <c r="V75" s="16"/>
-      <c r="W75" s="16"/>
+      <c r="O75" s="5">
+        <v>2</v>
+      </c>
+      <c r="P75" s="5">
+        <v>-1.2424296355841311</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>0</v>
+      </c>
+      <c r="R75" s="8">
+        <v>0</v>
+      </c>
+      <c r="S75" s="18"/>
+      <c r="T75" s="15"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="17"/>
       <c r="X75" s="16"/>
       <c r="Y75" s="16"/>
       <c r="Z75" s="16"/>
@@ -5323,8 +6007,11 @@
       <c r="AC75" s="16"/>
       <c r="AD75" s="16"/>
       <c r="AE75" s="16"/>
-    </row>
-    <row r="76" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF75" s="16"/>
+      <c r="AG75" s="16"/>
+      <c r="AH75" s="16"/>
+    </row>
+    <row r="76" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>45108</v>
       </c>
@@ -5337,47 +6024,53 @@
       <c r="D76" s="8">
         <v>4331508.4000000004</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="5">
+        <v>173.73493333333332</v>
+      </c>
+      <c r="F76" s="10">
         <v>133.23599999999999</v>
       </c>
-      <c r="F76" s="9">
+      <c r="G76" s="9">
         <v>86.754333333333321</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>116.94</v>
       </c>
-      <c r="H76" s="11">
+      <c r="I76" s="11">
         <v>18.48</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>62.03</v>
       </c>
-      <c r="J76" s="5">
+      <c r="K76" s="5">
         <v>-3.2418076215242344</v>
       </c>
-      <c r="K76" s="5">
+      <c r="L76" s="5">
         <v>-36.333333333333336</v>
       </c>
-      <c r="L76" s="11">
+      <c r="M76" s="11">
         <v>0.70474906178332197</v>
       </c>
-      <c r="M76" s="5">
+      <c r="N76" s="5">
         <v>3.936666666666667</v>
       </c>
-      <c r="N76" s="8">
-        <v>0</v>
-      </c>
-      <c r="O76" s="8">
-        <v>0</v>
-      </c>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="17"/>
-      <c r="T76" s="17"/>
-      <c r="U76" s="16"/>
-      <c r="V76" s="16"/>
-      <c r="W76" s="16"/>
+      <c r="O76" s="5">
+        <v>1.2333333333333334</v>
+      </c>
+      <c r="P76" s="5">
+        <v>3.0918809231412081</v>
+      </c>
+      <c r="Q76" s="8">
+        <v>0</v>
+      </c>
+      <c r="R76" s="8">
+        <v>0</v>
+      </c>
+      <c r="S76" s="18"/>
+      <c r="T76" s="15"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="17"/>
+      <c r="W76" s="17"/>
       <c r="X76" s="16"/>
       <c r="Y76" s="16"/>
       <c r="Z76" s="16"/>
@@ -5386,8 +6079,11 @@
       <c r="AC76" s="16"/>
       <c r="AD76" s="16"/>
       <c r="AE76" s="16"/>
-    </row>
-    <row r="77" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF76" s="16"/>
+      <c r="AG76" s="16"/>
+      <c r="AH76" s="16"/>
+    </row>
+    <row r="77" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>45200</v>
       </c>
@@ -5400,47 +6096,53 @@
       <c r="D77" s="8">
         <v>4387256.3</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="5">
+        <v>166.54413333333332</v>
+      </c>
+      <c r="F77" s="10">
         <v>133.886</v>
       </c>
-      <c r="F77" s="9">
+      <c r="G77" s="9">
         <v>84.034000000000006</v>
       </c>
-      <c r="G77" s="3">
+      <c r="H77" s="3">
         <v>117.05</v>
       </c>
-      <c r="H77" s="11">
+      <c r="I77" s="11">
         <v>15.52</v>
       </c>
-      <c r="I77" s="3">
+      <c r="J77" s="3">
         <v>61.93</v>
       </c>
-      <c r="J77" s="5">
+      <c r="K77" s="5">
         <v>-3.0214874927275375</v>
       </c>
-      <c r="K77" s="5">
+      <c r="L77" s="5">
         <v>-43.533333333333339</v>
       </c>
-      <c r="L77" s="11">
+      <c r="M77" s="11">
         <v>0.82125937853980469</v>
       </c>
-      <c r="M77" s="5">
+      <c r="N77" s="5">
         <v>3.82</v>
       </c>
-      <c r="N77" s="8">
-        <v>0</v>
-      </c>
-      <c r="O77" s="8">
-        <v>0</v>
-      </c>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="17"/>
-      <c r="S77" s="17"/>
-      <c r="T77" s="17"/>
-      <c r="U77" s="16"/>
-      <c r="V77" s="16"/>
-      <c r="W77" s="16"/>
+      <c r="O77" s="5">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="P77" s="5">
+        <v>-1.9423817502255321</v>
+      </c>
+      <c r="Q77" s="8">
+        <v>0</v>
+      </c>
+      <c r="R77" s="8">
+        <v>0</v>
+      </c>
+      <c r="S77" s="18"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="17"/>
+      <c r="W77" s="17"/>
       <c r="X77" s="16"/>
       <c r="Y77" s="16"/>
       <c r="Z77" s="16"/>
@@ -5449,8 +6151,11 @@
       <c r="AC77" s="16"/>
       <c r="AD77" s="16"/>
       <c r="AE77" s="16"/>
-    </row>
-    <row r="78" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF77" s="16"/>
+      <c r="AG77" s="16"/>
+      <c r="AH77" s="16"/>
+    </row>
+    <row r="78" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>45292</v>
       </c>
@@ -5463,47 +6168,53 @@
       <c r="D78" s="8">
         <v>4437765.2</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="5">
+        <v>187.535</v>
+      </c>
+      <c r="F78" s="10">
         <v>133.86799999999999</v>
       </c>
-      <c r="F78" s="9">
+      <c r="G78" s="9">
         <v>83.146000000000001</v>
       </c>
-      <c r="G78" s="3">
+      <c r="H78" s="3">
         <v>117.67</v>
       </c>
-      <c r="H78" s="11">
+      <c r="I78" s="11">
         <v>15.23</v>
       </c>
-      <c r="I78" s="3">
+      <c r="J78" s="3">
         <v>62.53</v>
       </c>
-      <c r="J78" s="5">
+      <c r="K78" s="5">
         <v>-4.2401869665807661</v>
       </c>
-      <c r="K78" s="5">
+      <c r="L78" s="5">
         <v>-46.066666666666663</v>
       </c>
-      <c r="L78" s="11">
+      <c r="M78" s="11">
         <v>0.26336048363269887</v>
       </c>
-      <c r="M78" s="5">
+      <c r="N78" s="5">
         <v>3.3699999999999997</v>
       </c>
-      <c r="N78" s="8">
-        <v>0</v>
-      </c>
-      <c r="O78" s="8">
-        <v>0</v>
-      </c>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="17"/>
-      <c r="T78" s="17"/>
-      <c r="U78" s="16"/>
-      <c r="V78" s="16"/>
-      <c r="W78" s="16"/>
+      <c r="O78" s="5">
+        <v>-0.26666666666666661</v>
+      </c>
+      <c r="P78" s="5">
+        <v>4.5344366796213684</v>
+      </c>
+      <c r="Q78" s="8">
+        <v>0</v>
+      </c>
+      <c r="R78" s="8">
+        <v>0</v>
+      </c>
+      <c r="S78" s="18"/>
+      <c r="T78" s="15"/>
+      <c r="U78" s="17"/>
+      <c r="V78" s="17"/>
+      <c r="W78" s="17"/>
       <c r="X78" s="16"/>
       <c r="Y78" s="16"/>
       <c r="Z78" s="16"/>
@@ -5512,8 +6223,11 @@
       <c r="AC78" s="16"/>
       <c r="AD78" s="16"/>
       <c r="AE78" s="16"/>
-    </row>
-    <row r="79" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF78" s="16"/>
+      <c r="AG78" s="16"/>
+      <c r="AH78" s="16"/>
+    </row>
+    <row r="79" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>45383</v>
       </c>
@@ -5526,47 +6240,53 @@
       <c r="D79" s="8">
         <v>4475351.2</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="5">
+        <v>194.11059999999998</v>
+      </c>
+      <c r="F79" s="10">
         <v>136.52199999999999</v>
       </c>
-      <c r="F79" s="9">
+      <c r="G79" s="9">
         <v>84.868000000000009</v>
       </c>
-      <c r="G79" s="3">
+      <c r="H79" s="3">
         <v>118.43</v>
       </c>
-      <c r="H79" s="11">
+      <c r="I79" s="11">
         <v>21.41</v>
       </c>
-      <c r="I79" s="3">
+      <c r="J79" s="3">
         <v>63.61</v>
       </c>
-      <c r="J79" s="5">
+      <c r="K79" s="5">
         <v>2.6784327498909355</v>
       </c>
-      <c r="K79" s="5">
+      <c r="L79" s="5">
         <v>-42.733333333333327</v>
       </c>
-      <c r="L79" s="11">
+      <c r="M79" s="11">
         <v>1.6587442380861579</v>
       </c>
-      <c r="M79" s="5">
+      <c r="N79" s="5">
         <v>3.563333333333333</v>
       </c>
-      <c r="N79" s="8">
-        <v>0</v>
-      </c>
-      <c r="O79" s="8">
-        <v>0</v>
-      </c>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="17"/>
-      <c r="S79" s="17"/>
-      <c r="T79" s="17"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="16"/>
-      <c r="W79" s="16"/>
+      <c r="O79" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="P79" s="5">
+        <v>9.7817026814374408</v>
+      </c>
+      <c r="Q79" s="8">
+        <v>0</v>
+      </c>
+      <c r="R79" s="8">
+        <v>0</v>
+      </c>
+      <c r="S79" s="18"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="17"/>
       <c r="X79" s="16"/>
       <c r="Y79" s="16"/>
       <c r="Z79" s="16"/>
@@ -5575,8 +6295,11 @@
       <c r="AC79" s="16"/>
       <c r="AD79" s="16"/>
       <c r="AE79" s="16"/>
-    </row>
-    <row r="80" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF79" s="16"/>
+      <c r="AG79" s="16"/>
+      <c r="AH79" s="16"/>
+    </row>
+    <row r="80" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>45474</v>
       </c>
@@ -5589,47 +6312,53 @@
       <c r="D80" s="8">
         <v>4523628.8</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="5">
+        <v>194.00026666666668</v>
+      </c>
+      <c r="F80" s="10">
         <v>137.27000000000001</v>
       </c>
-      <c r="F80" s="9">
+      <c r="G80" s="9">
         <v>80.150666666666666</v>
       </c>
-      <c r="G80" s="3">
+      <c r="H80" s="3">
         <v>120.57</v>
       </c>
-      <c r="H80" s="11">
+      <c r="I80" s="11">
         <v>15.27</v>
       </c>
-      <c r="I80" s="3">
+      <c r="J80" s="3">
         <v>63.32</v>
       </c>
-      <c r="J80" s="5">
+      <c r="K80" s="5">
         <v>-2.6072774497494806</v>
       </c>
-      <c r="K80" s="5">
+      <c r="L80" s="5">
         <v>-47.766666666666673</v>
       </c>
-      <c r="L80" s="11">
+      <c r="M80" s="11">
         <v>-1.6037763032745165</v>
       </c>
-      <c r="M80" s="5">
+      <c r="N80" s="5">
         <v>3.3333333333333335</v>
       </c>
-      <c r="N80" s="8">
-        <v>0</v>
-      </c>
-      <c r="O80" s="8">
-        <v>0</v>
-      </c>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="17"/>
-      <c r="T80" s="17"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="16"/>
-      <c r="W80" s="16"/>
+      <c r="O80" s="5">
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="P80" s="5">
+        <v>5.372682460168221</v>
+      </c>
+      <c r="Q80" s="8">
+        <v>0</v>
+      </c>
+      <c r="R80" s="8">
+        <v>0</v>
+      </c>
+      <c r="S80" s="18"/>
+      <c r="T80" s="15"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
       <c r="X80" s="16"/>
       <c r="Y80" s="16"/>
       <c r="Z80" s="16"/>
@@ -5638,8 +6367,11 @@
       <c r="AC80" s="16"/>
       <c r="AD80" s="16"/>
       <c r="AE80" s="16"/>
-    </row>
-    <row r="81" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF80" s="16"/>
+      <c r="AG80" s="16"/>
+      <c r="AH80" s="16"/>
+    </row>
+    <row r="81" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>45566</v>
       </c>
@@ -5652,47 +6384,53 @@
       <c r="D81" s="8">
         <v>4579059.7</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="5">
+        <v>192.49103333333332</v>
+      </c>
+      <c r="F81" s="10">
         <v>138.155</v>
       </c>
-      <c r="F81" s="9">
+      <c r="G81" s="9">
         <v>74.63000000000001</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>120.55</v>
       </c>
-      <c r="H81" s="11">
+      <c r="I81" s="11">
         <v>16.52</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>63.64</v>
       </c>
-      <c r="J81" s="5">
+      <c r="K81" s="5">
         <v>-1.7016448354647633</v>
       </c>
-      <c r="K81" s="5">
+      <c r="L81" s="5">
         <v>-47.366666666666667</v>
       </c>
-      <c r="L81" s="11">
+      <c r="M81" s="11">
         <v>1.7833595099956827</v>
       </c>
-      <c r="M81" s="5">
+      <c r="N81" s="5">
         <v>3.1333333333333329</v>
       </c>
-      <c r="N81" s="8">
-        <v>0</v>
-      </c>
-      <c r="O81" s="8">
-        <v>0</v>
-      </c>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="17"/>
-      <c r="S81" s="17"/>
-      <c r="T81" s="17"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="16"/>
-      <c r="W81" s="16"/>
+      <c r="O81" s="5">
+        <v>3.0333333333333337</v>
+      </c>
+      <c r="P81" s="5">
+        <v>2.352352918662127</v>
+      </c>
+      <c r="Q81" s="8">
+        <v>0</v>
+      </c>
+      <c r="R81" s="8">
+        <v>0</v>
+      </c>
+      <c r="S81" s="18"/>
+      <c r="T81" s="15"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="17"/>
       <c r="X81" s="16"/>
       <c r="Y81" s="16"/>
       <c r="Z81" s="16"/>
@@ -5701,8 +6439,11 @@
       <c r="AC81" s="16"/>
       <c r="AD81" s="16"/>
       <c r="AE81" s="16"/>
-    </row>
-    <row r="82" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF81" s="16"/>
+      <c r="AG81" s="16"/>
+      <c r="AH81" s="16"/>
+    </row>
+    <row r="82" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>45658</v>
       </c>
@@ -5715,47 +6456,53 @@
       <c r="D82" s="8">
         <v>4631838.2</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="5">
+        <v>215.07266666666666</v>
+      </c>
+      <c r="F82" s="10">
         <v>137.303</v>
       </c>
-      <c r="F82" s="9">
+      <c r="G82" s="9">
         <v>75.645666666666671</v>
       </c>
-      <c r="G82" s="3">
+      <c r="H82" s="3">
         <v>121.32</v>
       </c>
-      <c r="H82" s="11">
+      <c r="I82" s="11">
         <v>15.23</v>
       </c>
-      <c r="I82" s="3">
+      <c r="J82" s="3">
         <v>63.75</v>
       </c>
-      <c r="J82" s="5">
+      <c r="K82" s="5">
         <v>3.1984357153723231</v>
       </c>
-      <c r="K82" s="5">
+      <c r="L82" s="5">
         <v>-43.066666666666663</v>
       </c>
-      <c r="L82" s="11">
+      <c r="M82" s="11">
         <v>-1.1536639035252823</v>
       </c>
-      <c r="M82" s="5">
+      <c r="N82" s="5">
         <v>3.4133333333333336</v>
       </c>
-      <c r="N82" s="8">
-        <v>0</v>
-      </c>
-      <c r="O82" s="8">
-        <v>0</v>
-      </c>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="17"/>
-      <c r="T82" s="17"/>
-      <c r="U82" s="16"/>
-      <c r="V82" s="16"/>
-      <c r="W82" s="16"/>
+      <c r="O82" s="5">
+        <v>5</v>
+      </c>
+      <c r="P82" s="5">
+        <v>2.2316889708515131</v>
+      </c>
+      <c r="Q82" s="8">
+        <v>0</v>
+      </c>
+      <c r="R82" s="8">
+        <v>0</v>
+      </c>
+      <c r="S82" s="18"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="17"/>
       <c r="X82" s="16"/>
       <c r="Y82" s="16"/>
       <c r="Z82" s="16"/>
@@ -5764,8 +6511,11 @@
       <c r="AC82" s="16"/>
       <c r="AD82" s="16"/>
       <c r="AE82" s="16"/>
-    </row>
-    <row r="83" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF82" s="16"/>
+      <c r="AG82" s="16"/>
+      <c r="AH82" s="16"/>
+    </row>
+    <row r="83" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>45748</v>
       </c>
@@ -5778,47 +6528,53 @@
       <c r="D83" s="8">
         <v>4672609.5999999996</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="5">
+        <v>237.553</v>
+      </c>
+      <c r="F83" s="10">
         <v>139.11799999999999</v>
       </c>
-      <c r="F83" s="9">
+      <c r="G83" s="9">
         <v>67.800333333333342</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>122.18</v>
       </c>
-      <c r="H83" s="11">
+      <c r="I83" s="11">
         <v>13.45</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>64.900000000000006</v>
       </c>
-      <c r="J83" s="5">
+      <c r="K83" s="5">
         <v>0.67218381986065479</v>
       </c>
-      <c r="K83" s="5">
+      <c r="L83" s="5">
         <v>-45.466666666666669</v>
       </c>
-      <c r="L83" s="11">
+      <c r="M83" s="11">
         <v>1.2873431486908382</v>
       </c>
-      <c r="M83" s="5">
+      <c r="N83" s="5">
         <v>3.3666666666666671</v>
       </c>
-      <c r="N83" s="8">
-        <v>0</v>
-      </c>
-      <c r="O83" s="8">
-        <v>0</v>
-      </c>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="17"/>
-      <c r="S83" s="17"/>
-      <c r="T83" s="17"/>
-      <c r="U83" s="16"/>
-      <c r="V83" s="16"/>
-      <c r="W83" s="16"/>
+      <c r="O83" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="P83" s="5">
+        <v>-3.2270942374299749</v>
+      </c>
+      <c r="Q83" s="8">
+        <v>0</v>
+      </c>
+      <c r="R83" s="8">
+        <v>0</v>
+      </c>
+      <c r="S83" s="18"/>
+      <c r="T83" s="15"/>
+      <c r="U83" s="17"/>
+      <c r="V83" s="17"/>
+      <c r="W83" s="17"/>
       <c r="X83" s="16"/>
       <c r="Y83" s="16"/>
       <c r="Z83" s="16"/>
@@ -5827,459 +6583,503 @@
       <c r="AC83" s="16"/>
       <c r="AD83" s="16"/>
       <c r="AE83" s="16"/>
-    </row>
-    <row r="84" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="AF83" s="16"/>
+      <c r="AG83" s="16"/>
+      <c r="AH83" s="16"/>
+    </row>
+    <row r="84" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="7"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="3"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="3"/>
+      <c r="J84" s="10"/>
       <c r="K84" s="5"/>
-      <c r="L84"/>
-      <c r="N84" s="3"/>
+      <c r="L84" s="5"/>
+      <c r="M84"/>
       <c r="O84" s="5"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="17"/>
-      <c r="R84" s="17"/>
-    </row>
-    <row r="85" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="P84" s="5"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="5"/>
+      <c r="S84"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
+    </row>
+    <row r="85" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="7"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="3"/>
-      <c r="I85" s="10"/>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="E85" s="7"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="3"/>
+      <c r="J85" s="10"/>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="3"/>
-      <c r="I86" s="10"/>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="E86" s="7"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="3"/>
+      <c r="J86" s="10"/>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="3"/>
-      <c r="I87" s="10"/>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="E87" s="7"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="3"/>
+      <c r="J87" s="10"/>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="7"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="3"/>
-      <c r="I88" s="10"/>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="E88" s="7"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="3"/>
+      <c r="J88" s="10"/>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="7"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="3"/>
-      <c r="I89" s="10"/>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="E89" s="7"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="3"/>
+      <c r="J89" s="10"/>
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="3"/>
-      <c r="I90" s="10"/>
-      <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="E90" s="7"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="3"/>
+      <c r="J90" s="10"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="3"/>
-      <c r="I91" s="10"/>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="E91" s="7"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="3"/>
+      <c r="J91" s="10"/>
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="3"/>
-      <c r="I92" s="10"/>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="E92" s="7"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="3"/>
+      <c r="J92" s="10"/>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="3"/>
-      <c r="I93" s="10"/>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="E93" s="7"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="3"/>
+      <c r="J93" s="10"/>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="3"/>
-      <c r="I94" s="10"/>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="E94" s="7"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="3"/>
+      <c r="J94" s="10"/>
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="3"/>
-      <c r="I95" s="10"/>
-      <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="E95" s="7"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="3"/>
+      <c r="J95" s="10"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="3"/>
-      <c r="I96" s="10"/>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E96" s="7"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="3"/>
+      <c r="J96" s="10"/>
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="7"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="3"/>
-      <c r="I97" s="10"/>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E97" s="7"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="3"/>
+      <c r="J97" s="10"/>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="7"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="3"/>
-      <c r="I98" s="10"/>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E98" s="7"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="3"/>
+      <c r="J98" s="10"/>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="3"/>
-      <c r="I99" s="10"/>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E99" s="7"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="3"/>
+      <c r="J99" s="10"/>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="7"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="3"/>
-      <c r="I100" s="10"/>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E100" s="7"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="3"/>
+      <c r="J100" s="10"/>
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="7"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="3"/>
-      <c r="I101" s="10"/>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E101" s="7"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="3"/>
+      <c r="J101" s="10"/>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="7"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="3"/>
-      <c r="I102" s="10"/>
-      <c r="N102" s="3"/>
-    </row>
-    <row r="103" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E102" s="7"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="3"/>
+      <c r="J102" s="10"/>
+      <c r="Q102" s="3"/>
+    </row>
+    <row r="103" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="7"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="3"/>
-      <c r="I103" s="10"/>
-      <c r="N103" s="3"/>
-    </row>
-    <row r="104" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E103" s="7"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="3"/>
+      <c r="J103" s="10"/>
+      <c r="Q103" s="3"/>
+    </row>
+    <row r="104" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="7"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="3"/>
-      <c r="I104" s="10"/>
-      <c r="N104" s="3"/>
-    </row>
-    <row r="105" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E104" s="7"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="3"/>
+      <c r="J104" s="10"/>
+      <c r="Q104" s="3"/>
+    </row>
+    <row r="105" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="7"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="3"/>
-      <c r="I105" s="10"/>
-      <c r="N105" s="3"/>
-    </row>
-    <row r="106" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E105" s="7"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="3"/>
+      <c r="J105" s="10"/>
+      <c r="Q105" s="3"/>
+    </row>
+    <row r="106" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="7"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="3"/>
-      <c r="I106" s="10"/>
-      <c r="N106" s="3"/>
-    </row>
-    <row r="107" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E106" s="7"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="3"/>
+      <c r="J106" s="10"/>
+      <c r="Q106" s="3"/>
+    </row>
+    <row r="107" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="7"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="3"/>
-      <c r="I107" s="10"/>
-      <c r="N107" s="3"/>
-    </row>
-    <row r="108" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E107" s="7"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="3"/>
+      <c r="J107" s="10"/>
+      <c r="Q107" s="3"/>
+    </row>
+    <row r="108" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="7"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="3"/>
-      <c r="I108" s="10"/>
-      <c r="N108" s="3"/>
-    </row>
-    <row r="109" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E108" s="7"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="3"/>
+      <c r="J108" s="10"/>
+      <c r="Q108" s="3"/>
+    </row>
+    <row r="109" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="7"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="3"/>
-      <c r="I109" s="10"/>
-      <c r="N109" s="3"/>
-    </row>
-    <row r="110" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E109" s="7"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="3"/>
+      <c r="J109" s="10"/>
+      <c r="Q109" s="3"/>
+    </row>
+    <row r="110" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="7"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="3"/>
-      <c r="I110" s="10"/>
-      <c r="N110" s="3"/>
-    </row>
-    <row r="111" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E110" s="7"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="3"/>
+      <c r="J110" s="10"/>
+      <c r="Q110" s="3"/>
+    </row>
+    <row r="111" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="7"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="3"/>
-      <c r="I111" s="10"/>
-      <c r="N111" s="3"/>
-    </row>
-    <row r="112" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E111" s="7"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="3"/>
+      <c r="J111" s="10"/>
+      <c r="Q111" s="3"/>
+    </row>
+    <row r="112" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="7"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="3"/>
-      <c r="I112" s="10"/>
-      <c r="N112" s="3"/>
-    </row>
-    <row r="113" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E112" s="7"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="3"/>
+      <c r="J112" s="10"/>
+      <c r="Q112" s="3"/>
+    </row>
+    <row r="113" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="7"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="3"/>
-      <c r="I113" s="10"/>
-      <c r="N113" s="3"/>
-    </row>
-    <row r="114" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E113" s="7"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="3"/>
+      <c r="J113" s="10"/>
+      <c r="Q113" s="3"/>
+    </row>
+    <row r="114" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="7"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="3"/>
-      <c r="I114" s="10"/>
-      <c r="N114" s="3"/>
-    </row>
-    <row r="115" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E114" s="7"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="3"/>
+      <c r="J114" s="10"/>
+      <c r="Q114" s="3"/>
+    </row>
+    <row r="115" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="7"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="3"/>
-      <c r="I115" s="10"/>
-      <c r="N115" s="3"/>
-    </row>
-    <row r="116" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E115" s="7"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="3"/>
+      <c r="J115" s="10"/>
+      <c r="Q115" s="3"/>
+    </row>
+    <row r="116" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="7"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="3"/>
-      <c r="I116" s="10"/>
-      <c r="N116" s="3"/>
-    </row>
-    <row r="117" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E116" s="7"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="3"/>
+      <c r="J116" s="10"/>
+      <c r="Q116" s="3"/>
+    </row>
+    <row r="117" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="7"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="3"/>
-      <c r="I117" s="10"/>
-      <c r="N117" s="3"/>
-    </row>
-    <row r="118" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E117" s="7"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="3"/>
+      <c r="J117" s="10"/>
+      <c r="Q117" s="3"/>
+    </row>
+    <row r="118" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="7"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="3"/>
-      <c r="I118" s="10"/>
-      <c r="N118" s="3"/>
-    </row>
-    <row r="119" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E118" s="7"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="3"/>
+      <c r="J118" s="10"/>
+      <c r="Q118" s="3"/>
+    </row>
+    <row r="119" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="7"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="3"/>
-      <c r="I119" s="10"/>
-      <c r="N119" s="3"/>
-    </row>
-    <row r="120" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E119" s="7"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="3"/>
+      <c r="J119" s="10"/>
+      <c r="Q119" s="3"/>
+    </row>
+    <row r="120" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="7"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="3"/>
-      <c r="I120" s="10"/>
-      <c r="N120" s="3"/>
-    </row>
-    <row r="121" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E120" s="7"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="3"/>
+      <c r="J120" s="10"/>
+      <c r="Q120" s="3"/>
+    </row>
+    <row r="121" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="7"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="3"/>
-      <c r="I121" s="10"/>
-      <c r="N121" s="3"/>
-    </row>
-    <row r="122" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="E121" s="7"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="3"/>
+      <c r="J121" s="10"/>
+      <c r="Q121" s="3"/>
+    </row>
+    <row r="122" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="12"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="3"/>
-      <c r="N122" s="3"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F122" s="3"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="3"/>
+      <c r="Q122" s="3"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="12"/>
       <c r="B123" s="3"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="12"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="12"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="12"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="12"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="12"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
